--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -66,19 +71,77 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Run：3.2km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現状</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目標</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>差分</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：カレー　夜：むね肉とスープ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食事備考</t>
+    <rPh sb="0" eb="2">
+      <t>ショクジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運動備考</t>
+    <rPh sb="0" eb="2">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="0.0%&quot;以下&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.0&quot;kg以下&quot;"/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.0%&quot;以下&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0&quot;kg以下&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +250,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -196,26 +277,8 @@
     <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -229,17 +292,37 @@
       <color rgb="FF8A6900"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -277,7 +360,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -456,6 +539,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -645,13 +729,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="125225216"/>
-        <c:axId val="206214272"/>
+        <c:smooth val="0"/>
+        <c:axId val="287277920"/>
+        <c:axId val="287269760"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -695,7 +790,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -871,69 +966,92 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="206840960"/>
-        <c:axId val="206215808"/>
+        <c:smooth val="0"/>
+        <c:axId val="287271392"/>
+        <c:axId val="287264864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="125225216"/>
+        <c:axId val="287277920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206214272"/>
+        <c:crossAx val="287269760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="206214272"/>
+        <c:axId val="287269760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125225216"/>
+        <c:crossAx val="287277920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206215808"/>
+        <c:axId val="287264864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
           <c:min val="0.2"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206840960"/>
+        <c:crossAx val="287271392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000027E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="206840960"/>
+        <c:axId val="287271392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="206215808"/>
+        <c:crossAx val="287264864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:spPr>
         <a:noFill/>
@@ -942,7 +1060,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -954,12 +1076,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -969,7 +1103,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>体重</c:v>
+                  <c:v>現状</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -997,7 +1131,7 @@
             <c:numRef>
               <c:f>MATSUZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1173,16 +1307,20 @@
                 <c:pt idx="0">
                   <c:v>67.5</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>MATSUZAP!$E$4</c:f>
+              <c:f>MATSUZAP!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1196,473 +1334,238 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MATSUZAP!$E$5:$E$58</c:f>
+              <c:f>MATSUZAP!$D$5:$D$58</c:f>
               <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>62.9</c:v>
+                  <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.9</c:v>
+                  <c:v>67.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.9</c:v>
+                  <c:v>67.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.9</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.9</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.9</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.9</c:v>
+                  <c:v>66.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.9</c:v>
+                  <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.9</c:v>
+                  <c:v>66.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.9</c:v>
+                  <c:v>66.600000000000094</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62.9</c:v>
+                  <c:v>66.500000000000099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62.9</c:v>
+                  <c:v>66.400000000000105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62.9</c:v>
+                  <c:v>66.300000000000097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62.9</c:v>
+                  <c:v>66.200000000000102</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62.9</c:v>
+                  <c:v>66.100000000000094</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>62.9</c:v>
+                  <c:v>66.000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62.9</c:v>
+                  <c:v>65.900000000000105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62.9</c:v>
+                  <c:v>65.800000000000097</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62.9</c:v>
+                  <c:v>65.700000000000102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>62.9</c:v>
+                  <c:v>65.600000000000094</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.9</c:v>
+                  <c:v>65.500000000000099</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.9</c:v>
+                  <c:v>65.400000000000105</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62.9</c:v>
+                  <c:v>65.300000000000097</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62.9</c:v>
+                  <c:v>65.200000000000102</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.9</c:v>
+                  <c:v>65.100000000000094</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>62.9</c:v>
+                  <c:v>65.000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62.9</c:v>
+                  <c:v>64.900000000000105</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>62.9</c:v>
+                  <c:v>64.800000000000097</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>62.9</c:v>
+                  <c:v>64.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>62.9</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62.9</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>62.9</c:v>
+                  <c:v>64.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62.9</c:v>
+                  <c:v>64.3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62.9</c:v>
+                  <c:v>64.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>62.9</c:v>
+                  <c:v>64.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>62.9</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>62.9</c:v>
+                  <c:v>63.9</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62.9</c:v>
+                  <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62.9</c:v>
+                  <c:v>63.7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>62.9</c:v>
+                  <c:v>63.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>62.9</c:v>
+                  <c:v>63.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>62.9</c:v>
+                  <c:v>63.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>62.9</c:v>
+                  <c:v>63.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62.9</c:v>
+                  <c:v>63.4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62.9</c:v>
+                  <c:v>63.31</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>62.9</c:v>
+                  <c:v>63.31</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>62.9</c:v>
+                  <c:v>63.23</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>62.9</c:v>
+                  <c:v>63.23</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>62.9</c:v>
+                  <c:v>63.11</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>62.9</c:v>
+                  <c:v>63.11</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>62.9</c:v>
+                  <c:v>63.03</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>62.9</c:v>
+                  <c:v>62.99</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>62.9</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.9</c:v>
+                  <c:v>62.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="208114816"/>
-        <c:axId val="208116736"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MATSUZAP!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>体脂肪率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>MATSUZAP!$B$5:$B$58</c:f>
-              <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>42375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42376</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42378</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42379</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42380</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42381</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42382</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42383</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42384</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42385</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42386</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42387</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42388</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42389</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42390</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42391</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42392</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42393</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42394</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42395</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42396</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42397</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42398</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42400</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42401</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42402</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42403</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42404</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42405</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42406</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42407</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42408</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42409</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42410</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42411</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42412</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42413</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42414</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42415</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42416</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42417</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42418</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>42419</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42420</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>42421</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42422</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>42423</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>42424</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>42425</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>42426</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>42427</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>42428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MATSUZAP!$D$5:$D$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="54"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="208221312"/>
-        <c:axId val="208172160"/>
+        <c:smooth val="0"/>
+        <c:axId val="287265952"/>
+        <c:axId val="287266496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="208114816"/>
+        <c:axId val="287265952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208116736"/>
+        <c:crossAx val="287266496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="208116736"/>
+        <c:axId val="287266496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208114816"/>
+        <c:crossAx val="287265952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="208172160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.25"/>
-          <c:min val="0.15000000000000002"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208221312"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000044E-3"/>
-      </c:valAx>
-      <c:dateAx>
-        <c:axId val="208221312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="208172160"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-      </c:dateAx>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1674,12 +1577,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1717,7 +1632,7 @@
             <c:numRef>
               <c:f>SHIGEZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1899,13 +1814,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="54514048"/>
-        <c:axId val="54515584"/>
+        <c:smooth val="0"/>
+        <c:axId val="287267584"/>
+        <c:axId val="287263232"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1949,7 +1875,7 @@
             <c:numRef>
               <c:f>SHIGEZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2131,6 +2057,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2320,68 +2247,92 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="61063168"/>
-        <c:axId val="60209792"/>
+        <c:smooth val="0"/>
+        <c:axId val="287270304"/>
+        <c:axId val="287275200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="54514048"/>
+        <c:axId val="287267584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54515584"/>
+        <c:crossAx val="287263232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54515584"/>
+        <c:axId val="287263232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54514048"/>
+        <c:crossAx val="287267584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60209792"/>
+        <c:axId val="287275200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000001"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61063168"/>
+        <c:crossAx val="287270304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="61063168"/>
+        <c:axId val="287270304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="60209792"/>
+        <c:crossAx val="287275200"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:spPr>
         <a:noFill/>
@@ -2390,7 +2341,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2478,16 +2433,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>876298</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2514,8 +2469,8 @@
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>300814</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300815</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1190625</xdr:rowOff>
     </xdr:to>
@@ -2665,7 +2620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2697,9 +2652,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2731,6 +2687,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2906,14 +2863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2921,692 +2878,692 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" customHeight="1">
+    <row r="1" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="2:12" ht="95.25" customHeight="1">
-      <c r="H2" s="4" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="2:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="11">
         <v>88.9</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="2:12" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:12">
-      <c r="B4" s="10" t="s">
+    <row r="3" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="6">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="3">
         <v>42375</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>95.5</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="12">
+      <c r="D5" s="5"/>
+      <c r="E5" s="8">
         <f>$J$2</f>
         <v>88.9</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="6">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
         <v>42376</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8">
         <f t="shared" ref="E6:E58" si="0">$J$2</f>
         <v>88.9</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="6">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
         <v>42377</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="6">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
         <v>42378</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="6">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
         <v>42379</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="6">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
         <v>42380</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="6">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
         <v>42381</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="6">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
         <v>42382</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="6">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
         <v>42383</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="6">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
         <v>42384</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="6">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
         <v>42385</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="6">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
         <v>42386</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="6">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
         <v>42387</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="6">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
         <v>42388</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="6">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
         <v>42389</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="6">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
         <v>42390</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="6">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
         <v>42391</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="6">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
         <v>42392</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="6">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
         <v>42393</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="6">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
         <v>42394</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="6">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
         <v>42395</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="6">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
         <v>42396</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="6">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
         <v>42397</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="6">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
         <v>42398</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="6">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
         <v>42399</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="6">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
         <v>42400</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="6">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
         <v>42401</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="6">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
         <v>42402</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="6">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
         <v>42403</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="6">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
         <v>42404</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="6">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
         <v>42405</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="6">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
         <v>42406</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="6">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
         <v>42407</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="6">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
         <v>42408</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="6">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
         <v>42409</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="6">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
         <v>42410</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="6">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
         <v>42411</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="6">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
         <v>42412</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="6">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
         <v>42413</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="6">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
         <v>42414</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="6">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="3">
         <v>42415</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="6">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
         <v>42416</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="6">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
         <v>42417</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="6">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="3">
         <v>42418</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="6">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="3">
         <v>42419</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="6">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="3">
         <v>42420</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="6">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="3">
         <v>42421</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="6">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="3">
         <v>42422</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="6">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="3">
         <v>42423</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="6">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="3">
         <v>42424</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="6">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="3">
         <v>42425</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="6">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="3">
         <v>42426</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="6">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="3">
         <v>42427</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="6">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="3">
         <v>42428</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F58" s="7"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3622,713 +3579,731 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" customHeight="1">
-      <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+    <row r="1" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J1" s="2"/>
+      <c r="K1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="2:12" ht="95.25" customHeight="1">
-      <c r="H2" s="4" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="2:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="11">
+      <c r="J2" s="10"/>
+      <c r="K2" s="11">
         <v>62.9</v>
       </c>
-      <c r="K2" s="11"/>
       <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="2:12" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:12">
-      <c r="B4" s="10" t="s">
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="3">
+        <v>42375</v>
+      </c>
+      <c r="C5" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="E5" s="8">
+        <f>D5-C5</f>
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="6">
-        <v>42375</v>
-      </c>
-      <c r="C5" s="7">
-        <v>67.5</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="12">
-        <f>$J$2</f>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
+        <v>42376</v>
+      </c>
+      <c r="C6" s="4">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="E6" s="8">
+        <f>D6-C6</f>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
+        <v>42377</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>67.3</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
+        <v>42378</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>67.2</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
+        <v>42379</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
+        <v>42380</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>67</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>42381</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>42382</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>66.8</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>42383</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>66.7</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
+        <v>42384</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>66.600000000000094</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
+        <v>42385</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>66.500000000000099</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
+        <v>42386</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>66.400000000000105</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>42387</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>66.300000000000097</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
+        <v>42388</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>66.200000000000102</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <v>42389</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>66.100000000000094</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
+        <v>42390</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>66.000000000000099</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
+        <v>42391</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>65.900000000000105</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
+        <v>42392</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>65.800000000000097</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>42393</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
+        <v>65.700000000000102</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
+        <v>42394</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
+        <v>65.600000000000094</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
+        <v>42395</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
+        <v>65.500000000000099</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
+        <v>42396</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
+        <v>65.400000000000105</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
+        <v>42397</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <v>65.300000000000097</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
+        <v>42398</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>65.200000000000102</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
+        <v>42399</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
+        <v>65.100000000000094</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
+        <v>42400</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
+        <v>65.000000000000099</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
+        <v>42401</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
+        <v>64.900000000000105</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
+        <v>42402</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>64.800000000000097</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
+        <v>42403</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>64.7</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
+        <v>42404</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
+        <v>42405</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
+        <v>64.5</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
+        <v>42406</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
+        <v>42407</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
+        <v>42408</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <v>64.2</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
+        <v>42409</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
+        <v>42410</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4">
+        <v>64</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
+        <v>42411</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4">
+        <v>63.9</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
+        <v>42412</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4">
+        <v>63.8</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
+        <v>42413</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4">
+        <v>63.7</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
+        <v>42414</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4">
+        <v>63.6</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="3">
+        <v>42415</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
+        <v>42416</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
+        <v>42417</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
+        <v>63.4</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="3">
+        <v>42418</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4">
+        <v>63.4</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="3">
+        <v>42419</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4">
+        <v>63.31</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="3">
+        <v>42420</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4">
+        <v>63.31</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="3">
+        <v>42421</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4">
+        <v>63.23</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="3">
+        <v>42422</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4">
+        <v>63.23</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53" s="3">
+        <v>42423</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4">
+        <v>63.11</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="3">
+        <v>42424</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4">
+        <v>63.11</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B55" s="3">
+        <v>42425</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4">
+        <v>63.03</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B56" s="3">
+        <v>42426</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4">
+        <v>62.99</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B57" s="3">
+        <v>42427</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4">
         <v>62.9</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="6">
-        <v>42376</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12">
-        <f t="shared" ref="E6:E58" si="0">$J$2</f>
-        <v>62.9</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="6">
-        <v>42377</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="6">
-        <v>42378</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="6">
-        <v>42379</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="6">
-        <v>42380</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="6">
-        <v>42381</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="6">
-        <v>42382</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="6">
-        <v>42383</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="6">
-        <v>42384</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="6">
-        <v>42385</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="6">
-        <v>42386</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="6">
-        <v>42387</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="6">
-        <v>42388</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="6">
-        <v>42389</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="6">
-        <v>42390</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="6">
-        <v>42391</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="6">
-        <v>42392</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="6">
-        <v>42393</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="6">
-        <v>42394</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="6">
-        <v>42395</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="6">
-        <v>42396</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="6">
-        <v>42397</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="6">
-        <v>42398</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="6">
-        <v>42399</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="6">
-        <v>42400</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="6">
-        <v>42401</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="6">
-        <v>42402</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="6">
-        <v>42403</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="6">
-        <v>42404</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="6">
-        <v>42405</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="6">
-        <v>42406</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="6">
-        <v>42407</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="6">
-        <v>42408</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="6">
-        <v>42409</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="6">
-        <v>42410</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="6">
-        <v>42411</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="6">
-        <v>42412</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="6">
-        <v>42413</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="6">
-        <v>42414</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="6">
-        <v>42415</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="6">
-        <v>42416</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="6">
-        <v>42417</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="6">
-        <v>42418</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="6">
-        <v>42419</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="6">
-        <v>42420</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="6">
-        <v>42421</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="6">
-        <v>42422</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="6">
-        <v>42423</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="6">
-        <v>42424</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="6">
-        <v>42425</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="6">
-        <v>42426</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="6">
-        <v>42427</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="6">
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B58" s="3">
         <v>42428</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F58" s="7"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4">
+        <v>62.8</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4338,14 +4313,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -4353,702 +4328,702 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" customHeight="1">
+    <row r="1" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="2:12" ht="95.25" customHeight="1">
-      <c r="H2" s="4" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="2:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:12">
-      <c r="B4" s="10" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="12">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="6">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="3">
         <v>42375</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>70</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <f>$J$2</f>
         <v>0.17899999999999999</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="6">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
         <v>42376</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>69.599999999999994</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>0.184</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <f t="shared" ref="E6:E58" si="0">$J$2</f>
         <v>0.17899999999999999</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="6">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
         <v>42377</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="6">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
         <v>42378</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="6">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
         <v>42379</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="6">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
         <v>42380</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="6">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
         <v>42381</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="6">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
         <v>42382</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="6">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
         <v>42383</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="6">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
         <v>42384</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="6">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
         <v>42385</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="6">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
         <v>42386</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="6">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
         <v>42387</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="6">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
         <v>42388</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="6">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
         <v>42389</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="6">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
         <v>42390</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="6">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
         <v>42391</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="6">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
         <v>42392</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="6">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
         <v>42393</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="6">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
         <v>42394</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="6">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
         <v>42395</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="6">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
         <v>42396</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="6">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
         <v>42397</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="6">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
         <v>42398</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="6">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
         <v>42399</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="6">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
         <v>42400</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="6">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
         <v>42401</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="6">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
         <v>42402</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="6">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
         <v>42403</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="6">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
         <v>42404</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="6">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
         <v>42405</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="6">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
         <v>42406</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="6">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
         <v>42407</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="6">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
         <v>42408</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="6">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
         <v>42409</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="6">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
         <v>42410</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="6">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
         <v>42411</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="6">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
         <v>42412</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="6">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
         <v>42413</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="6">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
         <v>42414</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="6">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="3">
         <v>42415</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="6">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
         <v>42416</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="6">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
         <v>42417</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="6">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="3">
         <v>42418</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="6">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="3">
         <v>42419</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="6">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="3">
         <v>42420</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="6">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="3">
         <v>42421</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="6">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="3">
         <v>42422</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="6">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="3">
         <v>42423</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="6">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="3">
         <v>42424</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="6">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="3">
         <v>42425</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="6">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="3">
         <v>42426</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="6">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="3">
         <v>42427</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="6">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="3">
         <v>42428</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F58" s="7"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870"/>
@@ -11,12 +11,12 @@
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -66,19 +66,23 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ざっくり</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="0.0%&quot;以下&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.0&quot;kg以下&quot;"/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.0%&quot;以下&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0&quot;kg以下&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +191,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -196,26 +218,8 @@
     <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -229,17 +233,34 @@
       <color rgb="FF8A6900"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -277,7 +298,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -456,6 +477,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -645,13 +667,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="125225216"/>
-        <c:axId val="206214272"/>
+        <c:smooth val="0"/>
+        <c:axId val="185311616"/>
+        <c:axId val="185313536"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -695,7 +728,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -868,72 +901,98 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="206840960"/>
-        <c:axId val="206215808"/>
+        <c:smooth val="0"/>
+        <c:axId val="185603584"/>
+        <c:axId val="185602048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="125225216"/>
+        <c:axId val="185311616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206214272"/>
+        <c:crossAx val="185313536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="206214272"/>
+        <c:axId val="185313536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125225216"/>
+        <c:crossAx val="185311616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206215808"/>
+        <c:axId val="185602048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
           <c:min val="0.2"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206840960"/>
+        <c:crossAx val="185603584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000027E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="206840960"/>
+        <c:axId val="185603584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="206215808"/>
+        <c:crossAx val="185602048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:spPr>
         <a:noFill/>
@@ -942,7 +1001,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -954,12 +1017,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -997,7 +1072,7 @@
             <c:numRef>
               <c:f>MATSUZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1176,6 +1251,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1365,13 +1441,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="208114816"/>
-        <c:axId val="208116736"/>
+        <c:smooth val="0"/>
+        <c:axId val="185749888"/>
+        <c:axId val="185751808"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1415,7 +1502,7 @@
             <c:numRef>
               <c:f>MATSUZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1591,69 +1678,92 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="208221312"/>
-        <c:axId val="208172160"/>
+        <c:smooth val="0"/>
+        <c:axId val="185755136"/>
+        <c:axId val="185753600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="208114816"/>
+        <c:axId val="185749888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208116736"/>
+        <c:crossAx val="185751808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="208116736"/>
+        <c:axId val="185751808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208114816"/>
+        <c:crossAx val="185749888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208172160"/>
+        <c:axId val="185753600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
           <c:min val="0.15000000000000002"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208221312"/>
+        <c:crossAx val="185755136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000044E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="208221312"/>
+        <c:axId val="185755136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="208172160"/>
+        <c:crossAx val="185753600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:spPr>
         <a:noFill/>
@@ -1661,8 +1771,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1674,12 +1787,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1717,7 +1842,7 @@
             <c:numRef>
               <c:f>SHIGEZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1899,13 +2024,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="54514048"/>
-        <c:axId val="54515584"/>
+        <c:smooth val="0"/>
+        <c:axId val="186134912"/>
+        <c:axId val="186136448"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1949,7 +2085,7 @@
             <c:numRef>
               <c:f>SHIGEZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2131,6 +2267,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2320,68 +2457,92 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="61063168"/>
-        <c:axId val="60209792"/>
+        <c:smooth val="0"/>
+        <c:axId val="186143872"/>
+        <c:axId val="186137984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="54514048"/>
+        <c:axId val="186134912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54515584"/>
+        <c:crossAx val="186136448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54515584"/>
+        <c:axId val="186136448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54514048"/>
+        <c:crossAx val="186134912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60209792"/>
+        <c:axId val="186137984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000001"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61063168"/>
+        <c:crossAx val="186143872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="61063168"/>
+        <c:axId val="186143872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="60209792"/>
+        <c:crossAx val="186137984"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:spPr>
         <a:noFill/>
@@ -2389,8 +2550,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2623,7 +2787,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2697,6 +2861,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2731,6 +2896,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2906,14 +3072,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2921,692 +3087,696 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" customHeight="1">
+    <row r="1" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="2:12" ht="95.25" customHeight="1">
-      <c r="H2" s="4" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="2:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="11">
         <v>88.9</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="2:12" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:12">
-      <c r="B4" s="10" t="s">
+    <row r="3" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="6">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="3">
         <v>42375</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>95.5</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="12">
+      <c r="D5" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E5" s="8">
         <f>$J$2</f>
         <v>88.9</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="6">
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
         <v>42376</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8">
         <f t="shared" ref="E6:E58" si="0">$J$2</f>
         <v>88.9</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="6">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
         <v>42377</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="6">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
         <v>42378</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="6">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
         <v>42379</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="6">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
         <v>42380</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="6">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
         <v>42381</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="6">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
         <v>42382</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="6">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
         <v>42383</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="6">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
         <v>42384</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="6">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
         <v>42385</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="6">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
         <v>42386</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="6">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
         <v>42387</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="6">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
         <v>42388</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="6">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
         <v>42389</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="6">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
         <v>42390</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="6">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
         <v>42391</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="6">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
         <v>42392</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="6">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
         <v>42393</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="6">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
         <v>42394</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="6">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
         <v>42395</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="6">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
         <v>42396</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="6">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
         <v>42397</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="6">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
         <v>42398</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="6">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
         <v>42399</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="6">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
         <v>42400</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="6">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
         <v>42401</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="6">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
         <v>42402</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="6">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
         <v>42403</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="6">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
         <v>42404</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="6">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
         <v>42405</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="6">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
         <v>42406</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="6">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
         <v>42407</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="6">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
         <v>42408</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="6">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
         <v>42409</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="6">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
         <v>42410</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="6">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
         <v>42411</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="6">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
         <v>42412</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="6">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
         <v>42413</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="6">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
         <v>42414</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="6">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="3">
         <v>42415</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="6">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
         <v>42416</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="6">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
         <v>42417</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="6">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="3">
         <v>42418</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="6">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="3">
         <v>42419</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="6">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="3">
         <v>42420</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="6">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="3">
         <v>42421</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="6">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="3">
         <v>42422</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="6">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="3">
         <v>42423</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="6">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="3">
         <v>42424</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="6">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="3">
         <v>42425</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="6">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="3">
         <v>42426</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="6">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="3">
         <v>42427</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="6">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="3">
         <v>42428</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="12">
-        <f t="shared" si="0"/>
-        <v>88.9</v>
-      </c>
-      <c r="F58" s="7"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="8">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3622,14 +3792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -3637,692 +3807,692 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" customHeight="1">
+    <row r="1" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="2:12" ht="95.25" customHeight="1">
-      <c r="H2" s="4" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="2:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="11">
         <v>62.9</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="2:12" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:12">
-      <c r="B4" s="10" t="s">
+    <row r="3" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="6">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="3">
         <v>42375</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>67.5</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="12">
+      <c r="D5" s="5"/>
+      <c r="E5" s="8">
         <f>$J$2</f>
         <v>62.9</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="6">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
         <v>42376</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8">
         <f t="shared" ref="E6:E58" si="0">$J$2</f>
         <v>62.9</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="6">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
         <v>42377</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="6">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
         <v>42378</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="6">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
         <v>42379</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="6">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
         <v>42380</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="6">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
         <v>42381</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="6">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
         <v>42382</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="6">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
         <v>42383</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="6">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
         <v>42384</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="6">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
         <v>42385</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="6">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
         <v>42386</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="6">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
         <v>42387</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="6">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
         <v>42388</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="6">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
         <v>42389</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="6">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
         <v>42390</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="6">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
         <v>42391</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="6">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
         <v>42392</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="6">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
         <v>42393</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="6">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
         <v>42394</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="6">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
         <v>42395</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="6">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
         <v>42396</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="6">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
         <v>42397</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="6">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
         <v>42398</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="6">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
         <v>42399</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="6">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
         <v>42400</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="6">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
         <v>42401</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="6">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
         <v>42402</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="6">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
         <v>42403</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="6">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
         <v>42404</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="6">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
         <v>42405</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="6">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
         <v>42406</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="6">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
         <v>42407</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="6">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
         <v>42408</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="6">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
         <v>42409</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="6">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
         <v>42410</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="6">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
         <v>42411</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="6">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
         <v>42412</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="6">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
         <v>42413</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="6">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
         <v>42414</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="6">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="3">
         <v>42415</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="6">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
         <v>42416</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="6">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
         <v>42417</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="6">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="3">
         <v>42418</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="6">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="3">
         <v>42419</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="6">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="3">
         <v>42420</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="6">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="3">
         <v>42421</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="6">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="3">
         <v>42422</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="6">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="3">
         <v>42423</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="6">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="3">
         <v>42424</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="6">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="3">
         <v>42425</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="6">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="3">
         <v>42426</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="6">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="3">
         <v>42427</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="6">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="3">
         <v>42428</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="12">
-        <f t="shared" si="0"/>
-        <v>62.9</v>
-      </c>
-      <c r="F58" s="7"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="8">
+        <f t="shared" si="0"/>
+        <v>62.9</v>
+      </c>
+      <c r="F58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4338,14 +4508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -4353,702 +4523,702 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" customHeight="1">
+    <row r="1" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="2:12" ht="95.25" customHeight="1">
-      <c r="H2" s="4" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="2:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:12">
-      <c r="B4" s="10" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="12">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="6">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="3">
         <v>42375</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>70</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <f>$J$2</f>
         <v>0.17899999999999999</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="6">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
         <v>42376</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>69.599999999999994</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>0.184</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <f t="shared" ref="E6:E58" si="0">$J$2</f>
         <v>0.17899999999999999</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="6">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
         <v>42377</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="6">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
         <v>42378</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="6">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
         <v>42379</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="6">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
         <v>42380</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="6">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
         <v>42381</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="6">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
         <v>42382</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="6">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
         <v>42383</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="6">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
         <v>42384</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="6">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
         <v>42385</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="6">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
         <v>42386</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="6">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
         <v>42387</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="6">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
         <v>42388</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="6">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
         <v>42389</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="6">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
         <v>42390</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="6">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
         <v>42391</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="6">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
         <v>42392</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="6">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
         <v>42393</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="6">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
         <v>42394</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="6">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
         <v>42395</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="6">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
         <v>42396</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="6">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
         <v>42397</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="6">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
         <v>42398</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="6">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
         <v>42399</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="6">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
         <v>42400</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="6">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
         <v>42401</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="6">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
         <v>42402</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="6">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
         <v>42403</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="6">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
         <v>42404</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="6">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
         <v>42405</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="6">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
         <v>42406</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="6">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
         <v>42407</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="6">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
         <v>42408</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="6">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
         <v>42409</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="6">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
         <v>42410</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="6">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
         <v>42411</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="6">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
         <v>42412</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="6">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
         <v>42413</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="6">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
         <v>42414</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="6">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="3">
         <v>42415</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="6">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
         <v>42416</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="6">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
         <v>42417</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="6">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="3">
         <v>42418</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="6">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="3">
         <v>42419</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="6">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="3">
         <v>42420</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="6">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="3">
         <v>42421</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="6">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="3">
         <v>42422</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="6">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="3">
         <v>42423</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="6">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="3">
         <v>42424</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="6">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="3">
         <v>42425</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="6">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="3">
         <v>42426</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="6">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="3">
         <v>42427</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="6">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="3">
         <v>42428</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F58" s="7"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -40,20 +35,6 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>朝</t>
-    <rPh sb="0" eb="1">
-      <t>アサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>夜</t>
-    <rPh sb="0" eb="1">
-      <t>ヨル</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -129,19 +110,191 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>朝食</t>
+    <rPh sb="0" eb="2">
+      <t>チョウショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼食</t>
+    <rPh sb="0" eb="2">
+      <t>チュウショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夕食</t>
+    <rPh sb="0" eb="2">
+      <t>ユウショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弁当</t>
+    <rPh sb="0" eb="2">
+      <t>ベントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運動</t>
+    <rPh sb="0" eb="2">
+      <t>ウンドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>親子丼、もやしサラダ、
+ウインナーと白菜のスープ</t>
+    <rPh sb="0" eb="3">
+      <t>オヤコドン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハクサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>肉まん２個、
+ピザまん１個</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トースト
+（巨峰ジャム）</t>
+    <rPh sb="6" eb="8">
+      <t>キョホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ご飯、チキン南蛮、サラダ、
+玉ねぎとわかめの味噌汁</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナンバン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ミソシル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>腕立て・腹筋・背筋・
+スクワット10回×1セット
+ジョギング3.2キロ</t>
+    <rPh sb="0" eb="2">
+      <t>ウデタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フッキン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイキン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>体年齢</t>
+    <rPh sb="0" eb="3">
+      <t>カラダネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30才</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>28才</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーズトースト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピザ
+パスタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>朝計測
+アイスを我慢した</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜計測
+アイスを嫁に食べられた</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨメ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.0%&quot;以下&quot;"/>
     <numFmt numFmtId="179" formatCode="0.0&quot;kg以下&quot;"/>
     <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="181" formatCode="m/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,6 +433,18 @@
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -305,24 +470,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -360,7 +513,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -539,7 +692,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -729,24 +881,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="287277920"/>
-        <c:axId val="287269760"/>
+        <c:axId val="66932736"/>
+        <c:axId val="66934272"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -790,7 +932,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -966,88 +1108,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="287271392"/>
-        <c:axId val="287264864"/>
+        <c:axId val="66937216"/>
+        <c:axId val="66935424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="287277920"/>
+        <c:axId val="66932736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287269760"/>
+        <c:crossAx val="66934272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="287269760"/>
+        <c:axId val="66934272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287277920"/>
+        <c:crossAx val="66932736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="287264864"/>
+        <c:axId val="66935424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.30000000000000004"/>
+          <c:max val="0.3000000000000001"/>
           <c:min val="0.2"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287271392"/>
+        <c:crossAx val="66937216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000027E-3"/>
+        <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="287271392"/>
+        <c:axId val="66937216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="287264864"/>
+        <c:crossAx val="66935424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1060,15 +1182,12 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1076,24 +1195,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1131,7 +1238,7 @@
             <c:numRef>
               <c:f>MATSUZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1313,7 +1420,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1503,53 +1609,38 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="287265952"/>
-        <c:axId val="287266496"/>
+        <c:axId val="66946944"/>
+        <c:axId val="66948480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="287265952"/>
+        <c:axId val="66946944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287266496"/>
+        <c:crossAx val="66948480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="287266496"/>
+        <c:axId val="66948480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287265952"/>
+        <c:crossAx val="66946944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1561,15 +1652,12 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1577,30 +1665,18 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SHIGEZAP!$C$4</c:f>
+              <c:f>SHIGEZAP!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1630,181 +1706,187 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SHIGEZAP!$B$5:$B$58</c:f>
+              <c:f>SHIGEZAP!$B$5:$B$60</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:formatCode>m/d</c:formatCode>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
+                  <c:v>42374</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>42375</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>42376</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>42377</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>42378</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>42379</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>42380</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>42381</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>42382</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>42383</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>42384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>42385</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>42386</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>42387</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>42388</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>42389</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>42390</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>42391</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>42392</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>42393</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>42394</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>42395</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>42396</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>42397</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>42398</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>42399</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>42400</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>42401</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>42402</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>42403</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>42404</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>42405</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>42406</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>42407</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>42408</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>42409</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>42410</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>42411</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>42412</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>42413</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>42414</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>42415</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42416</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>42417</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>42418</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>42419</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>42420</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>42421</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>42422</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>42423</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>42424</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>42425</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>42426</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>42427</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>42428</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SHIGEZAP!$C$5:$C$58</c:f>
+              <c:f>SHIGEZAP!$D$5:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -1814,30 +1896,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="287267584"/>
-        <c:axId val="287263232"/>
+        <c:axId val="67042688"/>
+        <c:axId val="69313664"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SHIGEZAP!$D$4</c:f>
+              <c:f>SHIGEZAP!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1873,183 +1945,189 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SHIGEZAP!$B$5:$B$58</c:f>
+              <c:f>SHIGEZAP!$B$5:$B$60</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:formatCode>m/d</c:formatCode>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
+                  <c:v>42374</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>42375</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>42376</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>42377</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>42378</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>42379</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>42380</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>42381</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>42382</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>42383</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>42384</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>42385</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>42386</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>42387</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>42388</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>42389</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>42390</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>42391</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>42392</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>42393</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>42394</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>42395</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>42396</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>42397</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>42398</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>42399</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>42400</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>42401</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>42402</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>42403</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>42404</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>42405</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>42406</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>42407</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>42408</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>42409</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>42410</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>42411</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>42412</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>42413</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>42414</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>42415</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42416</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>42417</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>42418</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>42419</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>42420</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>42421</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>42422</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>42423</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>42424</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>42425</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>42426</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>42427</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>42428</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SHIGEZAP!$D$5:$D$58</c:f>
+              <c:f>SHIGEZAP!$E$5:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>0.19700000000000001</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.184</c:v>
@@ -2057,14 +2135,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SHIGEZAP!$E$4</c:f>
+              <c:f>SHIGEZAP!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2078,257 +2155,243 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>SHIGEZAP!$E$5:$E$58</c:f>
+              <c:f>SHIGEZAP!$G$5:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18980357142857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18960714285714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18941071428571429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18921428571428572</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18901785714285715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18882142857142858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18862500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18842857142857145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18823214285714288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18803571428571431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18783928571428574</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18764285714285717</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.1874464285714286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18725000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18705357142857146</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18685714285714289</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18666071428571432</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18646428571428575</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18626785714285718</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18607142857142861</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18587500000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18567857142857147</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.1854821428571429</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18528571428571433</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18508928571428576</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18489285714285719</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18469642857142862</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18450000000000005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18430357142857148</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18410714285714291</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18391071428571434</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18371428571428577</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.1835178571428572</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18332142857142864</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18312500000000007</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.1829285714285715</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18273214285714293</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18253571428571436</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18233928571428579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18214285714285722</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18194642857142865</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18175000000000008</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18155357142857151</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18135714285714294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18116071428571437</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.1809642857142858</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18076785714285723</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18057142857142866</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18037500000000009</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.18017857142857152</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.17998214285714295</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.17978571428571438</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.17978571428571438</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.17958928571428581</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.17939285714285724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="287270304"/>
-        <c:axId val="287275200"/>
+        <c:axId val="69316992"/>
+        <c:axId val="69315200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="287267584"/>
+        <c:axId val="67042688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287263232"/>
+        <c:crossAx val="69313664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="287263232"/>
+        <c:axId val="69313664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287267584"/>
+        <c:crossAx val="67042688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="287275200"/>
+        <c:axId val="69315200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
-          <c:min val="0.12000000000000001"/>
+          <c:min val="0.12000000000000002"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287270304"/>
+        <c:crossAx val="69316992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-3"/>
+        <c:majorUnit val="5.0000000000000018E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="287270304"/>
+        <c:axId val="69316992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="287275200"/>
+        <c:crossAx val="69315200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2341,15 +2404,12 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2507,16 +2567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>876298</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>268818</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>141588</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180203</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2544,7 +2604,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>300814</xdr:colOff>
+      <xdr:colOff>332564</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1190625</xdr:rowOff>
     </xdr:to>
@@ -2620,7 +2680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2652,10 +2712,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2687,7 +2746,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2863,14 +2921,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2878,7 +2936,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" ht="24" customHeight="1">
       <c r="I1" s="2"/>
       <c r="J1" s="9" t="s">
         <v>0</v>
@@ -2886,9 +2944,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="2:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="95.25" customHeight="1">
       <c r="H2" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="11">
@@ -2897,10 +2955,10 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:12">
       <c r="B4" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>0</v>
@@ -2909,13 +2967,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -2929,7 +2987,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -2941,7 +2999,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -2953,7 +3011,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -2965,7 +3023,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -2977,7 +3035,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -2989,7 +3047,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -3001,7 +3059,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -3013,7 +3071,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -3025,7 +3083,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -3037,7 +3095,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -3049,7 +3107,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -3061,7 +3119,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -3073,7 +3131,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -3085,7 +3143,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -3097,7 +3155,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -3109,7 +3167,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -3121,7 +3179,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -3133,7 +3191,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -3145,7 +3203,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -3157,7 +3215,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -3169,7 +3227,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -3181,7 +3239,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -3193,7 +3251,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -3205,7 +3263,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -3217,7 +3275,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -3229,7 +3287,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -3241,7 +3299,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -3253,7 +3311,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -3265,7 +3323,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -3277,7 +3335,7 @@
       </c>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -3289,7 +3347,7 @@
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -3301,7 +3359,7 @@
       </c>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -3313,7 +3371,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -3325,7 +3383,7 @@
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -3337,7 +3395,7 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -3349,7 +3407,7 @@
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -3361,7 +3419,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -3373,7 +3431,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -3385,7 +3443,7 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:6">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -3397,7 +3455,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -3409,7 +3467,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -3421,7 +3479,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -3433,7 +3491,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -3445,7 +3503,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -3457,7 +3515,7 @@
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -3469,7 +3527,7 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -3481,7 +3539,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -3493,7 +3551,7 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -3505,7 +3563,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -3517,7 +3575,7 @@
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -3529,7 +3587,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -3541,7 +3599,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -3553,7 +3611,7 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:6">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -3579,14 +3637,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
@@ -3597,7 +3655,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13" ht="24" customHeight="1">
       <c r="J1" s="2"/>
       <c r="K1" s="9" t="s">
         <v>0</v>
@@ -3605,9 +3663,9 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="2:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" ht="95.25" customHeight="1">
       <c r="I2" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11">
@@ -3616,28 +3674,28 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:13">
       <c r="B4" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -3652,13 +3710,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -3675,7 +3733,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -3687,7 +3745,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -3699,7 +3757,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -3711,7 +3769,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -3723,7 +3781,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -3735,7 +3793,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -3747,7 +3805,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -3759,7 +3817,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -3771,7 +3829,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -3783,7 +3841,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -3795,7 +3853,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -3807,7 +3865,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -3819,7 +3877,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -3831,7 +3889,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -3843,7 +3901,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -3855,7 +3913,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -3867,7 +3925,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -3879,7 +3937,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -3891,7 +3949,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -3903,7 +3961,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -3915,7 +3973,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -3927,7 +3985,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -3939,7 +3997,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -3951,7 +4009,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -3963,7 +4021,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -3975,7 +4033,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -3987,7 +4045,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -3999,7 +4057,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -4011,7 +4069,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -4023,7 +4081,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -4035,7 +4093,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -4047,7 +4105,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -4059,7 +4117,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -4071,7 +4129,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -4083,7 +4141,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -4095,7 +4153,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -4107,7 +4165,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -4119,7 +4177,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -4131,7 +4189,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -4143,7 +4201,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -4155,7 +4213,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -4167,7 +4225,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:7">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -4179,7 +4237,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:7">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -4191,7 +4249,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:7">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -4203,7 +4261,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:7">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -4215,7 +4273,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:7">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -4227,7 +4285,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:7">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -4239,7 +4297,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:7">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -4251,7 +4309,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:7">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -4263,7 +4321,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:7">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -4275,7 +4333,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:7">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -4287,7 +4345,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:7">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -4313,723 +4371,1297 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="14" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="25.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I1" s="2"/>
-      <c r="J1" s="9" t="s">
+    <row r="1" spans="2:17" ht="24" customHeight="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="2:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="12">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="2:17" ht="95.25" customHeight="1">
+      <c r="M2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="12">
         <v>0.17899999999999999</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:17">
       <c r="B4" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="3">
+    <row r="5" spans="2:17" ht="37.5">
+      <c r="B5" s="16">
+        <v>42374</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>TEXT(WEEKDAY(B5),"AAA")</f>
+        <v>火</v>
+      </c>
+      <c r="D5" s="4">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="56.25">
+      <c r="B6" s="16">
         <v>42375</v>
       </c>
-      <c r="C5" s="4">
-        <v>70</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="E5" s="5">
-        <f>$J$2</f>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="3">
+      <c r="C6" s="4" t="str">
+        <f t="shared" ref="C6:C60" si="0">TEXT(WEEKDAY(B6),"AAA")</f>
+        <v>水</v>
+      </c>
+      <c r="D6" s="4">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.184</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5">
+        <f>$G5-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18980357142857143</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="37.5">
+      <c r="B7" s="16">
         <v>42376</v>
       </c>
-      <c r="C6" s="4">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.184</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" ref="E6:E58" si="0">$J$2</f>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="3">
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="5">
+        <f>$G6-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18960714285714286</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="16">
         <v>42377</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="3">
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="5">
+        <f>$G7-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18941071428571429</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="16">
         <v>42378</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="3">
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="5">
+        <f>$G8-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18921428571428572</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="16">
         <v>42379</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="3">
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="5">
+        <f>$G9-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18901785714285715</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="16">
         <v>42380</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
+      <c r="C11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="5">
+        <f>$G10-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18882142857142858</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="16">
         <v>42381</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
+      <c r="C12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="5">
+        <f>$G11-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18862500000000001</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="16">
         <v>42382</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="3">
+      <c r="C13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="5">
+        <f>$G12-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18842857142857145</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="16">
         <v>42383</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="3">
+      <c r="C14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="5">
+        <f>$G13-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18823214285714288</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="16">
         <v>42384</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
+      <c r="C15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="5">
+        <f>$G14-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18803571428571431</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="16">
         <v>42385</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="3">
+      <c r="C16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="5">
+        <f>$G15-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18783928571428574</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="16">
         <v>42386</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="3">
+      <c r="C17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="5">
+        <f>$G16-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18764285714285717</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="16">
         <v>42387</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
+      <c r="C18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="5">
+        <f>$G17-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.1874464285714286</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="16">
         <v>42388</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
+      <c r="C19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="5">
+        <f>$G18-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18725000000000003</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="16">
         <v>42389</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="3">
+      <c r="C20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="5">
+        <f>$G19-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18705357142857146</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="16">
         <v>42390</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="3">
+      <c r="C21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="5">
+        <f>$G20-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18685714285714289</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="16">
         <v>42391</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="3">
+      <c r="C22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="5">
+        <f>$G21-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18666071428571432</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="16">
         <v>42392</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="3">
+      <c r="C23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="5">
+        <f>$G22-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18646428571428575</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="16">
         <v>42393</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
+      <c r="C24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="5">
+        <f>$G23-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18626785714285718</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="16">
         <v>42394</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="3">
+      <c r="C25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="5">
+        <f>$G24-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18607142857142861</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="16">
         <v>42395</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="3">
+      <c r="C26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="5">
+        <f>$G25-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18587500000000004</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="16">
         <v>42396</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="3">
+      <c r="C27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="5">
+        <f>$G26-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18567857142857147</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="16">
         <v>42397</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="3">
+      <c r="C28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="5">
+        <f>$G27-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.1854821428571429</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="16">
         <v>42398</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="3">
+      <c r="C29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="5">
+        <f>$G28-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18528571428571433</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="16">
         <v>42399</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="3">
+      <c r="C30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="5">
+        <f>$G29-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18508928571428576</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="16">
         <v>42400</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="3">
+      <c r="C31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="5">
+        <f>$G30-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18489285714285719</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="16">
         <v>42401</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="3">
+      <c r="C32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="5">
+        <f>$G31-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18469642857142862</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="16">
         <v>42402</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="3">
+      <c r="C33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="5">
+        <f>$G32-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18450000000000005</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="16">
         <v>42403</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="3">
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="5">
+        <f>$G33-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18430357142857148</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="16">
         <v>42404</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="3">
+      <c r="C35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="5">
+        <f>$G34-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18410714285714291</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="16">
         <v>42405</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="3">
+      <c r="C36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="5">
+        <f>$G35-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18391071428571434</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="16">
         <v>42406</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="3">
+      <c r="C37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="5">
+        <f>$G36-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18371428571428577</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="16">
         <v>42407</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="3">
+      <c r="C38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="5">
+        <f>$G37-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.1835178571428572</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="16">
         <v>42408</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="3">
+      <c r="C39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="5">
+        <f>$G38-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18332142857142864</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="16">
         <v>42409</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="3">
+      <c r="C40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="5">
+        <f>$G39-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18312500000000007</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="16">
         <v>42410</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="3">
+      <c r="C41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="5">
+        <f>$G40-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.1829285714285715</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="16">
         <v>42411</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="3">
+      <c r="C42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="5">
+        <f>$G41-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18273214285714293</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="16">
         <v>42412</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="3">
+      <c r="C43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="5">
+        <f>$G42-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18253571428571436</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="16">
         <v>42413</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="3">
+      <c r="C44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="5">
+        <f>$G43-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18233928571428579</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="16">
         <v>42414</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="3">
+      <c r="C45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="5">
+        <f>$G44-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18214285714285722</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="16">
         <v>42415</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="3">
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="5">
+        <f>$G45-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18194642857142865</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="16">
         <v>42416</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47" s="3">
+      <c r="C47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="5">
+        <f>$G46-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18175000000000008</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="16">
         <v>42417</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="3">
+      <c r="C48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="5">
+        <f>$G47-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18155357142857151</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="16">
         <v>42418</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="3">
+      <c r="C49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="5">
+        <f>$G48-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18135714285714294</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="16">
         <v>42419</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="3">
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="5">
+        <f>$G49-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18116071428571437</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="16">
         <v>42420</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="3">
+      <c r="C51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="5">
+        <f>$G50-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.1809642857142858</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="16">
         <v>42421</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="3">
+      <c r="C52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="5">
+        <f>$G51-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18076785714285723</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="16">
         <v>42422</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B53" s="3">
+      <c r="C53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="5">
+        <f>$G52-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18057142857142866</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="16">
         <v>42423</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="3">
+      <c r="C54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="5">
+        <f>$G53-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18037500000000009</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="16">
         <v>42424</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="3">
+      <c r="C55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="5">
+        <f>$G54-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18017857142857152</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="16">
         <v>42425</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="3">
+      <c r="C56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="5">
+        <f>$G55-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.17998214285714295</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="16">
         <v>42426</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B57" s="3">
+      <c r="C57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="5">
+        <f>$G56-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.17978571428571438</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="16">
         <v>42427</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="3">
+      <c r="C58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="5">
+        <f>$G56-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.17978571428571438</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="16">
         <v>42428</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F58" s="4"/>
+      <c r="C59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="5">
+        <f>$G57-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.17958928571428581</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="16">
+        <v>42429</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="5">
+        <f>$G59-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.17939285714285724</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -50,10 +55,6 @@
     <rPh sb="0" eb="2">
       <t>モクヒョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Run：3.2km</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -281,11 +282,41 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>昼：から揚げ定食　夜：むね肉とスープ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイショク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run：5.0km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run：3.2km　筋トレ</t>
+    <rPh sb="10" eb="11">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -294,7 +325,7 @@
     <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="181" formatCode="m/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +452,18 @@
     <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -432,18 +475,6 @@
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -470,12 +501,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -513,7 +556,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -692,6 +735,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -881,14 +925,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="66932736"/>
-        <c:axId val="66934272"/>
+        <c:smooth val="0"/>
+        <c:axId val="-669794144"/>
+        <c:axId val="-669803936"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -932,7 +986,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1108,68 +1162,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="66937216"/>
-        <c:axId val="66935424"/>
+        <c:smooth val="0"/>
+        <c:axId val="-669794688"/>
+        <c:axId val="-669802304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="66932736"/>
+        <c:axId val="-669794144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66934272"/>
+        <c:crossAx val="-669803936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66934272"/>
+        <c:axId val="-669803936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66932736"/>
+        <c:crossAx val="-669794144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66935424"/>
+        <c:axId val="-669802304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.3000000000000001"/>
           <c:min val="0.2"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66937216"/>
+        <c:crossAx val="-669794688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="66937216"/>
+        <c:axId val="-669794688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="66935424"/>
+        <c:crossAx val="-669802304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1181,9 +1255,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1195,12 +1271,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1238,7 +1326,7 @@
             <c:numRef>
               <c:f>MATSUZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1420,6 +1508,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1609,38 +1698,53 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="66946944"/>
-        <c:axId val="66948480"/>
+        <c:smooth val="0"/>
+        <c:axId val="-669793600"/>
+        <c:axId val="-669793056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="66946944"/>
+        <c:axId val="-669793600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66948480"/>
+        <c:crossAx val="-669793056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66948480"/>
+        <c:axId val="-669793056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66946944"/>
+        <c:crossAx val="-669793600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1652,8 +1756,11 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1665,12 +1772,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1896,14 +2015,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="67042688"/>
-        <c:axId val="69313664"/>
+        <c:smooth val="0"/>
+        <c:axId val="-669799040"/>
+        <c:axId val="-669798496"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2135,6 +2264,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2330,68 +2460,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="69316992"/>
-        <c:axId val="69315200"/>
+        <c:smooth val="0"/>
+        <c:axId val="-876886752"/>
+        <c:axId val="-669791968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67042688"/>
+        <c:axId val="-669799040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69313664"/>
+        <c:crossAx val="-669798496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69313664"/>
+        <c:axId val="-669798496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67042688"/>
+        <c:crossAx val="-669799040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69315200"/>
+        <c:axId val="-669791968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69316992"/>
+        <c:crossAx val="-876886752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="69316992"/>
+        <c:axId val="-876886752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="69315200"/>
+        <c:crossAx val="-669791968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2404,8 +2554,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2494,15 +2647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>155120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>46261</xdr:rowOff>
+      <xdr:colOff>131307</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2680,7 +2833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2712,9 +2865,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2746,6 +2900,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2921,14 +3076,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2936,27 +3091,27 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" customHeight="1">
+    <row r="1" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I1" s="2"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="2:12" ht="95.25" customHeight="1">
-      <c r="H2" s="10" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="2:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11">
+      <c r="I2" s="14"/>
+      <c r="J2" s="15">
         <v>88.9</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="2:12" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:12">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -2973,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -2987,7 +3142,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -2999,7 +3154,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -3011,7 +3166,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -3023,7 +3178,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -3035,7 +3190,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -3047,7 +3202,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -3059,7 +3214,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -3071,7 +3226,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -3083,7 +3238,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -3095,7 +3250,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -3107,7 +3262,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -3119,7 +3274,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -3131,7 +3286,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -3143,7 +3298,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -3155,7 +3310,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -3167,7 +3322,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -3179,7 +3334,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -3191,7 +3346,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -3203,7 +3358,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -3215,7 +3370,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -3227,7 +3382,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -3239,7 +3394,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -3251,7 +3406,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -3263,7 +3418,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -3275,7 +3430,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -3287,7 +3442,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -3299,7 +3454,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -3311,7 +3466,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -3323,7 +3478,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -3335,7 +3490,7 @@
       </c>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -3347,7 +3502,7 @@
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -3359,7 +3514,7 @@
       </c>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -3371,7 +3526,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -3383,7 +3538,7 @@
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -3395,7 +3550,7 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -3407,7 +3562,7 @@
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -3419,7 +3574,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -3431,7 +3586,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -3443,7 +3598,7 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -3455,7 +3610,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -3467,7 +3622,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -3479,7 +3634,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -3491,7 +3646,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -3503,7 +3658,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -3515,7 +3670,7 @@
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -3527,7 +3682,7 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -3539,7 +3694,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -3551,7 +3706,7 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -3563,7 +3718,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -3575,7 +3730,7 @@
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -3587,7 +3742,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -3599,7 +3754,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -3611,7 +3766,7 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -3637,65 +3792,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.75" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="24" customHeight="1">
+    <row r="1" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J1" s="2"/>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="2:13" ht="95.25" customHeight="1">
-      <c r="I2" s="10" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="2:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11">
+      <c r="J2" s="14"/>
+      <c r="K2" s="15">
         <v>62.9</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="2:13" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:13">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -3710,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -3730,10 +3885,14 @@
         <f>D6-C6</f>
         <v>0.40000000000000568</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="2:13">
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -3745,7 +3904,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -3757,7 +3916,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -3769,7 +3928,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -3781,7 +3940,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -3793,7 +3952,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -3805,7 +3964,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -3817,7 +3976,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -3829,7 +3988,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -3841,7 +4000,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -3853,7 +4012,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -3865,7 +4024,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -3877,7 +4036,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -3889,7 +4048,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -3901,7 +4060,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -3913,7 +4072,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -3925,7 +4084,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -3937,7 +4096,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -3949,7 +4108,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -3961,7 +4120,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -3973,7 +4132,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -3985,7 +4144,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -3997,7 +4156,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -4009,7 +4168,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -4021,7 +4180,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -4033,7 +4192,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -4045,7 +4204,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -4057,7 +4216,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -4069,7 +4228,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -4081,7 +4240,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -4093,7 +4252,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -4105,7 +4264,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -4117,7 +4276,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -4129,7 +4288,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -4141,7 +4300,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -4153,7 +4312,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -4165,7 +4324,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -4177,7 +4336,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -4189,7 +4348,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -4201,7 +4360,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -4213,7 +4372,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -4225,7 +4384,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -4237,7 +4396,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -4249,7 +4408,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -4261,7 +4420,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -4273,7 +4432,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -4285,7 +4444,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -4297,7 +4456,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -4309,7 +4468,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -4321,7 +4480,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -4333,7 +4492,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -4345,7 +4504,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -4371,20 +4530,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="14" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="7.375" style="10" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.25" style="1" customWidth="1" collapsed="1"/>
@@ -4393,32 +4552,32 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1">
+    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1">
-      <c r="M2" s="10" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12">
+      <c r="N2" s="14"/>
+      <c r="O2" s="16">
         <v>0.17899999999999999</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:17">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>0</v>
@@ -4427,29 +4586,29 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5">
-      <c r="B5" s="16">
+    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="12">
         <v>42374</v>
       </c>
       <c r="C5" s="4" t="str">
@@ -4462,28 +4621,28 @@
       <c r="E5" s="5">
         <v>0.19</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>23</v>
+      <c r="F5" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="5">
         <v>0.19</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="56.25">
-      <c r="B6" s="16">
+    </row>
+    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="B6" s="12">
         <v>42375</v>
       </c>
       <c r="C6" s="4" t="str">
@@ -4496,31 +4655,31 @@
       <c r="E6" s="5">
         <v>0.184</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" ref="G6:G37" si="1">$G5-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <v>0.18980357142857143</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5">
-        <f>$G5-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
-        <v>0.18980357142857143</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="37.5">
-      <c r="B7" s="16">
+        <v>14</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="12">
         <v>42376</v>
       </c>
       <c r="C7" s="4" t="str">
@@ -4529,23 +4688,23 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="5">
-        <f>$G6-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18960714285714286</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="13" t="s">
-        <v>19</v>
+      <c r="I7" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="16">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B8" s="12">
         <v>42377</v>
       </c>
       <c r="C8" s="4" t="str">
@@ -4554,9 +4713,9 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="5">
-        <f>$G7-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18941071428571429</v>
       </c>
       <c r="H8" s="4"/>
@@ -4565,8 +4724,8 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="16">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B9" s="12">
         <v>42378</v>
       </c>
       <c r="C9" s="4" t="str">
@@ -4575,9 +4734,9 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="5">
-        <f>$G8-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18921428571428572</v>
       </c>
       <c r="H9" s="4"/>
@@ -4586,8 +4745,8 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="16">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B10" s="12">
         <v>42379</v>
       </c>
       <c r="C10" s="4" t="str">
@@ -4596,9 +4755,9 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="5">
-        <f>$G9-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18901785714285715</v>
       </c>
       <c r="H10" s="4"/>
@@ -4607,8 +4766,8 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="16">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B11" s="12">
         <v>42380</v>
       </c>
       <c r="C11" s="4" t="str">
@@ -4617,9 +4776,9 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="5">
-        <f>$G10-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18882142857142858</v>
       </c>
       <c r="H11" s="4"/>
@@ -4628,8 +4787,8 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="16">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B12" s="12">
         <v>42381</v>
       </c>
       <c r="C12" s="4" t="str">
@@ -4638,9 +4797,9 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="5">
-        <f>$G11-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18862500000000001</v>
       </c>
       <c r="H12" s="4"/>
@@ -4649,8 +4808,8 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="16">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B13" s="12">
         <v>42382</v>
       </c>
       <c r="C13" s="4" t="str">
@@ -4659,9 +4818,9 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="5">
-        <f>$G12-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18842857142857145</v>
       </c>
       <c r="H13" s="4"/>
@@ -4670,8 +4829,8 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="16">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B14" s="12">
         <v>42383</v>
       </c>
       <c r="C14" s="4" t="str">
@@ -4680,9 +4839,9 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="5">
-        <f>$G13-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18823214285714288</v>
       </c>
       <c r="H14" s="4"/>
@@ -4691,8 +4850,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="16">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="12">
         <v>42384</v>
       </c>
       <c r="C15" s="4" t="str">
@@ -4701,9 +4860,9 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="5">
-        <f>$G14-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18803571428571431</v>
       </c>
       <c r="H15" s="4"/>
@@ -4712,8 +4871,8 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="16">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
         <v>42385</v>
       </c>
       <c r="C16" s="4" t="str">
@@ -4722,9 +4881,9 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="5">
-        <f>$G15-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18783928571428574</v>
       </c>
       <c r="H16" s="4"/>
@@ -4733,8 +4892,8 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="16">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
         <v>42386</v>
       </c>
       <c r="C17" s="4" t="str">
@@ -4743,9 +4902,9 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="5">
-        <f>$G16-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18764285714285717</v>
       </c>
       <c r="H17" s="4"/>
@@ -4754,8 +4913,8 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="16">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
         <v>42387</v>
       </c>
       <c r="C18" s="4" t="str">
@@ -4764,9 +4923,9 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="5">
-        <f>$G17-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.1874464285714286</v>
       </c>
       <c r="H18" s="4"/>
@@ -4775,8 +4934,8 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="16">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
         <v>42388</v>
       </c>
       <c r="C19" s="4" t="str">
@@ -4785,9 +4944,9 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="5">
-        <f>$G18-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18725000000000003</v>
       </c>
       <c r="H19" s="4"/>
@@ -4796,8 +4955,8 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="16">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="12">
         <v>42389</v>
       </c>
       <c r="C20" s="4" t="str">
@@ -4806,9 +4965,9 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="5">
-        <f>$G19-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18705357142857146</v>
       </c>
       <c r="H20" s="4"/>
@@ -4817,8 +4976,8 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="16">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B21" s="12">
         <v>42390</v>
       </c>
       <c r="C21" s="4" t="str">
@@ -4827,9 +4986,9 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="5">
-        <f>$G20-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18685714285714289</v>
       </c>
       <c r="H21" s="4"/>
@@ -4838,8 +4997,8 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="16">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="12">
         <v>42391</v>
       </c>
       <c r="C22" s="4" t="str">
@@ -4848,9 +5007,9 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="5">
-        <f>$G21-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18666071428571432</v>
       </c>
       <c r="H22" s="4"/>
@@ -4859,8 +5018,8 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="16">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="12">
         <v>42392</v>
       </c>
       <c r="C23" s="4" t="str">
@@ -4869,9 +5028,9 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="5">
-        <f>$G22-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18646428571428575</v>
       </c>
       <c r="H23" s="4"/>
@@ -4880,8 +5039,8 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="16">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B24" s="12">
         <v>42393</v>
       </c>
       <c r="C24" s="4" t="str">
@@ -4890,9 +5049,9 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="5">
-        <f>$G23-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18626785714285718</v>
       </c>
       <c r="H24" s="4"/>
@@ -4901,8 +5060,8 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="16">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B25" s="12">
         <v>42394</v>
       </c>
       <c r="C25" s="4" t="str">
@@ -4911,9 +5070,9 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="5">
-        <f>$G24-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18607142857142861</v>
       </c>
       <c r="H25" s="4"/>
@@ -4922,8 +5081,8 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="16">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B26" s="12">
         <v>42395</v>
       </c>
       <c r="C26" s="4" t="str">
@@ -4932,9 +5091,9 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="5">
-        <f>$G25-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18587500000000004</v>
       </c>
       <c r="H26" s="4"/>
@@ -4943,8 +5102,8 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="16">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B27" s="12">
         <v>42396</v>
       </c>
       <c r="C27" s="4" t="str">
@@ -4953,9 +5112,9 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="5">
-        <f>$G26-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18567857142857147</v>
       </c>
       <c r="H27" s="4"/>
@@ -4964,8 +5123,8 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="16">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="12">
         <v>42397</v>
       </c>
       <c r="C28" s="4" t="str">
@@ -4974,9 +5133,9 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="5">
-        <f>$G27-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.1854821428571429</v>
       </c>
       <c r="H28" s="4"/>
@@ -4985,8 +5144,8 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="16">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="12">
         <v>42398</v>
       </c>
       <c r="C29" s="4" t="str">
@@ -4995,9 +5154,9 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="5">
-        <f>$G28-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18528571428571433</v>
       </c>
       <c r="H29" s="4"/>
@@ -5006,8 +5165,8 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="16">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="12">
         <v>42399</v>
       </c>
       <c r="C30" s="4" t="str">
@@ -5016,9 +5175,9 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="5">
-        <f>$G29-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18508928571428576</v>
       </c>
       <c r="H30" s="4"/>
@@ -5027,8 +5186,8 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="16">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="12">
         <v>42400</v>
       </c>
       <c r="C31" s="4" t="str">
@@ -5037,9 +5196,9 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="5">
-        <f>$G30-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18489285714285719</v>
       </c>
       <c r="H31" s="4"/>
@@ -5048,8 +5207,8 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="16">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="12">
         <v>42401</v>
       </c>
       <c r="C32" s="4" t="str">
@@ -5058,9 +5217,9 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="5">
-        <f>$G31-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18469642857142862</v>
       </c>
       <c r="H32" s="4"/>
@@ -5069,8 +5228,8 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="16">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B33" s="12">
         <v>42402</v>
       </c>
       <c r="C33" s="4" t="str">
@@ -5079,9 +5238,9 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="5">
-        <f>$G32-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18450000000000005</v>
       </c>
       <c r="H33" s="4"/>
@@ -5090,8 +5249,8 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="16">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B34" s="12">
         <v>42403</v>
       </c>
       <c r="C34" s="4" t="str">
@@ -5100,9 +5259,9 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="5">
-        <f>$G33-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18430357142857148</v>
       </c>
       <c r="H34" s="4"/>
@@ -5111,8 +5270,8 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="16">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B35" s="12">
         <v>42404</v>
       </c>
       <c r="C35" s="4" t="str">
@@ -5121,9 +5280,9 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="15"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="5">
-        <f>$G34-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18410714285714291</v>
       </c>
       <c r="H35" s="4"/>
@@ -5132,8 +5291,8 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="16">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B36" s="12">
         <v>42405</v>
       </c>
       <c r="C36" s="4" t="str">
@@ -5142,9 +5301,9 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="15"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="5">
-        <f>$G35-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18391071428571434</v>
       </c>
       <c r="H36" s="4"/>
@@ -5153,8 +5312,8 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="16">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B37" s="12">
         <v>42406</v>
       </c>
       <c r="C37" s="4" t="str">
@@ -5163,9 +5322,9 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="15"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="5">
-        <f>$G36-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="1"/>
         <v>0.18371428571428577</v>
       </c>
       <c r="H37" s="4"/>
@@ -5174,8 +5333,8 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="16">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B38" s="12">
         <v>42407</v>
       </c>
       <c r="C38" s="4" t="str">
@@ -5184,9 +5343,9 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="15"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="5">
-        <f>$G37-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" ref="G38:G57" si="2">$G37-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
         <v>0.1835178571428572</v>
       </c>
       <c r="H38" s="4"/>
@@ -5195,8 +5354,8 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="16">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B39" s="12">
         <v>42408</v>
       </c>
       <c r="C39" s="4" t="str">
@@ -5205,9 +5364,9 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="15"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="5">
-        <f>$G38-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18332142857142864</v>
       </c>
       <c r="H39" s="4"/>
@@ -5216,8 +5375,8 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="16">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="12">
         <v>42409</v>
       </c>
       <c r="C40" s="4" t="str">
@@ -5226,9 +5385,9 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="15"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="5">
-        <f>$G39-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18312500000000007</v>
       </c>
       <c r="H40" s="4"/>
@@ -5237,8 +5396,8 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12">
-      <c r="B41" s="16">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B41" s="12">
         <v>42410</v>
       </c>
       <c r="C41" s="4" t="str">
@@ -5247,9 +5406,9 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="15"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="5">
-        <f>$G40-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.1829285714285715</v>
       </c>
       <c r="H41" s="4"/>
@@ -5258,8 +5417,8 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12">
-      <c r="B42" s="16">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B42" s="12">
         <v>42411</v>
       </c>
       <c r="C42" s="4" t="str">
@@ -5268,9 +5427,9 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="15"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="5">
-        <f>$G41-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18273214285714293</v>
       </c>
       <c r="H42" s="4"/>
@@ -5279,8 +5438,8 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12">
-      <c r="B43" s="16">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B43" s="12">
         <v>42412</v>
       </c>
       <c r="C43" s="4" t="str">
@@ -5289,9 +5448,9 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="15"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="5">
-        <f>$G42-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18253571428571436</v>
       </c>
       <c r="H43" s="4"/>
@@ -5300,8 +5459,8 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12">
-      <c r="B44" s="16">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B44" s="12">
         <v>42413</v>
       </c>
       <c r="C44" s="4" t="str">
@@ -5310,9 +5469,9 @@
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="15"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="5">
-        <f>$G43-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18233928571428579</v>
       </c>
       <c r="H44" s="4"/>
@@ -5321,8 +5480,8 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12">
-      <c r="B45" s="16">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B45" s="12">
         <v>42414</v>
       </c>
       <c r="C45" s="4" t="str">
@@ -5331,9 +5490,9 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="15"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="5">
-        <f>$G44-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18214285714285722</v>
       </c>
       <c r="H45" s="4"/>
@@ -5342,8 +5501,8 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12">
-      <c r="B46" s="16">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B46" s="12">
         <v>42415</v>
       </c>
       <c r="C46" s="4" t="str">
@@ -5352,9 +5511,9 @@
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="15"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="5">
-        <f>$G45-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18194642857142865</v>
       </c>
       <c r="H46" s="4"/>
@@ -5363,8 +5522,8 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12">
-      <c r="B47" s="16">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B47" s="12">
         <v>42416</v>
       </c>
       <c r="C47" s="4" t="str">
@@ -5373,9 +5532,9 @@
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="15"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="5">
-        <f>$G46-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18175000000000008</v>
       </c>
       <c r="H47" s="4"/>
@@ -5384,8 +5543,8 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12">
-      <c r="B48" s="16">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B48" s="12">
         <v>42417</v>
       </c>
       <c r="C48" s="4" t="str">
@@ -5394,9 +5553,9 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="15"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="5">
-        <f>$G47-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18155357142857151</v>
       </c>
       <c r="H48" s="4"/>
@@ -5405,8 +5564,8 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12">
-      <c r="B49" s="16">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B49" s="12">
         <v>42418</v>
       </c>
       <c r="C49" s="4" t="str">
@@ -5415,9 +5574,9 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="15"/>
+      <c r="F49" s="11"/>
       <c r="G49" s="5">
-        <f>$G48-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18135714285714294</v>
       </c>
       <c r="H49" s="4"/>
@@ -5426,8 +5585,8 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
-      <c r="B50" s="16">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B50" s="12">
         <v>42419</v>
       </c>
       <c r="C50" s="4" t="str">
@@ -5436,9 +5595,9 @@
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="15"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="5">
-        <f>$G49-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18116071428571437</v>
       </c>
       <c r="H50" s="4"/>
@@ -5447,8 +5606,8 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="16">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B51" s="12">
         <v>42420</v>
       </c>
       <c r="C51" s="4" t="str">
@@ -5457,9 +5616,9 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="15"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="5">
-        <f>$G50-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.1809642857142858</v>
       </c>
       <c r="H51" s="4"/>
@@ -5468,8 +5627,8 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="16">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B52" s="12">
         <v>42421</v>
       </c>
       <c r="C52" s="4" t="str">
@@ -5478,9 +5637,9 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="15"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="5">
-        <f>$G51-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18076785714285723</v>
       </c>
       <c r="H52" s="4"/>
@@ -5489,8 +5648,8 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="16">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B53" s="12">
         <v>42422</v>
       </c>
       <c r="C53" s="4" t="str">
@@ -5499,9 +5658,9 @@
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="15"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="5">
-        <f>$G52-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18057142857142866</v>
       </c>
       <c r="H53" s="4"/>
@@ -5510,8 +5669,8 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="16">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B54" s="12">
         <v>42423</v>
       </c>
       <c r="C54" s="4" t="str">
@@ -5520,9 +5679,9 @@
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="15"/>
+      <c r="F54" s="11"/>
       <c r="G54" s="5">
-        <f>$G53-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18037500000000009</v>
       </c>
       <c r="H54" s="4"/>
@@ -5531,8 +5690,8 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12">
-      <c r="B55" s="16">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B55" s="12">
         <v>42424</v>
       </c>
       <c r="C55" s="4" t="str">
@@ -5541,9 +5700,9 @@
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="15"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="5">
-        <f>$G54-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.18017857142857152</v>
       </c>
       <c r="H55" s="4"/>
@@ -5552,8 +5711,8 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12">
-      <c r="B56" s="16">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B56" s="12">
         <v>42425</v>
       </c>
       <c r="C56" s="4" t="str">
@@ -5562,9 +5721,9 @@
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="15"/>
+      <c r="F56" s="11"/>
       <c r="G56" s="5">
-        <f>$G55-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.17998214285714295</v>
       </c>
       <c r="H56" s="4"/>
@@ -5573,8 +5732,8 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
-      <c r="B57" s="16">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B57" s="12">
         <v>42426</v>
       </c>
       <c r="C57" s="4" t="str">
@@ -5583,9 +5742,9 @@
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="15"/>
+      <c r="F57" s="11"/>
       <c r="G57" s="5">
-        <f>$G56-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
+        <f t="shared" si="2"/>
         <v>0.17978571428571438</v>
       </c>
       <c r="H57" s="4"/>
@@ -5594,8 +5753,8 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
-      <c r="B58" s="16">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B58" s="12">
         <v>42427</v>
       </c>
       <c r="C58" s="4" t="str">
@@ -5604,7 +5763,7 @@
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="15"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="5">
         <f>$G56-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
         <v>0.17978571428571438</v>
@@ -5615,8 +5774,8 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="16">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B59" s="12">
         <v>42428</v>
       </c>
       <c r="C59" s="4" t="str">
@@ -5625,7 +5784,7 @@
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="15"/>
+      <c r="F59" s="11"/>
       <c r="G59" s="5">
         <f>$G57-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
         <v>0.17958928571428581</v>
@@ -5636,8 +5795,8 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12">
-      <c r="B60" s="16">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B60" s="12">
         <v>42429</v>
       </c>
       <c r="C60" s="4" t="str">
@@ -5646,7 +5805,7 @@
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="15"/>
+      <c r="F60" s="11"/>
       <c r="G60" s="5">
         <f>$G59-(($G$5-$O$2)/COUNT($B$5:$B$60))</f>
         <v>0.17939285714285724</v>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -312,11 +307,48 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>さんまのみりん干し、トマトときゅうりの和物、ポテトグラタン、少なめご飯</t>
+    <rPh sb="7" eb="8">
+      <t>ボ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アエモノ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョギング5.1キロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜計測
+減る気配なし。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -325,7 +357,7 @@
     <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="181" formatCode="m/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,24 +533,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -556,7 +576,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -735,7 +755,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -925,24 +944,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-669794144"/>
-        <c:axId val="-669803936"/>
+        <c:axId val="204667904"/>
+        <c:axId val="204681984"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -986,7 +995,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1162,88 +1171,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-669794688"/>
-        <c:axId val="-669802304"/>
+        <c:axId val="204689408"/>
+        <c:axId val="204683520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-669794144"/>
+        <c:axId val="204667904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669803936"/>
+        <c:crossAx val="204681984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-669803936"/>
+        <c:axId val="204681984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669794144"/>
+        <c:crossAx val="204667904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-669802304"/>
+        <c:axId val="204683520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.3000000000000001"/>
+          <c:max val="0.30000000000000016"/>
           <c:min val="0.2"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669794688"/>
+        <c:crossAx val="204689408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000036E-3"/>
+        <c:majorUnit val="5.0000000000000044E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-669794688"/>
+        <c:axId val="204689408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-669802304"/>
+        <c:crossAx val="204683520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1255,15 +1244,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1271,24 +1257,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1326,7 +1300,7 @@
             <c:numRef>
               <c:f>MATSUZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1508,7 +1482,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1698,53 +1671,38 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-669793600"/>
-        <c:axId val="-669793056"/>
+        <c:axId val="205219712"/>
+        <c:axId val="205221248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-669793600"/>
+        <c:axId val="205219712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669793056"/>
+        <c:crossAx val="205221248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-669793056"/>
+        <c:axId val="205221248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669793600"/>
+        <c:crossAx val="205219712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1756,15 +1714,12 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1772,24 +1727,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2012,27 +1955,20 @@
                 <c:pt idx="1">
                   <c:v>69.599999999999994</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-669799040"/>
-        <c:axId val="-669798496"/>
+        <c:axId val="205495680"/>
+        <c:axId val="205395072"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2256,15 +2192,17 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>0.19</c:v>
+                  <c:v>0.19700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2460,88 +2398,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-876886752"/>
-        <c:axId val="-669791968"/>
+        <c:axId val="205398400"/>
+        <c:axId val="205396608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-669799040"/>
+        <c:axId val="205495680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669798496"/>
+        <c:crossAx val="205395072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-669798496"/>
+        <c:axId val="205395072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669799040"/>
+        <c:crossAx val="205495680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-669791968"/>
+        <c:axId val="205396608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-876886752"/>
+        <c:crossAx val="205398400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000018E-3"/>
+        <c:majorUnit val="5.0000000000000027E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-876886752"/>
+        <c:axId val="205398400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-669791968"/>
+        <c:crossAx val="205396608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2554,15 +2472,12 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2833,7 +2748,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2865,10 +2780,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2900,7 +2814,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3076,14 +2989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -3091,7 +3004,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" ht="24" customHeight="1">
       <c r="I1" s="2"/>
       <c r="J1" s="13" t="s">
         <v>0</v>
@@ -3099,7 +3012,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
-    <row r="2" spans="2:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="95.25" customHeight="1">
       <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
@@ -3110,8 +3023,8 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:12">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3128,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -3142,7 +3055,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -3154,7 +3067,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -3166,7 +3079,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -3178,7 +3091,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -3190,7 +3103,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -3202,7 +3115,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -3214,7 +3127,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -3226,7 +3139,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -3238,7 +3151,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -3250,7 +3163,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -3262,7 +3175,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -3274,7 +3187,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -3286,7 +3199,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -3298,7 +3211,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -3310,7 +3223,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -3322,7 +3235,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -3334,7 +3247,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -3346,7 +3259,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -3358,7 +3271,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -3370,7 +3283,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -3382,7 +3295,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -3394,7 +3307,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -3406,7 +3319,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -3418,7 +3331,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -3430,7 +3343,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -3442,7 +3355,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -3454,7 +3367,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -3466,7 +3379,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -3478,7 +3391,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -3490,7 +3403,7 @@
       </c>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -3502,7 +3415,7 @@
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -3514,7 +3427,7 @@
       </c>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -3526,7 +3439,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -3538,7 +3451,7 @@
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -3550,7 +3463,7 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -3562,7 +3475,7 @@
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -3574,7 +3487,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -3586,7 +3499,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -3598,7 +3511,7 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:6">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -3610,7 +3523,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -3622,7 +3535,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -3634,7 +3547,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -3646,7 +3559,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -3658,7 +3571,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -3670,7 +3583,7 @@
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -3682,7 +3595,7 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -3694,7 +3607,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -3706,7 +3619,7 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -3718,7 +3631,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -3730,7 +3643,7 @@
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -3742,7 +3655,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -3754,7 +3667,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -3766,7 +3679,7 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:6">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -3792,14 +3705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
@@ -3810,7 +3723,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13" ht="24" customHeight="1">
       <c r="J1" s="2"/>
       <c r="K1" s="13" t="s">
         <v>0</v>
@@ -3818,7 +3731,7 @@
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="2:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" ht="95.25" customHeight="1">
       <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
@@ -3829,8 +3742,8 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:13">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3850,7 +3763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -3871,7 +3784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -3892,7 +3805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -3904,7 +3817,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -3916,7 +3829,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -3928,7 +3841,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -3940,7 +3853,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -3952,7 +3865,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -3964,7 +3877,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -3976,7 +3889,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -3988,7 +3901,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -4000,7 +3913,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -4012,7 +3925,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -4024,7 +3937,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -4036,7 +3949,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -4048,7 +3961,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -4060,7 +3973,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -4072,7 +3985,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -4084,7 +3997,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -4096,7 +4009,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -4108,7 +4021,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -4120,7 +4033,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -4132,7 +4045,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -4144,7 +4057,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -4156,7 +4069,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -4168,7 +4081,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -4180,7 +4093,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -4192,7 +4105,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -4204,7 +4117,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -4216,7 +4129,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -4228,7 +4141,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -4240,7 +4153,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -4252,7 +4165,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -4264,7 +4177,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -4276,7 +4189,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -4288,7 +4201,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -4300,7 +4213,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -4312,7 +4225,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -4324,7 +4237,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -4336,7 +4249,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -4348,7 +4261,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -4360,7 +4273,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -4372,7 +4285,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -4384,7 +4297,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:7">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -4396,7 +4309,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:7">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -4408,7 +4321,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:7">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -4420,7 +4333,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:7">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -4432,7 +4345,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:7">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -4444,7 +4357,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:7">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -4456,7 +4369,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:7">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -4468,7 +4381,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:7">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -4480,7 +4393,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:7">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -4492,7 +4405,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:7">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -4504,7 +4417,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:7">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -4530,14 +4443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -4552,7 +4465,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" ht="24" customHeight="1">
       <c r="N1" s="2"/>
       <c r="O1" s="13" t="s">
         <v>1</v>
@@ -4560,7 +4473,7 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
     </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" ht="95.25" customHeight="1">
       <c r="M2" s="14" t="s">
         <v>4</v>
       </c>
@@ -4571,8 +4484,8 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:17">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4607,7 +4520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="37.5">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -4619,7 +4532,7 @@
         <v>70</v>
       </c>
       <c r="E5" s="5">
-        <v>0.19</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>22</v>
@@ -4641,7 +4554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="56.25">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -4678,7 +4591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="56.25">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -4686,24 +4599,36 @@
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0.18960714285714286</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="K7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -4724,7 +4649,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -4745,7 +4670,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -4766,7 +4691,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -4787,7 +4712,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -4808,7 +4733,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -4829,7 +4754,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -4850,7 +4775,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -4871,7 +4796,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -4892,7 +4817,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -4913,7 +4838,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -4934,7 +4859,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -4955,7 +4880,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -4976,7 +4901,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -4997,7 +4922,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -5018,7 +4943,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -5039,7 +4964,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -5060,7 +4985,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -5081,7 +5006,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -5102,7 +5027,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -5123,7 +5048,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -5144,7 +5069,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -5165,7 +5090,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -5186,7 +5111,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -5207,7 +5132,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -5228,7 +5153,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -5249,7 +5174,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -5270,7 +5195,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -5291,7 +5216,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -5312,7 +5237,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -5333,7 +5258,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -5354,7 +5279,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -5375,7 +5300,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -5396,7 +5321,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -5417,7 +5342,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -5438,7 +5363,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -5459,7 +5384,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -5480,7 +5405,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -5501,7 +5426,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -5522,7 +5447,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -5543,7 +5468,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -5564,7 +5489,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -5585,7 +5510,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -5606,7 +5531,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -5627,7 +5552,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -5648,7 +5573,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -5669,7 +5594,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -5690,7 +5615,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -5711,7 +5636,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -5732,7 +5657,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -5753,7 +5678,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -5774,7 +5699,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -5795,7 +5720,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -312,18 +307,41 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>BMI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>身長</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランニング実施日</t>
+    <rPh sb="5" eb="8">
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.0%&quot;以下&quot;"/>
     <numFmt numFmtId="179" formatCode="0.0&quot;kg以下&quot;"/>
     <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="181" formatCode="m/d"/>
+    <numFmt numFmtId="183" formatCode="0.0&quot;cm&quot;"/>
+    <numFmt numFmtId="184" formatCode="0.00&quot;%&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -424,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +493,18 @@
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -732,6 +762,9 @@
                 <c:pt idx="0">
                   <c:v>95.5</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -937,8 +970,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-669794144"/>
-        <c:axId val="-669803936"/>
+        <c:axId val="189038592"/>
+        <c:axId val="189040512"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1159,6 +1192,200 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="54"/>
+                <c:pt idx="1">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>BMI</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>HORIZAP!$B$5:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>42375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42385</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42387</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42389</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42390</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42391</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42392</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42393</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42394</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42395</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42396</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42403</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42404</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42405</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42406</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42407</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42408</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42409</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42410</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42411</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42412</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42413</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42414</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42416</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42417</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42418</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42419</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42420</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42421</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42422</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42423</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42424</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42425</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42426</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42427</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HORIZAP!$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.29876472278081007</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1174,11 +1401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-669794688"/>
-        <c:axId val="-669802304"/>
+        <c:axId val="189052032"/>
+        <c:axId val="189042048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-669794144"/>
+        <c:axId val="189038592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,14 +1415,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669803936"/>
+        <c:crossAx val="189040512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-669803936"/>
+        <c:axId val="189040512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -1208,13 +1435,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669794144"/>
+        <c:crossAx val="189038592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-669802304"/>
+        <c:axId val="189042048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.3000000000000001"/>
@@ -1227,13 +1454,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669794688"/>
+        <c:crossAx val="189052032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-669794688"/>
+        <c:axId val="189052032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-669802304"/>
+        <c:crossAx val="189042048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1255,6 +1482,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -1710,11 +1938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-669793600"/>
-        <c:axId val="-669793056"/>
+        <c:axId val="188749312"/>
+        <c:axId val="188750848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-669793600"/>
+        <c:axId val="188749312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,14 +1952,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669793056"/>
+        <c:crossAx val="188750848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-669793056"/>
+        <c:axId val="188750848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1744,7 +1972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669793600"/>
+        <c:crossAx val="188749312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2027,8 +2255,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-669799040"/>
-        <c:axId val="-669798496"/>
+        <c:axId val="188905344"/>
+        <c:axId val="188906880"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2472,11 +2700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-876886752"/>
-        <c:axId val="-669791968"/>
+        <c:axId val="188922496"/>
+        <c:axId val="188920960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-669799040"/>
+        <c:axId val="188905344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,14 +2714,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669798496"/>
+        <c:crossAx val="188906880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-669798496"/>
+        <c:axId val="188906880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -2506,13 +2734,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669799040"/>
+        <c:crossAx val="188905344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-669791968"/>
+        <c:axId val="188920960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -2525,13 +2753,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-876886752"/>
+        <c:crossAx val="188922496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-876886752"/>
+        <c:axId val="188922496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2541,7 +2769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-669791968"/>
+        <c:crossAx val="188920960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2553,7 +2781,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -2572,13 +2799,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>876298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2791,7 +3018,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2833,7 +3060,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2868,7 +3095,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3077,41 +3304,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L58"/>
+  <dimension ref="B1:T58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
+    <col min="9" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="33.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I1" s="2"/>
-      <c r="J1" s="13" t="s">
+    <row r="1" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K1" s="2"/>
+      <c r="L1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="2:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H2" s="14" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="Q1" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15">
+      <c r="K2" s="14"/>
+      <c r="L2" s="15">
         <v>88.9</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="R2" s="19">
+        <v>177</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3125,10 +3364,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -3137,654 +3382,937 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="8">
-        <f>$J$2</f>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F5" s="5">
+        <f>C5/(($R$2/100)*($R$2/100))/100</f>
+        <v>0.3048293912987966</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.26900000000000002</v>
+      </c>
       <c r="E6" s="8">
-        <f t="shared" ref="E6:E58" si="0">$J$2</f>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F6" s="5">
+        <f>C6/(($R$2/100)*($R$2/100))/100</f>
+        <v>0.29876472278081007</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F58" si="0">C7/(($R$2/100)*($R$2/100))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F37" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F39" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F40" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F41" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F42" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F43" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F44" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F45" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F46" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F47" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F48" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F49" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F50" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F51" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="20"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F52" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="20"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F53" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="20"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F54" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="20"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F55" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="20"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F56" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F57" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="20"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="8">
-        <f t="shared" si="0"/>
+        <f>$L$2</f>
         <v>88.9</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="20"/>
+      <c r="H58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G58">
+      <formula1>"○"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3795,7 +4323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -319,29 +319,88 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ランニング実施日</t>
-    <rPh sb="5" eb="8">
-      <t>ジッシビ</t>
+    <t>目標</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>○</t>
+    <t>3.2km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.2km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>朝</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そば</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そば</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おにぎり一個</t>
+  </si>
+  <si>
+    <t>お吸い物</t>
+    <rPh sb="1" eb="2">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木綿豆腐、魚肉ソーセージ</t>
+    <rPh sb="0" eb="2">
+      <t>モメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウフ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.0%&quot;以下&quot;"/>
     <numFmt numFmtId="179" formatCode="0.0&quot;kg以下&quot;"/>
     <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="181" formatCode="m/d"/>
-    <numFmt numFmtId="183" formatCode="0.0&quot;cm&quot;"/>
-    <numFmt numFmtId="184" formatCode="0.00&quot;%&quot;"/>
+    <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -442,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +541,15 @@
     <xf numFmtId="181" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -493,18 +561,6 @@
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -760,7 +816,7 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>95.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>93.6</c:v>
@@ -775,7 +831,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>HORIZAP!$E$4</c:f>
+              <c:f>HORIZAP!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -789,171 +845,171 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>HORIZAP!$E$5:$E$58</c:f>
+              <c:f>HORIZAP!$F$5:$F$58</c:f>
               <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>88.9</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.9</c:v>
+                  <c:v>93.413207547169804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.9</c:v>
+                  <c:v>93.326415094339609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.9</c:v>
+                  <c:v>93.239622641509413</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.9</c:v>
+                  <c:v>93.152830188679218</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.9</c:v>
+                  <c:v>93.066037735849022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.9</c:v>
+                  <c:v>92.979245283018827</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.9</c:v>
+                  <c:v>92.892452830188631</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.9</c:v>
+                  <c:v>92.805660377358436</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>88.9</c:v>
+                  <c:v>92.71886792452824</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88.9</c:v>
+                  <c:v>92.632075471698045</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88.9</c:v>
+                  <c:v>92.545283018867849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88.9</c:v>
+                  <c:v>92.458490566037653</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.9</c:v>
+                  <c:v>92.371698113207458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>88.9</c:v>
+                  <c:v>92.284905660377262</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88.9</c:v>
+                  <c:v>92.198113207547067</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88.9</c:v>
+                  <c:v>92.111320754716871</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>88.9</c:v>
+                  <c:v>92.024528301886676</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>88.9</c:v>
+                  <c:v>91.93773584905648</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>88.9</c:v>
+                  <c:v>91.850943396226285</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>88.9</c:v>
+                  <c:v>91.764150943396089</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>88.9</c:v>
+                  <c:v>91.677358490565894</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>88.9</c:v>
+                  <c:v>91.590566037735698</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>88.9</c:v>
+                  <c:v>91.503773584905503</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>88.9</c:v>
+                  <c:v>91.416981132075307</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>88.9</c:v>
+                  <c:v>91.330188679245111</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>88.9</c:v>
+                  <c:v>91.243396226414916</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>88.9</c:v>
+                  <c:v>91.15660377358472</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>88.9</c:v>
+                  <c:v>91.069811320754525</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>88.9</c:v>
+                  <c:v>90.983018867924329</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>88.9</c:v>
+                  <c:v>90.896226415094134</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>88.9</c:v>
+                  <c:v>90.809433962263938</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>88.9</c:v>
+                  <c:v>90.722641509433743</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>88.9</c:v>
+                  <c:v>90.635849056603547</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>88.9</c:v>
+                  <c:v>90.549056603773352</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>88.9</c:v>
+                  <c:v>90.462264150943156</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88.9</c:v>
+                  <c:v>90.37547169811296</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>88.9</c:v>
+                  <c:v>90.288679245282765</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>88.9</c:v>
+                  <c:v>90.201886792452569</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>88.9</c:v>
+                  <c:v>90.115094339622374</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>88.9</c:v>
+                  <c:v>90.028301886792178</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>88.9</c:v>
+                  <c:v>89.941509433961983</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>88.9</c:v>
+                  <c:v>89.854716981131787</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88.9</c:v>
+                  <c:v>89.767924528301592</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>88.9</c:v>
+                  <c:v>89.681132075471396</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>88.9</c:v>
+                  <c:v>89.594339622641201</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>88.9</c:v>
+                  <c:v>89.507547169811005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>88.9</c:v>
+                  <c:v>89.420754716980809</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>88.9</c:v>
+                  <c:v>89.333962264150614</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>88.9</c:v>
+                  <c:v>89.247169811320418</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>88.9</c:v>
+                  <c:v>89.160377358490223</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>88.9</c:v>
+                  <c:v>89.073584905660027</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>88.9</c:v>
+                  <c:v>88.986792452829832</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>88.9</c:v>
+                  <c:v>88.899999999999636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,8 +1026,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189038592"/>
-        <c:axId val="189040512"/>
+        <c:axId val="201810688"/>
+        <c:axId val="201812224"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -981,7 +1037,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HORIZAP!$D$4</c:f>
+              <c:f>HORIZAP!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1188,7 +1244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HORIZAP!$D$5:$D$58</c:f>
+              <c:f>HORIZAP!$E$5:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="54"/>
@@ -1379,7 +1435,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HORIZAP!$F$6</c:f>
+              <c:f>HORIZAP!$G$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1401,11 +1457,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189052032"/>
-        <c:axId val="189042048"/>
+        <c:axId val="201823744"/>
+        <c:axId val="201822208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="189038592"/>
+        <c:axId val="201810688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,14 +1471,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189040512"/>
+        <c:crossAx val="201812224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="189040512"/>
+        <c:axId val="201812224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -1435,13 +1491,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189038592"/>
+        <c:crossAx val="201810688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189042048"/>
+        <c:axId val="201822208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.3000000000000001"/>
@@ -1454,13 +1510,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189052032"/>
+        <c:crossAx val="201823744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="189052032"/>
+        <c:axId val="201823744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="189042048"/>
+        <c:crossAx val="201822208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1938,11 +1994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188749312"/>
-        <c:axId val="188750848"/>
+        <c:axId val="201844608"/>
+        <c:axId val="201846144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="188749312"/>
+        <c:axId val="201844608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,14 +2008,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188750848"/>
+        <c:crossAx val="201846144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="188750848"/>
+        <c:axId val="201846144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1972,7 +2028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188749312"/>
+        <c:crossAx val="201844608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2255,8 +2311,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188905344"/>
-        <c:axId val="188906880"/>
+        <c:axId val="202537216"/>
+        <c:axId val="202547200"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2700,11 +2756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188922496"/>
-        <c:axId val="188920960"/>
+        <c:axId val="202550272"/>
+        <c:axId val="202548736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="188905344"/>
+        <c:axId val="202537216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2714,14 +2770,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188906880"/>
+        <c:crossAx val="202547200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="188906880"/>
+        <c:axId val="202547200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -2734,13 +2790,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188905344"/>
+        <c:crossAx val="202537216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188920960"/>
+        <c:axId val="202548736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -2753,13 +2809,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188922496"/>
+        <c:crossAx val="202550272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="188922496"/>
+        <c:axId val="202550272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +2825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="188920960"/>
+        <c:crossAx val="202548736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2781,6 +2837,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -2799,13 +2856,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>876298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2835,7 +2892,7 @@
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>300814</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1190625</xdr:rowOff>
@@ -3304,53 +3361,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T58"/>
+  <dimension ref="B1:X58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
-    <col min="9" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="33.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="26.5" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="11" width="12.625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
+    <col min="13" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="33.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K1" s="2"/>
-      <c r="L1" s="13" t="s">
+    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O1" s="2"/>
+      <c r="P1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="U1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J2" s="14" t="s">
+    <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15">
+      <c r="O2" s="17"/>
+      <c r="P2" s="18">
         <v>88.9</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="R2" s="19">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="V2" s="15">
         <v>177</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-    </row>
-    <row r="3" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+    </row>
+    <row r="3" spans="2:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3358,961 +3417,1358 @@
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
       <c r="C5" s="4">
-        <v>95.5</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F5" s="5">
-        <f>C5/(($R$2/100)*($R$2/100))/100</f>
-        <v>0.3048293912987966</v>
-      </c>
-      <c r="G5" s="20" t="s">
+        <v>93.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5+(($P$2-$C$5)/54)</f>
+        <v>93.414814814814818</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4">
+        <f>C5</f>
+        <v>93.5</v>
+      </c>
+      <c r="G5" s="5">
+        <f>C5/(($V$2/100)*($V$2/100))/100</f>
+        <v>0.29844552970091603</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
       <c r="C6" s="4">
         <v>93.6</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
+        <f>D5+(($P$2-$C$5)/54)</f>
+        <v>93.329629629629636</v>
+      </c>
+      <c r="E6" s="5">
         <v>0.26900000000000002</v>
       </c>
-      <c r="E6" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F6" s="5">
-        <f>C6/(($R$2/100)*($R$2/100))/100</f>
+      <c r="F6" s="4">
+        <f>F5+(($P$2-$C$5)/53)</f>
+        <v>93.413207547169804</v>
+      </c>
+      <c r="G6" s="5">
+        <f>C6/(($V$2/100)*($V$2/100))/100</f>
         <v>0.29876472278081007</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" ref="F7:F58" si="0">C7/(($R$2/100)*($R$2/100))/100</f>
+      <c r="D7" s="4">
+        <f>D6+(($P$2-$C$5)/54)</f>
+        <v>93.244444444444454</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:F58" si="0">F6+(($P$2-$C$5)/53)</f>
+        <v>93.326415094339609</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" ref="G7:G58" si="1">C7/(($V$2/100)*($V$2/100))/100</f>
         <v>0</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
+      <c r="D8" s="4">
+        <f>D7+(($P$2-$C$5)/54)</f>
+        <v>93.159259259259272</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>93.239622641509413</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
+      <c r="D9" s="4">
+        <f>D8+(($P$2-$C$5)/54)</f>
+        <v>93.07407407407409</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>93.152830188679218</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
+      <c r="D10" s="4">
+        <f>D9+(($P$2-$C$5)/54)</f>
+        <v>92.988888888888908</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>93.066037735849022</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
+      <c r="D11" s="4">
+        <f>D10+(($P$2-$C$5)/54)</f>
+        <v>92.903703703703727</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>92.979245283018827</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
+      <c r="D12" s="4">
+        <f>D11+(($P$2-$C$5)/54)</f>
+        <v>92.818518518518545</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>92.892452830188631</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
+      <c r="D13" s="4">
+        <f>D12+(($P$2-$C$5)/54)</f>
+        <v>92.733333333333363</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>92.805660377358436</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
+      <c r="D14" s="4">
+        <f>D13+(($P$2-$C$5)/54)</f>
+        <v>92.648148148148181</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>92.71886792452824</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
+      <c r="D15" s="4">
+        <f>D14+(($P$2-$C$5)/54)</f>
+        <v>92.562962962962999</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>92.632075471698045</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
+      <c r="D16" s="4">
+        <f>D15+(($P$2-$C$5)/54)</f>
+        <v>92.477777777777817</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>92.545283018867849</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
+      <c r="D17" s="4">
+        <f>D16+(($P$2-$C$5)/54)</f>
+        <v>92.392592592592635</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>92.458490566037653</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
+      <c r="D18" s="4">
+        <f>D17+(($P$2-$C$5)/54)</f>
+        <v>92.307407407407453</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>92.371698113207458</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
+      <c r="D19" s="4">
+        <f>D18+(($P$2-$C$5)/54)</f>
+        <v>92.222222222222271</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>92.284905660377262</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="0"/>
+      <c r="D20" s="4">
+        <f>D19+(($P$2-$C$5)/54)</f>
+        <v>92.137037037037089</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>92.198113207547067</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="0"/>
+      <c r="D21" s="4">
+        <f>D20+(($P$2-$C$5)/54)</f>
+        <v>92.051851851851907</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>92.111320754716871</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="0"/>
+      <c r="D22" s="4">
+        <f>D21+(($P$2-$C$5)/54)</f>
+        <v>91.966666666666725</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>92.024528301886676</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="0"/>
+      <c r="D23" s="4">
+        <f>D22+(($P$2-$C$5)/54)</f>
+        <v>91.881481481481543</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>91.93773584905648</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="0"/>
+      <c r="D24" s="4">
+        <f>D23+(($P$2-$C$5)/54)</f>
+        <v>91.796296296296362</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>91.850943396226285</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="0"/>
+      <c r="D25" s="4">
+        <f>D24+(($P$2-$C$5)/54)</f>
+        <v>91.71111111111118</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>91.764150943396089</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="0"/>
+      <c r="D26" s="4">
+        <f>D25+(($P$2-$C$5)/54)</f>
+        <v>91.625925925925998</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>91.677358490565894</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="0"/>
+      <c r="D27" s="4">
+        <f>D26+(($P$2-$C$5)/54)</f>
+        <v>91.540740740740816</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>91.590566037735698</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="0"/>
+      <c r="D28" s="4">
+        <f>D27+(($P$2-$C$5)/54)</f>
+        <v>91.455555555555634</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>91.503773584905503</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="0"/>
+      <c r="D29" s="4">
+        <f>D28+(($P$2-$C$5)/54)</f>
+        <v>91.370370370370452</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>91.416981132075307</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="0"/>
+      <c r="D30" s="4">
+        <f>D29+(($P$2-$C$5)/54)</f>
+        <v>91.28518518518527</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>91.330188679245111</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="0"/>
+      <c r="D31" s="4">
+        <f>D30+(($P$2-$C$5)/54)</f>
+        <v>91.200000000000088</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
+        <v>91.243396226414916</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="0"/>
+      <c r="D32" s="4">
+        <f>D31+(($P$2-$C$5)/54)</f>
+        <v>91.114814814814906</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <f t="shared" si="0"/>
+        <v>91.15660377358472</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" si="0"/>
+      <c r="D33" s="4">
+        <f>D32+(($P$2-$C$5)/54)</f>
+        <v>91.029629629629724</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4">
+        <f t="shared" si="0"/>
+        <v>91.069811320754525</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="0"/>
+      <c r="D34" s="4">
+        <f>D33+(($P$2-$C$5)/54)</f>
+        <v>90.944444444444542</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4">
+        <f t="shared" si="0"/>
+        <v>90.983018867924329</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" si="0"/>
+      <c r="D35" s="4">
+        <f>D34+(($P$2-$C$5)/54)</f>
+        <v>90.85925925925936</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4">
+        <f t="shared" si="0"/>
+        <v>90.896226415094134</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" si="0"/>
+      <c r="D36" s="4">
+        <f>D35+(($P$2-$C$5)/54)</f>
+        <v>90.774074074074178</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4">
+        <f t="shared" si="0"/>
+        <v>90.809433962263938</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F37" s="5">
-        <f t="shared" si="0"/>
+      <c r="D37" s="4">
+        <f>D36+(($P$2-$C$5)/54)</f>
+        <v>90.688888888888997</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4">
+        <f t="shared" si="0"/>
+        <v>90.722641509433743</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F38" s="5">
-        <f t="shared" si="0"/>
+      <c r="D38" s="4">
+        <f>D37+(($P$2-$C$5)/54)</f>
+        <v>90.603703703703815</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4">
+        <f t="shared" si="0"/>
+        <v>90.635849056603547</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="0"/>
+      <c r="D39" s="4">
+        <f>D38+(($P$2-$C$5)/54)</f>
+        <v>90.518518518518633</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4">
+        <f t="shared" si="0"/>
+        <v>90.549056603773352</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" si="0"/>
+      <c r="D40" s="4">
+        <f>D39+(($P$2-$C$5)/54)</f>
+        <v>90.433333333333451</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4">
+        <f t="shared" si="0"/>
+        <v>90.462264150943156</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" si="0"/>
+      <c r="D41" s="4">
+        <f>D40+(($P$2-$C$5)/54)</f>
+        <v>90.348148148148269</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4">
+        <f t="shared" si="0"/>
+        <v>90.37547169811296</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="0"/>
+      <c r="D42" s="4">
+        <f>D41+(($P$2-$C$5)/54)</f>
+        <v>90.262962962963087</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4">
+        <f t="shared" si="0"/>
+        <v>90.288679245282765</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="0"/>
+      <c r="D43" s="4">
+        <f>D42+(($P$2-$C$5)/54)</f>
+        <v>90.177777777777905</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4">
+        <f t="shared" si="0"/>
+        <v>90.201886792452569</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" si="0"/>
+      <c r="D44" s="4">
+        <f>D43+(($P$2-$C$5)/54)</f>
+        <v>90.092592592592723</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4">
+        <f t="shared" si="0"/>
+        <v>90.115094339622374</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F45" s="5">
-        <f t="shared" si="0"/>
+      <c r="D45" s="4">
+        <f>D44+(($P$2-$C$5)/54)</f>
+        <v>90.007407407407541</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4">
+        <f t="shared" si="0"/>
+        <v>90.028301886792178</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" si="0"/>
+      <c r="D46" s="4">
+        <f>D45+(($P$2-$C$5)/54)</f>
+        <v>89.922222222222359</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4">
+        <f t="shared" si="0"/>
+        <v>89.941509433961983</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="0"/>
+      <c r="D47" s="4">
+        <f>D46+(($P$2-$C$5)/54)</f>
+        <v>89.837037037037177</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4">
+        <f t="shared" si="0"/>
+        <v>89.854716981131787</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" si="0"/>
+      <c r="D48" s="4">
+        <f>D47+(($P$2-$C$5)/54)</f>
+        <v>89.751851851851995</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4">
+        <f t="shared" si="0"/>
+        <v>89.767924528301592</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F49" s="5">
-        <f t="shared" si="0"/>
+      <c r="D49" s="4">
+        <f>D48+(($P$2-$C$5)/54)</f>
+        <v>89.666666666666814</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4">
+        <f t="shared" si="0"/>
+        <v>89.681132075471396</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F50" s="5">
-        <f t="shared" si="0"/>
+      <c r="D50" s="4">
+        <f>D49+(($P$2-$C$5)/54)</f>
+        <v>89.581481481481632</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4">
+        <f t="shared" si="0"/>
+        <v>89.594339622641201</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F51" s="5">
-        <f t="shared" si="0"/>
+      <c r="D51" s="4">
+        <f>D50+(($P$2-$C$5)/54)</f>
+        <v>89.49629629629645</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4">
+        <f t="shared" si="0"/>
+        <v>89.507547169811005</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" si="0"/>
+      <c r="D52" s="4">
+        <f>D51+(($P$2-$C$5)/54)</f>
+        <v>89.411111111111268</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4">
+        <f t="shared" si="0"/>
+        <v>89.420754716980809</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="0"/>
+      <c r="D53" s="4">
+        <f>D52+(($P$2-$C$5)/54)</f>
+        <v>89.325925925926086</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4">
+        <f t="shared" si="0"/>
+        <v>89.333962264150614</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F54" s="5">
-        <f t="shared" si="0"/>
+      <c r="D54" s="4">
+        <f>D53+(($P$2-$C$5)/54)</f>
+        <v>89.240740740740904</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4">
+        <f t="shared" si="0"/>
+        <v>89.247169811320418</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F55" s="5">
-        <f t="shared" si="0"/>
+      <c r="D55" s="4">
+        <f>D54+(($P$2-$C$5)/54)</f>
+        <v>89.155555555555722</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4">
+        <f t="shared" si="0"/>
+        <v>89.160377358490223</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G55" s="20"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F56" s="5">
-        <f t="shared" si="0"/>
+      <c r="D56" s="4">
+        <f>D55+(($P$2-$C$5)/54)</f>
+        <v>89.07037037037054</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4">
+        <f t="shared" si="0"/>
+        <v>89.073584905660027</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F57" s="5">
-        <f t="shared" si="0"/>
+      <c r="D57" s="4">
+        <f>D56+(($P$2-$C$5)/54)</f>
+        <v>88.985185185185358</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4">
+        <f t="shared" si="0"/>
+        <v>88.986792452829832</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="8">
-        <f>$L$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="F58" s="5">
-        <f t="shared" si="0"/>
+      <c r="D58" s="4">
+        <f>D57+(($P$2-$C$5)/54)</f>
+        <v>88.900000000000176</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4">
+        <f t="shared" si="0"/>
+        <v>88.899999999999636</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="4"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G58">
-      <formula1>"○"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4340,22 +4796,22 @@
   <sheetData>
     <row r="1" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J1" s="2"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="2:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15">
+      <c r="J2" s="17"/>
+      <c r="K2" s="18">
         <v>62.9</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
@@ -5082,22 +5538,22 @@
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="16">
+      <c r="N2" s="17"/>
+      <c r="O2" s="19">
         <v>0.17899999999999999</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -359,10 +359,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そば</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>おにぎり一個</t>
   </si>
   <si>
@@ -385,6 +381,34 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ギョニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そば</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豚肉バラボイル、卵焼き</t>
+    <rPh sb="0" eb="2">
+      <t>ブタニク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タマゴ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1026,8 +1050,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201810688"/>
-        <c:axId val="201812224"/>
+        <c:axId val="153534848"/>
+        <c:axId val="153989888"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1457,11 +1481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201823744"/>
-        <c:axId val="201822208"/>
+        <c:axId val="154237184"/>
+        <c:axId val="154235264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="201810688"/>
+        <c:axId val="153534848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,14 +1495,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201812224"/>
+        <c:crossAx val="153989888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="201812224"/>
+        <c:axId val="153989888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -1491,13 +1515,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201810688"/>
+        <c:crossAx val="153534848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201822208"/>
+        <c:axId val="154235264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.3000000000000001"/>
@@ -1510,13 +1534,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201823744"/>
+        <c:crossAx val="154237184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="201823744"/>
+        <c:axId val="154237184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="201822208"/>
+        <c:crossAx val="154235264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1994,11 +2018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201844608"/>
-        <c:axId val="201846144"/>
+        <c:axId val="162005376"/>
+        <c:axId val="162006912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="201844608"/>
+        <c:axId val="162005376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,14 +2032,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201846144"/>
+        <c:crossAx val="162006912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="201846144"/>
+        <c:axId val="162006912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2028,7 +2052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201844608"/>
+        <c:crossAx val="162005376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2311,8 +2335,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202537216"/>
-        <c:axId val="202547200"/>
+        <c:axId val="165143296"/>
+        <c:axId val="165144832"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2756,11 +2780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202550272"/>
-        <c:axId val="202548736"/>
+        <c:axId val="167183872"/>
+        <c:axId val="167182336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="202537216"/>
+        <c:axId val="165143296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2770,14 +2794,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202547200"/>
+        <c:crossAx val="165144832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="202547200"/>
+        <c:axId val="165144832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -2790,13 +2814,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202537216"/>
+        <c:crossAx val="165143296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202548736"/>
+        <c:axId val="167182336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -2809,13 +2833,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202550272"/>
+        <c:crossAx val="167183872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="202550272"/>
+        <c:axId val="167183872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,7 +2849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="202548736"/>
+        <c:crossAx val="167182336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2892,8 +2916,8 @@
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>300814</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3158</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1190625</xdr:rowOff>
     </xdr:to>
@@ -3364,17 +3388,21 @@
   <dimension ref="B1:X58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="6.375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7.625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="12.625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="26.5" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="11" width="12.625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="15.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="24.375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
     <col min="13" max="21" width="9" style="1"/>
     <col min="22" max="22" width="33.75" style="1" bestFit="1" customWidth="1"/>
@@ -3468,12 +3496,14 @@
         <v>35</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.15">
@@ -3484,7 +3514,7 @@
         <v>93.6</v>
       </c>
       <c r="D6" s="4">
-        <f>D5+(($P$2-$C$5)/54)</f>
+        <f t="shared" ref="D6:D37" si="0">D5+(($P$2-$C$5)/54)</f>
         <v>93.329629629629636</v>
       </c>
       <c r="E6" s="5">
@@ -3502,13 +3532,13 @@
         <v>36</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="L6" s="6"/>
     </row>
@@ -3518,23 +3548,25 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
-        <f>D6+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>93.244444444444454</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <f t="shared" ref="F7:F58" si="0">F6+(($P$2-$C$5)/53)</f>
+        <f t="shared" ref="F7:F58" si="1">F6+(($P$2-$C$5)/53)</f>
         <v>93.326415094339609</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" ref="G7:G58" si="1">C7/(($V$2/100)*($V$2/100))/100</f>
+        <f t="shared" ref="G7:G58" si="2">C7/(($V$2/100)*($V$2/100))/100</f>
         <v>0</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="4"/>
     </row>
@@ -3544,16 +3576,16 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <f>D7+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>93.159259259259272</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93.239622641509413</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="6"/>
@@ -3568,16 +3600,16 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f>D8+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>93.07407407407409</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93.152830188679218</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="6"/>
@@ -3592,16 +3624,16 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <f>D9+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.988888888888908</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93.066037735849022</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="6"/>
@@ -3616,16 +3648,16 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <f>D10+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.903703703703727</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.979245283018827</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" s="6"/>
@@ -3640,16 +3672,16 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
-        <f>D11+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.818518518518545</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.892452830188631</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="6"/>
@@ -3664,16 +3696,16 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
-        <f>D12+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.733333333333363</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.805660377358436</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="6"/>
@@ -3688,16 +3720,16 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
-        <f>D13+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.648148148148181</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.71886792452824</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
@@ -3712,16 +3744,16 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
-        <f>D14+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.562962962962999</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.632075471698045</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="6"/>
@@ -3736,16 +3768,16 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
-        <f>D15+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.477777777777817</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.545283018867849</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
@@ -3760,16 +3792,16 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
-        <f>D16+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.392592592592635</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.458490566037653</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
@@ -3784,16 +3816,16 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
-        <f>D17+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.307407407407453</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.371698113207458</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="6"/>
@@ -3808,16 +3840,16 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4">
-        <f>D18+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.222222222222271</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.284905660377262</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="6"/>
@@ -3832,16 +3864,16 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4">
-        <f>D19+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.137037037037089</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.198113207547067</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="6"/>
@@ -3856,16 +3888,16 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4">
-        <f>D20+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>92.051851851851907</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.111320754716871</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="6"/>
@@ -3880,16 +3912,16 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4">
-        <f>D21+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.966666666666725</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.024528301886676</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
@@ -3904,16 +3936,16 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4">
-        <f>D22+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.881481481481543</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.93773584905648</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="6"/>
@@ -3928,16 +3960,16 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4">
-        <f>D23+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.796296296296362</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.850943396226285</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="6"/>
@@ -3952,16 +3984,16 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4">
-        <f>D24+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.71111111111118</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.764150943396089</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="6"/>
@@ -3976,16 +4008,16 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4">
-        <f>D25+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.625925925925998</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.677358490565894</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="6"/>
@@ -4000,16 +4032,16 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4">
-        <f>D26+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.540740740740816</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.590566037735698</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="6"/>
@@ -4024,16 +4056,16 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4">
-        <f>D27+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.455555555555634</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.503773584905503</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="6"/>
@@ -4048,16 +4080,16 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4">
-        <f>D28+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.370370370370452</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.416981132075307</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="6"/>
@@ -4072,16 +4104,16 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4">
-        <f>D29+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.28518518518527</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.330188679245111</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="6"/>
@@ -4096,16 +4128,16 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4">
-        <f>D30+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.200000000000088</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.243396226414916</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H31" s="6"/>
@@ -4120,16 +4152,16 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4">
-        <f>D31+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.114814814814906</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.15660377358472</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H32" s="6"/>
@@ -4144,16 +4176,16 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4">
-        <f>D32+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>91.029629629629724</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.069811320754525</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
@@ -4168,16 +4200,16 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4">
-        <f>D33+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>90.944444444444542</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.983018867924329</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34" s="6"/>
@@ -4192,16 +4224,16 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4">
-        <f>D34+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>90.85925925925936</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.896226415094134</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="6"/>
@@ -4216,16 +4248,16 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4">
-        <f>D35+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>90.774074074074178</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.809433962263938</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="6"/>
@@ -4240,16 +4272,16 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4">
-        <f>D36+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="0"/>
         <v>90.688888888888997</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.722641509433743</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="6"/>
@@ -4264,16 +4296,16 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4">
-        <f>D37+(($P$2-$C$5)/54)</f>
+        <f t="shared" ref="D38:D58" si="3">D37+(($P$2-$C$5)/54)</f>
         <v>90.603703703703815</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.635849056603547</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="6"/>
@@ -4288,16 +4320,16 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4">
-        <f>D38+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>90.518518518518633</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.549056603773352</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="6"/>
@@ -4312,16 +4344,16 @@
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4">
-        <f>D39+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>90.433333333333451</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.462264150943156</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="6"/>
@@ -4336,16 +4368,16 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4">
-        <f>D40+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>90.348148148148269</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.37547169811296</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="6"/>
@@ -4360,16 +4392,16 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4">
-        <f>D41+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>90.262962962963087</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.288679245282765</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H42" s="6"/>
@@ -4384,16 +4416,16 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4">
-        <f>D42+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>90.177777777777905</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.201886792452569</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="6"/>
@@ -4408,16 +4440,16 @@
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4">
-        <f>D43+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>90.092592592592723</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.115094339622374</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="6"/>
@@ -4432,16 +4464,16 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4">
-        <f>D44+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>90.007407407407541</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.028301886792178</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
@@ -4456,16 +4488,16 @@
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4">
-        <f>D45+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>89.922222222222359</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.941509433961983</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H46" s="6"/>
@@ -4480,16 +4512,16 @@
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>D46+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>89.837037037037177</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.854716981131787</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H47" s="6"/>
@@ -4504,16 +4536,16 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4">
-        <f>D47+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>89.751851851851995</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.767924528301592</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H48" s="6"/>
@@ -4528,16 +4560,16 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4">
-        <f>D48+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>89.666666666666814</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.681132075471396</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H49" s="6"/>
@@ -4552,16 +4584,16 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4">
-        <f>D49+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>89.581481481481632</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.594339622641201</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="6"/>
@@ -4576,16 +4608,16 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4">
-        <f>D50+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>89.49629629629645</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.507547169811005</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H51" s="6"/>
@@ -4600,16 +4632,16 @@
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4">
-        <f>D51+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>89.411111111111268</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.420754716980809</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H52" s="6"/>
@@ -4624,16 +4656,16 @@
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4">
-        <f>D52+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>89.325925925926086</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.333962264150614</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53" s="6"/>
@@ -4648,16 +4680,16 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4">
-        <f>D53+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>89.240740740740904</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.247169811320418</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54" s="6"/>
@@ -4672,16 +4704,16 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4">
-        <f>D54+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>89.155555555555722</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.160377358490223</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" s="6"/>
@@ -4696,16 +4728,16 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4">
-        <f>D55+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>89.07037037037054</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89.073584905660027</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H56" s="6"/>
@@ -4720,16 +4752,16 @@
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4">
-        <f>D56+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>88.985185185185358</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.986792452829832</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H57" s="6"/>
@@ -4744,16 +4776,16 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4">
-        <f>D57+(($P$2-$C$5)/54)</f>
+        <f t="shared" si="3"/>
         <v>88.900000000000176</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.899999999999636</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H58" s="6"/>
@@ -4780,7 +4812,7 @@
   <dimension ref="B1:M58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5517,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A10" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -412,11 +412,62 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ジョギング5.1キロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さんまのみりん干し、ポテトグラタン、トマトときゅうりの和物、少なめご飯</t>
+    <rPh sb="7" eb="8">
+      <t>ボ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アエモノ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーズトースト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豚汁、おにぎり1個、スモークチキン</t>
+    <rPh sb="0" eb="2">
+      <t>トンジル</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜計測
+木屋町2週目しんどかった。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キヤマチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -426,7 +477,7 @@
     <numFmt numFmtId="181" formatCode="m/d"/>
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,6 +637,9 @@
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -611,24 +665,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -666,7 +708,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -848,7 +890,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1038,24 +1079,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="153534848"/>
-        <c:axId val="153989888"/>
+        <c:axId val="205275520"/>
+        <c:axId val="205277056"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1099,7 +1130,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1278,7 +1309,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1290,7 +1320,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1469,88 +1499,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="154237184"/>
-        <c:axId val="154235264"/>
+        <c:axId val="205292672"/>
+        <c:axId val="205278592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="153534848"/>
+        <c:axId val="205275520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153989888"/>
+        <c:crossAx val="205277056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153989888"/>
+        <c:axId val="205277056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153534848"/>
+        <c:crossAx val="205275520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154235264"/>
+        <c:axId val="205278592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.3000000000000001"/>
+          <c:max val="0.30000000000000016"/>
           <c:min val="0.2"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154237184"/>
+        <c:crossAx val="205292672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000036E-3"/>
+        <c:majorUnit val="5.0000000000000044E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="154237184"/>
+        <c:axId val="205292672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="154235264"/>
+        <c:crossAx val="205278592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1563,15 +1573,12 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1579,24 +1586,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1634,7 +1629,7 @@
             <c:numRef>
               <c:f>MATSUZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1816,7 +1811,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2006,53 +2000,38 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="162005376"/>
-        <c:axId val="162006912"/>
+        <c:axId val="205495296"/>
+        <c:axId val="205513472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="162005376"/>
+        <c:axId val="205495296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162006912"/>
+        <c:crossAx val="205513472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162006912"/>
+        <c:axId val="205513472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162005376"/>
+        <c:crossAx val="205495296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2063,16 +2042,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2080,24 +2055,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2320,27 +2283,20 @@
                 <c:pt idx="1">
                   <c:v>69.599999999999994</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="165143296"/>
-        <c:axId val="165144832"/>
+        <c:axId val="68559616"/>
+        <c:axId val="68561152"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2569,10 +2525,12 @@
                 <c:pt idx="1">
                   <c:v>0.184</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.187</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2768,88 +2726,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="167183872"/>
-        <c:axId val="167182336"/>
+        <c:axId val="68564480"/>
+        <c:axId val="68562944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="165143296"/>
+        <c:axId val="68559616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165144832"/>
+        <c:crossAx val="68561152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165144832"/>
+        <c:axId val="68561152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165143296"/>
+        <c:crossAx val="68559616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167182336"/>
+        <c:axId val="68562944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167183872"/>
+        <c:crossAx val="68564480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000018E-3"/>
+        <c:majorUnit val="5.0000000000000027E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="167183872"/>
+        <c:axId val="68564480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="167182336"/>
+        <c:crossAx val="68562944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2862,15 +2800,12 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3034,8 +2969,8 @@
       <xdr:rowOff>19048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>141588</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>180203</xdr:rowOff>
     </xdr:to>
@@ -3099,7 +3034,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3173,7 +3108,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3208,7 +3142,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3384,14 +3317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -3409,7 +3342,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:24" ht="24" customHeight="1">
       <c r="O1" s="2"/>
       <c r="P1" s="16" t="s">
         <v>0</v>
@@ -3420,7 +3353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:24" ht="95.25" customHeight="1">
       <c r="N2" s="17" t="s">
         <v>4</v>
       </c>
@@ -3436,8 +3369,8 @@
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="2:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:24" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:24">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3472,7 +3405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:24">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -3506,7 +3439,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:24">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -3542,7 +3475,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:24">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -3570,7 +3503,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:24">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -3594,7 +3527,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:24">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -3618,7 +3551,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:24">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -3642,7 +3575,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:24">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -3666,7 +3599,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:24">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -3690,7 +3623,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:24">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -3714,7 +3647,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:24">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -3738,7 +3671,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:24">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -3762,7 +3695,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:24">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -3786,7 +3719,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -3810,7 +3743,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -3834,7 +3767,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -3858,7 +3791,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -3882,7 +3815,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -3906,7 +3839,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -3930,7 +3863,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -3954,7 +3887,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -3978,7 +3911,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -4002,7 +3935,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -4026,7 +3959,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -4050,7 +3983,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -4074,7 +4007,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -4098,7 +4031,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -4122,7 +4055,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -4146,7 +4079,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -4170,7 +4103,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -4194,7 +4127,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -4218,7 +4151,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -4242,7 +4175,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -4266,7 +4199,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -4290,7 +4223,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -4314,7 +4247,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -4338,7 +4271,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -4362,7 +4295,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -4386,7 +4319,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -4410,7 +4343,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -4434,7 +4367,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -4458,7 +4391,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -4482,7 +4415,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -4506,7 +4439,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -4530,7 +4463,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -4554,7 +4487,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -4578,7 +4511,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -4602,7 +4535,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -4626,7 +4559,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -4650,7 +4583,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -4674,7 +4607,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -4698,7 +4631,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -4722,7 +4655,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -4746,7 +4679,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -4770,7 +4703,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -4808,14 +4741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
@@ -4826,7 +4759,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13" ht="24" customHeight="1">
       <c r="J1" s="2"/>
       <c r="K1" s="16" t="s">
         <v>0</v>
@@ -4834,7 +4767,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="2:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" ht="95.25" customHeight="1">
       <c r="I2" s="17" t="s">
         <v>4</v>
       </c>
@@ -4845,8 +4778,8 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:13">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4866,7 +4799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -4887,7 +4820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -4908,7 +4841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -4920,7 +4853,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -4932,7 +4865,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -4944,7 +4877,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -4956,7 +4889,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -4968,7 +4901,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -4980,7 +4913,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -4992,7 +4925,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -5004,7 +4937,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -5016,7 +4949,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -5028,7 +4961,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -5040,7 +4973,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -5052,7 +4985,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -5064,7 +4997,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -5076,7 +5009,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -5088,7 +5021,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -5100,7 +5033,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -5112,7 +5045,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -5124,7 +5057,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -5136,7 +5069,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -5148,7 +5081,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -5160,7 +5093,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -5172,7 +5105,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -5184,7 +5117,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -5196,7 +5129,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -5208,7 +5141,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -5220,7 +5153,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -5232,7 +5165,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -5244,7 +5177,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -5256,7 +5189,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -5268,7 +5201,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -5280,7 +5213,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -5292,7 +5225,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -5304,7 +5237,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -5316,7 +5249,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -5328,7 +5261,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -5340,7 +5273,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -5352,7 +5285,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -5364,7 +5297,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -5376,7 +5309,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -5388,7 +5321,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -5400,7 +5333,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:7">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -5412,7 +5345,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:7">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -5424,7 +5357,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:7">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -5436,7 +5369,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:7">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -5448,7 +5381,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:7">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -5460,7 +5393,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:7">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -5472,7 +5405,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:7">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -5484,7 +5417,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:7">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -5496,7 +5429,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:7">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -5508,7 +5441,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:7">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -5520,7 +5453,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:7">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -5546,14 +5479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -5563,12 +5496,12 @@
     <col min="7" max="7" width="9" style="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.375" style="1" customWidth="1" collapsed="1"/>
     <col min="11" max="12" width="25.375" style="1" customWidth="1" collapsed="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" ht="24" customHeight="1">
       <c r="N1" s="2"/>
       <c r="O1" s="16" t="s">
         <v>1</v>
@@ -5576,7 +5509,7 @@
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
     </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" ht="95.25" customHeight="1">
       <c r="M2" s="17" t="s">
         <v>4</v>
       </c>
@@ -5587,8 +5520,8 @@
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:17">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5623,7 +5556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="37.5">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -5657,7 +5590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="56.25">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -5694,7 +5627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="56.25">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -5702,24 +5635,36 @@
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0.18960714285714286</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="K7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="37.5">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -5735,12 +5680,16 @@
         <v>0.18941071428571429</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -5761,7 +5710,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -5782,7 +5731,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -5803,7 +5752,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -5824,7 +5773,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -5845,7 +5794,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -5866,7 +5815,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -5887,7 +5836,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -5908,7 +5857,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -5929,7 +5878,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -5950,7 +5899,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -5971,7 +5920,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -5992,7 +5941,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -6013,7 +5962,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -6034,7 +5983,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -6055,7 +6004,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -6076,7 +6025,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -6097,7 +6046,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -6118,7 +6067,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -6139,7 +6088,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -6160,7 +6109,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -6181,7 +6130,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -6202,7 +6151,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -6223,7 +6172,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -6244,7 +6193,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -6265,7 +6214,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -6286,7 +6235,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -6307,7 +6256,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -6328,7 +6277,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -6349,7 +6298,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -6370,7 +6319,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -6391,7 +6340,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -6412,7 +6361,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -6433,7 +6382,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -6454,7 +6403,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -6475,7 +6424,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -6496,7 +6445,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -6517,7 +6466,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -6538,7 +6487,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -6559,7 +6508,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -6580,7 +6529,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -6601,7 +6550,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -6622,7 +6571,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -6643,7 +6592,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -6664,7 +6613,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -6685,7 +6634,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -6706,7 +6655,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -6727,7 +6676,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -6748,7 +6697,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -6769,7 +6718,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -6790,7 +6739,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -6811,7 +6760,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -463,12 +468,25 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>昼：おにぎり×2＆野菜ジュース　夜：</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤサイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.0%&quot;以下&quot;"/>
@@ -476,8 +494,9 @@
     <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="181" formatCode="m/d"/>
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
+    <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,6 +644,9 @@
     <xf numFmtId="182" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -637,8 +659,8 @@
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,12 +687,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -708,7 +742,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -890,6 +924,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1079,14 +1114,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="205275520"/>
-        <c:axId val="205277056"/>
+        <c:smooth val="0"/>
+        <c:axId val="1915408880"/>
+        <c:axId val="1915412144"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1130,7 +1175,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1309,6 +1354,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1320,7 +1366,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1499,68 +1545,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="205292672"/>
-        <c:axId val="205278592"/>
+        <c:smooth val="0"/>
+        <c:axId val="1915404528"/>
+        <c:axId val="1915413776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="205275520"/>
+        <c:axId val="1915408880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205277056"/>
+        <c:crossAx val="1915412144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="205277056"/>
+        <c:axId val="1915412144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205275520"/>
+        <c:crossAx val="1915408880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205278592"/>
+        <c:axId val="1915413776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000016"/>
           <c:min val="0.2"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205292672"/>
+        <c:crossAx val="1915404528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000044E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="205292672"/>
+        <c:axId val="1915404528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="205278592"/>
+        <c:crossAx val="1915413776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1572,9 +1638,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1586,12 +1654,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1629,7 +1709,7 @@
             <c:numRef>
               <c:f>MATSUZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"\(aaa\)</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1808,9 +1888,13 @@
                 <c:pt idx="1">
                   <c:v>67</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2000,38 +2084,53 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="205495296"/>
-        <c:axId val="205513472"/>
+        <c:smooth val="0"/>
+        <c:axId val="1915407248"/>
+        <c:axId val="1915411600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="205495296"/>
+        <c:axId val="1915407248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205513472"/>
+        <c:crossAx val="1915411600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="205513472"/>
+        <c:axId val="1915411600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205495296"/>
+        <c:crossAx val="1915407248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2042,8 +2141,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2055,12 +2158,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2289,14 +2404,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68559616"/>
-        <c:axId val="68561152"/>
+        <c:smooth val="0"/>
+        <c:axId val="1915409424"/>
+        <c:axId val="1915415952"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2531,6 +2656,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2726,68 +2852,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68564480"/>
-        <c:axId val="68562944"/>
+        <c:smooth val="0"/>
+        <c:axId val="1915403984"/>
+        <c:axId val="1915403440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68559616"/>
+        <c:axId val="1915409424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68561152"/>
+        <c:crossAx val="1915415952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68561152"/>
+        <c:axId val="1915415952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68559616"/>
+        <c:crossAx val="1915409424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68562944"/>
+        <c:axId val="1915403440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68564480"/>
+        <c:crossAx val="1915403984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000027E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="68564480"/>
+        <c:axId val="1915403984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68562944"/>
+        <c:crossAx val="1915403440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2800,8 +2946,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2892,13 +3041,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>131307</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>93886</xdr:rowOff>
+      <xdr:rowOff>93887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>214313</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2926,7 +3075,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>300815</xdr:colOff>
+      <xdr:colOff>15065</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1190625</xdr:rowOff>
     </xdr:to>
@@ -3076,7 +3225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3108,9 +3257,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3142,6 +3292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3317,14 +3468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -3342,35 +3493,35 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="24" customHeight="1">
+    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O1" s="2"/>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
       <c r="U1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="95.25" customHeight="1">
-      <c r="N2" s="17" t="s">
+    <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="18">
+      <c r="O2" s="18"/>
+      <c r="P2" s="19">
         <v>88.9</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
       <c r="V2" s="15">
         <v>177</v>
       </c>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="2:24" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:24">
+    <row r="3" spans="2:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3405,7 +3556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -3439,7 +3590,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -3475,7 +3626,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -3503,7 +3654,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -3527,7 +3678,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -3551,7 +3702,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -3575,7 +3726,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -3599,7 +3750,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -3623,7 +3774,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -3647,7 +3798,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -3671,7 +3822,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -3695,7 +3846,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -3719,7 +3870,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -3743,7 +3894,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -3767,7 +3918,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -3791,7 +3942,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -3815,7 +3966,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -3839,7 +3990,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -3863,7 +4014,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -3887,7 +4038,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -3911,7 +4062,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -3935,7 +4086,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -3959,7 +4110,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -3983,7 +4134,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -4007,7 +4158,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -4031,7 +4182,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -4055,7 +4206,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -4079,7 +4230,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -4103,7 +4254,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -4127,7 +4278,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -4151,7 +4302,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -4175,7 +4326,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -4199,7 +4350,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -4223,7 +4374,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -4247,7 +4398,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -4271,7 +4422,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -4295,7 +4446,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -4319,7 +4470,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -4343,7 +4494,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -4367,7 +4518,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -4391,7 +4542,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -4415,7 +4566,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -4439,7 +4590,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -4463,7 +4614,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -4487,7 +4638,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -4511,7 +4662,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -4535,7 +4686,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -4559,7 +4710,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -4583,7 +4734,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -4607,7 +4758,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -4631,7 +4782,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -4655,7 +4806,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -4679,7 +4830,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -4703,7 +4854,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -4741,45 +4892,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
+    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
     <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.75" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="24" customHeight="1">
+    <row r="1" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J1" s="2"/>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" spans="2:13" ht="95.25" customHeight="1">
-      <c r="I2" s="17" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="2:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18">
+      <c r="J2" s="18"/>
+      <c r="K2" s="19">
         <v>62.9</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="2:13" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:13">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4799,8 +4951,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="21">
         <v>42375</v>
       </c>
       <c r="C5" s="4">
@@ -4820,8 +4972,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="21">
         <v>42376</v>
       </c>
       <c r="C6" s="4">
@@ -4841,20 +4993,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="21">
         <v>42377</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>67</v>
+      </c>
       <c r="D7" s="4">
         <v>67.3</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="8">
+        <f>D7-C7</f>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="21">
         <v>42378</v>
       </c>
       <c r="C8" s="4"/>
@@ -4865,8 +5024,8 @@
       <c r="F8" s="8"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="21">
         <v>42379</v>
       </c>
       <c r="C9" s="4"/>
@@ -4877,8 +5036,8 @@
       <c r="F9" s="8"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B10" s="21">
         <v>42380</v>
       </c>
       <c r="C10" s="4"/>
@@ -4889,8 +5048,8 @@
       <c r="F10" s="8"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="21">
         <v>42381</v>
       </c>
       <c r="C11" s="4"/>
@@ -4901,8 +5060,8 @@
       <c r="F11" s="8"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="21">
         <v>42382</v>
       </c>
       <c r="C12" s="4"/>
@@ -4913,8 +5072,8 @@
       <c r="F12" s="8"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="21">
         <v>42383</v>
       </c>
       <c r="C13" s="4"/>
@@ -4925,8 +5084,8 @@
       <c r="F13" s="8"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="21">
         <v>42384</v>
       </c>
       <c r="C14" s="4"/>
@@ -4937,8 +5096,8 @@
       <c r="F14" s="8"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="21">
         <v>42385</v>
       </c>
       <c r="C15" s="4"/>
@@ -4949,8 +5108,8 @@
       <c r="F15" s="8"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="21">
         <v>42386</v>
       </c>
       <c r="C16" s="4"/>
@@ -4961,8 +5120,8 @@
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="21">
         <v>42387</v>
       </c>
       <c r="C17" s="4"/>
@@ -4973,8 +5132,8 @@
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="21">
         <v>42388</v>
       </c>
       <c r="C18" s="4"/>
@@ -4985,8 +5144,8 @@
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="21">
         <v>42389</v>
       </c>
       <c r="C19" s="4"/>
@@ -4997,8 +5156,8 @@
       <c r="F19" s="8"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="21">
         <v>42390</v>
       </c>
       <c r="C20" s="4"/>
@@ -5009,8 +5168,8 @@
       <c r="F20" s="8"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="21">
         <v>42391</v>
       </c>
       <c r="C21" s="4"/>
@@ -5021,8 +5180,8 @@
       <c r="F21" s="8"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="21">
         <v>42392</v>
       </c>
       <c r="C22" s="4"/>
@@ -5033,8 +5192,8 @@
       <c r="F22" s="8"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="21">
         <v>42393</v>
       </c>
       <c r="C23" s="4"/>
@@ -5045,8 +5204,8 @@
       <c r="F23" s="8"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="21">
         <v>42394</v>
       </c>
       <c r="C24" s="4"/>
@@ -5057,8 +5216,8 @@
       <c r="F24" s="8"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="21">
         <v>42395</v>
       </c>
       <c r="C25" s="4"/>
@@ -5069,8 +5228,8 @@
       <c r="F25" s="8"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="21">
         <v>42396</v>
       </c>
       <c r="C26" s="4"/>
@@ -5081,8 +5240,8 @@
       <c r="F26" s="8"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="21">
         <v>42397</v>
       </c>
       <c r="C27" s="4"/>
@@ -5093,8 +5252,8 @@
       <c r="F27" s="8"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="21">
         <v>42398</v>
       </c>
       <c r="C28" s="4"/>
@@ -5105,8 +5264,8 @@
       <c r="F28" s="8"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="21">
         <v>42399</v>
       </c>
       <c r="C29" s="4"/>
@@ -5117,8 +5276,8 @@
       <c r="F29" s="8"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="21">
         <v>42400</v>
       </c>
       <c r="C30" s="4"/>
@@ -5129,8 +5288,8 @@
       <c r="F30" s="8"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="21">
         <v>42401</v>
       </c>
       <c r="C31" s="4"/>
@@ -5141,8 +5300,8 @@
       <c r="F31" s="8"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="21">
         <v>42402</v>
       </c>
       <c r="C32" s="4"/>
@@ -5153,8 +5312,8 @@
       <c r="F32" s="8"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="21">
         <v>42403</v>
       </c>
       <c r="C33" s="4"/>
@@ -5165,8 +5324,8 @@
       <c r="F33" s="8"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="21">
         <v>42404</v>
       </c>
       <c r="C34" s="4"/>
@@ -5177,8 +5336,8 @@
       <c r="F34" s="8"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="21">
         <v>42405</v>
       </c>
       <c r="C35" s="4"/>
@@ -5189,8 +5348,8 @@
       <c r="F35" s="8"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="21">
         <v>42406</v>
       </c>
       <c r="C36" s="4"/>
@@ -5201,8 +5360,8 @@
       <c r="F36" s="8"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="21">
         <v>42407</v>
       </c>
       <c r="C37" s="4"/>
@@ -5213,8 +5372,8 @@
       <c r="F37" s="8"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="21">
         <v>42408</v>
       </c>
       <c r="C38" s="4"/>
@@ -5225,8 +5384,8 @@
       <c r="F38" s="8"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="21">
         <v>42409</v>
       </c>
       <c r="C39" s="4"/>
@@ -5237,8 +5396,8 @@
       <c r="F39" s="8"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="21">
         <v>42410</v>
       </c>
       <c r="C40" s="4"/>
@@ -5249,8 +5408,8 @@
       <c r="F40" s="8"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="21">
         <v>42411</v>
       </c>
       <c r="C41" s="4"/>
@@ -5261,8 +5420,8 @@
       <c r="F41" s="8"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="21">
         <v>42412</v>
       </c>
       <c r="C42" s="4"/>
@@ -5273,8 +5432,8 @@
       <c r="F42" s="8"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="21">
         <v>42413</v>
       </c>
       <c r="C43" s="4"/>
@@ -5285,8 +5444,8 @@
       <c r="F43" s="8"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="21">
         <v>42414</v>
       </c>
       <c r="C44" s="4"/>
@@ -5297,8 +5456,8 @@
       <c r="F44" s="8"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="21">
         <v>42415</v>
       </c>
       <c r="C45" s="4"/>
@@ -5309,8 +5468,8 @@
       <c r="F45" s="8"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="21">
         <v>42416</v>
       </c>
       <c r="C46" s="4"/>
@@ -5321,8 +5480,8 @@
       <c r="F46" s="8"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="21">
         <v>42417</v>
       </c>
       <c r="C47" s="4"/>
@@ -5333,8 +5492,8 @@
       <c r="F47" s="8"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="21">
         <v>42418</v>
       </c>
       <c r="C48" s="4"/>
@@ -5345,8 +5504,8 @@
       <c r="F48" s="8"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="21">
         <v>42419</v>
       </c>
       <c r="C49" s="4"/>
@@ -5357,8 +5516,8 @@
       <c r="F49" s="8"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="21">
         <v>42420</v>
       </c>
       <c r="C50" s="4"/>
@@ -5369,8 +5528,8 @@
       <c r="F50" s="8"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="21">
         <v>42421</v>
       </c>
       <c r="C51" s="4"/>
@@ -5381,8 +5540,8 @@
       <c r="F51" s="8"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="21">
         <v>42422</v>
       </c>
       <c r="C52" s="4"/>
@@ -5393,8 +5552,8 @@
       <c r="F52" s="8"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53" s="21">
         <v>42423</v>
       </c>
       <c r="C53" s="4"/>
@@ -5405,8 +5564,8 @@
       <c r="F53" s="8"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="21">
         <v>42424</v>
       </c>
       <c r="C54" s="4"/>
@@ -5417,8 +5576,8 @@
       <c r="F54" s="8"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B55" s="21">
         <v>42425</v>
       </c>
       <c r="C55" s="4"/>
@@ -5429,8 +5588,8 @@
       <c r="F55" s="8"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B56" s="21">
         <v>42426</v>
       </c>
       <c r="C56" s="4"/>
@@ -5441,8 +5600,8 @@
       <c r="F56" s="8"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B57" s="21">
         <v>42427</v>
       </c>
       <c r="C57" s="4"/>
@@ -5453,8 +5612,8 @@
       <c r="F57" s="8"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B58" s="21">
         <v>42428</v>
       </c>
       <c r="C58" s="4"/>
@@ -5479,14 +5638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -5501,27 +5660,27 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1">
+    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1">
-      <c r="M2" s="17" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="19">
+      <c r="N2" s="18"/>
+      <c r="O2" s="20">
         <v>0.17899999999999999</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-    </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:17">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5556,7 +5715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5">
+    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -5590,7 +5749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25">
+    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -5627,7 +5786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="56.25">
+    <row r="7" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -5664,7 +5823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="37.5">
+    <row r="8" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -5683,13 +5842,13 @@
       <c r="I8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="16" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -5710,7 +5869,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -5731,7 +5890,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -5752,7 +5911,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -5773,7 +5932,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -5794,7 +5953,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -5815,7 +5974,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -5836,7 +5995,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -5857,7 +6016,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -5878,7 +6037,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -5899,7 +6058,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -5920,7 +6079,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -5941,7 +6100,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -5962,7 +6121,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -5983,7 +6142,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -6004,7 +6163,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -6025,7 +6184,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -6046,7 +6205,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -6067,7 +6226,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -6088,7 +6247,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -6109,7 +6268,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -6130,7 +6289,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -6151,7 +6310,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -6172,7 +6331,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -6193,7 +6352,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -6214,7 +6373,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -6235,7 +6394,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -6256,7 +6415,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -6277,7 +6436,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -6298,7 +6457,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -6319,7 +6478,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -6340,7 +6499,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -6361,7 +6520,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -6382,7 +6541,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -6403,7 +6562,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -6424,7 +6583,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -6445,7 +6604,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -6466,7 +6625,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -6487,7 +6646,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -6508,7 +6667,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -6529,7 +6688,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -6550,7 +6709,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -6571,7 +6730,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -6592,7 +6751,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -6613,7 +6772,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -6634,7 +6793,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -6655,7 +6814,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -6676,7 +6835,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -6697,7 +6856,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -6718,7 +6877,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -6739,7 +6898,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -6760,7 +6919,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="21555" windowHeight="9870" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -478,6 +473,31 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白菜とエリンギの炒め物、ポテトグラタン、冷奴、豆腐とわかめの味噌汁、少なめごはん</t>
+    <rPh sb="0" eb="2">
+      <t>ハクサイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒヤヤッコ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウフ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ミソシル</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -647,6 +667,9 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -658,9 +681,6 @@
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1126,8 +1146,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1915408880"/>
-        <c:axId val="1915412144"/>
+        <c:axId val="97272192"/>
+        <c:axId val="97273728"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1557,11 +1577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1915404528"/>
-        <c:axId val="1915413776"/>
+        <c:axId val="97281152"/>
+        <c:axId val="97275264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1915408880"/>
+        <c:axId val="97272192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,14 +1591,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1915412144"/>
+        <c:crossAx val="97273728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1915412144"/>
+        <c:axId val="97273728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -1591,13 +1611,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1915408880"/>
+        <c:crossAx val="97272192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1915413776"/>
+        <c:axId val="97275264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000016"/>
@@ -1610,13 +1630,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1915404528"/>
+        <c:crossAx val="97281152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000044E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1915404528"/>
+        <c:axId val="97281152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +1646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1915413776"/>
+        <c:crossAx val="97275264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1638,6 +1658,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -2096,11 +2117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1915407248"/>
-        <c:axId val="1915411600"/>
+        <c:axId val="111925120"/>
+        <c:axId val="111926656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1915407248"/>
+        <c:axId val="111925120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,14 +2131,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1915411600"/>
+        <c:crossAx val="111926656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1915411600"/>
+        <c:axId val="111926656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2130,7 +2151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1915407248"/>
+        <c:crossAx val="111925120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2416,8 +2437,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1915409424"/>
-        <c:axId val="1915415952"/>
+        <c:axId val="111966464"/>
+        <c:axId val="111972352"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2864,11 +2885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1915403984"/>
-        <c:axId val="1915403440"/>
+        <c:axId val="111975424"/>
+        <c:axId val="111973888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1915409424"/>
+        <c:axId val="111966464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,14 +2899,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1915415952"/>
+        <c:crossAx val="111972352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1915415952"/>
+        <c:axId val="111972352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -2898,13 +2919,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1915409424"/>
+        <c:crossAx val="111966464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1915403440"/>
+        <c:axId val="111973888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -2917,13 +2938,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1915403984"/>
+        <c:crossAx val="111975424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000027E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1915403984"/>
+        <c:axId val="111975424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1915403440"/>
+        <c:crossAx val="111973888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3183,7 +3204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3225,7 +3246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3260,7 +3281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3471,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -3495,25 +3516,25 @@
   <sheetData>
     <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O1" s="2"/>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
       <c r="U1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19">
+      <c r="O2" s="19"/>
+      <c r="P2" s="20">
         <v>88.9</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
       <c r="V2" s="15">
         <v>177</v>
       </c>
@@ -4895,8 +4916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4913,22 +4934,22 @@
   <sheetData>
     <row r="1" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J1" s="2"/>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="2:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19">
+      <c r="J2" s="19"/>
+      <c r="K2" s="20">
         <v>62.9</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
@@ -4952,7 +4973,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>42375</v>
       </c>
       <c r="C5" s="4">
@@ -4973,7 +4994,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>42376</v>
       </c>
       <c r="C6" s="4">
@@ -4994,7 +5015,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>42377</v>
       </c>
       <c r="C7" s="4">
@@ -5013,7 +5034,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>42378</v>
       </c>
       <c r="C8" s="4"/>
@@ -5025,7 +5046,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>42379</v>
       </c>
       <c r="C9" s="4"/>
@@ -5037,7 +5058,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="21">
+      <c r="B10" s="17">
         <v>42380</v>
       </c>
       <c r="C10" s="4"/>
@@ -5049,7 +5070,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>42381</v>
       </c>
       <c r="C11" s="4"/>
@@ -5061,7 +5082,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>42382</v>
       </c>
       <c r="C12" s="4"/>
@@ -5073,7 +5094,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <v>42383</v>
       </c>
       <c r="C13" s="4"/>
@@ -5085,7 +5106,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="21">
+      <c r="B14" s="17">
         <v>42384</v>
       </c>
       <c r="C14" s="4"/>
@@ -5097,7 +5118,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="21">
+      <c r="B15" s="17">
         <v>42385</v>
       </c>
       <c r="C15" s="4"/>
@@ -5109,7 +5130,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="21">
+      <c r="B16" s="17">
         <v>42386</v>
       </c>
       <c r="C16" s="4"/>
@@ -5121,7 +5142,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="21">
+      <c r="B17" s="17">
         <v>42387</v>
       </c>
       <c r="C17" s="4"/>
@@ -5133,7 +5154,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>42388</v>
       </c>
       <c r="C18" s="4"/>
@@ -5145,7 +5166,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="21">
+      <c r="B19" s="17">
         <v>42389</v>
       </c>
       <c r="C19" s="4"/>
@@ -5157,7 +5178,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="21">
+      <c r="B20" s="17">
         <v>42390</v>
       </c>
       <c r="C20" s="4"/>
@@ -5169,7 +5190,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="21">
+      <c r="B21" s="17">
         <v>42391</v>
       </c>
       <c r="C21" s="4"/>
@@ -5181,7 +5202,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="21">
+      <c r="B22" s="17">
         <v>42392</v>
       </c>
       <c r="C22" s="4"/>
@@ -5193,7 +5214,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="21">
+      <c r="B23" s="17">
         <v>42393</v>
       </c>
       <c r="C23" s="4"/>
@@ -5205,7 +5226,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="21">
+      <c r="B24" s="17">
         <v>42394</v>
       </c>
       <c r="C24" s="4"/>
@@ -5217,7 +5238,7 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="21">
+      <c r="B25" s="17">
         <v>42395</v>
       </c>
       <c r="C25" s="4"/>
@@ -5229,7 +5250,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="21">
+      <c r="B26" s="17">
         <v>42396</v>
       </c>
       <c r="C26" s="4"/>
@@ -5241,7 +5262,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="21">
+      <c r="B27" s="17">
         <v>42397</v>
       </c>
       <c r="C27" s="4"/>
@@ -5253,7 +5274,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="21">
+      <c r="B28" s="17">
         <v>42398</v>
       </c>
       <c r="C28" s="4"/>
@@ -5265,7 +5286,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="21">
+      <c r="B29" s="17">
         <v>42399</v>
       </c>
       <c r="C29" s="4"/>
@@ -5277,7 +5298,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="21">
+      <c r="B30" s="17">
         <v>42400</v>
       </c>
       <c r="C30" s="4"/>
@@ -5289,7 +5310,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="21">
+      <c r="B31" s="17">
         <v>42401</v>
       </c>
       <c r="C31" s="4"/>
@@ -5301,7 +5322,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="21">
+      <c r="B32" s="17">
         <v>42402</v>
       </c>
       <c r="C32" s="4"/>
@@ -5313,7 +5334,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="21">
+      <c r="B33" s="17">
         <v>42403</v>
       </c>
       <c r="C33" s="4"/>
@@ -5325,7 +5346,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="21">
+      <c r="B34" s="17">
         <v>42404</v>
       </c>
       <c r="C34" s="4"/>
@@ -5337,7 +5358,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="21">
+      <c r="B35" s="17">
         <v>42405</v>
       </c>
       <c r="C35" s="4"/>
@@ -5349,7 +5370,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="21">
+      <c r="B36" s="17">
         <v>42406</v>
       </c>
       <c r="C36" s="4"/>
@@ -5361,7 +5382,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="21">
+      <c r="B37" s="17">
         <v>42407</v>
       </c>
       <c r="C37" s="4"/>
@@ -5373,7 +5394,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="21">
+      <c r="B38" s="17">
         <v>42408</v>
       </c>
       <c r="C38" s="4"/>
@@ -5385,7 +5406,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="21">
+      <c r="B39" s="17">
         <v>42409</v>
       </c>
       <c r="C39" s="4"/>
@@ -5397,7 +5418,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="21">
+      <c r="B40" s="17">
         <v>42410</v>
       </c>
       <c r="C40" s="4"/>
@@ -5409,7 +5430,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="21">
+      <c r="B41" s="17">
         <v>42411</v>
       </c>
       <c r="C41" s="4"/>
@@ -5421,7 +5442,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="21">
+      <c r="B42" s="17">
         <v>42412</v>
       </c>
       <c r="C42" s="4"/>
@@ -5433,7 +5454,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="21">
+      <c r="B43" s="17">
         <v>42413</v>
       </c>
       <c r="C43" s="4"/>
@@ -5445,7 +5466,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="21">
+      <c r="B44" s="17">
         <v>42414</v>
       </c>
       <c r="C44" s="4"/>
@@ -5457,7 +5478,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="21">
+      <c r="B45" s="17">
         <v>42415</v>
       </c>
       <c r="C45" s="4"/>
@@ -5469,7 +5490,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="21">
+      <c r="B46" s="17">
         <v>42416</v>
       </c>
       <c r="C46" s="4"/>
@@ -5481,7 +5502,7 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B47" s="21">
+      <c r="B47" s="17">
         <v>42417</v>
       </c>
       <c r="C47" s="4"/>
@@ -5493,7 +5514,7 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="21">
+      <c r="B48" s="17">
         <v>42418</v>
       </c>
       <c r="C48" s="4"/>
@@ -5505,7 +5526,7 @@
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="21">
+      <c r="B49" s="17">
         <v>42419</v>
       </c>
       <c r="C49" s="4"/>
@@ -5517,7 +5538,7 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B50" s="21">
+      <c r="B50" s="17">
         <v>42420</v>
       </c>
       <c r="C50" s="4"/>
@@ -5529,7 +5550,7 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B51" s="21">
+      <c r="B51" s="17">
         <v>42421</v>
       </c>
       <c r="C51" s="4"/>
@@ -5541,7 +5562,7 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B52" s="21">
+      <c r="B52" s="17">
         <v>42422</v>
       </c>
       <c r="C52" s="4"/>
@@ -5553,7 +5574,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B53" s="21">
+      <c r="B53" s="17">
         <v>42423</v>
       </c>
       <c r="C53" s="4"/>
@@ -5565,7 +5586,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B54" s="21">
+      <c r="B54" s="17">
         <v>42424</v>
       </c>
       <c r="C54" s="4"/>
@@ -5577,7 +5598,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="21">
+      <c r="B55" s="17">
         <v>42425</v>
       </c>
       <c r="C55" s="4"/>
@@ -5589,7 +5610,7 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B56" s="21">
+      <c r="B56" s="17">
         <v>42426</v>
       </c>
       <c r="C56" s="4"/>
@@ -5601,7 +5622,7 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B57" s="21">
+      <c r="B57" s="17">
         <v>42427</v>
       </c>
       <c r="C57" s="4"/>
@@ -5613,7 +5634,7 @@
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B58" s="21">
+      <c r="B58" s="17">
         <v>42428</v>
       </c>
       <c r="C58" s="4"/>
@@ -5641,8 +5662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -5656,28 +5677,29 @@
     <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.25" style="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="19.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="25.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25.375" style="1" customWidth="1" collapsed="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="20">
+      <c r="N2" s="19"/>
+      <c r="O2" s="21">
         <v>0.17899999999999999</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
@@ -5823,7 +5845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -5845,7 +5867,9 @@
       <c r="J8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -464,40 +469,60 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>昼：おにぎり×2＆野菜ジュース　夜：</t>
-    <rPh sb="0" eb="1">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヤサイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヨル</t>
+    <t>白菜とエリンギの炒め物、ポテトグラタン、冷奴、豆腐とわかめの味噌汁、少なめごはん</t>
+    <rPh sb="0" eb="2">
+      <t>ハクサイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒヤヤッコ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウフ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ミソシル</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>白菜とエリンギの炒め物、ポテトグラタン、冷奴、豆腐とわかめの味噌汁、少なめごはん</t>
-    <rPh sb="0" eb="2">
-      <t>ハクサイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イタ</t>
-    </rPh>
+    <t>昼：無し　夜：サラダチキンとスープ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：おにぎり×2＆野菜ジュース　夜：ラーメン</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤサイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run：5.0km　筋トレ</t>
     <rPh sb="10" eb="11">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒヤヤッコ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウフ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ミソシル</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>スク</t>
+      <t>キン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1146,8 +1171,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97272192"/>
-        <c:axId val="97273728"/>
+        <c:axId val="677728032"/>
+        <c:axId val="677720960"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1577,11 +1602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97281152"/>
-        <c:axId val="97275264"/>
+        <c:axId val="677722048"/>
+        <c:axId val="677729664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97272192"/>
+        <c:axId val="677728032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,14 +1616,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97273728"/>
+        <c:crossAx val="677720960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97273728"/>
+        <c:axId val="677720960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -1611,13 +1636,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97272192"/>
+        <c:crossAx val="677728032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97275264"/>
+        <c:axId val="677729664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000016"/>
@@ -1630,13 +1655,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97281152"/>
+        <c:crossAx val="677722048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000044E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="97281152"/>
+        <c:axId val="677722048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +1671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97275264"/>
+        <c:crossAx val="677729664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1912,6 +1937,9 @@
                 <c:pt idx="2">
                   <c:v>67</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2117,11 +2145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111925120"/>
-        <c:axId val="111926656"/>
+        <c:axId val="677731296"/>
+        <c:axId val="677722592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="111925120"/>
+        <c:axId val="677731296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,14 +2159,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111926656"/>
+        <c:crossAx val="677722592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111926656"/>
+        <c:axId val="677722592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2151,7 +2179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111925120"/>
+        <c:crossAx val="677731296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2437,8 +2465,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111966464"/>
-        <c:axId val="111972352"/>
+        <c:axId val="677724224"/>
+        <c:axId val="677731840"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2885,11 +2913,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111975424"/>
-        <c:axId val="111973888"/>
+        <c:axId val="677732384"/>
+        <c:axId val="677724768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="111966464"/>
+        <c:axId val="677724224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2899,14 +2927,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111972352"/>
+        <c:crossAx val="677731840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111972352"/>
+        <c:axId val="677731840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -2919,13 +2947,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111966464"/>
+        <c:crossAx val="677724224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111973888"/>
+        <c:axId val="677724768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -2938,13 +2966,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111975424"/>
+        <c:crossAx val="677732384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000027E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="111975424"/>
+        <c:axId val="677732384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2954,7 +2982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="111973888"/>
+        <c:crossAx val="677724768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3204,7 +3232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3246,7 +3274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3281,7 +3309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3492,7 +3520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -4917,7 +4945,7 @@
   <dimension ref="B1:M58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5029,7 +5057,7 @@
         <v>0.29999999999999716</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -5037,13 +5065,22 @@
       <c r="B8" s="17">
         <v>42378</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>67</v>
+      </c>
       <c r="D8" s="4">
         <v>67.2</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="4"/>
+      <c r="E8" s="8">
+        <f>D8-C8</f>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" s="17">
@@ -5662,7 +5699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -5868,7 +5905,7 @@
         <v>51</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" s="4"/>
     </row>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -523,6 +523,39 @@
     <t>Run：5.0km　筋トレ</t>
     <rPh sb="10" eb="11">
       <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>体脂肪率</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：無し　夜：カレー</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3時間テニス</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1171,8 +1204,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="677728032"/>
-        <c:axId val="677720960"/>
+        <c:axId val="2128071872"/>
+        <c:axId val="2128080576"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1602,11 +1635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="677722048"/>
-        <c:axId val="677729664"/>
+        <c:axId val="2128081664"/>
+        <c:axId val="2128080032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="677728032"/>
+        <c:axId val="2128071872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,14 +1649,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677720960"/>
+        <c:crossAx val="2128080576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="677720960"/>
+        <c:axId val="2128080576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -1636,13 +1669,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677728032"/>
+        <c:crossAx val="2128071872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="677729664"/>
+        <c:axId val="2128080032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000016"/>
@@ -1655,13 +1688,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677722048"/>
+        <c:crossAx val="2128081664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000044E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="677722048"/>
+        <c:axId val="2128081664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="677729664"/>
+        <c:crossAx val="2128080032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1940,6 +1973,9 @@
                 <c:pt idx="3">
                   <c:v>67</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2145,11 +2181,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="677731296"/>
-        <c:axId val="677722592"/>
+        <c:axId val="2128070240"/>
+        <c:axId val="2128082752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="677731296"/>
+        <c:axId val="2128070240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,14 +2195,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677722592"/>
+        <c:crossAx val="2128082752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="677722592"/>
+        <c:axId val="2128082752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2179,7 +2215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677731296"/>
+        <c:crossAx val="2128070240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2465,8 +2501,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="677724224"/>
-        <c:axId val="677731840"/>
+        <c:axId val="2128071328"/>
+        <c:axId val="2128070784"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2913,11 +2949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="677732384"/>
-        <c:axId val="677724768"/>
+        <c:axId val="2128075680"/>
+        <c:axId val="2128074592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="677724224"/>
+        <c:axId val="2128071328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,14 +2963,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677731840"/>
+        <c:crossAx val="2128070784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="677731840"/>
+        <c:axId val="2128070784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -2947,13 +2983,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677724224"/>
+        <c:crossAx val="2128071328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="677724768"/>
+        <c:axId val="2128074592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -2966,13 +3002,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677732384"/>
+        <c:crossAx val="2128075680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000027E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="677732384"/>
+        <c:axId val="2128075680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2982,7 +3018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="677724768"/>
+        <c:crossAx val="2128074592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3087,16 +3123,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>131307</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>93887</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83682</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>488156</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4942,10 +4978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M58"/>
+  <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4954,33 +4990,34 @@
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
     <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J1" s="2"/>
-      <c r="K1" s="18" t="s">
+    <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K1" s="2"/>
+      <c r="L1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="18"/>
       <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="2:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I2" s="19" t="s">
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20">
+      <c r="K2" s="19"/>
+      <c r="L2" s="20">
         <v>62.9</v>
       </c>
-      <c r="L2" s="20"/>
       <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4994,13 +5031,16 @@
         <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="17">
         <v>42375</v>
       </c>
@@ -5014,14 +5054,15 @@
         <f>D5-C5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="17">
         <v>42376</v>
       </c>
@@ -5035,14 +5076,15 @@
         <f>D6-C6</f>
         <v>0.40000000000000568</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="17">
         <v>42377</v>
       </c>
@@ -5056,12 +5098,13 @@
         <f>D7-C7</f>
         <v>0.29999999999999716</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="17">
         <v>42378</v>
       </c>
@@ -5075,26 +5118,39 @@
         <f>D8-C8</f>
         <v>0.20000000000000284</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="17">
         <v>42379</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>66.900000000000006</v>
+      </c>
       <c r="D9" s="4">
         <v>67.099999999999994</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E9" s="8">
+        <f>D9-C9</f>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
@@ -5103,10 +5159,11 @@
         <v>67</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F10" s="5"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="17">
         <v>42381</v>
       </c>
@@ -5115,10 +5172,11 @@
         <v>66.900000000000006</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
@@ -5127,10 +5185,11 @@
         <v>66.8</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="17">
         <v>42383</v>
       </c>
@@ -5139,10 +5198,11 @@
         <v>66.7</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F13" s="5"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="17">
         <v>42384</v>
       </c>
@@ -5151,10 +5211,11 @@
         <v>66.600000000000094</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F14" s="5"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="17">
         <v>42385</v>
       </c>
@@ -5163,10 +5224,11 @@
         <v>66.500000000000099</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F15" s="5"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="17">
         <v>42386</v>
       </c>
@@ -5175,10 +5237,11 @@
         <v>66.400000000000105</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F16" s="5"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="17">
         <v>42387</v>
       </c>
@@ -5187,10 +5250,11 @@
         <v>66.300000000000097</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
@@ -5199,10 +5263,11 @@
         <v>66.200000000000102</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
@@ -5211,10 +5276,11 @@
         <v>66.100000000000094</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
@@ -5223,10 +5289,11 @@
         <v>66.000000000000099</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="17">
         <v>42391</v>
       </c>
@@ -5235,10 +5302,11 @@
         <v>65.900000000000105</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="17">
         <v>42392</v>
       </c>
@@ -5247,10 +5315,11 @@
         <v>65.800000000000097</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
@@ -5259,10 +5328,11 @@
         <v>65.700000000000102</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
@@ -5271,10 +5341,11 @@
         <v>65.600000000000094</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
@@ -5283,10 +5354,11 @@
         <v>65.500000000000099</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="17">
         <v>42396</v>
       </c>
@@ -5295,10 +5367,11 @@
         <v>65.400000000000105</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="17">
         <v>42397</v>
       </c>
@@ -5307,10 +5380,11 @@
         <v>65.300000000000097</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="17">
         <v>42398</v>
       </c>
@@ -5319,10 +5393,11 @@
         <v>65.200000000000102</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="17">
         <v>42399</v>
       </c>
@@ -5331,10 +5406,11 @@
         <v>65.100000000000094</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="17">
         <v>42400</v>
       </c>
@@ -5343,10 +5419,11 @@
         <v>65.000000000000099</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="17">
         <v>42401</v>
       </c>
@@ -5355,10 +5432,11 @@
         <v>64.900000000000105</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="17">
         <v>42402</v>
       </c>
@@ -5367,10 +5445,11 @@
         <v>64.800000000000097</v>
       </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="17">
         <v>42403</v>
       </c>
@@ -5379,10 +5458,11 @@
         <v>64.7</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="17">
         <v>42404</v>
       </c>
@@ -5391,10 +5471,11 @@
         <v>64.599999999999994</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="17">
         <v>42405</v>
       </c>
@@ -5403,10 +5484,11 @@
         <v>64.5</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="17">
         <v>42406</v>
       </c>
@@ -5415,10 +5497,11 @@
         <v>64.400000000000006</v>
       </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="17">
         <v>42407</v>
       </c>
@@ -5427,10 +5510,11 @@
         <v>64.3</v>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F37" s="5"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="17">
         <v>42408</v>
       </c>
@@ -5439,10 +5523,11 @@
         <v>64.2</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F38" s="5"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="17">
         <v>42409</v>
       </c>
@@ -5451,10 +5536,11 @@
         <v>64.099999999999994</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F39" s="5"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="17">
         <v>42410</v>
       </c>
@@ -5463,10 +5549,11 @@
         <v>64</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F40" s="5"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="17">
         <v>42411</v>
       </c>
@@ -5475,10 +5562,11 @@
         <v>63.9</v>
       </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F41" s="5"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="17">
         <v>42412</v>
       </c>
@@ -5487,10 +5575,11 @@
         <v>63.8</v>
       </c>
       <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F42" s="5"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="17">
         <v>42413</v>
       </c>
@@ -5499,10 +5588,11 @@
         <v>63.7</v>
       </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F43" s="5"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="17">
         <v>42414</v>
       </c>
@@ -5511,10 +5601,11 @@
         <v>63.6</v>
       </c>
       <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="17">
         <v>42415</v>
       </c>
@@ -5523,10 +5614,11 @@
         <v>63.5</v>
       </c>
       <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F45" s="5"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="17">
         <v>42416</v>
       </c>
@@ -5535,10 +5627,11 @@
         <v>63.5</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="17">
         <v>42417</v>
       </c>
@@ -5547,10 +5640,11 @@
         <v>63.4</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="17">
         <v>42418</v>
       </c>
@@ -5559,10 +5653,11 @@
         <v>63.4</v>
       </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F48" s="5"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="17">
         <v>42419</v>
       </c>
@@ -5571,10 +5666,11 @@
         <v>63.31</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F49" s="5"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="17">
         <v>42420</v>
       </c>
@@ -5583,10 +5679,11 @@
         <v>63.31</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F50" s="5"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="17">
         <v>42421</v>
       </c>
@@ -5595,10 +5692,11 @@
         <v>63.23</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F51" s="5"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="17">
         <v>42422</v>
       </c>
@@ -5607,10 +5705,11 @@
         <v>63.23</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F52" s="5"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" s="17">
         <v>42423</v>
       </c>
@@ -5619,10 +5718,11 @@
         <v>63.11</v>
       </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F53" s="5"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B54" s="17">
         <v>42424</v>
       </c>
@@ -5631,10 +5731,11 @@
         <v>63.11</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F54" s="5"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" s="17">
         <v>42425</v>
       </c>
@@ -5643,10 +5744,11 @@
         <v>63.03</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F55" s="5"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" s="17">
         <v>42426</v>
       </c>
@@ -5655,10 +5757,11 @@
         <v>62.99</v>
       </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F56" s="5"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="17">
         <v>42427</v>
       </c>
@@ -5667,10 +5770,11 @@
         <v>62.9</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F57" s="5"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="17">
         <v>42428</v>
       </c>
@@ -5679,14 +5783,15 @@
         <v>62.8</v>
       </c>
       <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="4"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5699,7 +5804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -540,22 +540,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>昼：無し　夜：カレー</t>
-    <rPh sb="0" eb="1">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨル</t>
+    <t>3時間テニス</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3時間テニス</t>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
+    <t>昼：無し　夜：スープカレー</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：おにぎり　夜：呑み会</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>筋トレ</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1204,8 +1227,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128071872"/>
-        <c:axId val="2128080576"/>
+        <c:axId val="-819344928"/>
+        <c:axId val="-819338944"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1635,11 +1658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128081664"/>
-        <c:axId val="2128080032"/>
+        <c:axId val="-819352000"/>
+        <c:axId val="-819352544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2128071872"/>
+        <c:axId val="-819344928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,14 +1672,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128080576"/>
+        <c:crossAx val="-819338944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2128080576"/>
+        <c:axId val="-819338944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -1669,13 +1692,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128071872"/>
+        <c:crossAx val="-819344928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128080032"/>
+        <c:axId val="-819352544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000016"/>
@@ -1688,13 +1711,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128081664"/>
+        <c:crossAx val="-819352000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000044E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="2128081664"/>
+        <c:axId val="-819352000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,7 +1727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="2128080032"/>
+        <c:crossAx val="-819352544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1716,7 +1739,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -1976,6 +1998,9 @@
                 <c:pt idx="4">
                   <c:v>66.900000000000006</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2181,11 +2206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128070240"/>
-        <c:axId val="2128082752"/>
+        <c:axId val="-819341664"/>
+        <c:axId val="-819341120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2128070240"/>
+        <c:axId val="-819341664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,14 +2220,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128082752"/>
+        <c:crossAx val="-819341120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2128082752"/>
+        <c:axId val="-819341120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2215,7 +2240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128070240"/>
+        <c:crossAx val="-819341664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2501,8 +2526,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128071328"/>
-        <c:axId val="2128070784"/>
+        <c:axId val="-819348736"/>
+        <c:axId val="-819351456"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2949,11 +2974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128075680"/>
-        <c:axId val="2128074592"/>
+        <c:axId val="-819348192"/>
+        <c:axId val="-819346560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2128071328"/>
+        <c:axId val="-819348736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,14 +2988,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128070784"/>
+        <c:crossAx val="-819351456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2128070784"/>
+        <c:axId val="-819351456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -2983,13 +3008,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128071328"/>
+        <c:crossAx val="-819348736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128074592"/>
+        <c:axId val="-819346560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3002,13 +3027,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128075680"/>
+        <c:crossAx val="-819348192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000027E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="2128075680"/>
+        <c:axId val="-819348192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,7 +3043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="2128074592"/>
+        <c:crossAx val="-819346560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3030,7 +3055,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -4981,7 +5005,7 @@
   <dimension ref="B1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5144,24 +5168,35 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>66.099999999999994</v>
+      </c>
       <c r="D10" s="4">
         <v>67</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="4"/>
+      <c r="E10" s="8">
+        <f>D10-C10</f>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="17">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -418,10 +413,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジョギング5.1キロ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>さんまのみりん干し、ポテトグラタン、トマトときゅうりの和物、少なめご飯</t>
     <rPh sb="7" eb="8">
       <t>ボ</t>
@@ -582,11 +573,176 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>27才</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30才</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>腕立て・腹筋・背筋・
+スクワット10回×1セット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョギング5.1キロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>腕立て・腹筋・背筋・
+スクワット10回×3セット
+ジョギング5.1キロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実家宿泊で計測できず。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラーメン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バターブレッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タマゴトースト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山菜そば</t>
+    <rPh sb="0" eb="2">
+      <t>サンサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>棒々鶏サラダ、じゃこと高菜のチャーハン（半分）、ウイスキー</t>
+    <rPh sb="0" eb="3">
+      <t>バンバンジー</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タカナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼き肉・・・</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘルシーなお弁当</t>
+    <rPh sb="6" eb="8">
+      <t>ベントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ツナサンド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>朝計測
+実家効果で太るｗ</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夕食後計測
+プロテイン買って飲んだ。</t>
+    <rPh sb="0" eb="3">
+      <t>ユウショクゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜計測
+目標達成してしもた・・・
+体脂肪率当てにならん気がしてきたが、筋トレは楽になった</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>タイシボウリツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -597,7 +753,7 @@
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,24 +944,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -843,7 +987,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1025,7 +1169,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1215,24 +1358,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-819344928"/>
-        <c:axId val="-819338944"/>
+        <c:axId val="71398912"/>
+        <c:axId val="71400448"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1276,7 +1409,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1455,7 +1588,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1467,7 +1599,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1646,88 +1778,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-819352000"/>
-        <c:axId val="-819352544"/>
+        <c:axId val="71420160"/>
+        <c:axId val="71418624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-819344928"/>
+        <c:axId val="71398912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-819338944"/>
+        <c:crossAx val="71400448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-819338944"/>
+        <c:axId val="71400448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-819344928"/>
+        <c:crossAx val="71398912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-819352544"/>
+        <c:axId val="71418624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.30000000000000016"/>
+          <c:max val="0.30000000000000021"/>
           <c:min val="0.2"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-819352000"/>
+        <c:crossAx val="71420160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000044E-3"/>
+        <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-819352000"/>
+        <c:axId val="71420160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-819352544"/>
+        <c:crossAx val="71418624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1739,15 +1851,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1755,24 +1864,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2004,7 +2101,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2194,53 +2290,38 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-819341664"/>
-        <c:axId val="-819341120"/>
+        <c:axId val="78586240"/>
+        <c:axId val="78587776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-819341664"/>
+        <c:axId val="78586240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-819341120"/>
+        <c:crossAx val="78587776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-819341120"/>
+        <c:axId val="78587776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-819341664"/>
+        <c:crossAx val="78586240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2252,15 +2333,12 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2268,24 +2346,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2511,27 +2577,26 @@
                 <c:pt idx="2">
                   <c:v>69.8</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-819348736"/>
-        <c:axId val="-819351456"/>
+        <c:axId val="78714752"/>
+        <c:axId val="78716288"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2763,10 +2828,18 @@
                 <c:pt idx="2">
                   <c:v>0.187</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2962,88 +3035,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-819348192"/>
-        <c:axId val="-819346560"/>
+        <c:axId val="78731904"/>
+        <c:axId val="78730368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-819348736"/>
+        <c:axId val="78714752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-819351456"/>
+        <c:crossAx val="78716288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-819351456"/>
+        <c:axId val="78716288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-819348736"/>
+        <c:crossAx val="78714752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-819346560"/>
+        <c:axId val="78730368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-819348192"/>
+        <c:crossAx val="78731904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000027E-3"/>
+        <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-819348192"/>
+        <c:axId val="78731904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-819346560"/>
+        <c:crossAx val="78730368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3055,15 +3108,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="span"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3334,7 +3385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3366,10 +3417,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3401,7 +3451,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3577,14 +3626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:X58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -3602,7 +3651,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:24" ht="24" customHeight="1">
       <c r="O1" s="2"/>
       <c r="P1" s="18" t="s">
         <v>0</v>
@@ -3613,7 +3662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:24" ht="95.25" customHeight="1">
       <c r="N2" s="19" t="s">
         <v>4</v>
       </c>
@@ -3629,8 +3678,8 @@
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="2:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:24" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:24">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3665,7 +3714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:24">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -3699,7 +3748,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:24">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -3735,7 +3784,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:24">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -3763,7 +3812,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:24">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -3787,7 +3836,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:24">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -3811,7 +3860,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:24">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -3835,7 +3884,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:24">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -3859,7 +3908,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:24">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -3883,7 +3932,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:24">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -3907,7 +3956,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:24">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -3931,7 +3980,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:24">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -3955,7 +4004,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:24">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -3979,7 +4028,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -4003,7 +4052,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -4027,7 +4076,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -4051,7 +4100,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -4075,7 +4124,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -4099,7 +4148,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -4123,7 +4172,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -4147,7 +4196,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -4171,7 +4220,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -4195,7 +4244,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -4219,7 +4268,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -4243,7 +4292,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -4267,7 +4316,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -4291,7 +4340,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -4315,7 +4364,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -4339,7 +4388,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -4363,7 +4412,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -4387,7 +4436,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -4411,7 +4460,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -4435,7 +4484,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -4459,7 +4508,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -4483,7 +4532,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -4507,7 +4556,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -4531,7 +4580,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -4555,7 +4604,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -4579,7 +4628,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -4603,7 +4652,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -4627,7 +4676,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -4651,7 +4700,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -4675,7 +4724,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -4699,7 +4748,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -4723,7 +4772,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -4747,7 +4796,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -4771,7 +4820,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -4795,7 +4844,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -4819,7 +4868,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -4843,7 +4892,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -4867,7 +4916,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -4891,7 +4940,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -4915,7 +4964,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -4939,7 +4988,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -4963,7 +5012,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -5001,14 +5050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -5021,7 +5070,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" ht="24" customHeight="1">
       <c r="K1" s="2"/>
       <c r="L1" s="18" t="s">
         <v>0</v>
@@ -5029,7 +5078,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" ht="95.25" customHeight="1">
       <c r="J2" s="19" t="s">
         <v>4</v>
       </c>
@@ -5040,8 +5089,8 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:14">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5055,7 +5104,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>9</v>
@@ -5064,7 +5113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="B5" s="17">
         <v>42375</v>
       </c>
@@ -5075,7 +5124,7 @@
         <v>67.5</v>
       </c>
       <c r="E5" s="8">
-        <f>D5-C5</f>
+        <f t="shared" ref="E5:E10" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
@@ -5086,7 +5135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14">
       <c r="B6" s="17">
         <v>42376</v>
       </c>
@@ -5097,7 +5146,7 @@
         <v>67.400000000000006</v>
       </c>
       <c r="E6" s="8">
-        <f>D6-C6</f>
+        <f t="shared" si="0"/>
         <v>0.40000000000000568</v>
       </c>
       <c r="F6" s="5"/>
@@ -5108,7 +5157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14">
       <c r="B7" s="17">
         <v>42377</v>
       </c>
@@ -5119,16 +5168,16 @@
         <v>67.3</v>
       </c>
       <c r="E7" s="8">
-        <f>D7-C7</f>
+        <f t="shared" si="0"/>
         <v>0.29999999999999716</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14">
       <c r="B8" s="17">
         <v>42378</v>
       </c>
@@ -5139,18 +5188,18 @@
         <v>67.2</v>
       </c>
       <c r="E8" s="8">
-        <f>D8-C8</f>
+        <f t="shared" si="0"/>
         <v>0.20000000000000284</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="17">
         <v>42379</v>
       </c>
@@ -5161,20 +5210,20 @@
         <v>67.099999999999994</v>
       </c>
       <c r="E9" s="8">
-        <f>D9-C9</f>
+        <f t="shared" si="0"/>
         <v>0.19999999999998863</v>
       </c>
       <c r="F9" s="5">
         <v>0.17299999999999999</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
@@ -5185,20 +5234,20 @@
         <v>67</v>
       </c>
       <c r="E10" s="8">
-        <f>D10-C10</f>
+        <f t="shared" si="0"/>
         <v>0.90000000000000568</v>
       </c>
       <c r="F10" s="5">
         <v>0.16800000000000001</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="17">
         <v>42381</v>
       </c>
@@ -5211,7 +5260,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
@@ -5224,7 +5273,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="B13" s="17">
         <v>42383</v>
       </c>
@@ -5237,7 +5286,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="B14" s="17">
         <v>42384</v>
       </c>
@@ -5250,7 +5299,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="B15" s="17">
         <v>42385</v>
       </c>
@@ -5263,7 +5312,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14">
       <c r="B16" s="17">
         <v>42386</v>
       </c>
@@ -5276,7 +5325,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17" s="17">
         <v>42387</v>
       </c>
@@ -5289,7 +5338,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
@@ -5302,7 +5351,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
@@ -5315,7 +5364,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
@@ -5328,7 +5377,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="B21" s="17">
         <v>42391</v>
       </c>
@@ -5341,7 +5390,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22" s="17">
         <v>42392</v>
       </c>
@@ -5354,7 +5403,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
@@ -5367,7 +5416,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
@@ -5380,7 +5429,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
@@ -5393,7 +5442,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8">
       <c r="B26" s="17">
         <v>42396</v>
       </c>
@@ -5406,7 +5455,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8">
       <c r="B27" s="17">
         <v>42397</v>
       </c>
@@ -5419,7 +5468,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8">
       <c r="B28" s="17">
         <v>42398</v>
       </c>
@@ -5432,7 +5481,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8">
       <c r="B29" s="17">
         <v>42399</v>
       </c>
@@ -5445,7 +5494,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="B30" s="17">
         <v>42400</v>
       </c>
@@ -5458,7 +5507,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="B31" s="17">
         <v>42401</v>
       </c>
@@ -5471,7 +5520,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8">
       <c r="B32" s="17">
         <v>42402</v>
       </c>
@@ -5484,7 +5533,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8">
       <c r="B33" s="17">
         <v>42403</v>
       </c>
@@ -5497,7 +5546,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8">
       <c r="B34" s="17">
         <v>42404</v>
       </c>
@@ -5510,7 +5559,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8">
       <c r="B35" s="17">
         <v>42405</v>
       </c>
@@ -5523,7 +5572,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8">
       <c r="B36" s="17">
         <v>42406</v>
       </c>
@@ -5536,7 +5585,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8">
       <c r="B37" s="17">
         <v>42407</v>
       </c>
@@ -5549,7 +5598,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8">
       <c r="B38" s="17">
         <v>42408</v>
       </c>
@@ -5562,7 +5611,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8">
       <c r="B39" s="17">
         <v>42409</v>
       </c>
@@ -5575,7 +5624,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8">
       <c r="B40" s="17">
         <v>42410</v>
       </c>
@@ -5588,7 +5637,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8">
       <c r="B41" s="17">
         <v>42411</v>
       </c>
@@ -5601,7 +5650,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8">
       <c r="B42" s="17">
         <v>42412</v>
       </c>
@@ -5614,7 +5663,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8">
       <c r="B43" s="17">
         <v>42413</v>
       </c>
@@ -5627,7 +5676,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8">
       <c r="B44" s="17">
         <v>42414</v>
       </c>
@@ -5640,7 +5689,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8">
       <c r="B45" s="17">
         <v>42415</v>
       </c>
@@ -5653,7 +5702,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8">
       <c r="B46" s="17">
         <v>42416</v>
       </c>
@@ -5666,7 +5715,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8">
       <c r="B47" s="17">
         <v>42417</v>
       </c>
@@ -5679,7 +5728,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8">
       <c r="B48" s="17">
         <v>42418</v>
       </c>
@@ -5692,7 +5741,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="B49" s="17">
         <v>42419</v>
       </c>
@@ -5705,7 +5754,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="B50" s="17">
         <v>42420</v>
       </c>
@@ -5718,7 +5767,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="B51" s="17">
         <v>42421</v>
       </c>
@@ -5731,7 +5780,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="B52" s="17">
         <v>42422</v>
       </c>
@@ -5744,7 +5793,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" s="17">
         <v>42423</v>
       </c>
@@ -5757,7 +5806,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8">
       <c r="B54" s="17">
         <v>42424</v>
       </c>
@@ -5770,7 +5819,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8">
       <c r="B55" s="17">
         <v>42425</v>
       </c>
@@ -5783,7 +5832,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8">
       <c r="B56" s="17">
         <v>42426</v>
       </c>
@@ -5796,7 +5845,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8">
       <c r="B57" s="17">
         <v>42427</v>
       </c>
@@ -5809,7 +5858,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8">
       <c r="B58" s="17">
         <v>42428</v>
       </c>
@@ -5836,14 +5885,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -5855,11 +5904,11 @@
     <col min="9" max="9" width="14.25" style="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="19.375" style="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="28.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="26.875" style="1" customWidth="1" collapsed="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" ht="24" customHeight="1">
       <c r="N1" s="2"/>
       <c r="O1" s="18" t="s">
         <v>1</v>
@@ -5867,7 +5916,7 @@
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
     </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" ht="95.25" customHeight="1">
       <c r="M2" s="19" t="s">
         <v>4</v>
       </c>
@@ -5878,8 +5927,8 @@
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:17">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5914,7 +5963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="37.5">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -5948,7 +5997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="56.25">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -5985,7 +6034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="56.25">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -6007,7 +6056,7 @@
         <v>0.18960714285714286</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>18</v>
@@ -6016,13 +6065,13 @@
         <v>14</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="56.25">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -6030,26 +6079,36 @@
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="4">
+        <v>70</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>0.18941071428571429</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="I8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="K8" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -6058,7 +6117,7 @@
         <v>土</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="11"/>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
@@ -6067,10 +6126,14 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="K9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="37.5">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -6078,20 +6141,34 @@
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="4">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>0.18901785714285715</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="80.25" customHeight="1">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -6099,20 +6176,36 @@
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="11"/>
+      <c r="D11" s="4">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>0.18882142857142858</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -6128,12 +6221,14 @@
         <v>0.18862500000000001</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -6154,7 +6249,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -6175,7 +6270,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -6196,7 +6291,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -6217,7 +6312,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -6238,7 +6333,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -6259,7 +6354,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -6280,7 +6375,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -6301,7 +6396,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -6322,7 +6417,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -6343,7 +6438,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -6364,7 +6459,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -6385,7 +6480,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -6406,7 +6501,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -6427,7 +6522,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -6448,7 +6543,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -6469,7 +6564,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -6490,7 +6585,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -6511,7 +6606,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -6532,7 +6627,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -6553,7 +6648,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -6574,7 +6669,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -6595,7 +6690,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -6616,7 +6711,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -6637,7 +6732,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -6658,7 +6753,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -6679,7 +6774,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -6700,7 +6795,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -6721,7 +6816,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -6742,7 +6837,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -6763,7 +6858,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -6784,7 +6879,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -6805,7 +6900,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -6826,7 +6921,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -6847,7 +6942,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -6868,7 +6963,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -6889,7 +6984,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -6910,7 +7005,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -6931,7 +7026,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -6952,7 +7047,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -6973,7 +7068,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -6994,7 +7089,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -7015,7 +7110,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -7036,7 +7131,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -7057,7 +7152,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -7078,7 +7173,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -7099,7 +7194,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -7120,7 +7215,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -738,11 +738,99 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>魚肉ソーセージ</t>
+    <rPh sb="0" eb="2">
+      <t>ギョニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>野菜バイキング</t>
+    <rPh sb="0" eb="2">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木綿豆腐</t>
+    <rPh sb="0" eb="2">
+      <t>モメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウフ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豚バラボイル</t>
+    <rPh sb="0" eb="1">
+      <t>ブタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンドイッチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼肉(肉とチシャ菜のみ)</t>
+    <rPh sb="0" eb="2">
+      <t>ヤキニク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オムハヤシ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豆腐お吸い物</t>
+    <rPh sb="0" eb="2">
+      <t>トウフ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豆腐お吸い物、魚肉ソーセージ　</t>
+    <rPh sb="0" eb="2">
+      <t>トウフ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギョニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -753,7 +841,7 @@
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,12 +1032,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -987,7 +1087,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1166,9 +1266,22 @@
                 <c:pt idx="1">
                   <c:v>93.6</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1358,14 +1471,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="71398912"/>
-        <c:axId val="71400448"/>
+        <c:smooth val="0"/>
+        <c:axId val="109026304"/>
+        <c:axId val="110711552"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1409,7 +1532,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1585,9 +1708,22 @@
                 <c:pt idx="1">
                   <c:v>0.26900000000000002</c:v>
                 </c:pt>
+                <c:pt idx="2" formatCode="0.0_ ">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0_ ">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0_ ">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0_ ">
+                  <c:v>26.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1599,7 +1735,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1778,68 +1914,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="71420160"/>
-        <c:axId val="71418624"/>
+        <c:smooth val="0"/>
+        <c:axId val="110714880"/>
+        <c:axId val="110713088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="71398912"/>
+        <c:axId val="109026304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71400448"/>
+        <c:crossAx val="110711552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="71400448"/>
+        <c:axId val="110711552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71398912"/>
+        <c:crossAx val="109026304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71418624"/>
+        <c:axId val="110713088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000021"/>
           <c:min val="0.2"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71420160"/>
+        <c:crossAx val="110714880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="71420160"/>
+        <c:axId val="110714880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="71418624"/>
+        <c:crossAx val="110713088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1851,8 +2007,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1864,12 +2024,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2101,6 +2273,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2290,38 +2463,53 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="78586240"/>
-        <c:axId val="78587776"/>
+        <c:smooth val="0"/>
+        <c:axId val="110913408"/>
+        <c:axId val="110914944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78586240"/>
+        <c:axId val="110913408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78587776"/>
+        <c:crossAx val="110914944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78587776"/>
+        <c:axId val="110914944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78586240"/>
+        <c:crossAx val="110913408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2333,8 +2521,11 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2346,12 +2537,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2589,14 +2792,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="78714752"/>
-        <c:axId val="78716288"/>
+        <c:smooth val="0"/>
+        <c:axId val="111234432"/>
+        <c:axId val="111240320"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2840,6 +3053,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3035,68 +3249,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="78731904"/>
-        <c:axId val="78730368"/>
+        <c:smooth val="0"/>
+        <c:axId val="111255936"/>
+        <c:axId val="111241856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78714752"/>
+        <c:axId val="111234432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78716288"/>
+        <c:crossAx val="111240320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78716288"/>
+        <c:axId val="111240320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78714752"/>
+        <c:crossAx val="111234432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78730368"/>
+        <c:axId val="111241856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78731904"/>
+        <c:crossAx val="111255936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="78731904"/>
+        <c:axId val="111255936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="78730368"/>
+        <c:crossAx val="111241856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3109,8 +3343,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3343,7 +3580,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3417,6 +3654,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3451,6 +3689,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3626,14 +3865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -3644,14 +3883,14 @@
     <col min="8" max="8" width="12.625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="26.5" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="15.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="24.375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="29.375" style="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
     <col min="13" max="21" width="9" style="1"/>
     <col min="22" max="22" width="33.75" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="24" customHeight="1">
+    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O1" s="2"/>
       <c r="P1" s="18" t="s">
         <v>0</v>
@@ -3662,7 +3901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="95.25" customHeight="1">
+    <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N2" s="19" t="s">
         <v>4</v>
       </c>
@@ -3678,8 +3917,8 @@
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="2:24" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:24">
+    <row r="3" spans="2:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3714,7 +3953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -3748,7 +3987,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -3784,23 +4023,27 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>94.1</v>
+      </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>93.244444444444454</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>27</v>
+      </c>
       <c r="F7" s="4">
         <f t="shared" ref="F7:F58" si="1">F6+(($P$2-$C$5)/53)</f>
         <v>93.326415094339609</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" ref="G7:G58" si="2">C7/(($V$2/100)*($V$2/100))/100</f>
-        <v>0</v>
+        <v>0.30036068818028022</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
@@ -3809,82 +4052,114 @@
       <c r="J7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>93.5</v>
+      </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>93.159259259259272</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>26.8</v>
+      </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>93.239622641509413</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.29844552970091603</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>92.7</v>
+      </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>93.07407407407409</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>26.6</v>
+      </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>93.152830188679218</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.29589198506176384</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>92.5</v>
+      </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>92.988888888888908</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>26.6</v>
+      </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
         <v>93.066037735849022</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.29525359890197578</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -3903,12 +4178,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -3932,7 +4211,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -3956,7 +4235,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -3980,7 +4259,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -4004,7 +4283,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -4028,7 +4307,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -4052,7 +4331,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -4076,7 +4355,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -4100,7 +4379,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -4124,7 +4403,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -4148,7 +4427,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -4172,7 +4451,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -4196,7 +4475,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -4220,7 +4499,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -4244,7 +4523,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -4268,7 +4547,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -4292,7 +4571,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -4316,7 +4595,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -4340,7 +4619,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -4364,7 +4643,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -4388,7 +4667,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -4412,7 +4691,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -4436,7 +4715,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -4460,7 +4739,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -4484,7 +4763,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -4508,7 +4787,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -4532,7 +4811,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -4556,7 +4835,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -4580,7 +4859,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -4604,7 +4883,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -4628,7 +4907,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -4652,7 +4931,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -4676,7 +4955,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -4700,7 +4979,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -4724,7 +5003,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -4748,7 +5027,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -4772,7 +5051,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -4796,7 +5075,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -4820,7 +5099,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -4844,7 +5123,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -4868,7 +5147,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -4892,7 +5171,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -4916,7 +5195,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -4940,7 +5219,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -4964,7 +5243,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -4988,7 +5267,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -5012,7 +5291,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -5050,14 +5329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -5070,7 +5349,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="24" customHeight="1">
+    <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K1" s="2"/>
       <c r="L1" s="18" t="s">
         <v>0</v>
@@ -5078,7 +5357,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="2:14" ht="95.25" customHeight="1">
+    <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J2" s="19" t="s">
         <v>4</v>
       </c>
@@ -5089,8 +5368,8 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="2:14" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:14">
+    <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5113,7 +5392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="17">
         <v>42375</v>
       </c>
@@ -5135,7 +5414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="17">
         <v>42376</v>
       </c>
@@ -5157,7 +5436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="17">
         <v>42377</v>
       </c>
@@ -5177,7 +5456,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="17">
         <v>42378</v>
       </c>
@@ -5199,7 +5478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="17">
         <v>42379</v>
       </c>
@@ -5223,7 +5502,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
@@ -5247,7 +5526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="17">
         <v>42381</v>
       </c>
@@ -5260,7 +5539,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
@@ -5273,7 +5552,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="17">
         <v>42383</v>
       </c>
@@ -5286,7 +5565,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="17">
         <v>42384</v>
       </c>
@@ -5299,7 +5578,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="17">
         <v>42385</v>
       </c>
@@ -5312,7 +5591,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="17">
         <v>42386</v>
       </c>
@@ -5325,7 +5604,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="17">
         <v>42387</v>
       </c>
@@ -5338,7 +5617,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
@@ -5351,7 +5630,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
@@ -5364,7 +5643,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
@@ -5377,7 +5656,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="17">
         <v>42391</v>
       </c>
@@ -5390,7 +5669,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="17">
         <v>42392</v>
       </c>
@@ -5403,7 +5682,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
@@ -5416,7 +5695,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
@@ -5429,7 +5708,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
@@ -5442,7 +5721,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="17">
         <v>42396</v>
       </c>
@@ -5455,7 +5734,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="17">
         <v>42397</v>
       </c>
@@ -5468,7 +5747,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="17">
         <v>42398</v>
       </c>
@@ -5481,7 +5760,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="17">
         <v>42399</v>
       </c>
@@ -5494,7 +5773,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="17">
         <v>42400</v>
       </c>
@@ -5507,7 +5786,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="17">
         <v>42401</v>
       </c>
@@ -5520,7 +5799,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="17">
         <v>42402</v>
       </c>
@@ -5533,7 +5812,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="17">
         <v>42403</v>
       </c>
@@ -5546,7 +5825,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="17">
         <v>42404</v>
       </c>
@@ -5559,7 +5838,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="17">
         <v>42405</v>
       </c>
@@ -5572,7 +5851,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="17">
         <v>42406</v>
       </c>
@@ -5585,7 +5864,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="17">
         <v>42407</v>
       </c>
@@ -5598,7 +5877,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="17">
         <v>42408</v>
       </c>
@@ -5611,7 +5890,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="17">
         <v>42409</v>
       </c>
@@ -5624,7 +5903,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="17">
         <v>42410</v>
       </c>
@@ -5637,7 +5916,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="17">
         <v>42411</v>
       </c>
@@ -5650,7 +5929,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="17">
         <v>42412</v>
       </c>
@@ -5663,7 +5942,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="17">
         <v>42413</v>
       </c>
@@ -5676,7 +5955,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="17">
         <v>42414</v>
       </c>
@@ -5689,7 +5968,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="17">
         <v>42415</v>
       </c>
@@ -5702,7 +5981,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="17">
         <v>42416</v>
       </c>
@@ -5715,7 +5994,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="17">
         <v>42417</v>
       </c>
@@ -5728,7 +6007,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="17">
         <v>42418</v>
       </c>
@@ -5741,7 +6020,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="17">
         <v>42419</v>
       </c>
@@ -5754,7 +6033,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="17">
         <v>42420</v>
       </c>
@@ -5767,7 +6046,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="17">
         <v>42421</v>
       </c>
@@ -5780,7 +6059,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="17">
         <v>42422</v>
       </c>
@@ -5793,7 +6072,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" s="17">
         <v>42423</v>
       </c>
@@ -5806,7 +6085,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B54" s="17">
         <v>42424</v>
       </c>
@@ -5819,7 +6098,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" s="17">
         <v>42425</v>
       </c>
@@ -5832,7 +6111,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" s="17">
         <v>42426</v>
       </c>
@@ -5845,7 +6124,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="17">
         <v>42427</v>
       </c>
@@ -5858,7 +6137,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="17">
         <v>42428</v>
       </c>
@@ -5885,14 +6164,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A7" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -5908,7 +6187,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1">
+    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
       <c r="O1" s="18" t="s">
         <v>1</v>
@@ -5916,7 +6195,7 @@
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
     </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1">
+    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M2" s="19" t="s">
         <v>4</v>
       </c>
@@ -5927,8 +6206,8 @@
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:17">
+    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5963,7 +6242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5">
+    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -5997,7 +6276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25">
+    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -6034,7 +6313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="56.25">
+    <row r="7" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -6071,7 +6350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="56.25">
+    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -6108,7 +6387,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -6133,7 +6412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="37.5">
+    <row r="10" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -6168,7 +6447,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="80.25" customHeight="1">
+    <row r="11" spans="2:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -6205,7 +6484,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -6228,7 +6507,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -6249,7 +6528,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -6270,7 +6549,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -6291,7 +6570,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -6312,7 +6591,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -6333,7 +6612,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -6354,7 +6633,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -6375,7 +6654,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -6396,7 +6675,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -6417,7 +6696,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -6438,7 +6717,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -6459,7 +6738,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -6480,7 +6759,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -6501,7 +6780,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -6522,7 +6801,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -6543,7 +6822,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -6564,7 +6843,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -6585,7 +6864,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -6606,7 +6885,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -6627,7 +6906,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -6648,7 +6927,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -6669,7 +6948,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -6690,7 +6969,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -6711,7 +6990,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -6732,7 +7011,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -6753,7 +7032,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -6774,7 +7053,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -6795,7 +7074,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -6816,7 +7095,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -6837,7 +7116,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -6858,7 +7137,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -6879,7 +7158,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -6900,7 +7179,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -6921,7 +7200,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -6942,7 +7221,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -6963,7 +7242,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -6984,7 +7263,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -7005,7 +7284,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -7026,7 +7305,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -7047,7 +7326,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -7068,7 +7347,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -7089,7 +7368,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -7110,7 +7389,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -7131,7 +7410,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -7152,7 +7431,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -7173,7 +7452,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -7194,7 +7473,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -7215,7 +7494,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -940,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,6 +1007,9 @@
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1483,8 +1486,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109026304"/>
-        <c:axId val="110711552"/>
+        <c:axId val="174725760"/>
+        <c:axId val="174739840"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1708,17 +1711,17 @@
                 <c:pt idx="1">
                   <c:v>0.26900000000000002</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.0_ ">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.0_ ">
-                  <c:v>26.8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0_ ">
-                  <c:v>26.6</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0_ ">
-                  <c:v>26.6</c:v>
+                <c:pt idx="2">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,11 +1929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110714880"/>
-        <c:axId val="110713088"/>
+        <c:axId val="174742912"/>
+        <c:axId val="174741376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="109026304"/>
+        <c:axId val="174725760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,14 +1943,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110711552"/>
+        <c:crossAx val="174739840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="110711552"/>
+        <c:axId val="174739840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -1960,13 +1963,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109026304"/>
+        <c:crossAx val="174725760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110713088"/>
+        <c:axId val="174741376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000021"/>
@@ -1979,13 +1982,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110714880"/>
+        <c:crossAx val="174742912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="110714880"/>
+        <c:axId val="174742912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1995,7 +1998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="110713088"/>
+        <c:crossAx val="174741376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2475,11 +2478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110913408"/>
-        <c:axId val="110914944"/>
+        <c:axId val="174862720"/>
+        <c:axId val="174864256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="110913408"/>
+        <c:axId val="174862720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,14 +2492,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110914944"/>
+        <c:crossAx val="174864256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="110914944"/>
+        <c:axId val="174864256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2509,7 +2512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110913408"/>
+        <c:crossAx val="174862720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2520,7 +2523,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -2804,8 +2806,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111234432"/>
-        <c:axId val="111240320"/>
+        <c:axId val="175014656"/>
+        <c:axId val="175016192"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3261,11 +3263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111255936"/>
-        <c:axId val="111241856"/>
+        <c:axId val="175035904"/>
+        <c:axId val="175034368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="111234432"/>
+        <c:axId val="175014656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,14 +3277,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111240320"/>
+        <c:crossAx val="175016192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111240320"/>
+        <c:axId val="175016192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -3295,13 +3297,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111234432"/>
+        <c:crossAx val="175014656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111241856"/>
+        <c:axId val="175034368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3314,13 +3316,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111255936"/>
+        <c:crossAx val="175035904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="111255936"/>
+        <c:axId val="175035904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,7 +3332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="111241856"/>
+        <c:crossAx val="175034368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3342,7 +3344,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -3397,8 +3398,8 @@
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3158</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>717533</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1190625</xdr:rowOff>
     </xdr:to>
@@ -3869,7 +3870,7 @@
   <dimension ref="B1:X58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -3877,7 +3878,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="7.625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="12.625" style="1" customWidth="1" outlineLevel="1"/>
@@ -4034,8 +4035,8 @@
         <f t="shared" si="0"/>
         <v>93.244444444444454</v>
       </c>
-      <c r="E7" s="4">
-        <v>27</v>
+      <c r="E7" s="22">
+        <v>0.27</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ref="F7:F58" si="1">F6+(($P$2-$C$5)/53)</f>
@@ -4068,8 +4069,8 @@
         <f t="shared" si="0"/>
         <v>93.159259259259272</v>
       </c>
-      <c r="E8" s="4">
-        <v>26.8</v>
+      <c r="E8" s="22">
+        <v>0.26800000000000002</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
@@ -4102,8 +4103,8 @@
         <f t="shared" si="0"/>
         <v>93.07407407407409</v>
       </c>
-      <c r="E9" s="4">
-        <v>26.6</v>
+      <c r="E9" s="22">
+        <v>0.26600000000000001</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
@@ -4136,8 +4137,8 @@
         <f t="shared" si="0"/>
         <v>92.988888888888908</v>
       </c>
-      <c r="E10" s="4">
-        <v>26.6</v>
+      <c r="E10" s="22">
+        <v>0.26600000000000001</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
@@ -4168,7 +4169,7 @@
         <f t="shared" si="0"/>
         <v>92.903703703703727</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>92.979245283018827</v>
@@ -4196,7 +4197,7 @@
         <f t="shared" si="0"/>
         <v>92.818518518518545</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>92.892452830188631</v>
@@ -4220,7 +4221,7 @@
         <f t="shared" si="0"/>
         <v>92.733333333333363</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
         <v>92.805660377358436</v>
@@ -4244,7 +4245,7 @@
         <f t="shared" si="0"/>
         <v>92.648148148148181</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
         <v>92.71886792452824</v>
@@ -4268,7 +4269,7 @@
         <f t="shared" si="0"/>
         <v>92.562962962962999</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
         <v>92.632075471698045</v>
@@ -4292,7 +4293,7 @@
         <f t="shared" si="0"/>
         <v>92.477777777777817</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
         <v>92.545283018867849</v>
@@ -4316,7 +4317,7 @@
         <f t="shared" si="0"/>
         <v>92.392592592592635</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
         <v>92.458490566037653</v>
@@ -4340,7 +4341,7 @@
         <f t="shared" si="0"/>
         <v>92.307407407407453</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
         <v>92.371698113207458</v>
@@ -4364,7 +4365,7 @@
         <f t="shared" si="0"/>
         <v>92.222222222222271</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
         <v>92.284905660377262</v>
@@ -4388,7 +4389,7 @@
         <f t="shared" si="0"/>
         <v>92.137037037037089</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
         <v>92.198113207547067</v>
@@ -4412,7 +4413,7 @@
         <f t="shared" si="0"/>
         <v>92.051851851851907</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
         <v>92.111320754716871</v>
@@ -4436,7 +4437,7 @@
         <f t="shared" si="0"/>
         <v>91.966666666666725</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="4">
         <f t="shared" si="1"/>
         <v>92.024528301886676</v>
@@ -4460,7 +4461,7 @@
         <f t="shared" si="0"/>
         <v>91.881481481481543</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
         <v>91.93773584905648</v>
@@ -4484,7 +4485,7 @@
         <f t="shared" si="0"/>
         <v>91.796296296296362</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
         <v>91.850943396226285</v>
@@ -4508,7 +4509,7 @@
         <f t="shared" si="0"/>
         <v>91.71111111111118</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
         <v>91.764150943396089</v>
@@ -4532,7 +4533,7 @@
         <f t="shared" si="0"/>
         <v>91.625925925925998</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
         <v>91.677358490565894</v>
@@ -4556,7 +4557,7 @@
         <f t="shared" si="0"/>
         <v>91.540740740740816</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="4">
         <f t="shared" si="1"/>
         <v>91.590566037735698</v>
@@ -4580,7 +4581,7 @@
         <f t="shared" si="0"/>
         <v>91.455555555555634</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
         <v>91.503773584905503</v>
@@ -4604,7 +4605,7 @@
         <f t="shared" si="0"/>
         <v>91.370370370370452</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="4">
         <f t="shared" si="1"/>
         <v>91.416981132075307</v>
@@ -4628,7 +4629,7 @@
         <f t="shared" si="0"/>
         <v>91.28518518518527</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="4">
         <f t="shared" si="1"/>
         <v>91.330188679245111</v>
@@ -4652,7 +4653,7 @@
         <f t="shared" si="0"/>
         <v>91.200000000000088</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="4">
         <f t="shared" si="1"/>
         <v>91.243396226414916</v>
@@ -4676,7 +4677,7 @@
         <f t="shared" si="0"/>
         <v>91.114814814814906</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="4">
         <f t="shared" si="1"/>
         <v>91.15660377358472</v>
@@ -4700,7 +4701,7 @@
         <f t="shared" si="0"/>
         <v>91.029629629629724</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="4">
         <f t="shared" si="1"/>
         <v>91.069811320754525</v>
@@ -4724,7 +4725,7 @@
         <f t="shared" si="0"/>
         <v>90.944444444444542</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="4">
         <f t="shared" si="1"/>
         <v>90.983018867924329</v>
@@ -4748,7 +4749,7 @@
         <f t="shared" si="0"/>
         <v>90.85925925925936</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="4">
         <f t="shared" si="1"/>
         <v>90.896226415094134</v>
@@ -4772,7 +4773,7 @@
         <f t="shared" si="0"/>
         <v>90.774074074074178</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="4">
         <f t="shared" si="1"/>
         <v>90.809433962263938</v>
@@ -4796,7 +4797,7 @@
         <f t="shared" si="0"/>
         <v>90.688888888888997</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="4">
         <f t="shared" si="1"/>
         <v>90.722641509433743</v>
@@ -4820,7 +4821,7 @@
         <f t="shared" ref="D38:D58" si="3">D37+(($P$2-$C$5)/54)</f>
         <v>90.603703703703815</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="4">
         <f t="shared" si="1"/>
         <v>90.635849056603547</v>
@@ -4844,7 +4845,7 @@
         <f t="shared" si="3"/>
         <v>90.518518518518633</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="4">
         <f t="shared" si="1"/>
         <v>90.549056603773352</v>
@@ -4868,7 +4869,7 @@
         <f t="shared" si="3"/>
         <v>90.433333333333451</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="4">
         <f t="shared" si="1"/>
         <v>90.462264150943156</v>
@@ -4892,7 +4893,7 @@
         <f t="shared" si="3"/>
         <v>90.348148148148269</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="4">
         <f t="shared" si="1"/>
         <v>90.37547169811296</v>
@@ -4916,7 +4917,7 @@
         <f t="shared" si="3"/>
         <v>90.262962962963087</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="22"/>
       <c r="F42" s="4">
         <f t="shared" si="1"/>
         <v>90.288679245282765</v>
@@ -4940,7 +4941,7 @@
         <f t="shared" si="3"/>
         <v>90.177777777777905</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="4">
         <f t="shared" si="1"/>
         <v>90.201886792452569</v>
@@ -4964,7 +4965,7 @@
         <f t="shared" si="3"/>
         <v>90.092592592592723</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="4">
         <f t="shared" si="1"/>
         <v>90.115094339622374</v>
@@ -4988,7 +4989,7 @@
         <f t="shared" si="3"/>
         <v>90.007407407407541</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="4">
         <f t="shared" si="1"/>
         <v>90.028301886792178</v>
@@ -5012,7 +5013,7 @@
         <f t="shared" si="3"/>
         <v>89.922222222222359</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="4">
         <f t="shared" si="1"/>
         <v>89.941509433961983</v>
@@ -5036,7 +5037,7 @@
         <f t="shared" si="3"/>
         <v>89.837037037037177</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="4">
         <f t="shared" si="1"/>
         <v>89.854716981131787</v>
@@ -5060,7 +5061,7 @@
         <f t="shared" si="3"/>
         <v>89.751851851851995</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="4">
         <f t="shared" si="1"/>
         <v>89.767924528301592</v>
@@ -5084,7 +5085,7 @@
         <f t="shared" si="3"/>
         <v>89.666666666666814</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="4">
         <f t="shared" si="1"/>
         <v>89.681132075471396</v>
@@ -5108,7 +5109,7 @@
         <f t="shared" si="3"/>
         <v>89.581481481481632</v>
       </c>
-      <c r="E50" s="4"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="4">
         <f t="shared" si="1"/>
         <v>89.594339622641201</v>
@@ -5132,7 +5133,7 @@
         <f t="shared" si="3"/>
         <v>89.49629629629645</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="4">
         <f t="shared" si="1"/>
         <v>89.507547169811005</v>
@@ -5156,7 +5157,7 @@
         <f t="shared" si="3"/>
         <v>89.411111111111268</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="22"/>
       <c r="F52" s="4">
         <f t="shared" si="1"/>
         <v>89.420754716980809</v>
@@ -5180,7 +5181,7 @@
         <f t="shared" si="3"/>
         <v>89.325925925926086</v>
       </c>
-      <c r="E53" s="4"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="4">
         <f t="shared" si="1"/>
         <v>89.333962264150614</v>
@@ -5204,7 +5205,7 @@
         <f t="shared" si="3"/>
         <v>89.240740740740904</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="4">
         <f t="shared" si="1"/>
         <v>89.247169811320418</v>
@@ -5228,7 +5229,7 @@
         <f t="shared" si="3"/>
         <v>89.155555555555722</v>
       </c>
-      <c r="E55" s="4"/>
+      <c r="E55" s="22"/>
       <c r="F55" s="4">
         <f t="shared" si="1"/>
         <v>89.160377358490223</v>
@@ -5252,7 +5253,7 @@
         <f t="shared" si="3"/>
         <v>89.07037037037054</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" s="22"/>
       <c r="F56" s="4">
         <f t="shared" si="1"/>
         <v>89.073584905660027</v>
@@ -5276,7 +5277,7 @@
         <f t="shared" si="3"/>
         <v>88.985185185185358</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="4">
         <f t="shared" si="1"/>
         <v>88.986792452829832</v>
@@ -5300,7 +5301,7 @@
         <f t="shared" si="3"/>
         <v>88.900000000000176</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="4">
         <f t="shared" si="1"/>
         <v>88.899999999999636</v>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -823,6 +823,13 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ギョニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>酢豚、ハンバーグ</t>
+    <rPh sb="0" eb="2">
+      <t>スブタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -995,6 +1002,9 @@
     <xf numFmtId="183" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1006,9 +1016,6 @@
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1281,6 +1288,9 @@
                 <c:pt idx="5">
                   <c:v>92.5</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1486,8 +1496,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174725760"/>
-        <c:axId val="174739840"/>
+        <c:axId val="96044160"/>
+        <c:axId val="96045696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1723,6 +1733,9 @@
                 <c:pt idx="5">
                   <c:v>0.26600000000000001</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1929,11 +1942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174742912"/>
-        <c:axId val="174741376"/>
+        <c:axId val="96065408"/>
+        <c:axId val="96063872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="174725760"/>
+        <c:axId val="96044160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,14 +1956,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174739840"/>
+        <c:crossAx val="96045696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174739840"/>
+        <c:axId val="96045696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -1963,13 +1976,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174725760"/>
+        <c:crossAx val="96044160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174741376"/>
+        <c:axId val="96063872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000021"/>
@@ -1982,13 +1995,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174742912"/>
+        <c:crossAx val="96065408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="174742912"/>
+        <c:axId val="96065408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="174741376"/>
+        <c:crossAx val="96063872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2478,11 +2491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174862720"/>
-        <c:axId val="174864256"/>
+        <c:axId val="110088576"/>
+        <c:axId val="110090112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="174862720"/>
+        <c:axId val="110088576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,14 +2505,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174864256"/>
+        <c:crossAx val="110090112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174864256"/>
+        <c:axId val="110090112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2512,7 +2525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174862720"/>
+        <c:crossAx val="110088576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2806,8 +2819,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175014656"/>
-        <c:axId val="175016192"/>
+        <c:axId val="110129920"/>
+        <c:axId val="110131456"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3263,11 +3276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175035904"/>
-        <c:axId val="175034368"/>
+        <c:axId val="110151168"/>
+        <c:axId val="110149632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="175014656"/>
+        <c:axId val="110129920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,14 +3290,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175016192"/>
+        <c:crossAx val="110131456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175016192"/>
+        <c:axId val="110131456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -3297,13 +3310,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175014656"/>
+        <c:crossAx val="110129920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175034368"/>
+        <c:axId val="110149632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3316,13 +3329,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175035904"/>
+        <c:crossAx val="110151168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="175035904"/>
+        <c:axId val="110151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3332,7 +3345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="175034368"/>
+        <c:crossAx val="110149632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3870,7 +3883,7 @@
   <dimension ref="B1:X58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -3893,25 +3906,25 @@
   <sheetData>
     <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O1" s="2"/>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
       <c r="U1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20">
+      <c r="O2" s="20"/>
+      <c r="P2" s="21">
         <v>88.9</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
       <c r="V2" s="15">
         <v>177</v>
       </c>
@@ -4035,7 +4048,7 @@
         <f t="shared" si="0"/>
         <v>93.244444444444454</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="18">
         <v>0.27</v>
       </c>
       <c r="F7" s="4">
@@ -4069,7 +4082,7 @@
         <f t="shared" si="0"/>
         <v>93.159259259259272</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <v>0.26800000000000002</v>
       </c>
       <c r="F8" s="4">
@@ -4103,7 +4116,7 @@
         <f t="shared" si="0"/>
         <v>93.07407407407409</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="18">
         <v>0.26600000000000001</v>
       </c>
       <c r="F9" s="4">
@@ -4137,7 +4150,7 @@
         <f t="shared" si="0"/>
         <v>92.988888888888908</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="18">
         <v>0.26600000000000001</v>
       </c>
       <c r="F10" s="4">
@@ -4164,19 +4177,23 @@
       <c r="B11" s="3">
         <v>42381</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>93.4</v>
+      </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>92.903703703703727</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="18">
+        <v>0.26500000000000001</v>
+      </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>92.979245283018827</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.29812633662102206</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
@@ -4185,7 +4202,9 @@
       <c r="J11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.15">
@@ -4197,7 +4216,6 @@
         <f t="shared" si="0"/>
         <v>92.818518518518545</v>
       </c>
-      <c r="E12" s="22"/>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>92.892452830188631</v>
@@ -4221,7 +4239,7 @@
         <f t="shared" si="0"/>
         <v>92.733333333333363</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
         <v>92.805660377358436</v>
@@ -4245,7 +4263,7 @@
         <f t="shared" si="0"/>
         <v>92.648148148148181</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
         <v>92.71886792452824</v>
@@ -4269,7 +4287,7 @@
         <f t="shared" si="0"/>
         <v>92.562962962962999</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
         <v>92.632075471698045</v>
@@ -4293,7 +4311,7 @@
         <f t="shared" si="0"/>
         <v>92.477777777777817</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
         <v>92.545283018867849</v>
@@ -4317,7 +4335,7 @@
         <f t="shared" si="0"/>
         <v>92.392592592592635</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
         <v>92.458490566037653</v>
@@ -4341,7 +4359,7 @@
         <f t="shared" si="0"/>
         <v>92.307407407407453</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
         <v>92.371698113207458</v>
@@ -4365,7 +4383,7 @@
         <f t="shared" si="0"/>
         <v>92.222222222222271</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
         <v>92.284905660377262</v>
@@ -4389,7 +4407,7 @@
         <f t="shared" si="0"/>
         <v>92.137037037037089</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
         <v>92.198113207547067</v>
@@ -4413,7 +4431,7 @@
         <f t="shared" si="0"/>
         <v>92.051851851851907</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
         <v>92.111320754716871</v>
@@ -4437,7 +4455,7 @@
         <f t="shared" si="0"/>
         <v>91.966666666666725</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="4">
         <f t="shared" si="1"/>
         <v>92.024528301886676</v>
@@ -4461,7 +4479,7 @@
         <f t="shared" si="0"/>
         <v>91.881481481481543</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
         <v>91.93773584905648</v>
@@ -4485,7 +4503,7 @@
         <f t="shared" si="0"/>
         <v>91.796296296296362</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
         <v>91.850943396226285</v>
@@ -4509,7 +4527,7 @@
         <f t="shared" si="0"/>
         <v>91.71111111111118</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
         <v>91.764150943396089</v>
@@ -4533,7 +4551,7 @@
         <f t="shared" si="0"/>
         <v>91.625925925925998</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
         <v>91.677358490565894</v>
@@ -4557,7 +4575,7 @@
         <f t="shared" si="0"/>
         <v>91.540740740740816</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="4">
         <f t="shared" si="1"/>
         <v>91.590566037735698</v>
@@ -4581,7 +4599,7 @@
         <f t="shared" si="0"/>
         <v>91.455555555555634</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
         <v>91.503773584905503</v>
@@ -4605,7 +4623,7 @@
         <f t="shared" si="0"/>
         <v>91.370370370370452</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="4">
         <f t="shared" si="1"/>
         <v>91.416981132075307</v>
@@ -4629,7 +4647,7 @@
         <f t="shared" si="0"/>
         <v>91.28518518518527</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="4">
         <f t="shared" si="1"/>
         <v>91.330188679245111</v>
@@ -4653,7 +4671,7 @@
         <f t="shared" si="0"/>
         <v>91.200000000000088</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="4">
         <f t="shared" si="1"/>
         <v>91.243396226414916</v>
@@ -4677,7 +4695,7 @@
         <f t="shared" si="0"/>
         <v>91.114814814814906</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="4">
         <f t="shared" si="1"/>
         <v>91.15660377358472</v>
@@ -4701,7 +4719,7 @@
         <f t="shared" si="0"/>
         <v>91.029629629629724</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="4">
         <f t="shared" si="1"/>
         <v>91.069811320754525</v>
@@ -4725,7 +4743,7 @@
         <f t="shared" si="0"/>
         <v>90.944444444444542</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="4">
         <f t="shared" si="1"/>
         <v>90.983018867924329</v>
@@ -4749,7 +4767,7 @@
         <f t="shared" si="0"/>
         <v>90.85925925925936</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="4">
         <f t="shared" si="1"/>
         <v>90.896226415094134</v>
@@ -4773,7 +4791,7 @@
         <f t="shared" si="0"/>
         <v>90.774074074074178</v>
       </c>
-      <c r="E36" s="22"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="4">
         <f t="shared" si="1"/>
         <v>90.809433962263938</v>
@@ -4797,7 +4815,7 @@
         <f t="shared" si="0"/>
         <v>90.688888888888997</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="4">
         <f t="shared" si="1"/>
         <v>90.722641509433743</v>
@@ -4821,7 +4839,7 @@
         <f t="shared" ref="D38:D58" si="3">D37+(($P$2-$C$5)/54)</f>
         <v>90.603703703703815</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="4">
         <f t="shared" si="1"/>
         <v>90.635849056603547</v>
@@ -4845,7 +4863,7 @@
         <f t="shared" si="3"/>
         <v>90.518518518518633</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="4">
         <f t="shared" si="1"/>
         <v>90.549056603773352</v>
@@ -4869,7 +4887,7 @@
         <f t="shared" si="3"/>
         <v>90.433333333333451</v>
       </c>
-      <c r="E40" s="22"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="4">
         <f t="shared" si="1"/>
         <v>90.462264150943156</v>
@@ -4893,7 +4911,7 @@
         <f t="shared" si="3"/>
         <v>90.348148148148269</v>
       </c>
-      <c r="E41" s="22"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="4">
         <f t="shared" si="1"/>
         <v>90.37547169811296</v>
@@ -4917,7 +4935,7 @@
         <f t="shared" si="3"/>
         <v>90.262962962963087</v>
       </c>
-      <c r="E42" s="22"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="4">
         <f t="shared" si="1"/>
         <v>90.288679245282765</v>
@@ -4941,7 +4959,7 @@
         <f t="shared" si="3"/>
         <v>90.177777777777905</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="4">
         <f t="shared" si="1"/>
         <v>90.201886792452569</v>
@@ -4965,7 +4983,7 @@
         <f t="shared" si="3"/>
         <v>90.092592592592723</v>
       </c>
-      <c r="E44" s="22"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="4">
         <f t="shared" si="1"/>
         <v>90.115094339622374</v>
@@ -4989,7 +5007,7 @@
         <f t="shared" si="3"/>
         <v>90.007407407407541</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="4">
         <f t="shared" si="1"/>
         <v>90.028301886792178</v>
@@ -5013,7 +5031,7 @@
         <f t="shared" si="3"/>
         <v>89.922222222222359</v>
       </c>
-      <c r="E46" s="22"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="4">
         <f t="shared" si="1"/>
         <v>89.941509433961983</v>
@@ -5037,7 +5055,7 @@
         <f t="shared" si="3"/>
         <v>89.837037037037177</v>
       </c>
-      <c r="E47" s="22"/>
+      <c r="E47" s="18"/>
       <c r="F47" s="4">
         <f t="shared" si="1"/>
         <v>89.854716981131787</v>
@@ -5061,7 +5079,7 @@
         <f t="shared" si="3"/>
         <v>89.751851851851995</v>
       </c>
-      <c r="E48" s="22"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="4">
         <f t="shared" si="1"/>
         <v>89.767924528301592</v>
@@ -5085,7 +5103,7 @@
         <f t="shared" si="3"/>
         <v>89.666666666666814</v>
       </c>
-      <c r="E49" s="22"/>
+      <c r="E49" s="18"/>
       <c r="F49" s="4">
         <f t="shared" si="1"/>
         <v>89.681132075471396</v>
@@ -5109,7 +5127,7 @@
         <f t="shared" si="3"/>
         <v>89.581481481481632</v>
       </c>
-      <c r="E50" s="22"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="4">
         <f t="shared" si="1"/>
         <v>89.594339622641201</v>
@@ -5133,7 +5151,7 @@
         <f t="shared" si="3"/>
         <v>89.49629629629645</v>
       </c>
-      <c r="E51" s="22"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="4">
         <f t="shared" si="1"/>
         <v>89.507547169811005</v>
@@ -5157,7 +5175,7 @@
         <f t="shared" si="3"/>
         <v>89.411111111111268</v>
       </c>
-      <c r="E52" s="22"/>
+      <c r="E52" s="18"/>
       <c r="F52" s="4">
         <f t="shared" si="1"/>
         <v>89.420754716980809</v>
@@ -5181,7 +5199,7 @@
         <f t="shared" si="3"/>
         <v>89.325925925926086</v>
       </c>
-      <c r="E53" s="22"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="4">
         <f t="shared" si="1"/>
         <v>89.333962264150614</v>
@@ -5205,7 +5223,7 @@
         <f t="shared" si="3"/>
         <v>89.240740740740904</v>
       </c>
-      <c r="E54" s="22"/>
+      <c r="E54" s="18"/>
       <c r="F54" s="4">
         <f t="shared" si="1"/>
         <v>89.247169811320418</v>
@@ -5229,7 +5247,7 @@
         <f t="shared" si="3"/>
         <v>89.155555555555722</v>
       </c>
-      <c r="E55" s="22"/>
+      <c r="E55" s="18"/>
       <c r="F55" s="4">
         <f t="shared" si="1"/>
         <v>89.160377358490223</v>
@@ -5253,7 +5271,7 @@
         <f t="shared" si="3"/>
         <v>89.07037037037054</v>
       </c>
-      <c r="E56" s="22"/>
+      <c r="E56" s="18"/>
       <c r="F56" s="4">
         <f t="shared" si="1"/>
         <v>89.073584905660027</v>
@@ -5277,7 +5295,7 @@
         <f t="shared" si="3"/>
         <v>88.985185185185358</v>
       </c>
-      <c r="E57" s="22"/>
+      <c r="E57" s="18"/>
       <c r="F57" s="4">
         <f t="shared" si="1"/>
         <v>88.986792452829832</v>
@@ -5301,7 +5319,7 @@
         <f t="shared" si="3"/>
         <v>88.900000000000176</v>
       </c>
-      <c r="E58" s="22"/>
+      <c r="E58" s="18"/>
       <c r="F58" s="4">
         <f t="shared" si="1"/>
         <v>88.899999999999636</v>
@@ -5352,22 +5370,22 @@
   <sheetData>
     <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K1" s="2"/>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20">
+      <c r="K2" s="20"/>
+      <c r="L2" s="21">
         <v>62.9</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
@@ -6190,22 +6208,22 @@
   <sheetData>
     <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="21">
+      <c r="N2" s="20"/>
+      <c r="O2" s="22">
         <v>0.17899999999999999</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -830,6 +835,55 @@
     <t>酢豚、ハンバーグ</t>
     <rPh sb="0" eb="2">
       <t>スブタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：うどん　夜：おにぎりと野菜スープ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>筋トレ</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：お好み焼き　夜：呑み会</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run：5.0km　筋トレ</t>
+    <rPh sb="10" eb="11">
+      <t>キン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1496,8 +1550,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96044160"/>
-        <c:axId val="96045696"/>
+        <c:axId val="-2008280352"/>
+        <c:axId val="-2008273824"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1942,11 +1996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96065408"/>
-        <c:axId val="96063872"/>
+        <c:axId val="-2008273280"/>
+        <c:axId val="-2008278720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="96044160"/>
+        <c:axId val="-2008280352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,14 +2010,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96045696"/>
+        <c:crossAx val="-2008273824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="96045696"/>
+        <c:axId val="-2008273824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -1976,13 +2030,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96044160"/>
+        <c:crossAx val="-2008280352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96063872"/>
+        <c:axId val="-2008278720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000021"/>
@@ -1995,13 +2049,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96065408"/>
+        <c:crossAx val="-2008273280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="96065408"/>
+        <c:axId val="-2008273280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="96063872"/>
+        <c:crossAx val="-2008278720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2286,6 +2340,12 @@
                 <c:pt idx="5">
                   <c:v>66.099999999999994</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2491,11 +2551,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110088576"/>
-        <c:axId val="110090112"/>
+        <c:axId val="-2008280896"/>
+        <c:axId val="-2008272736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="110088576"/>
+        <c:axId val="-2008280896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,14 +2565,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110090112"/>
+        <c:crossAx val="-2008272736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="110090112"/>
+        <c:axId val="-2008272736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2525,7 +2585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110088576"/>
+        <c:crossAx val="-2008280896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2536,6 +2596,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -2819,8 +2880,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110129920"/>
-        <c:axId val="110131456"/>
+        <c:axId val="-2008277632"/>
+        <c:axId val="-2008276544"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3276,11 +3337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110151168"/>
-        <c:axId val="110149632"/>
+        <c:axId val="-2008285248"/>
+        <c:axId val="-2008270560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="110129920"/>
+        <c:axId val="-2008277632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,14 +3351,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110131456"/>
+        <c:crossAx val="-2008276544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="110131456"/>
+        <c:axId val="-2008276544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -3310,13 +3371,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110129920"/>
+        <c:crossAx val="-2008277632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110149632"/>
+        <c:axId val="-2008270560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3329,13 +3390,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110151168"/>
+        <c:crossAx val="-2008285248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="110151168"/>
+        <c:axId val="-2008285248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,7 +3406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="110149632"/>
+        <c:crossAx val="-2008270560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3594,7 +3655,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3636,7 +3697,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3671,7 +3732,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3882,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -5351,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5422,7 +5483,7 @@
         <v>67.5</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E10" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E12" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
@@ -5549,27 +5610,49 @@
       <c r="B11" s="17">
         <v>42381</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>67.099999999999994</v>
+      </c>
       <c r="D11" s="4">
         <v>66.900000000000006</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="4"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999998863</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>66.7</v>
+      </c>
       <c r="D12" s="4">
         <v>66.8</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="4"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="17">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -884,6 +879,43 @@
     <t>Run：5.0km　筋トレ</t>
     <rPh sb="10" eb="11">
       <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おにぎり一個、餃子</t>
+    <rPh sb="7" eb="9">
+      <t>ギョウザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホワイトモカ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロテイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>牛バラボイル　豆腐　
+魚肉ソーセージ</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウフ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ギョニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.5km　
+ワンダーコア30回</t>
+    <rPh sb="15" eb="16">
+      <t>カイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1345,6 +1377,9 @@
                 <c:pt idx="6">
                   <c:v>93.4</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1550,8 +1585,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2008280352"/>
-        <c:axId val="-2008273824"/>
+        <c:axId val="198093440"/>
+        <c:axId val="198095232"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1790,6 +1825,9 @@
                 <c:pt idx="6">
                   <c:v>0.26500000000000001</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1996,11 +2034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2008273280"/>
-        <c:axId val="-2008278720"/>
+        <c:axId val="198098304"/>
+        <c:axId val="198096768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2008280352"/>
+        <c:axId val="198093440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,14 +2048,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2008273824"/>
+        <c:crossAx val="198095232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2008273824"/>
+        <c:axId val="198095232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2030,13 +2068,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2008280352"/>
+        <c:crossAx val="198093440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2008278720"/>
+        <c:axId val="198096768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000021"/>
@@ -2049,13 +2087,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2008273280"/>
+        <c:crossAx val="198098304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-2008273280"/>
+        <c:axId val="198098304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-2008278720"/>
+        <c:crossAx val="198096768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2551,11 +2589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2008280896"/>
-        <c:axId val="-2008272736"/>
+        <c:axId val="205840384"/>
+        <c:axId val="205841920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2008280896"/>
+        <c:axId val="205840384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,14 +2603,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2008272736"/>
+        <c:crossAx val="205841920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2008272736"/>
+        <c:axId val="205841920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2585,7 +2623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2008280896"/>
+        <c:crossAx val="205840384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2596,7 +2634,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -2880,8 +2917,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2008277632"/>
-        <c:axId val="-2008276544"/>
+        <c:axId val="206070144"/>
+        <c:axId val="206071680"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3337,11 +3374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2008285248"/>
-        <c:axId val="-2008270560"/>
+        <c:axId val="206075008"/>
+        <c:axId val="206073216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2008277632"/>
+        <c:axId val="206070144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3351,14 +3388,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2008276544"/>
+        <c:crossAx val="206071680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2008276544"/>
+        <c:axId val="206071680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -3371,13 +3408,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2008277632"/>
+        <c:crossAx val="206070144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2008270560"/>
+        <c:axId val="206073216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3390,13 +3427,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2008285248"/>
+        <c:crossAx val="206075008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-2008285248"/>
+        <c:axId val="206075008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3406,7 +3443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-2008270560"/>
+        <c:crossAx val="206073216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3655,7 +3692,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3697,7 +3734,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3732,7 +3769,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3943,8 +3980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -3955,7 +3992,7 @@
     <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="7.625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="18.25" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="26.5" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="15.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="29.375" style="1" customWidth="1" outlineLevel="1"/>
@@ -4268,14 +4305,19 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:24" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>92.7</v>
+      </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>92.818518518518545</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.27100000000000002</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
@@ -4283,15 +4325,23 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+        <v>0.29589198506176384</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -4309,8 +4359,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="4"/>
@@ -5412,7 +5463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -917,6 +922,26 @@
     <rPh sb="15" eb="16">
       <t>カイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：焼肉定食　夜：サラダチキンとスープ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤキニク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイショク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run：5.0km</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1585,8 +1610,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198093440"/>
-        <c:axId val="198095232"/>
+        <c:axId val="-488433856"/>
+        <c:axId val="-488427328"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2034,11 +2059,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198098304"/>
-        <c:axId val="198096768"/>
+        <c:axId val="-488421888"/>
+        <c:axId val="-488425696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="198093440"/>
+        <c:axId val="-488433856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,14 +2073,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198095232"/>
+        <c:crossAx val="-488427328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="198095232"/>
+        <c:axId val="-488427328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2068,13 +2093,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198093440"/>
+        <c:crossAx val="-488433856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198096768"/>
+        <c:axId val="-488425696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000021"/>
@@ -2087,13 +2112,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198098304"/>
+        <c:crossAx val="-488421888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="198098304"/>
+        <c:axId val="-488421888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="198096768"/>
+        <c:crossAx val="-488425696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2384,6 +2409,9 @@
                 <c:pt idx="7">
                   <c:v>66.7</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2589,11 +2617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205840384"/>
-        <c:axId val="205841920"/>
+        <c:axId val="-488428960"/>
+        <c:axId val="-488436576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="205840384"/>
+        <c:axId val="-488428960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,14 +2631,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205841920"/>
+        <c:crossAx val="-488436576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="205841920"/>
+        <c:axId val="-488436576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2623,7 +2651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205840384"/>
+        <c:crossAx val="-488428960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2634,6 +2662,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -2917,8 +2946,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="206070144"/>
-        <c:axId val="206071680"/>
+        <c:axId val="-488425152"/>
+        <c:axId val="-488434944"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3374,11 +3403,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="206075008"/>
-        <c:axId val="206073216"/>
+        <c:axId val="-488423520"/>
+        <c:axId val="-488424064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="206070144"/>
+        <c:axId val="-488425152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,14 +3417,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206071680"/>
+        <c:crossAx val="-488434944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="206071680"/>
+        <c:axId val="-488434944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -3408,13 +3437,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206070144"/>
+        <c:crossAx val="-488425152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206073216"/>
+        <c:axId val="-488424064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3427,13 +3456,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206075008"/>
+        <c:crossAx val="-488423520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="206075008"/>
+        <c:axId val="-488423520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="206073216"/>
+        <c:crossAx val="-488424064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3455,6 +3484,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -3548,15 +3578,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>83682</xdr:colOff>
+      <xdr:colOff>83681</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>22450</xdr:rowOff>
+      <xdr:rowOff>22449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>440531</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3692,7 +3722,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3734,7 +3764,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3769,7 +3799,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3980,7 +4010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -5463,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5534,7 +5564,7 @@
         <v>67.5</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E12" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E13" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
@@ -5709,14 +5739,25 @@
       <c r="B13" s="17">
         <v>42383</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>66.900000000000006</v>
+      </c>
       <c r="D13" s="4">
         <v>66.7</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4"/>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="17">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -942,6 +937,18 @@
   </si>
   <si>
     <t>Run：5.0km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おでん(大根
+こんにゃく
+ウインナー巻き)</t>
+    <rPh sb="4" eb="6">
+      <t>ダイコン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1610,8 +1617,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-488433856"/>
-        <c:axId val="-488427328"/>
+        <c:axId val="87737856"/>
+        <c:axId val="87739392"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2059,11 +2066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-488421888"/>
-        <c:axId val="-488425696"/>
+        <c:axId val="90061056"/>
+        <c:axId val="90059520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-488433856"/>
+        <c:axId val="87737856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,14 +2080,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-488427328"/>
+        <c:crossAx val="87739392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-488427328"/>
+        <c:axId val="87739392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2093,13 +2100,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-488433856"/>
+        <c:crossAx val="87737856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-488425696"/>
+        <c:axId val="90059520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000021"/>
@@ -2112,13 +2119,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-488421888"/>
+        <c:crossAx val="90061056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-488421888"/>
+        <c:axId val="90061056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,7 +2135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-488425696"/>
+        <c:crossAx val="90059520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2617,11 +2624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-488428960"/>
-        <c:axId val="-488436576"/>
+        <c:axId val="91753856"/>
+        <c:axId val="91767936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-488428960"/>
+        <c:axId val="91753856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,14 +2638,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-488436576"/>
+        <c:crossAx val="91767936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-488436576"/>
+        <c:axId val="91767936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2651,7 +2658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-488428960"/>
+        <c:crossAx val="91753856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2946,8 +2953,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-488425152"/>
-        <c:axId val="-488434944"/>
+        <c:axId val="92160000"/>
+        <c:axId val="92161536"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3403,11 +3410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-488423520"/>
-        <c:axId val="-488424064"/>
+        <c:axId val="92168960"/>
+        <c:axId val="92163072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-488425152"/>
+        <c:axId val="92160000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3417,14 +3424,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-488434944"/>
+        <c:crossAx val="92161536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-488434944"/>
+        <c:axId val="92161536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -3437,13 +3444,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-488425152"/>
+        <c:crossAx val="92160000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-488424064"/>
+        <c:axId val="92163072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3456,13 +3463,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-488423520"/>
+        <c:crossAx val="92168960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-488423520"/>
+        <c:axId val="92168960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,7 +3479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-488424064"/>
+        <c:crossAx val="92163072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3484,7 +3491,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -3722,7 +3728,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3764,7 +3770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3799,7 +3805,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4010,8 +4016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -4371,7 +4377,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -4392,7 +4398,9 @@
       <c r="I13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="4"/>
     </row>
@@ -5493,8 +5501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -948,6 +948,39 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豚バラボイル　豆腐</t>
+    <rPh sb="0" eb="1">
+      <t>ブタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウフ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そば</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.0km
+ワンダーコア30回
+ヒンズースクワット50回２セット</t>
+    <rPh sb="14" eb="15">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1065,7 +1098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,6 +1168,9 @@
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1412,6 +1448,9 @@
                 <c:pt idx="7">
                   <c:v>92.7</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1617,8 +1656,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87737856"/>
-        <c:axId val="87739392"/>
+        <c:axId val="117810304"/>
+        <c:axId val="117811840"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1860,6 +1899,9 @@
                 <c:pt idx="7">
                   <c:v>0.27100000000000002</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27200000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2066,11 +2108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90061056"/>
-        <c:axId val="90059520"/>
+        <c:axId val="117831552"/>
+        <c:axId val="117830016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87737856"/>
+        <c:axId val="117810304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,14 +2122,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87739392"/>
+        <c:crossAx val="117811840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87739392"/>
+        <c:axId val="117811840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2100,13 +2142,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87737856"/>
+        <c:crossAx val="117810304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90059520"/>
+        <c:axId val="117830016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000021"/>
@@ -2119,13 +2161,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90061056"/>
+        <c:crossAx val="117831552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="90061056"/>
+        <c:axId val="117831552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2135,7 +2177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="90059520"/>
+        <c:crossAx val="117830016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2624,11 +2666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91753856"/>
-        <c:axId val="91767936"/>
+        <c:axId val="117890048"/>
+        <c:axId val="120464128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91753856"/>
+        <c:axId val="117890048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,14 +2680,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91767936"/>
+        <c:crossAx val="120464128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91767936"/>
+        <c:axId val="120464128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2658,7 +2700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91753856"/>
+        <c:crossAx val="117890048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2669,7 +2711,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -2953,8 +2994,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92160000"/>
-        <c:axId val="92161536"/>
+        <c:axId val="120393728"/>
+        <c:axId val="120394880"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3410,11 +3451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92168960"/>
-        <c:axId val="92163072"/>
+        <c:axId val="120406400"/>
+        <c:axId val="120396416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92160000"/>
+        <c:axId val="120393728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,14 +3465,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92161536"/>
+        <c:crossAx val="120394880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92161536"/>
+        <c:axId val="120394880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -3444,13 +3485,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92160000"/>
+        <c:crossAx val="120393728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92163072"/>
+        <c:axId val="120396416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3463,13 +3504,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92168960"/>
+        <c:crossAx val="120406400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000036E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="92168960"/>
+        <c:axId val="120406400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,7 +3520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="92163072"/>
+        <c:crossAx val="120396416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4377,23 +4418,30 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:24" ht="75" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>92.7</v>
+      </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>92.733333333333363</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="18">
+        <v>0.27200000000000002</v>
+      </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
         <v>92.805660377358436</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.29589198506176384</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>96</v>
@@ -4401,7 +4449,9 @@
       <c r="J13" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.15">
@@ -4423,8 +4473,12 @@
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -984,11 +984,128 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>腕立て・腹筋・背筋・
+スクワット10回×2セット
+ジョギング5.2キロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼きそばパン、ピザパン、バターブレッド（1/3ずつ）</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弁当
+（ご飯半量）</t>
+    <rPh sb="0" eb="2">
+      <t>ベントウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おでん、きゅうりとトマトのサラダ、味噌汁</t>
+    <rPh sb="17" eb="20">
+      <t>ミソシル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トマトお好み焼き</t>
+    <rPh sb="4" eb="5">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハイボール、焼鳥2本、サラダ、焼きれんこん、クリームチーズの酒盗和え、つけもの盛り合わせ</t>
+    <rPh sb="6" eb="8">
+      <t>ヤキトリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>シュトウア</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホットドッグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まさかのコミット漏れ・・・</t>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サラダバイキング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弁当</t>
+    <rPh sb="0" eb="2">
+      <t>ベントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>胸肉のカレー炒め、中華スープ、もやしとレタスのサラダ、少なめご飯）</t>
+    <rPh sb="0" eb="2">
+      <t>ムネニク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>体重が落ちてきた！</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -999,7 +1116,7 @@
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,6 +1273,9 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1167,9 +1287,6 @@
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1196,24 +1313,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1251,7 +1356,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1454,7 +1559,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1644,24 +1748,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="117810304"/>
-        <c:axId val="117811840"/>
+        <c:axId val="126509440"/>
+        <c:axId val="126510976"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1705,7 +1799,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1905,7 +1999,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1917,7 +2010,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2096,88 +2189,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="117831552"/>
-        <c:axId val="117830016"/>
+        <c:axId val="126522496"/>
+        <c:axId val="126512512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="117810304"/>
+        <c:axId val="126509440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117811840"/>
+        <c:crossAx val="126510976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="117811840"/>
+        <c:axId val="126510976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117810304"/>
+        <c:crossAx val="126509440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117830016"/>
+        <c:axId val="126512512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.30000000000000021"/>
+          <c:max val="0.30000000000000027"/>
           <c:min val="0.2"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117831552"/>
+        <c:crossAx val="126522496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000053E-3"/>
+        <c:majorUnit val="5.0000000000000062E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="117831552"/>
+        <c:axId val="126522496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="117830016"/>
+        <c:crossAx val="126512512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2190,15 +2263,12 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2206,24 +2276,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2464,7 +2522,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2654,53 +2711,38 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="117890048"/>
-        <c:axId val="120464128"/>
+        <c:axId val="126729216"/>
+        <c:axId val="126751488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="117890048"/>
+        <c:axId val="126729216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120464128"/>
+        <c:crossAx val="126751488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120464128"/>
+        <c:axId val="126751488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117890048"/>
+        <c:crossAx val="126729216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2711,15 +2753,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2727,24 +2766,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2979,27 +3006,23 @@
                 <c:pt idx="6">
                   <c:v>69.599999999999994</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="120393728"/>
-        <c:axId val="120394880"/>
+        <c:axId val="126825216"/>
+        <c:axId val="126826752"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -3240,10 +3263,15 @@
                 <c:pt idx="6">
                   <c:v>0.17899999999999999</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.185</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3439,88 +3467,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="120406400"/>
-        <c:axId val="120396416"/>
+        <c:axId val="126830080"/>
+        <c:axId val="126828544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="120393728"/>
+        <c:axId val="126825216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120394880"/>
+        <c:crossAx val="126826752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120394880"/>
+        <c:axId val="126826752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120393728"/>
+        <c:crossAx val="126825216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120396416"/>
+        <c:axId val="126828544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120406400"/>
+        <c:crossAx val="126830080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000036E-3"/>
+        <c:majorUnit val="5.0000000000000044E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="120406400"/>
+        <c:axId val="126830080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120396416"/>
+        <c:crossAx val="126828544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3532,15 +3540,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3769,7 +3775,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3843,7 +3849,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3878,7 +3883,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4054,14 +4058,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -4079,35 +4083,35 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:24" ht="24" customHeight="1">
       <c r="O1" s="2"/>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
       <c r="U1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N2" s="20" t="s">
+    <row r="2" spans="2:24" ht="95.25" customHeight="1">
+      <c r="N2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21">
+      <c r="O2" s="21"/>
+      <c r="P2" s="22">
         <v>88.9</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="V2" s="15">
         <v>177</v>
       </c>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="2:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:24" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:24">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:24">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -4176,7 +4180,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:24">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -4212,7 +4216,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:24">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -4246,7 +4250,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:24">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -4280,7 +4284,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:24">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -4314,7 +4318,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:24">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -4348,7 +4352,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:24">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -4382,7 +4386,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:24" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:24" ht="37.5">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -4418,7 +4422,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:24" ht="75" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:24" ht="75">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -4440,7 +4444,7 @@
         <f t="shared" si="2"/>
         <v>0.29589198506176384</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="19" t="s">
         <v>104</v>
       </c>
       <c r="I13" s="9" t="s">
@@ -4454,7 +4458,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:24">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -4482,7 +4486,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:24">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -4506,7 +4510,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:24">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -4530,7 +4534,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -4554,7 +4558,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -4578,7 +4582,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -4602,7 +4606,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -4626,7 +4630,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -4650,7 +4654,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -4674,7 +4678,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -4698,7 +4702,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -4722,7 +4726,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -4746,7 +4750,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -4770,7 +4774,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -4794,7 +4798,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -4818,7 +4822,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -4842,7 +4846,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -4866,7 +4870,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -4890,7 +4894,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -4914,7 +4918,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -4938,7 +4942,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -4962,7 +4966,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -4986,7 +4990,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -5010,7 +5014,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -5034,7 +5038,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -5058,7 +5062,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -5082,7 +5086,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -5106,7 +5110,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -5130,7 +5134,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -5154,7 +5158,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -5178,7 +5182,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -5202,7 +5206,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -5226,7 +5230,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -5250,7 +5254,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -5274,7 +5278,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -5298,7 +5302,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -5322,7 +5326,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -5346,7 +5350,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -5370,7 +5374,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -5394,7 +5398,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -5418,7 +5422,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -5442,7 +5446,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -5466,7 +5470,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -5490,7 +5494,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -5514,7 +5518,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -5552,14 +5556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -5572,27 +5576,27 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" ht="24" customHeight="1">
       <c r="K1" s="2"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J2" s="20" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="2:14" ht="95.25" customHeight="1">
+      <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21">
+      <c r="K2" s="21"/>
+      <c r="L2" s="22">
         <v>62.9</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-    </row>
-    <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:14">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5615,7 +5619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="B5" s="17">
         <v>42375</v>
       </c>
@@ -5637,7 +5641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14">
       <c r="B6" s="17">
         <v>42376</v>
       </c>
@@ -5659,7 +5663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14">
       <c r="B7" s="17">
         <v>42377</v>
       </c>
@@ -5679,7 +5683,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14">
       <c r="B8" s="17">
         <v>42378</v>
       </c>
@@ -5701,7 +5705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14">
       <c r="B9" s="17">
         <v>42379</v>
       </c>
@@ -5725,7 +5729,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
@@ -5749,7 +5753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="B11" s="17">
         <v>42381</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="B13" s="17">
         <v>42383</v>
       </c>
@@ -5821,7 +5825,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="B14" s="17">
         <v>42384</v>
       </c>
@@ -5834,7 +5838,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="B15" s="17">
         <v>42385</v>
       </c>
@@ -5847,7 +5851,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14">
       <c r="B16" s="17">
         <v>42386</v>
       </c>
@@ -5860,7 +5864,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17" s="17">
         <v>42387</v>
       </c>
@@ -5873,7 +5877,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
@@ -5886,7 +5890,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
@@ -5899,7 +5903,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
@@ -5912,7 +5916,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="B21" s="17">
         <v>42391</v>
       </c>
@@ -5925,7 +5929,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22" s="17">
         <v>42392</v>
       </c>
@@ -5938,7 +5942,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
@@ -5951,7 +5955,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
@@ -5964,7 +5968,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
@@ -5977,7 +5981,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8">
       <c r="B26" s="17">
         <v>42396</v>
       </c>
@@ -5990,7 +5994,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8">
       <c r="B27" s="17">
         <v>42397</v>
       </c>
@@ -6003,7 +6007,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8">
       <c r="B28" s="17">
         <v>42398</v>
       </c>
@@ -6016,7 +6020,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8">
       <c r="B29" s="17">
         <v>42399</v>
       </c>
@@ -6029,7 +6033,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="B30" s="17">
         <v>42400</v>
       </c>
@@ -6042,7 +6046,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="B31" s="17">
         <v>42401</v>
       </c>
@@ -6055,7 +6059,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8">
       <c r="B32" s="17">
         <v>42402</v>
       </c>
@@ -6068,7 +6072,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8">
       <c r="B33" s="17">
         <v>42403</v>
       </c>
@@ -6081,7 +6085,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8">
       <c r="B34" s="17">
         <v>42404</v>
       </c>
@@ -6094,7 +6098,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8">
       <c r="B35" s="17">
         <v>42405</v>
       </c>
@@ -6107,7 +6111,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8">
       <c r="B36" s="17">
         <v>42406</v>
       </c>
@@ -6120,7 +6124,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8">
       <c r="B37" s="17">
         <v>42407</v>
       </c>
@@ -6133,7 +6137,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8">
       <c r="B38" s="17">
         <v>42408</v>
       </c>
@@ -6146,7 +6150,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8">
       <c r="B39" s="17">
         <v>42409</v>
       </c>
@@ -6159,7 +6163,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8">
       <c r="B40" s="17">
         <v>42410</v>
       </c>
@@ -6172,7 +6176,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8">
       <c r="B41" s="17">
         <v>42411</v>
       </c>
@@ -6185,7 +6189,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8">
       <c r="B42" s="17">
         <v>42412</v>
       </c>
@@ -6198,7 +6202,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8">
       <c r="B43" s="17">
         <v>42413</v>
       </c>
@@ -6211,7 +6215,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8">
       <c r="B44" s="17">
         <v>42414</v>
       </c>
@@ -6224,7 +6228,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8">
       <c r="B45" s="17">
         <v>42415</v>
       </c>
@@ -6237,7 +6241,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8">
       <c r="B46" s="17">
         <v>42416</v>
       </c>
@@ -6250,7 +6254,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8">
       <c r="B47" s="17">
         <v>42417</v>
       </c>
@@ -6263,7 +6267,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8">
       <c r="B48" s="17">
         <v>42418</v>
       </c>
@@ -6276,7 +6280,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="B49" s="17">
         <v>42419</v>
       </c>
@@ -6289,7 +6293,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="B50" s="17">
         <v>42420</v>
       </c>
@@ -6302,7 +6306,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="B51" s="17">
         <v>42421</v>
       </c>
@@ -6315,7 +6319,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="B52" s="17">
         <v>42422</v>
       </c>
@@ -6328,7 +6332,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" s="17">
         <v>42423</v>
       </c>
@@ -6341,7 +6345,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8">
       <c r="B54" s="17">
         <v>42424</v>
       </c>
@@ -6354,7 +6358,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8">
       <c r="B55" s="17">
         <v>42425</v>
       </c>
@@ -6367,7 +6371,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8">
       <c r="B56" s="17">
         <v>42426</v>
       </c>
@@ -6380,7 +6384,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8">
       <c r="B57" s="17">
         <v>42427</v>
       </c>
@@ -6393,7 +6397,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8">
       <c r="B58" s="17">
         <v>42428</v>
       </c>
@@ -6420,14 +6424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -6443,27 +6447,27 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" ht="24" customHeight="1">
       <c r="N1" s="2"/>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M2" s="20" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+    </row>
+    <row r="2" spans="2:17" ht="95.25" customHeight="1">
+      <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22">
+      <c r="N2" s="21"/>
+      <c r="O2" s="23">
         <v>0.17899999999999999</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-    </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:17">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="37.5">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -6532,7 +6536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="56.25">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -6569,7 +6573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="56.25">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" ht="56.25">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -6643,7 +6647,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" ht="37.5">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -6703,7 +6707,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" ht="80.25" customHeight="1">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -6748,9 +6752,15 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>0.18862500000000001</v>
@@ -6759,11 +6769,15 @@
       <c r="I12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" ht="75">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -6779,12 +6793,20 @@
         <v>0.18842857142857145</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="56.25">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -6792,20 +6814,36 @@
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="4">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0.18823214285714288</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="75">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -6821,12 +6859,16 @@
         <v>0.18803571428571431</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -6847,7 +6889,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -6868,7 +6910,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -6889,7 +6931,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -6910,7 +6952,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -6931,7 +6973,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -6952,7 +6994,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -6973,7 +7015,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -6994,7 +7036,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -7015,7 +7057,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -7036,7 +7078,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -7057,7 +7099,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -7078,7 +7120,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -7099,7 +7141,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -7120,7 +7162,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -7141,7 +7183,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -7162,7 +7204,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -7183,7 +7225,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -7204,7 +7246,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -7225,7 +7267,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -7246,7 +7288,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -7267,7 +7309,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -7288,7 +7330,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -7309,7 +7351,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -7330,7 +7372,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -7351,7 +7393,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -7372,7 +7414,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -7393,7 +7435,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -7414,7 +7456,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -7435,7 +7477,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -7456,7 +7498,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -7477,7 +7519,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -7498,7 +7540,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -7519,7 +7561,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -7540,7 +7582,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -7561,7 +7603,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -7582,7 +7624,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -7603,7 +7645,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -7624,7 +7666,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -7645,7 +7687,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -7666,7 +7708,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -7687,7 +7729,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -7708,7 +7750,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -7729,7 +7771,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -7750,7 +7792,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="122">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1101,11 +1106,61 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：鰻　夜：シチュー</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウナギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>筋トレ</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：そば　夜：呑み会</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：なし　夜：おにぎり×2</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -1116,7 +1171,7 @@
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1313,12 +1368,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1356,7 +1423,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1559,6 +1626,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1748,14 +1816,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126509440"/>
-        <c:axId val="126510976"/>
+        <c:smooth val="0"/>
+        <c:axId val="451358144"/>
+        <c:axId val="451352704"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1799,7 +1877,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1999,6 +2077,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2010,7 +2089,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2189,68 +2268,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126522496"/>
-        <c:axId val="126512512"/>
+        <c:smooth val="0"/>
+        <c:axId val="451357600"/>
+        <c:axId val="451355424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="126509440"/>
+        <c:axId val="451358144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126510976"/>
+        <c:crossAx val="451352704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126510976"/>
+        <c:axId val="451352704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126509440"/>
+        <c:crossAx val="451358144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126512512"/>
+        <c:axId val="451355424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000027"/>
           <c:min val="0.2"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126522496"/>
+        <c:crossAx val="451357600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000062E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="126522496"/>
+        <c:axId val="451357600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="126512512"/>
+        <c:crossAx val="451355424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2262,9 +2361,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2276,12 +2377,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2519,9 +2632,19 @@
                 <c:pt idx="8">
                   <c:v>66.900000000000006</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2711,38 +2834,53 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126729216"/>
-        <c:axId val="126751488"/>
+        <c:smooth val="0"/>
+        <c:axId val="451350528"/>
+        <c:axId val="451346176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="126729216"/>
+        <c:axId val="451350528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126751488"/>
+        <c:crossAx val="451346176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126751488"/>
+        <c:axId val="451346176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126729216"/>
+        <c:crossAx val="451350528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2753,8 +2891,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2766,12 +2908,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3015,14 +3169,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126825216"/>
-        <c:axId val="126826752"/>
+        <c:smooth val="0"/>
+        <c:axId val="451348352"/>
+        <c:axId val="451358688"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -3272,6 +3436,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3467,68 +3632,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126830080"/>
-        <c:axId val="126828544"/>
+        <c:smooth val="0"/>
+        <c:axId val="451352160"/>
+        <c:axId val="451359232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="126825216"/>
+        <c:axId val="451348352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126826752"/>
+        <c:crossAx val="451358688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126826752"/>
+        <c:axId val="451358688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126825216"/>
+        <c:crossAx val="451348352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126828544"/>
+        <c:axId val="451359232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126830080"/>
+        <c:crossAx val="451352160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000044E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="126830080"/>
+        <c:axId val="451352160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="126828544"/>
+        <c:crossAx val="451359232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3541,8 +3726,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3817,7 +4005,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3849,9 +4037,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3883,6 +4072,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4058,14 +4248,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -4083,7 +4273,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="24" customHeight="1">
+    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O1" s="2"/>
       <c r="P1" s="20" t="s">
         <v>0</v>
@@ -4094,7 +4284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="95.25" customHeight="1">
+    <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N2" s="21" t="s">
         <v>4</v>
       </c>
@@ -4110,8 +4300,8 @@
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="2:24" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:24">
+    <row r="3" spans="2:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4146,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -4180,7 +4370,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -4216,7 +4406,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -4250,7 +4440,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -4284,7 +4474,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -4318,7 +4508,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -4352,7 +4542,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -4386,7 +4576,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:24" ht="37.5">
+    <row r="12" spans="2:24" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -4422,7 +4612,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:24" ht="75">
+    <row r="13" spans="2:24" ht="75" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -4458,7 +4648,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -4486,7 +4676,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -4510,7 +4700,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -4534,7 +4724,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -4558,7 +4748,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -4582,7 +4772,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -4606,7 +4796,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -4630,7 +4820,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -4654,7 +4844,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -4678,7 +4868,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -4702,7 +4892,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -4726,7 +4916,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -4750,7 +4940,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -4774,7 +4964,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -4798,7 +4988,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -4822,7 +5012,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -4846,7 +5036,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -4870,7 +5060,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -4894,7 +5084,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -4918,7 +5108,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -4942,7 +5132,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -4966,7 +5156,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -4990,7 +5180,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -5014,7 +5204,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -5038,7 +5228,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -5062,7 +5252,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -5086,7 +5276,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -5110,7 +5300,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -5134,7 +5324,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -5158,7 +5348,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -5182,7 +5372,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -5206,7 +5396,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -5230,7 +5420,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -5254,7 +5444,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -5278,7 +5468,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -5302,7 +5492,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -5326,7 +5516,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -5350,7 +5540,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -5374,7 +5564,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -5398,7 +5588,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -5422,7 +5612,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -5446,7 +5636,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -5470,7 +5660,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -5494,7 +5684,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -5518,7 +5708,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -5556,14 +5746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -5576,7 +5766,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="24" customHeight="1">
+    <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K1" s="2"/>
       <c r="L1" s="20" t="s">
         <v>0</v>
@@ -5584,7 +5774,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="2:14" ht="95.25" customHeight="1">
+    <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
@@ -5595,8 +5785,8 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="2:14" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:14">
+    <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5619,7 +5809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="17">
         <v>42375</v>
       </c>
@@ -5630,7 +5820,7 @@
         <v>67.5</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E13" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E16" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
@@ -5641,7 +5831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="17">
         <v>42376</v>
       </c>
@@ -5663,7 +5853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="17">
         <v>42377</v>
       </c>
@@ -5683,7 +5873,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="17">
         <v>42378</v>
       </c>
@@ -5705,7 +5895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="17">
         <v>42379</v>
       </c>
@@ -5729,7 +5919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
@@ -5753,7 +5943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="17">
         <v>42381</v>
       </c>
@@ -5777,7 +5967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
@@ -5801,7 +5991,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="17">
         <v>42383</v>
       </c>
@@ -5825,46 +6015,77 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="17">
         <v>42384</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>66.599999999999994</v>
+      </c>
       <c r="D14" s="4">
         <v>66.600000000000094</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="17">
         <v>42385</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4">
+        <v>67.3</v>
+      </c>
       <c r="D15" s="4">
         <v>66.500000000000099</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:14">
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.79999999999989768</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="17">
         <v>42386</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <v>67.099999999999994</v>
+      </c>
       <c r="D16" s="4">
         <v>66.400000000000105</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.69999999999988916</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="17">
         <v>42387</v>
       </c>
@@ -5877,7 +6098,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
@@ -5890,7 +6111,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
@@ -5903,7 +6124,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
@@ -5916,7 +6137,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="17">
         <v>42391</v>
       </c>
@@ -5929,7 +6150,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="17">
         <v>42392</v>
       </c>
@@ -5942,7 +6163,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
@@ -5955,7 +6176,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
@@ -5968,7 +6189,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
@@ -5981,7 +6202,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="17">
         <v>42396</v>
       </c>
@@ -5994,7 +6215,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="17">
         <v>42397</v>
       </c>
@@ -6007,7 +6228,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="17">
         <v>42398</v>
       </c>
@@ -6020,7 +6241,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="17">
         <v>42399</v>
       </c>
@@ -6033,7 +6254,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="17">
         <v>42400</v>
       </c>
@@ -6046,7 +6267,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="17">
         <v>42401</v>
       </c>
@@ -6059,7 +6280,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="17">
         <v>42402</v>
       </c>
@@ -6072,7 +6293,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="17">
         <v>42403</v>
       </c>
@@ -6085,7 +6306,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="17">
         <v>42404</v>
       </c>
@@ -6098,7 +6319,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="17">
         <v>42405</v>
       </c>
@@ -6111,7 +6332,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="17">
         <v>42406</v>
       </c>
@@ -6124,7 +6345,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="17">
         <v>42407</v>
       </c>
@@ -6137,7 +6358,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="17">
         <v>42408</v>
       </c>
@@ -6150,7 +6371,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="17">
         <v>42409</v>
       </c>
@@ -6163,7 +6384,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="17">
         <v>42410</v>
       </c>
@@ -6176,7 +6397,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="17">
         <v>42411</v>
       </c>
@@ -6189,7 +6410,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="17">
         <v>42412</v>
       </c>
@@ -6202,7 +6423,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="17">
         <v>42413</v>
       </c>
@@ -6215,7 +6436,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="17">
         <v>42414</v>
       </c>
@@ -6228,7 +6449,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="17">
         <v>42415</v>
       </c>
@@ -6241,7 +6462,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="17">
         <v>42416</v>
       </c>
@@ -6254,7 +6475,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="17">
         <v>42417</v>
       </c>
@@ -6267,7 +6488,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="17">
         <v>42418</v>
       </c>
@@ -6280,7 +6501,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="17">
         <v>42419</v>
       </c>
@@ -6293,7 +6514,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="17">
         <v>42420</v>
       </c>
@@ -6306,7 +6527,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="17">
         <v>42421</v>
       </c>
@@ -6319,7 +6540,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="17">
         <v>42422</v>
       </c>
@@ -6332,7 +6553,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" s="17">
         <v>42423</v>
       </c>
@@ -6345,7 +6566,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B54" s="17">
         <v>42424</v>
       </c>
@@ -6358,7 +6579,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" s="17">
         <v>42425</v>
       </c>
@@ -6371,7 +6592,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" s="17">
         <v>42426</v>
       </c>
@@ -6384,7 +6605,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="17">
         <v>42427</v>
       </c>
@@ -6397,7 +6618,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="17">
         <v>42428</v>
       </c>
@@ -6424,14 +6645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -6447,7 +6668,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1">
+    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
         <v>1</v>
@@ -6455,7 +6676,7 @@
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
     </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1">
+    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
@@ -6466,8 +6687,8 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
     </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:17">
+    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -6502,7 +6723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5">
+    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -6536,7 +6757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25">
+    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -6573,7 +6794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="56.25">
+    <row r="7" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -6610,7 +6831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="56.25">
+    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -6647,7 +6868,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -6672,7 +6893,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="37.5">
+    <row r="10" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -6707,7 +6928,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="80.25" customHeight="1">
+    <row r="11" spans="2:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -6744,7 +6965,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -6777,7 +6998,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17" ht="75">
+    <row r="13" spans="2:17" ht="75" x14ac:dyDescent="0.15">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -6806,7 +7027,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="56.25">
+    <row r="14" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -6843,7 +7064,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="75">
+    <row r="15" spans="2:17" ht="75" x14ac:dyDescent="0.15">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -6868,7 +7089,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -6889,7 +7110,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -6910,7 +7131,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -6931,7 +7152,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -6952,7 +7173,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -6973,7 +7194,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -6994,7 +7215,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -7015,7 +7236,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -7036,7 +7257,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -7057,7 +7278,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -7078,7 +7299,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -7099,7 +7320,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -7120,7 +7341,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -7141,7 +7362,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -7162,7 +7383,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -7183,7 +7404,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -7204,7 +7425,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -7225,7 +7446,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -7246,7 +7467,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -7267,7 +7488,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -7288,7 +7509,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -7309,7 +7530,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -7330,7 +7551,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -7351,7 +7572,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -7372,7 +7593,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -7393,7 +7614,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -7414,7 +7635,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -7435,7 +7656,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -7456,7 +7677,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -7477,7 +7698,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -7498,7 +7719,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -7519,7 +7740,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -7540,7 +7761,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -7561,7 +7782,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -7582,7 +7803,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -7603,7 +7824,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -7624,7 +7845,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -7645,7 +7866,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -7666,7 +7887,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -7687,7 +7908,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -7708,7 +7929,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -7729,7 +7950,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -7750,7 +7971,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -7771,7 +7992,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -7792,7 +8013,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="133">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1156,11 +1151,96 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>腕立て・腹筋・背筋・
+スクワット10回×3セット
+ジョギング5.1キロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラーメン大</t>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>誘惑にまけてラーメン大盛りしちゃったわ・・・</t>
+    <rPh sb="0" eb="2">
+      <t>ユウワク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オオモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>塩ちゃんこ鍋</t>
+    <rPh sb="0" eb="1">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計測忘れ・・・</t>
+    <rPh sb="0" eb="2">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シナモントースト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハムトースト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>塩ちゃんこ雑炊</t>
+    <rPh sb="0" eb="1">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゾウスイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレーライス、コブサラダ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かぼちゃサラダ、山芋ソテー、ワンタンスープ、チキンソテー、少なめご飯</t>
+    <rPh sb="8" eb="10">
+      <t>ヤマイモ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そしてやっぱり増えたわ・・・</t>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -1171,7 +1251,7 @@
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,24 +1448,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1423,7 +1491,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1626,7 +1694,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1816,24 +1883,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="451358144"/>
-        <c:axId val="451352704"/>
+        <c:axId val="126374272"/>
+        <c:axId val="126375808"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1877,7 +1934,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2077,7 +2134,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2089,7 +2145,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2268,88 +2324,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="451357600"/>
-        <c:axId val="451355424"/>
+        <c:axId val="126395520"/>
+        <c:axId val="126377344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451358144"/>
+        <c:axId val="126374272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451352704"/>
+        <c:crossAx val="126375808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451352704"/>
+        <c:axId val="126375808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451358144"/>
+        <c:crossAx val="126374272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451355424"/>
+        <c:axId val="126377344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.30000000000000027"/>
+          <c:max val="0.30000000000000032"/>
           <c:min val="0.2"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451357600"/>
+        <c:crossAx val="126395520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000062E-3"/>
+        <c:majorUnit val="5.000000000000007E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="451357600"/>
+        <c:axId val="126395520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="451355424"/>
+        <c:crossAx val="126377344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2361,15 +2397,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2377,24 +2410,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2644,7 +2665,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2834,53 +2854,38 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="451350528"/>
-        <c:axId val="451346176"/>
+        <c:axId val="126471168"/>
+        <c:axId val="204022528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451350528"/>
+        <c:axId val="126471168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451346176"/>
+        <c:crossAx val="204022528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451346176"/>
+        <c:axId val="204022528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451350528"/>
+        <c:crossAx val="126471168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2892,15 +2897,12 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2908,24 +2910,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3166,27 +3156,23 @@
                 <c:pt idx="9">
                   <c:v>68.599999999999994</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="451348352"/>
-        <c:axId val="451358688"/>
+        <c:axId val="204088064"/>
+        <c:axId val="204089600"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -3433,10 +3419,15 @@
                 <c:pt idx="9">
                   <c:v>0.185</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.189</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3632,88 +3623,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="451352160"/>
-        <c:axId val="451359232"/>
+        <c:axId val="204092928"/>
+        <c:axId val="204091392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451348352"/>
+        <c:axId val="204088064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451358688"/>
+        <c:crossAx val="204089600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451358688"/>
+        <c:axId val="204089600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451348352"/>
+        <c:crossAx val="204088064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451359232"/>
+        <c:axId val="204091392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451352160"/>
+        <c:crossAx val="204092928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000044E-3"/>
+        <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="451352160"/>
+        <c:axId val="204092928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="451359232"/>
+        <c:crossAx val="204091392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3726,15 +3697,12 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4005,7 +3973,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4037,10 +4005,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4072,7 +4039,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4248,14 +4214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:X58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -4273,7 +4239,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:24" ht="24" customHeight="1">
       <c r="O1" s="2"/>
       <c r="P1" s="20" t="s">
         <v>0</v>
@@ -4284,7 +4250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:24" ht="95.25" customHeight="1">
       <c r="N2" s="21" t="s">
         <v>4</v>
       </c>
@@ -4300,8 +4266,8 @@
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="2:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:24" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:24">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4336,7 +4302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:24">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -4370,7 +4336,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:24">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -4406,7 +4372,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:24">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -4440,7 +4406,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:24">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -4474,7 +4440,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:24">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -4508,7 +4474,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:24">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -4542,7 +4508,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:24">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -4576,7 +4542,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:24" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:24" ht="37.5">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -4612,7 +4578,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:24" ht="75" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:24" ht="75">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -4648,7 +4614,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:24">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -4676,7 +4642,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:24">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -4700,7 +4666,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:24">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -4724,7 +4690,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -4748,7 +4714,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -4772,7 +4738,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -4796,7 +4762,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -4820,7 +4786,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -4844,7 +4810,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -4868,7 +4834,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -4892,7 +4858,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -4916,7 +4882,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -4940,7 +4906,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -4964,7 +4930,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -4988,7 +4954,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -5012,7 +4978,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -5036,7 +5002,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -5060,7 +5026,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -5084,7 +5050,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -5108,7 +5074,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -5132,7 +5098,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -5156,7 +5122,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -5180,7 +5146,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -5204,7 +5170,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -5228,7 +5194,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -5252,7 +5218,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -5276,7 +5242,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -5300,7 +5266,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -5324,7 +5290,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -5348,7 +5314,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -5372,7 +5338,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -5396,7 +5362,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -5420,7 +5386,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -5444,7 +5410,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -5468,7 +5434,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -5492,7 +5458,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -5516,7 +5482,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -5540,7 +5506,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -5564,7 +5530,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -5588,7 +5554,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -5612,7 +5578,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -5636,7 +5602,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -5660,7 +5626,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -5684,7 +5650,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -5708,7 +5674,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -5746,14 +5712,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -5766,7 +5732,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" ht="24" customHeight="1">
       <c r="K1" s="2"/>
       <c r="L1" s="20" t="s">
         <v>0</v>
@@ -5774,7 +5740,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" ht="95.25" customHeight="1">
       <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
@@ -5785,8 +5751,8 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:14">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5809,7 +5775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="B5" s="17">
         <v>42375</v>
       </c>
@@ -5831,7 +5797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14">
       <c r="B6" s="17">
         <v>42376</v>
       </c>
@@ -5853,7 +5819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14">
       <c r="B7" s="17">
         <v>42377</v>
       </c>
@@ -5873,7 +5839,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14">
       <c r="B8" s="17">
         <v>42378</v>
       </c>
@@ -5895,7 +5861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14">
       <c r="B9" s="17">
         <v>42379</v>
       </c>
@@ -5919,7 +5885,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
@@ -5943,7 +5909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="B11" s="17">
         <v>42381</v>
       </c>
@@ -5967,7 +5933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
@@ -5991,7 +5957,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="B13" s="17">
         <v>42383</v>
       </c>
@@ -6015,7 +5981,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="B14" s="17">
         <v>42384</v>
       </c>
@@ -6037,7 +6003,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="B15" s="17">
         <v>42385</v>
       </c>
@@ -6061,7 +6027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14">
       <c r="B16" s="17">
         <v>42386</v>
       </c>
@@ -6085,7 +6051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17" s="17">
         <v>42387</v>
       </c>
@@ -6098,7 +6064,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
@@ -6111,7 +6077,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
@@ -6124,7 +6090,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
@@ -6137,7 +6103,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="B21" s="17">
         <v>42391</v>
       </c>
@@ -6150,7 +6116,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22" s="17">
         <v>42392</v>
       </c>
@@ -6163,7 +6129,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
@@ -6176,7 +6142,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
@@ -6189,7 +6155,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
@@ -6202,7 +6168,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8">
       <c r="B26" s="17">
         <v>42396</v>
       </c>
@@ -6215,7 +6181,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8">
       <c r="B27" s="17">
         <v>42397</v>
       </c>
@@ -6228,7 +6194,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8">
       <c r="B28" s="17">
         <v>42398</v>
       </c>
@@ -6241,7 +6207,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8">
       <c r="B29" s="17">
         <v>42399</v>
       </c>
@@ -6254,7 +6220,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="B30" s="17">
         <v>42400</v>
       </c>
@@ -6267,7 +6233,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="B31" s="17">
         <v>42401</v>
       </c>
@@ -6280,7 +6246,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8">
       <c r="B32" s="17">
         <v>42402</v>
       </c>
@@ -6293,7 +6259,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8">
       <c r="B33" s="17">
         <v>42403</v>
       </c>
@@ -6306,7 +6272,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8">
       <c r="B34" s="17">
         <v>42404</v>
       </c>
@@ -6319,7 +6285,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8">
       <c r="B35" s="17">
         <v>42405</v>
       </c>
@@ -6332,7 +6298,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8">
       <c r="B36" s="17">
         <v>42406</v>
       </c>
@@ -6345,7 +6311,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8">
       <c r="B37" s="17">
         <v>42407</v>
       </c>
@@ -6358,7 +6324,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8">
       <c r="B38" s="17">
         <v>42408</v>
       </c>
@@ -6371,7 +6337,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8">
       <c r="B39" s="17">
         <v>42409</v>
       </c>
@@ -6384,7 +6350,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8">
       <c r="B40" s="17">
         <v>42410</v>
       </c>
@@ -6397,7 +6363,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8">
       <c r="B41" s="17">
         <v>42411</v>
       </c>
@@ -6410,7 +6376,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8">
       <c r="B42" s="17">
         <v>42412</v>
       </c>
@@ -6423,7 +6389,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8">
       <c r="B43" s="17">
         <v>42413</v>
       </c>
@@ -6436,7 +6402,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8">
       <c r="B44" s="17">
         <v>42414</v>
       </c>
@@ -6449,7 +6415,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8">
       <c r="B45" s="17">
         <v>42415</v>
       </c>
@@ -6462,7 +6428,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8">
       <c r="B46" s="17">
         <v>42416</v>
       </c>
@@ -6475,7 +6441,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8">
       <c r="B47" s="17">
         <v>42417</v>
       </c>
@@ -6488,7 +6454,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8">
       <c r="B48" s="17">
         <v>42418</v>
       </c>
@@ -6501,7 +6467,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="B49" s="17">
         <v>42419</v>
       </c>
@@ -6514,7 +6480,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="B50" s="17">
         <v>42420</v>
       </c>
@@ -6527,7 +6493,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="B51" s="17">
         <v>42421</v>
       </c>
@@ -6540,7 +6506,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="B52" s="17">
         <v>42422</v>
       </c>
@@ -6553,7 +6519,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" s="17">
         <v>42423</v>
       </c>
@@ -6566,7 +6532,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8">
       <c r="B54" s="17">
         <v>42424</v>
       </c>
@@ -6579,7 +6545,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8">
       <c r="B55" s="17">
         <v>42425</v>
       </c>
@@ -6592,7 +6558,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8">
       <c r="B56" s="17">
         <v>42426</v>
       </c>
@@ -6605,7 +6571,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8">
       <c r="B57" s="17">
         <v>42427</v>
       </c>
@@ -6618,7 +6584,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8">
       <c r="B58" s="17">
         <v>42428</v>
       </c>
@@ -6645,14 +6611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -6668,7 +6634,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" ht="24" customHeight="1">
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
         <v>1</v>
@@ -6676,7 +6642,7 @@
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
     </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" ht="95.25" customHeight="1">
       <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
@@ -6687,8 +6653,8 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
     </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:17">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -6723,7 +6689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="37.5">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -6757,7 +6723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="56.25">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -6794,7 +6760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="56.25">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -6831,7 +6797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" ht="56.25">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -6868,7 +6834,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -6893,7 +6859,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" ht="37.5">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -6928,7 +6894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" ht="80.25" customHeight="1">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -6965,7 +6931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -6998,7 +6964,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17" ht="75" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" ht="75">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -7027,7 +6993,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" ht="56.25">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -7064,7 +7030,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="75" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" ht="75">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -7086,10 +7052,14 @@
       <c r="J15" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="K15" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="56.25">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -7097,20 +7067,34 @@
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>0.18783928571428574</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="J16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -7118,20 +7102,34 @@
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="4">
+        <v>69.5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.189</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>0.18764285714285717</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="I17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="37.5">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -7147,12 +7145,16 @@
         <v>0.1874464285714286</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -7173,7 +7175,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -7194,7 +7196,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -7215,7 +7217,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -7236,7 +7238,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -7257,7 +7259,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -7278,7 +7280,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -7299,7 +7301,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -7320,7 +7322,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -7341,7 +7343,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -7362,7 +7364,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -7383,7 +7385,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -7404,7 +7406,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -7425,7 +7427,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -7446,7 +7448,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -7467,7 +7469,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -7488,7 +7490,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -7509,7 +7511,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -7530,7 +7532,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -7551,7 +7553,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -7572,7 +7574,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -7593,7 +7595,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -7614,7 +7616,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -7635,7 +7637,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -7656,7 +7658,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -7677,7 +7679,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -7698,7 +7700,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -7719,7 +7721,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -7740,7 +7742,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -7761,7 +7763,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -7782,7 +7784,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -7803,7 +7805,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -7824,7 +7826,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -7845,7 +7847,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -7866,7 +7868,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -7887,7 +7889,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -7908,7 +7910,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -7929,7 +7931,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -7950,7 +7952,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -7971,7 +7973,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -7992,7 +7994,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -8013,7 +8015,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1236,11 +1241,30 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>昼：チキン定食　夜：野菜スープ（予定）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイショク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -1251,7 +1275,7 @@
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1448,12 +1472,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1491,7 +1527,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1694,6 +1730,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1883,14 +1920,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126374272"/>
-        <c:axId val="126375808"/>
+        <c:smooth val="0"/>
+        <c:axId val="-29776992"/>
+        <c:axId val="-29773184"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1934,7 +1981,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2134,6 +2181,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2145,7 +2193,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2324,68 +2372,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126395520"/>
-        <c:axId val="126377344"/>
+        <c:smooth val="0"/>
+        <c:axId val="-29769920"/>
+        <c:axId val="-29763392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="126374272"/>
+        <c:axId val="-29776992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126375808"/>
+        <c:crossAx val="-29773184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126375808"/>
+        <c:axId val="-29773184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126374272"/>
+        <c:crossAx val="-29776992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126377344"/>
+        <c:axId val="-29763392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
           <c:min val="0.2"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126395520"/>
+        <c:crossAx val="-29769920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000007E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="126395520"/>
+        <c:axId val="-29769920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="126377344"/>
+        <c:crossAx val="-29763392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2397,8 +2465,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2410,12 +2482,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2662,9 +2746,13 @@
                 <c:pt idx="11">
                   <c:v>67.099999999999994</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2854,38 +2942,53 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126471168"/>
-        <c:axId val="204022528"/>
+        <c:smooth val="0"/>
+        <c:axId val="-29772096"/>
+        <c:axId val="-29774272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="126471168"/>
+        <c:axId val="-29772096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204022528"/>
+        <c:crossAx val="-29774272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="204022528"/>
+        <c:axId val="-29774272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126471168"/>
+        <c:crossAx val="-29772096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2897,8 +3000,11 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2910,12 +3016,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3165,14 +3283,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="204088064"/>
-        <c:axId val="204089600"/>
+        <c:smooth val="0"/>
+        <c:axId val="-29771008"/>
+        <c:axId val="-29769376"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -3428,6 +3556,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3623,68 +3752,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="204092928"/>
-        <c:axId val="204091392"/>
+        <c:smooth val="0"/>
+        <c:axId val="-29762848"/>
+        <c:axId val="-29767744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="204088064"/>
+        <c:axId val="-29771008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204089600"/>
+        <c:crossAx val="-29769376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="204089600"/>
+        <c:axId val="-29769376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204088064"/>
+        <c:crossAx val="-29771008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204091392"/>
+        <c:axId val="-29767744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204092928"/>
+        <c:crossAx val="-29762848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="204092928"/>
+        <c:axId val="-29762848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="204091392"/>
+        <c:crossAx val="-29767744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3697,8 +3846,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3973,7 +4125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4005,9 +4157,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4039,6 +4192,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4214,14 +4368,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -4239,7 +4393,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="24" customHeight="1">
+    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O1" s="2"/>
       <c r="P1" s="20" t="s">
         <v>0</v>
@@ -4250,7 +4404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="95.25" customHeight="1">
+    <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N2" s="21" t="s">
         <v>4</v>
       </c>
@@ -4266,8 +4420,8 @@
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="2:24" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:24">
+    <row r="3" spans="2:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4302,7 +4456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -4336,7 +4490,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -4372,7 +4526,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -4406,7 +4560,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -4440,7 +4594,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -4474,7 +4628,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -4508,7 +4662,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -4542,7 +4696,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:24" ht="37.5">
+    <row r="12" spans="2:24" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -4578,7 +4732,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:24" ht="75">
+    <row r="13" spans="2:24" ht="75" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -4614,7 +4768,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -4642,7 +4796,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -4666,7 +4820,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -4690,7 +4844,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -4714,7 +4868,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -4738,7 +4892,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -4762,7 +4916,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -4786,7 +4940,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -4810,7 +4964,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -4834,7 +4988,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -4858,7 +5012,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -4882,7 +5036,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -4906,7 +5060,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -4930,7 +5084,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -4954,7 +5108,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -4978,7 +5132,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -5002,7 +5156,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -5026,7 +5180,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -5050,7 +5204,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -5074,7 +5228,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -5098,7 +5252,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -5122,7 +5276,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -5146,7 +5300,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -5170,7 +5324,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -5194,7 +5348,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -5218,7 +5372,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -5242,7 +5396,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -5266,7 +5420,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -5290,7 +5444,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -5314,7 +5468,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -5338,7 +5492,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -5362,7 +5516,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -5386,7 +5540,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -5410,7 +5564,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -5434,7 +5588,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -5458,7 +5612,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -5482,7 +5636,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -5506,7 +5660,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -5530,7 +5684,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -5554,7 +5708,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -5578,7 +5732,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -5602,7 +5756,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -5626,7 +5780,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -5650,7 +5804,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -5674,7 +5828,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -5712,14 +5866,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -5732,7 +5886,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="24" customHeight="1">
+    <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K1" s="2"/>
       <c r="L1" s="20" t="s">
         <v>0</v>
@@ -5740,7 +5894,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="2:14" ht="95.25" customHeight="1">
+    <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
@@ -5751,8 +5905,8 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="2:14" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:14">
+    <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5775,7 +5929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="17">
         <v>42375</v>
       </c>
@@ -5786,7 +5940,7 @@
         <v>67.5</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E16" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E17" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
@@ -5797,7 +5951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="17">
         <v>42376</v>
       </c>
@@ -5819,7 +5973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="17">
         <v>42377</v>
       </c>
@@ -5839,7 +5993,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="17">
         <v>42378</v>
       </c>
@@ -5861,7 +6015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="17">
         <v>42379</v>
       </c>
@@ -5885,7 +6039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
@@ -5909,7 +6063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="17">
         <v>42381</v>
       </c>
@@ -5933,7 +6087,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
@@ -5957,7 +6111,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="17">
         <v>42383</v>
       </c>
@@ -5981,7 +6135,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="17">
         <v>42384</v>
       </c>
@@ -6003,7 +6157,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="17">
         <v>42385</v>
       </c>
@@ -6027,7 +6181,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="17">
         <v>42386</v>
       </c>
@@ -6051,20 +6205,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="17">
         <v>42387</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>66.8</v>
+      </c>
       <c r="D17" s="4">
         <v>66.300000000000097</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.49999999999990052</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.159</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
@@ -6077,7 +6240,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
@@ -6090,7 +6253,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
@@ -6103,7 +6266,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="17">
         <v>42391</v>
       </c>
@@ -6116,7 +6279,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="17">
         <v>42392</v>
       </c>
@@ -6129,7 +6292,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
@@ -6142,7 +6305,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
@@ -6155,7 +6318,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
@@ -6168,7 +6331,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="17">
         <v>42396</v>
       </c>
@@ -6181,7 +6344,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="17">
         <v>42397</v>
       </c>
@@ -6194,7 +6357,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="17">
         <v>42398</v>
       </c>
@@ -6207,7 +6370,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="17">
         <v>42399</v>
       </c>
@@ -6220,7 +6383,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="17">
         <v>42400</v>
       </c>
@@ -6233,7 +6396,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="17">
         <v>42401</v>
       </c>
@@ -6246,7 +6409,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="17">
         <v>42402</v>
       </c>
@@ -6259,7 +6422,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="17">
         <v>42403</v>
       </c>
@@ -6272,7 +6435,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="17">
         <v>42404</v>
       </c>
@@ -6285,7 +6448,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="17">
         <v>42405</v>
       </c>
@@ -6298,7 +6461,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="17">
         <v>42406</v>
       </c>
@@ -6311,7 +6474,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="17">
         <v>42407</v>
       </c>
@@ -6324,7 +6487,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="17">
         <v>42408</v>
       </c>
@@ -6337,7 +6500,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="17">
         <v>42409</v>
       </c>
@@ -6350,7 +6513,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="17">
         <v>42410</v>
       </c>
@@ -6363,7 +6526,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="17">
         <v>42411</v>
       </c>
@@ -6376,7 +6539,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="17">
         <v>42412</v>
       </c>
@@ -6389,7 +6552,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="17">
         <v>42413</v>
       </c>
@@ -6402,7 +6565,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="17">
         <v>42414</v>
       </c>
@@ -6415,7 +6578,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="17">
         <v>42415</v>
       </c>
@@ -6428,7 +6591,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="17">
         <v>42416</v>
       </c>
@@ -6441,7 +6604,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="17">
         <v>42417</v>
       </c>
@@ -6454,7 +6617,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="17">
         <v>42418</v>
       </c>
@@ -6467,7 +6630,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="17">
         <v>42419</v>
       </c>
@@ -6480,7 +6643,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="17">
         <v>42420</v>
       </c>
@@ -6493,7 +6656,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="17">
         <v>42421</v>
       </c>
@@ -6506,7 +6669,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="17">
         <v>42422</v>
       </c>
@@ -6519,7 +6682,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" s="17">
         <v>42423</v>
       </c>
@@ -6532,7 +6695,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B54" s="17">
         <v>42424</v>
       </c>
@@ -6545,7 +6708,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" s="17">
         <v>42425</v>
       </c>
@@ -6558,7 +6721,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" s="17">
         <v>42426</v>
       </c>
@@ -6571,7 +6734,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="17">
         <v>42427</v>
       </c>
@@ -6584,7 +6747,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="17">
         <v>42428</v>
       </c>
@@ -6611,14 +6774,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -6634,7 +6797,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1">
+    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
         <v>1</v>
@@ -6642,7 +6805,7 @@
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
     </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1">
+    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
@@ -6653,8 +6816,8 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
     </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:17">
+    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -6689,7 +6852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5">
+    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -6723,7 +6886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25">
+    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -6760,7 +6923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="56.25">
+    <row r="7" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -6797,7 +6960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="56.25">
+    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -6834,7 +6997,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -6859,7 +7022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="37.5">
+    <row r="10" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -6894,7 +7057,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="80.25" customHeight="1">
+    <row r="11" spans="2:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -6931,7 +7094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -6964,7 +7127,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17" ht="75">
+    <row r="13" spans="2:17" ht="75" x14ac:dyDescent="0.15">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -6993,7 +7156,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="56.25">
+    <row r="14" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -7030,7 +7193,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="75">
+    <row r="15" spans="2:17" ht="75" x14ac:dyDescent="0.15">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -7059,7 +7222,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="56.25">
+    <row r="16" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -7094,7 +7257,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -7129,7 +7292,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="37.5">
+    <row r="18" spans="2:12" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -7154,7 +7317,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -7175,7 +7338,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -7196,7 +7359,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -7217,7 +7380,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -7238,7 +7401,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -7259,7 +7422,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -7280,7 +7443,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -7301,7 +7464,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -7322,7 +7485,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -7343,7 +7506,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -7364,7 +7527,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -7385,7 +7548,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -7406,7 +7569,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -7427,7 +7590,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -7448,7 +7611,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -7469,7 +7632,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -7490,7 +7653,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -7511,7 +7674,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -7532,7 +7695,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -7553,7 +7716,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -7574,7 +7737,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -7595,7 +7758,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -7616,7 +7779,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -7637,7 +7800,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -7658,7 +7821,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -7679,7 +7842,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -7700,7 +7863,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -7721,7 +7884,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -7742,7 +7905,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -7763,7 +7926,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -7784,7 +7947,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -7805,7 +7968,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -7826,7 +7989,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -7847,7 +8010,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -7868,7 +8031,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -7889,7 +8052,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -7910,7 +8073,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -7931,7 +8094,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -7952,7 +8115,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -7973,7 +8136,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -7994,7 +8157,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -8015,7 +8178,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="142">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -324,13 +319,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>目標</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>3.2km</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1257,6 +1245,75 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャベツ千切り　ウィンナー</t>
+    <rPh sb="4" eb="6">
+      <t>センギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豚バラボイル、お吸い物</t>
+    <rPh sb="0" eb="1">
+      <t>ブタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サラダ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お吸い物</t>
+    <rPh sb="1" eb="2">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お吸い物、シチュｰ</t>
+    <rPh sb="1" eb="2">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シチュー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シチュー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計測忘れ</t>
+    <rPh sb="0" eb="2">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワス</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1727,6 +1784,12 @@
                 <c:pt idx="8">
                   <c:v>92.7</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1737,7 +1800,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>HORIZAP!$F$4</c:f>
+              <c:f>HORIZAP!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1751,7 +1814,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>HORIZAP!$F$5:$F$58</c:f>
+              <c:f>HORIZAP!$E$5:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="54"/>
@@ -1932,8 +1995,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-29776992"/>
-        <c:axId val="-29773184"/>
+        <c:axId val="129831680"/>
+        <c:axId val="129833216"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1943,7 +2006,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HORIZAP!$E$4</c:f>
+              <c:f>HORIZAP!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2150,7 +2213,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HORIZAP!$E$5:$E$58</c:f>
+              <c:f>HORIZAP!$D$5:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="54"/>
@@ -2362,7 +2425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HORIZAP!$G$6</c:f>
+              <c:f>HORIZAP!$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2384,11 +2447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-29769920"/>
-        <c:axId val="-29763392"/>
+        <c:axId val="129840640"/>
+        <c:axId val="129839104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-29776992"/>
+        <c:axId val="129831680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2398,14 +2461,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-29773184"/>
+        <c:crossAx val="129833216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-29773184"/>
+        <c:axId val="129833216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2418,13 +2481,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-29776992"/>
+        <c:crossAx val="129831680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-29763392"/>
+        <c:axId val="129839104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2437,13 +2500,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-29769920"/>
+        <c:crossAx val="129840640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000007E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-29769920"/>
+        <c:axId val="129840640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,7 +2516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-29763392"/>
+        <c:crossAx val="129839104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2954,11 +3017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-29772096"/>
-        <c:axId val="-29774272"/>
+        <c:axId val="129882752"/>
+        <c:axId val="129892736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-29772096"/>
+        <c:axId val="129882752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,14 +3031,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-29774272"/>
+        <c:crossAx val="129892736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-29774272"/>
+        <c:axId val="129892736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2988,7 +3051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-29772096"/>
+        <c:crossAx val="129882752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3295,8 +3358,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-29771008"/>
-        <c:axId val="-29769376"/>
+        <c:axId val="130055168"/>
+        <c:axId val="130065152"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3764,11 +3827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-29762848"/>
-        <c:axId val="-29767744"/>
+        <c:axId val="130072576"/>
+        <c:axId val="130066688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-29771008"/>
+        <c:axId val="130055168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3778,14 +3841,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-29769376"/>
+        <c:crossAx val="130065152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-29769376"/>
+        <c:axId val="130065152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -3798,13 +3861,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-29771008"/>
+        <c:crossAx val="130055168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-29767744"/>
+        <c:axId val="130066688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3817,13 +3880,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-29762848"/>
+        <c:crossAx val="130072576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-29762848"/>
+        <c:axId val="130072576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +3896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-29767744"/>
+        <c:crossAx val="130066688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3864,13 +3927,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>876298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3901,7 +3964,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>717533</xdr:colOff>
+      <xdr:colOff>455595</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1190625</xdr:rowOff>
     </xdr:to>
@@ -4083,7 +4146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4125,7 +4188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4160,7 +4223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4369,59 +4432,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X58"/>
+  <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="7.625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="18.25" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="26.5" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="15.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="29.375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
-    <col min="13" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="33.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="7.625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="18.25" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="24.375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="29.375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
+    <col min="12" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="33.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O1" s="2"/>
-      <c r="P1" s="20" t="s">
+    <row r="1" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N1" s="2"/>
+      <c r="O1" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="U1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N2" s="21" t="s">
+    <row r="2" spans="2:23" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22">
+      <c r="N2" s="21"/>
+      <c r="O2" s="22">
         <v>88.9</v>
       </c>
+      <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="V2" s="15">
+      <c r="U2" s="15">
         <v>177</v>
       </c>
+      <c r="V2" s="14"/>
       <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-    </row>
-    <row r="3" spans="2:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4429,19 +4492,19 @@
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>37</v>
@@ -4450,1413 +4513,1218 @@
         <v>38</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
       <c r="C5" s="4">
         <v>93.5</v>
       </c>
-      <c r="D5" s="4">
-        <f>C5+(($P$2-$C$5)/54)</f>
-        <v>93.414814814814818</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4">
+      <c r="D5" s="5"/>
+      <c r="E5" s="4">
         <f>C5</f>
         <v>93.5</v>
       </c>
-      <c r="G5" s="5">
-        <f>C5/(($V$2/100)*($V$2/100))/100</f>
+      <c r="F5" s="5">
+        <f>C5/(($U$2/100)*($U$2/100))/100</f>
         <v>0.29844552970091603</v>
       </c>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="H5" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
       <c r="C6" s="4">
         <v>93.6</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" ref="D6:D37" si="0">D5+(($P$2-$C$5)/54)</f>
-        <v>93.329629629629636</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="5">
         <v>0.26900000000000002</v>
       </c>
-      <c r="F6" s="4">
-        <f>F5+(($P$2-$C$5)/53)</f>
+      <c r="E6" s="4">
+        <f>E5+(($O$2-$C$5)/53)</f>
         <v>93.413207547169804</v>
       </c>
-      <c r="G6" s="5">
-        <f>C6/(($V$2/100)*($V$2/100))/100</f>
+      <c r="F6" s="5">
+        <f>C6/(($U$2/100)*($U$2/100))/100</f>
         <v>0.29876472278081007</v>
       </c>
+      <c r="G6" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="H6" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
       <c r="C7" s="4">
         <v>94.1</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>93.244444444444454</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D7" s="18">
         <v>0.27</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" ref="F7:F58" si="1">F6+(($P$2-$C$5)/53)</f>
+      <c r="E7" s="4">
+        <f>E6+(($O$2-$C$5)/53)</f>
         <v>93.326415094339609</v>
       </c>
-      <c r="G7" s="5">
-        <f t="shared" ref="G7:G58" si="2">C7/(($V$2/100)*($V$2/100))/100</f>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F58" si="0">C7/(($U$2/100)*($U$2/100))/100</f>
         <v>0.30036068818028022</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
       <c r="C8" s="4">
         <v>93.5</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>93.159259259259272</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="18">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
+      <c r="E8" s="4">
+        <f>E7+(($O$2-$C$5)/53)</f>
         <v>93.239622641509413</v>
       </c>
-      <c r="G8" s="5">
-        <f t="shared" si="2"/>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
         <v>0.29844552970091603</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="I8" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
       <c r="C9" s="4">
         <v>92.7</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>93.07407407407409</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="D9" s="18">
         <v>0.26600000000000001</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="1"/>
+      <c r="E9" s="4">
+        <f>E8+(($O$2-$C$5)/53)</f>
         <v>93.152830188679218</v>
       </c>
-      <c r="G9" s="5">
-        <f t="shared" si="2"/>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
         <v>0.29589198506176384</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
       <c r="C10" s="4">
         <v>92.5</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>92.988888888888908</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="D10" s="18">
         <v>0.26600000000000001</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="1"/>
+      <c r="E10" s="4">
+        <f>E9+(($O$2-$C$5)/53)</f>
         <v>93.066037735849022</v>
       </c>
-      <c r="G10" s="5">
-        <f t="shared" si="2"/>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
         <v>0.29525359890197578</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I10" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
       <c r="C11" s="4">
         <v>93.4</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>92.903703703703727</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="D11" s="18">
         <v>0.26500000000000001</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="1"/>
+      <c r="E11" s="4">
+        <f>E10+(($O$2-$C$5)/53)</f>
         <v>92.979245283018827</v>
       </c>
-      <c r="G11" s="5">
-        <f t="shared" si="2"/>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
         <v>0.29812633662102206</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I11" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:24" ht="37.5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:23" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
       <c r="C12" s="4">
         <v>92.7</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>92.818518518518545</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="18">
         <v>0.27100000000000002</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="1"/>
+      <c r="E12" s="4">
+        <f>E11+(($O$2-$C$5)/53)</f>
         <v>92.892452830188631</v>
       </c>
-      <c r="G12" s="5">
-        <f t="shared" si="2"/>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
         <v>0.29589198506176384</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="G12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>93</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="2:24" ht="75" x14ac:dyDescent="0.15">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:23" ht="75" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
       <c r="C13" s="4">
         <v>92.7</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>92.733333333333363</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="D13" s="18">
         <v>0.27200000000000002</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="1"/>
+      <c r="E13" s="4">
+        <f>E12+(($O$2-$C$5)/53)</f>
         <v>92.805660377358436</v>
       </c>
-      <c r="G13" s="5">
-        <f t="shared" si="2"/>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
         <v>0.29589198506176384</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>104</v>
+      <c r="G13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>92.648148148148181</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
+      <c r="C14" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="4">
+        <f>E13+(($O$2-$C$5)/53)</f>
         <v>92.71886792452824</v>
       </c>
-      <c r="G14" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="6"/>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.29525359890197578</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>92.562962962962999</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="4">
-        <f t="shared" si="1"/>
+      <c r="C15" s="4">
+        <v>92.3</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="4">
+        <f>E14+(($O$2-$C$5)/53)</f>
         <v>92.632075471698045</v>
       </c>
-      <c r="G15" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.29461521274218772</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>92.477777777777817</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="4">
-        <f t="shared" si="1"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="4">
+        <f>E15+(($O$2-$C$5)/53)</f>
         <v>92.545283018867849</v>
       </c>
-      <c r="G16" s="5">
-        <f t="shared" si="2"/>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>92.392592592592635</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="4">
-        <f t="shared" si="1"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="4">
+        <f>E16+(($O$2-$C$5)/53)</f>
         <v>92.458490566037653</v>
       </c>
-      <c r="G17" s="5">
-        <f t="shared" si="2"/>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>92.307407407407453</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="4">
-        <f t="shared" si="1"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="4">
+        <f>E17+(($O$2-$C$5)/53)</f>
         <v>92.371698113207458</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" si="2"/>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>92.222222222222271</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="4">
-        <f t="shared" si="1"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="4">
+        <f>E18+(($O$2-$C$5)/53)</f>
         <v>92.284905660377262</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="2"/>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>92.137037037037089</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="4">
-        <f t="shared" si="1"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="4">
+        <f>E19+(($O$2-$C$5)/53)</f>
         <v>92.198113207547067</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="2"/>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4">
-        <f t="shared" si="0"/>
-        <v>92.051851851851907</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="4">
-        <f t="shared" si="1"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="4">
+        <f>E20+(($O$2-$C$5)/53)</f>
         <v>92.111320754716871</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="2"/>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4">
-        <f t="shared" si="0"/>
-        <v>91.966666666666725</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="4">
-        <f t="shared" si="1"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="4">
+        <f>E21+(($O$2-$C$5)/53)</f>
         <v>92.024528301886676</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="2"/>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>91.881481481481543</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="4">
-        <f t="shared" si="1"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="4">
+        <f>E22+(($O$2-$C$5)/53)</f>
         <v>91.93773584905648</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="2"/>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>91.796296296296362</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="4">
-        <f t="shared" si="1"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="4">
+        <f>E23+(($O$2-$C$5)/53)</f>
         <v>91.850943396226285</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="2"/>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>91.71111111111118</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="4">
-        <f t="shared" si="1"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="4">
+        <f>E24+(($O$2-$C$5)/53)</f>
         <v>91.764150943396089</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="2"/>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>91.625925925925998</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="4">
-        <f t="shared" si="1"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="4">
+        <f>E25+(($O$2-$C$5)/53)</f>
         <v>91.677358490565894</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="2"/>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4">
-        <f t="shared" si="0"/>
-        <v>91.540740740740816</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="4">
-        <f t="shared" si="1"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="4">
+        <f>E26+(($O$2-$C$5)/53)</f>
         <v>91.590566037735698</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="2"/>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>91.455555555555634</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="4">
-        <f t="shared" si="1"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="4">
+        <f>E27+(($O$2-$C$5)/53)</f>
         <v>91.503773584905503</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="2"/>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4">
-        <f t="shared" si="0"/>
-        <v>91.370370370370452</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="4">
-        <f t="shared" si="1"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="4">
+        <f>E28+(($O$2-$C$5)/53)</f>
         <v>91.416981132075307</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="2"/>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4">
-        <f t="shared" si="0"/>
-        <v>91.28518518518527</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="4">
-        <f t="shared" si="1"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="4">
+        <f>E29+(($O$2-$C$5)/53)</f>
         <v>91.330188679245111</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="2"/>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4">
-        <f t="shared" si="0"/>
-        <v>91.200000000000088</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="4">
-        <f t="shared" si="1"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="4">
+        <f>E30+(($O$2-$C$5)/53)</f>
         <v>91.243396226414916</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="2"/>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4">
-        <f t="shared" si="0"/>
-        <v>91.114814814814906</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="4">
-        <f t="shared" si="1"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="4">
+        <f>E31+(($O$2-$C$5)/53)</f>
         <v>91.15660377358472</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="2"/>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4">
-        <f t="shared" si="0"/>
-        <v>91.029629629629724</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="4">
-        <f t="shared" si="1"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="4">
+        <f>E32+(($O$2-$C$5)/53)</f>
         <v>91.069811320754525</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="2"/>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4">
-        <f t="shared" si="0"/>
-        <v>90.944444444444542</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="4">
-        <f t="shared" si="1"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="4">
+        <f>E33+(($O$2-$C$5)/53)</f>
         <v>90.983018867924329</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="2"/>
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4">
-        <f t="shared" si="0"/>
-        <v>90.85925925925936</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="4">
-        <f t="shared" si="1"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="4">
+        <f>E34+(($O$2-$C$5)/53)</f>
         <v>90.896226415094134</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="2"/>
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4">
-        <f t="shared" si="0"/>
-        <v>90.774074074074178</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="4">
-        <f t="shared" si="1"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="4">
+        <f>E35+(($O$2-$C$5)/53)</f>
         <v>90.809433962263938</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="2"/>
+      <c r="F36" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4">
-        <f t="shared" si="0"/>
-        <v>90.688888888888997</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="4">
-        <f t="shared" si="1"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="4">
+        <f>E36+(($O$2-$C$5)/53)</f>
         <v>90.722641509433743</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="2"/>
+      <c r="F37" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4">
-        <f t="shared" ref="D38:D58" si="3">D37+(($P$2-$C$5)/54)</f>
-        <v>90.603703703703815</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="4">
-        <f t="shared" si="1"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="4">
+        <f>E37+(($O$2-$C$5)/53)</f>
         <v>90.635849056603547</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" si="2"/>
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4">
-        <f t="shared" si="3"/>
-        <v>90.518518518518633</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="4">
-        <f t="shared" si="1"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="4">
+        <f>E38+(($O$2-$C$5)/53)</f>
         <v>90.549056603773352</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="2"/>
+      <c r="F39" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4">
-        <f t="shared" si="3"/>
-        <v>90.433333333333451</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="4">
-        <f t="shared" si="1"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="4">
+        <f>E39+(($O$2-$C$5)/53)</f>
         <v>90.462264150943156</v>
       </c>
-      <c r="G40" s="5">
-        <f t="shared" si="2"/>
+      <c r="F40" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4">
-        <f t="shared" si="3"/>
-        <v>90.348148148148269</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="4">
-        <f t="shared" si="1"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="4">
+        <f>E40+(($O$2-$C$5)/53)</f>
         <v>90.37547169811296</v>
       </c>
-      <c r="G41" s="5">
-        <f t="shared" si="2"/>
+      <c r="F41" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4">
-        <f t="shared" si="3"/>
-        <v>90.262962962963087</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="4">
-        <f t="shared" si="1"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="4">
+        <f>E41+(($O$2-$C$5)/53)</f>
         <v>90.288679245282765</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" si="2"/>
+      <c r="F42" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4">
-        <f t="shared" si="3"/>
-        <v>90.177777777777905</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="4">
-        <f t="shared" si="1"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="4">
+        <f>E42+(($O$2-$C$5)/53)</f>
         <v>90.201886792452569</v>
       </c>
-      <c r="G43" s="5">
-        <f t="shared" si="2"/>
+      <c r="F43" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4">
-        <f t="shared" si="3"/>
-        <v>90.092592592592723</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="4">
-        <f t="shared" si="1"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="4">
+        <f>E43+(($O$2-$C$5)/53)</f>
         <v>90.115094339622374</v>
       </c>
-      <c r="G44" s="5">
-        <f t="shared" si="2"/>
+      <c r="F44" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4">
-        <f t="shared" si="3"/>
-        <v>90.007407407407541</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="4">
-        <f t="shared" si="1"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="4">
+        <f>E44+(($O$2-$C$5)/53)</f>
         <v>90.028301886792178</v>
       </c>
-      <c r="G45" s="5">
-        <f t="shared" si="2"/>
+      <c r="F45" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4">
-        <f t="shared" si="3"/>
-        <v>89.922222222222359</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="4">
-        <f t="shared" si="1"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="4">
+        <f>E45+(($O$2-$C$5)/53)</f>
         <v>89.941509433961983</v>
       </c>
-      <c r="G46" s="5">
-        <f t="shared" si="2"/>
+      <c r="F46" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4">
-        <f t="shared" si="3"/>
-        <v>89.837037037037177</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="4">
-        <f t="shared" si="1"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="4">
+        <f>E46+(($O$2-$C$5)/53)</f>
         <v>89.854716981131787</v>
       </c>
-      <c r="G47" s="5">
-        <f t="shared" si="2"/>
+      <c r="F47" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4">
-        <f t="shared" si="3"/>
-        <v>89.751851851851995</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="4">
-        <f t="shared" si="1"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="4">
+        <f>E47+(($O$2-$C$5)/53)</f>
         <v>89.767924528301592</v>
       </c>
-      <c r="G48" s="5">
-        <f t="shared" si="2"/>
+      <c r="F48" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="4">
-        <f t="shared" si="3"/>
-        <v>89.666666666666814</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="4">
-        <f t="shared" si="1"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="4">
+        <f>E48+(($O$2-$C$5)/53)</f>
         <v>89.681132075471396</v>
       </c>
-      <c r="G49" s="5">
-        <f t="shared" si="2"/>
+      <c r="F49" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="4">
-        <f t="shared" si="3"/>
-        <v>89.581481481481632</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="4">
-        <f t="shared" si="1"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="4">
+        <f>E49+(($O$2-$C$5)/53)</f>
         <v>89.594339622641201</v>
       </c>
-      <c r="G50" s="5">
-        <f t="shared" si="2"/>
+      <c r="F50" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="4">
-        <f t="shared" si="3"/>
-        <v>89.49629629629645</v>
-      </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="4">
-        <f t="shared" si="1"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="4">
+        <f>E50+(($O$2-$C$5)/53)</f>
         <v>89.507547169811005</v>
       </c>
-      <c r="G51" s="5">
-        <f t="shared" si="2"/>
+      <c r="F51" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="4">
-        <f t="shared" si="3"/>
-        <v>89.411111111111268</v>
-      </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="4">
-        <f t="shared" si="1"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="4">
+        <f>E51+(($O$2-$C$5)/53)</f>
         <v>89.420754716980809</v>
       </c>
-      <c r="G52" s="5">
-        <f t="shared" si="2"/>
+      <c r="F52" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4">
-        <f t="shared" si="3"/>
-        <v>89.325925925926086</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="4">
-        <f t="shared" si="1"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="4">
+        <f>E52+(($O$2-$C$5)/53)</f>
         <v>89.333962264150614</v>
       </c>
-      <c r="G53" s="5">
-        <f t="shared" si="2"/>
+      <c r="F53" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="4">
-        <f t="shared" si="3"/>
-        <v>89.240740740740904</v>
-      </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="4">
-        <f t="shared" si="1"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="4">
+        <f>E53+(($O$2-$C$5)/53)</f>
         <v>89.247169811320418</v>
       </c>
-      <c r="G54" s="5">
-        <f t="shared" si="2"/>
+      <c r="F54" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="4">
-        <f t="shared" si="3"/>
-        <v>89.155555555555722</v>
-      </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="4">
-        <f t="shared" si="1"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="4">
+        <f>E54+(($O$2-$C$5)/53)</f>
         <v>89.160377358490223</v>
       </c>
-      <c r="G55" s="5">
-        <f t="shared" si="2"/>
+      <c r="F55" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="4">
-        <f t="shared" si="3"/>
-        <v>89.07037037037054</v>
-      </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="4">
-        <f t="shared" si="1"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="4">
+        <f>E55+(($O$2-$C$5)/53)</f>
         <v>89.073584905660027</v>
       </c>
-      <c r="G56" s="5">
-        <f t="shared" si="2"/>
+      <c r="F56" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="4">
-        <f t="shared" si="3"/>
-        <v>88.985185185185358</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="4">
-        <f t="shared" si="1"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="4">
+        <f>E56+(($O$2-$C$5)/53)</f>
         <v>88.986792452829832</v>
       </c>
-      <c r="G57" s="5">
-        <f t="shared" si="2"/>
+      <c r="F57" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="4">
-        <f t="shared" si="3"/>
-        <v>88.900000000000176</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="4">
-        <f t="shared" si="1"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="4">
+        <f>E57+(($O$2-$C$5)/53)</f>
         <v>88.899999999999636</v>
       </c>
-      <c r="G58" s="5">
-        <f t="shared" si="2"/>
+      <c r="F58" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="4"/>
+      <c r="K58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5869,8 +5737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5920,7 +5788,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>9</v>
@@ -5989,7 +5857,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -6009,10 +5877,10 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
@@ -6033,10 +5901,10 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
@@ -6057,10 +5925,10 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -6081,10 +5949,10 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
@@ -6105,10 +5973,10 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
@@ -6129,10 +5997,10 @@
         <v>0.16</v>
       </c>
       <c r="G13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -6153,7 +6021,7 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -6172,13 +6040,13 @@
         <v>-0.79999999999989768</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
@@ -6199,10 +6067,10 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -6223,7 +6091,7 @@
         <v>0.159</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -6777,8 +6645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A10" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -6945,7 +6813,7 @@
         <v>0.18960714285714286</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>18</v>
@@ -6954,10 +6822,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
@@ -6982,19 +6850,19 @@
         <v>0.18941071428571429</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="K8" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
@@ -7016,10 +6884,10 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
@@ -7037,7 +6905,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
@@ -7045,16 +6913,16 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7072,26 +6940,26 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>0.18882142857142858</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.15">
@@ -7117,13 +6985,13 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" s="4"/>
     </row>
@@ -7144,16 +7012,16 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
@@ -7171,26 +7039,26 @@
         <v>0.185</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0.18823214285714288</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="L14" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="75" x14ac:dyDescent="0.15">
@@ -7210,16 +7078,16 @@
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="K15" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
@@ -7237,24 +7105,24 @@
         <v>0.185</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>0.18783928571428574</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
@@ -7280,16 +7148,16 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="L17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="37.5" x14ac:dyDescent="0.15">
@@ -7309,10 +7177,10 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1230,25 +1235,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>昼：チキン定食　夜：野菜スープ（予定）</t>
-    <rPh sb="0" eb="1">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>テイショク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨル</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヤサイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>キャベツ千切り　ウィンナー</t>
     <rPh sb="4" eb="6">
       <t>センギ</t>
@@ -1315,6 +1301,26 @@
     <rPh sb="2" eb="3">
       <t>ワス</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：チキン定食　夜：野菜スープ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイショク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run:5.0km</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1995,8 +2001,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129831680"/>
-        <c:axId val="129833216"/>
+        <c:axId val="1061785968"/>
+        <c:axId val="1061782704"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2447,11 +2453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129840640"/>
-        <c:axId val="129839104"/>
+        <c:axId val="1061790864"/>
+        <c:axId val="1061784880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="129831680"/>
+        <c:axId val="1061785968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,14 +2467,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129833216"/>
+        <c:crossAx val="1061782704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129833216"/>
+        <c:axId val="1061782704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2481,13 +2487,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129831680"/>
+        <c:crossAx val="1061785968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129839104"/>
+        <c:axId val="1061784880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2500,13 +2506,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129840640"/>
+        <c:crossAx val="1061790864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000007E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="129840640"/>
+        <c:axId val="1061790864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,7 +2522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="129839104"/>
+        <c:crossAx val="1061784880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2812,6 +2818,9 @@
                 <c:pt idx="12">
                   <c:v>66.8</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3017,11 +3026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129882752"/>
-        <c:axId val="129892736"/>
+        <c:axId val="1061787600"/>
+        <c:axId val="1061789232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="129882752"/>
+        <c:axId val="1061787600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,14 +3040,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129892736"/>
+        <c:crossAx val="1061789232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129892736"/>
+        <c:axId val="1061789232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3051,7 +3060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129882752"/>
+        <c:crossAx val="1061787600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3358,8 +3367,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130055168"/>
-        <c:axId val="130065152"/>
+        <c:axId val="1182769408"/>
+        <c:axId val="1182764512"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3827,11 +3836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130072576"/>
-        <c:axId val="130066688"/>
+        <c:axId val="1182767776"/>
+        <c:axId val="1182769952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="130055168"/>
+        <c:axId val="1182769408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,14 +3850,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130065152"/>
+        <c:crossAx val="1182764512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="130065152"/>
+        <c:axId val="1182764512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -3861,13 +3870,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130055168"/>
+        <c:crossAx val="1182769408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130066688"/>
+        <c:axId val="1182769952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3880,13 +3889,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130072576"/>
+        <c:crossAx val="1182767776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="130072576"/>
+        <c:axId val="1182767776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +3905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="130066688"/>
+        <c:crossAx val="1182769952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3908,7 +3917,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -4146,7 +4154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4188,7 +4196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4223,7 +4231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4434,7 +4442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -4557,7 +4565,7 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="E6" s="4">
-        <f>E5+(($O$2-$C$5)/53)</f>
+        <f t="shared" ref="E6:E37" si="0">E5+(($O$2-$C$5)/53)</f>
         <v>93.413207547169804</v>
       </c>
       <c r="F6" s="5">
@@ -4589,11 +4597,11 @@
         <v>0.27</v>
       </c>
       <c r="E7" s="4">
-        <f>E6+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>93.326415094339609</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F58" si="0">C7/(($U$2/100)*($U$2/100))/100</f>
+        <f t="shared" ref="F7:F58" si="1">C7/(($U$2/100)*($U$2/100))/100</f>
         <v>0.30036068818028022</v>
       </c>
       <c r="G7" s="6"/>
@@ -4619,11 +4627,11 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="E8" s="4">
-        <f>E7+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>93.239622641509413</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29844552970091603</v>
       </c>
       <c r="G8" s="6"/>
@@ -4649,11 +4657,11 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="E9" s="4">
-        <f>E8+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>93.152830188679218</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29589198506176384</v>
       </c>
       <c r="G9" s="6"/>
@@ -4679,11 +4687,11 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="E10" s="4">
-        <f>E9+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>93.066037735849022</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29525359890197578</v>
       </c>
       <c r="G10" s="6"/>
@@ -4709,11 +4717,11 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="E11" s="4">
-        <f>E10+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.979245283018827</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29812633662102206</v>
       </c>
       <c r="G11" s="6"/>
@@ -4739,11 +4747,11 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="E12" s="4">
-        <f>E11+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.892452830188631</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29589198506176384</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -4771,11 +4779,11 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="E13" s="4">
-        <f>E12+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.805660377358436</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29589198506176384</v>
       </c>
       <c r="G13" s="19" t="s">
@@ -4801,11 +4809,11 @@
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="4">
-        <f>E13+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.71886792452824</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29525359890197578</v>
       </c>
       <c r="G14" s="6"/>
@@ -4816,7 +4824,7 @@
         <v>102</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -4829,22 +4837,22 @@
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="4">
-        <f>E14+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.632075471698045</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29461521274218772</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="J15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K15" s="4"/>
     </row>
@@ -4855,25 +4863,25 @@
       <c r="C16" s="4"/>
       <c r="D16" s="18"/>
       <c r="E16" s="4">
-        <f>E15+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.545283018867849</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -4883,19 +4891,19 @@
       <c r="C17" s="4"/>
       <c r="D17" s="18"/>
       <c r="E17" s="4">
-        <f>E16+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.458490566037653</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="4"/>
@@ -4907,11 +4915,11 @@
       <c r="C18" s="4"/>
       <c r="D18" s="18"/>
       <c r="E18" s="4">
-        <f>E17+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.371698113207458</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="6"/>
@@ -4927,11 +4935,11 @@
       <c r="C19" s="4"/>
       <c r="D19" s="18"/>
       <c r="E19" s="4">
-        <f>E18+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.284905660377262</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="6"/>
@@ -4947,11 +4955,11 @@
       <c r="C20" s="4"/>
       <c r="D20" s="18"/>
       <c r="E20" s="4">
-        <f>E19+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.198113207547067</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="6"/>
@@ -4967,11 +4975,11 @@
       <c r="C21" s="4"/>
       <c r="D21" s="18"/>
       <c r="E21" s="4">
-        <f>E20+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.111320754716871</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="6"/>
@@ -4987,11 +4995,11 @@
       <c r="C22" s="4"/>
       <c r="D22" s="18"/>
       <c r="E22" s="4">
-        <f>E21+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>92.024528301886676</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="6"/>
@@ -5007,11 +5015,11 @@
       <c r="C23" s="4"/>
       <c r="D23" s="18"/>
       <c r="E23" s="4">
-        <f>E22+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>91.93773584905648</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="6"/>
@@ -5027,11 +5035,11 @@
       <c r="C24" s="4"/>
       <c r="D24" s="18"/>
       <c r="E24" s="4">
-        <f>E23+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>91.850943396226285</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
@@ -5047,11 +5055,11 @@
       <c r="C25" s="4"/>
       <c r="D25" s="18"/>
       <c r="E25" s="4">
-        <f>E24+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>91.764150943396089</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="6"/>
@@ -5067,11 +5075,11 @@
       <c r="C26" s="4"/>
       <c r="D26" s="18"/>
       <c r="E26" s="4">
-        <f>E25+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>91.677358490565894</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="6"/>
@@ -5087,11 +5095,11 @@
       <c r="C27" s="4"/>
       <c r="D27" s="18"/>
       <c r="E27" s="4">
-        <f>E26+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>91.590566037735698</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="6"/>
@@ -5107,11 +5115,11 @@
       <c r="C28" s="4"/>
       <c r="D28" s="18"/>
       <c r="E28" s="4">
-        <f>E27+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>91.503773584905503</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="6"/>
@@ -5127,11 +5135,11 @@
       <c r="C29" s="4"/>
       <c r="D29" s="18"/>
       <c r="E29" s="4">
-        <f>E28+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>91.416981132075307</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="6"/>
@@ -5147,11 +5155,11 @@
       <c r="C30" s="4"/>
       <c r="D30" s="18"/>
       <c r="E30" s="4">
-        <f>E29+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>91.330188679245111</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30" s="6"/>
@@ -5167,11 +5175,11 @@
       <c r="C31" s="4"/>
       <c r="D31" s="18"/>
       <c r="E31" s="4">
-        <f>E30+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>91.243396226414916</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" s="6"/>
@@ -5187,11 +5195,11 @@
       <c r="C32" s="4"/>
       <c r="D32" s="18"/>
       <c r="E32" s="4">
-        <f>E31+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>91.15660377358472</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" s="6"/>
@@ -5207,11 +5215,11 @@
       <c r="C33" s="4"/>
       <c r="D33" s="18"/>
       <c r="E33" s="4">
-        <f>E32+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>91.069811320754525</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33" s="6"/>
@@ -5227,11 +5235,11 @@
       <c r="C34" s="4"/>
       <c r="D34" s="18"/>
       <c r="E34" s="4">
-        <f>E33+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>90.983018867924329</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G34" s="6"/>
@@ -5247,11 +5255,11 @@
       <c r="C35" s="4"/>
       <c r="D35" s="18"/>
       <c r="E35" s="4">
-        <f>E34+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>90.896226415094134</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35" s="6"/>
@@ -5267,11 +5275,11 @@
       <c r="C36" s="4"/>
       <c r="D36" s="18"/>
       <c r="E36" s="4">
-        <f>E35+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>90.809433962263938</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G36" s="6"/>
@@ -5287,11 +5295,11 @@
       <c r="C37" s="4"/>
       <c r="D37" s="18"/>
       <c r="E37" s="4">
-        <f>E36+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="0"/>
         <v>90.722641509433743</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G37" s="6"/>
@@ -5307,11 +5315,11 @@
       <c r="C38" s="4"/>
       <c r="D38" s="18"/>
       <c r="E38" s="4">
-        <f>E37+(($O$2-$C$5)/53)</f>
+        <f t="shared" ref="E38:E58" si="2">E37+(($O$2-$C$5)/53)</f>
         <v>90.635849056603547</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G38" s="6"/>
@@ -5327,11 +5335,11 @@
       <c r="C39" s="4"/>
       <c r="D39" s="18"/>
       <c r="E39" s="4">
-        <f>E38+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>90.549056603773352</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39" s="6"/>
@@ -5347,11 +5355,11 @@
       <c r="C40" s="4"/>
       <c r="D40" s="18"/>
       <c r="E40" s="4">
-        <f>E39+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>90.462264150943156</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G40" s="6"/>
@@ -5367,11 +5375,11 @@
       <c r="C41" s="4"/>
       <c r="D41" s="18"/>
       <c r="E41" s="4">
-        <f>E40+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>90.37547169811296</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G41" s="6"/>
@@ -5387,11 +5395,11 @@
       <c r="C42" s="4"/>
       <c r="D42" s="18"/>
       <c r="E42" s="4">
-        <f>E41+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>90.288679245282765</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G42" s="6"/>
@@ -5407,11 +5415,11 @@
       <c r="C43" s="4"/>
       <c r="D43" s="18"/>
       <c r="E43" s="4">
-        <f>E42+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>90.201886792452569</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G43" s="6"/>
@@ -5427,11 +5435,11 @@
       <c r="C44" s="4"/>
       <c r="D44" s="18"/>
       <c r="E44" s="4">
-        <f>E43+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>90.115094339622374</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G44" s="6"/>
@@ -5447,11 +5455,11 @@
       <c r="C45" s="4"/>
       <c r="D45" s="18"/>
       <c r="E45" s="4">
-        <f>E44+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>90.028301886792178</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G45" s="6"/>
@@ -5467,11 +5475,11 @@
       <c r="C46" s="4"/>
       <c r="D46" s="18"/>
       <c r="E46" s="4">
-        <f>E45+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>89.941509433961983</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G46" s="6"/>
@@ -5487,11 +5495,11 @@
       <c r="C47" s="4"/>
       <c r="D47" s="18"/>
       <c r="E47" s="4">
-        <f>E46+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>89.854716981131787</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G47" s="6"/>
@@ -5507,11 +5515,11 @@
       <c r="C48" s="4"/>
       <c r="D48" s="18"/>
       <c r="E48" s="4">
-        <f>E47+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>89.767924528301592</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G48" s="6"/>
@@ -5527,11 +5535,11 @@
       <c r="C49" s="4"/>
       <c r="D49" s="18"/>
       <c r="E49" s="4">
-        <f>E48+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>89.681132075471396</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G49" s="6"/>
@@ -5547,11 +5555,11 @@
       <c r="C50" s="4"/>
       <c r="D50" s="18"/>
       <c r="E50" s="4">
-        <f>E49+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>89.594339622641201</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G50" s="6"/>
@@ -5567,11 +5575,11 @@
       <c r="C51" s="4"/>
       <c r="D51" s="18"/>
       <c r="E51" s="4">
-        <f>E50+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>89.507547169811005</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G51" s="6"/>
@@ -5587,11 +5595,11 @@
       <c r="C52" s="4"/>
       <c r="D52" s="18"/>
       <c r="E52" s="4">
-        <f>E51+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>89.420754716980809</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G52" s="6"/>
@@ -5607,11 +5615,11 @@
       <c r="C53" s="4"/>
       <c r="D53" s="18"/>
       <c r="E53" s="4">
-        <f>E52+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>89.333962264150614</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G53" s="6"/>
@@ -5627,11 +5635,11 @@
       <c r="C54" s="4"/>
       <c r="D54" s="18"/>
       <c r="E54" s="4">
-        <f>E53+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>89.247169811320418</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G54" s="6"/>
@@ -5647,11 +5655,11 @@
       <c r="C55" s="4"/>
       <c r="D55" s="18"/>
       <c r="E55" s="4">
-        <f>E54+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>89.160377358490223</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G55" s="6"/>
@@ -5667,11 +5675,11 @@
       <c r="C56" s="4"/>
       <c r="D56" s="18"/>
       <c r="E56" s="4">
-        <f>E55+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>89.073584905660027</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G56" s="6"/>
@@ -5687,11 +5695,11 @@
       <c r="C57" s="4"/>
       <c r="D57" s="18"/>
       <c r="E57" s="4">
-        <f>E56+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>88.986792452829832</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G57" s="6"/>
@@ -5707,11 +5715,11 @@
       <c r="C58" s="4"/>
       <c r="D58" s="18"/>
       <c r="E58" s="4">
-        <f>E57+(($O$2-$C$5)/53)</f>
+        <f t="shared" si="2"/>
         <v>88.899999999999636</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G58" s="6"/>
@@ -5737,8 +5745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5808,7 +5816,7 @@
         <v>67.5</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E17" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E18" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
@@ -6091,20 +6099,29 @@
         <v>0.159</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4">
+        <v>66.599999999999994</v>
+      </c>
       <c r="D18" s="4">
         <v>66.200000000000102</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.399999999999892</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.16300000000000001</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
     </row>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="148">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1321,6 +1316,41 @@
   </si>
   <si>
     <t>Run:5.0km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>野菜スープ</t>
+    <rPh sb="0" eb="2">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ご飯、味噌汁</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミソシル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豚肉ボイル、キャベツ</t>
+    <rPh sb="0" eb="2">
+      <t>ブタニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おにぎり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポトフ、ご飯</t>
+    <rPh sb="5" eb="6">
+      <t>ハン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1796,6 +1826,12 @@
                 <c:pt idx="10">
                   <c:v>92.3</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2001,8 +2037,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1061785968"/>
-        <c:axId val="1061782704"/>
+        <c:axId val="142582528"/>
+        <c:axId val="142584064"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2453,11 +2489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1061790864"/>
-        <c:axId val="1061784880"/>
+        <c:axId val="142747136"/>
+        <c:axId val="142745600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1061785968"/>
+        <c:axId val="142582528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,14 +2503,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1061782704"/>
+        <c:crossAx val="142584064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1061782704"/>
+        <c:axId val="142584064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2487,13 +2523,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1061785968"/>
+        <c:crossAx val="142582528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1061784880"/>
+        <c:axId val="142745600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2506,13 +2542,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1061790864"/>
+        <c:crossAx val="142747136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000007E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1061790864"/>
+        <c:axId val="142747136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,7 +2558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1061784880"/>
+        <c:crossAx val="142745600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3026,11 +3062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1061787600"/>
-        <c:axId val="1061789232"/>
+        <c:axId val="142764672"/>
+        <c:axId val="142799232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1061787600"/>
+        <c:axId val="142764672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,14 +3076,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1061789232"/>
+        <c:crossAx val="142799232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1061789232"/>
+        <c:axId val="142799232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3060,7 +3096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1061787600"/>
+        <c:crossAx val="142764672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3367,8 +3403,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1182769408"/>
-        <c:axId val="1182764512"/>
+        <c:axId val="194207104"/>
+        <c:axId val="194205568"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3836,11 +3872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1182767776"/>
-        <c:axId val="1182769952"/>
+        <c:axId val="143282176"/>
+        <c:axId val="143268096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1182769408"/>
+        <c:axId val="194207104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3850,14 +3886,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1182764512"/>
+        <c:crossAx val="194205568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1182764512"/>
+        <c:axId val="194205568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -3870,13 +3906,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1182769408"/>
+        <c:crossAx val="194207104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1182769952"/>
+        <c:axId val="143268096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3889,13 +3925,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1182767776"/>
+        <c:crossAx val="143282176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000053E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1182767776"/>
+        <c:axId val="143282176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3905,7 +3941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1182769952"/>
+        <c:crossAx val="143268096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4154,7 +4190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4196,7 +4232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4231,7 +4267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4442,8 +4478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -4888,7 +4924,9 @@
       <c r="B17" s="3">
         <v>42387</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>92.7</v>
+      </c>
       <c r="D17" s="18"/>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
@@ -4896,7 +4934,7 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29589198506176384</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
@@ -4905,14 +4943,18 @@
       <c r="I17" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4">
+        <v>93</v>
+      </c>
       <c r="D18" s="18"/>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
@@ -4920,12 +4962,18 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29684956430144593</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
@@ -4943,8 +4991,12 @@
         <v>0</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="4"/>
     </row>
@@ -5745,7 +5797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="156">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1266,16 +1261,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お吸い物</t>
-    <rPh sb="1" eb="2">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モノ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>お吸い物、シチュｰ</t>
     <rPh sb="1" eb="2">
       <t>ス</t>
@@ -1321,13 +1306,138 @@
   </si>
   <si>
     <t>Run:5.0km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生姜焼き、少なめご飯、大根サラダ、もやしとキャベツのスープ</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガヤ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダイコン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレートースト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コラーゲン鍋、おにぎらず1個</t>
+    <rPh sb="5" eb="6">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>走るのさぼっちゃった</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おにぎり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポトフ、ご飯</t>
+    <rPh sb="5" eb="6">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>野菜スープ</t>
+    <rPh sb="0" eb="2">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ご飯、味噌汁</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミソシル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豚肉ボイル、キャベツ</t>
+    <rPh sb="0" eb="2">
+      <t>ブタニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレーそば、豆苗とワカメのサラダ、ローストポーク</t>
+    <rPh sb="6" eb="8">
+      <t>トウミョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>腕立て・腹筋・背筋・
+スクワット10回×3セット
+ダンベル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>朝・朝食後計測。
+夜に測らないとブレる</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チョウショクゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納豆、ご飯、味噌汁</t>
+    <rPh sb="0" eb="2">
+      <t>ナットウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミソシル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弁当</t>
+    <rPh sb="0" eb="2">
+      <t>ベントウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -1338,7 +1448,7 @@
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1535,24 +1645,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1590,7 +1688,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1796,10 +1894,15 @@
                 <c:pt idx="10">
                   <c:v>92.3</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1989,24 +2092,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1061785968"/>
-        <c:axId val="1061782704"/>
+        <c:axId val="219636096"/>
+        <c:axId val="219637632"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2050,7 +2142,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2250,7 +2342,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2262,7 +2353,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2441,88 +2532,67 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1061790864"/>
-        <c:axId val="1061784880"/>
+        <c:axId val="219649152"/>
+        <c:axId val="219639168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1061785968"/>
+        <c:axId val="219636096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1061782704"/>
+        <c:crossAx val="219637632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1061782704"/>
+        <c:axId val="219637632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1061785968"/>
+        <c:crossAx val="219636096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1061784880"/>
+        <c:axId val="219639168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
           <c:min val="0.2"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1061790864"/>
+        <c:crossAx val="219649152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000007E-3"/>
+        <c:majorUnit val="5.0000000000000088E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1061790864"/>
+        <c:axId val="219649152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1061784880"/>
+        <c:crossAx val="219639168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2535,15 +2605,12 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2551,24 +2618,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2824,7 +2879,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3014,53 +3068,37 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1061787600"/>
-        <c:axId val="1061789232"/>
+        <c:axId val="219703936"/>
+        <c:axId val="219705728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1061787600"/>
+        <c:axId val="219703936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1061789232"/>
+        <c:crossAx val="219705728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1061789232"/>
+        <c:axId val="219705728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1061787600"/>
+        <c:crossAx val="219703936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3072,15 +3110,12 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3088,24 +3123,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3352,27 +3375,22 @@
                 <c:pt idx="12">
                   <c:v>69.5</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1182769408"/>
-        <c:axId val="1182764512"/>
+        <c:axId val="219836800"/>
+        <c:axId val="219838336"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -3625,10 +3643,15 @@
                 <c:pt idx="12">
                   <c:v>0.189</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.188</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3824,88 +3847,67 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1182767776"/>
-        <c:axId val="1182769952"/>
+        <c:axId val="219845760"/>
+        <c:axId val="219839872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1182769408"/>
+        <c:axId val="219836800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1182764512"/>
+        <c:crossAx val="219838336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1182764512"/>
+        <c:axId val="219838336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1182769408"/>
+        <c:crossAx val="219836800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1182769952"/>
+        <c:axId val="219839872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1182767776"/>
+        <c:crossAx val="219845760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000053E-3"/>
+        <c:majorUnit val="5.000000000000007E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1182767776"/>
+        <c:axId val="219845760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1182769952"/>
+        <c:crossAx val="219839872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3917,15 +3919,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4196,7 +4196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4228,10 +4228,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4263,7 +4262,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4439,14 +4437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -4464,7 +4462,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:23" ht="24" customHeight="1">
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
         <v>0</v>
@@ -4475,7 +4473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:23" ht="95.25" customHeight="1">
       <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
@@ -4491,8 +4489,8 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
     </row>
-    <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:23" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:23">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4524,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:23">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -4554,7 +4552,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:23">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -4586,7 +4584,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:23">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -4616,7 +4614,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:23">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -4646,7 +4644,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:23">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -4676,7 +4674,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:23">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -4706,7 +4704,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:23">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -4736,7 +4734,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:23" ht="37.5">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -4768,7 +4766,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="75" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:23" ht="75">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -4800,7 +4798,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:23">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -4828,7 +4826,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:23">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -4852,11 +4850,11 @@
         <v>134</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:23">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -4875,20 +4873,22 @@
         <v>133</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>92.7</v>
+      </c>
       <c r="D17" s="18"/>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
@@ -4896,23 +4896,27 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29589198506176384</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4">
+        <v>93</v>
+      </c>
       <c r="D18" s="18"/>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
@@ -4920,15 +4924,21 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29684956430144593</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -4943,12 +4953,16 @@
         <v>0</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -4968,7 +4982,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -4988,7 +5002,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -5008,7 +5022,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -5028,7 +5042,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -5048,7 +5062,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -5068,7 +5082,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -5088,7 +5102,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -5108,7 +5122,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -5128,7 +5142,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -5148,7 +5162,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -5168,7 +5182,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -5188,7 +5202,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -5208,7 +5222,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -5228,7 +5242,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -5248,7 +5262,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -5268,7 +5282,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -5288,7 +5302,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -5308,7 +5322,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -5328,7 +5342,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -5348,7 +5362,7 @@
       <c r="J39" s="6"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -5368,7 +5382,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -5388,7 +5402,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:11">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -5408,7 +5422,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:11">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -5428,7 +5442,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -5448,7 +5462,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -5468,7 +5482,7 @@
       <c r="J45" s="6"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -5488,7 +5502,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:11">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -5508,7 +5522,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -5528,7 +5542,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -5548,7 +5562,7 @@
       <c r="J49" s="6"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -5568,7 +5582,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -5588,7 +5602,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -5608,7 +5622,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -5628,7 +5642,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -5648,7 +5662,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -5668,7 +5682,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -5688,7 +5702,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -5708,7 +5722,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -5742,14 +5756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -5762,7 +5776,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" ht="24" customHeight="1">
       <c r="K1" s="2"/>
       <c r="L1" s="20" t="s">
         <v>0</v>
@@ -5770,7 +5784,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" ht="95.25" customHeight="1">
       <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
@@ -5781,8 +5795,8 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:14">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5805,7 +5819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="B5" s="17">
         <v>42375</v>
       </c>
@@ -5827,7 +5841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14">
       <c r="B6" s="17">
         <v>42376</v>
       </c>
@@ -5849,7 +5863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14">
       <c r="B7" s="17">
         <v>42377</v>
       </c>
@@ -5869,7 +5883,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14">
       <c r="B8" s="17">
         <v>42378</v>
       </c>
@@ -5891,7 +5905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14">
       <c r="B9" s="17">
         <v>42379</v>
       </c>
@@ -5915,7 +5929,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
@@ -5939,7 +5953,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="B11" s="17">
         <v>42381</v>
       </c>
@@ -5963,7 +5977,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
@@ -5987,7 +6001,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="B13" s="17">
         <v>42383</v>
       </c>
@@ -6011,7 +6025,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="B14" s="17">
         <v>42384</v>
       </c>
@@ -6033,7 +6047,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="B15" s="17">
         <v>42385</v>
       </c>
@@ -6057,7 +6071,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14">
       <c r="B16" s="17">
         <v>42386</v>
       </c>
@@ -6081,7 +6095,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17" s="17">
         <v>42387</v>
       </c>
@@ -6099,13 +6113,13 @@
         <v>0.159</v>
       </c>
       <c r="G17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
@@ -6125,7 +6139,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
@@ -6138,7 +6152,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
@@ -6151,7 +6165,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="B21" s="17">
         <v>42391</v>
       </c>
@@ -6164,7 +6178,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22" s="17">
         <v>42392</v>
       </c>
@@ -6177,7 +6191,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
@@ -6190,7 +6204,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
@@ -6203,7 +6217,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
@@ -6216,7 +6230,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8">
       <c r="B26" s="17">
         <v>42396</v>
       </c>
@@ -6229,7 +6243,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8">
       <c r="B27" s="17">
         <v>42397</v>
       </c>
@@ -6242,7 +6256,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8">
       <c r="B28" s="17">
         <v>42398</v>
       </c>
@@ -6255,7 +6269,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8">
       <c r="B29" s="17">
         <v>42399</v>
       </c>
@@ -6268,7 +6282,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="B30" s="17">
         <v>42400</v>
       </c>
@@ -6281,7 +6295,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="B31" s="17">
         <v>42401</v>
       </c>
@@ -6294,7 +6308,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8">
       <c r="B32" s="17">
         <v>42402</v>
       </c>
@@ -6307,7 +6321,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8">
       <c r="B33" s="17">
         <v>42403</v>
       </c>
@@ -6320,7 +6334,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8">
       <c r="B34" s="17">
         <v>42404</v>
       </c>
@@ -6333,7 +6347,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8">
       <c r="B35" s="17">
         <v>42405</v>
       </c>
@@ -6346,7 +6360,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8">
       <c r="B36" s="17">
         <v>42406</v>
       </c>
@@ -6359,7 +6373,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8">
       <c r="B37" s="17">
         <v>42407</v>
       </c>
@@ -6372,7 +6386,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8">
       <c r="B38" s="17">
         <v>42408</v>
       </c>
@@ -6385,7 +6399,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8">
       <c r="B39" s="17">
         <v>42409</v>
       </c>
@@ -6398,7 +6412,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8">
       <c r="B40" s="17">
         <v>42410</v>
       </c>
@@ -6411,7 +6425,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8">
       <c r="B41" s="17">
         <v>42411</v>
       </c>
@@ -6424,7 +6438,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8">
       <c r="B42" s="17">
         <v>42412</v>
       </c>
@@ -6437,7 +6451,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8">
       <c r="B43" s="17">
         <v>42413</v>
       </c>
@@ -6450,7 +6464,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8">
       <c r="B44" s="17">
         <v>42414</v>
       </c>
@@ -6463,7 +6477,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8">
       <c r="B45" s="17">
         <v>42415</v>
       </c>
@@ -6476,7 +6490,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8">
       <c r="B46" s="17">
         <v>42416</v>
       </c>
@@ -6489,7 +6503,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8">
       <c r="B47" s="17">
         <v>42417</v>
       </c>
@@ -6502,7 +6516,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8">
       <c r="B48" s="17">
         <v>42418</v>
       </c>
@@ -6515,7 +6529,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="B49" s="17">
         <v>42419</v>
       </c>
@@ -6528,7 +6542,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="B50" s="17">
         <v>42420</v>
       </c>
@@ -6541,7 +6555,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="B51" s="17">
         <v>42421</v>
       </c>
@@ -6554,7 +6568,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="B52" s="17">
         <v>42422</v>
       </c>
@@ -6567,7 +6581,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" s="17">
         <v>42423</v>
       </c>
@@ -6580,7 +6594,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8">
       <c r="B54" s="17">
         <v>42424</v>
       </c>
@@ -6593,7 +6607,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8">
       <c r="B55" s="17">
         <v>42425</v>
       </c>
@@ -6606,7 +6620,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8">
       <c r="B56" s="17">
         <v>42426</v>
       </c>
@@ -6619,7 +6633,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8">
       <c r="B57" s="17">
         <v>42427</v>
       </c>
@@ -6632,7 +6646,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8">
       <c r="B58" s="17">
         <v>42428</v>
       </c>
@@ -6659,14 +6673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -6682,7 +6696,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" ht="24" customHeight="1">
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
         <v>1</v>
@@ -6690,7 +6704,7 @@
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
     </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" ht="95.25" customHeight="1">
       <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
@@ -6701,8 +6715,8 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
     </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:17">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -6737,7 +6751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="37.5">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -6771,7 +6785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="56.25">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -6808,7 +6822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="56.25">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -6845,7 +6859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" ht="56.25">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -6882,7 +6896,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -6907,7 +6921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" ht="37.5">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -6942,7 +6956,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" ht="80.25" customHeight="1">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -6979,7 +6993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -7012,7 +7026,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17" ht="75" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" ht="75">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -7041,7 +7055,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" ht="56.25">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -7078,7 +7092,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="75" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" ht="75">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -7107,7 +7121,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" ht="56.25">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -7142,7 +7156,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -7177,7 +7191,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="56.25">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -7185,9 +7199,15 @@
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="11"/>
+      <c r="D18" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.184</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>0.1874464285714286</v>
@@ -7199,10 +7219,14 @@
       <c r="J18" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K18" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="56.25">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -7210,20 +7234,36 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="11"/>
+      <c r="D19" s="4">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.188</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>0.18725000000000003</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H19" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -7239,12 +7279,16 @@
         <v>0.18705357142857146</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -7265,7 +7309,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -7286,7 +7330,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -7307,7 +7351,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -7328,7 +7372,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -7349,7 +7393,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -7370,7 +7414,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -7391,7 +7435,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -7412,7 +7456,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -7433,7 +7477,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -7454,7 +7498,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -7475,7 +7519,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -7496,7 +7540,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -7517,7 +7561,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -7538,7 +7582,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -7559,7 +7603,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -7580,7 +7624,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -7601,7 +7645,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -7622,7 +7666,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -7643,7 +7687,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -7664,7 +7708,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -7685,7 +7729,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -7706,7 +7750,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -7727,7 +7771,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -7748,7 +7792,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -7769,7 +7813,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -7790,7 +7834,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -7811,7 +7855,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -7832,7 +7876,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -7853,7 +7897,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -7874,7 +7918,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -7895,7 +7939,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -7916,7 +7960,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -7937,7 +7981,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -7958,7 +8002,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -7979,7 +8023,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -8000,7 +8044,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -8021,7 +8065,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -8042,7 +8086,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -8063,7 +8107,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -2094,8 +2094,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="219636096"/>
-        <c:axId val="219637632"/>
+        <c:axId val="127408384"/>
+        <c:axId val="127422464"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2534,25 +2534,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="219649152"/>
-        <c:axId val="219639168"/>
+        <c:axId val="127425536"/>
+        <c:axId val="127424000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="219636096"/>
+        <c:axId val="127408384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219637632"/>
+        <c:crossAx val="127422464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="219637632"/>
+        <c:axId val="127422464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2562,13 +2562,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219636096"/>
+        <c:crossAx val="127408384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219639168"/>
+        <c:axId val="127424000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2578,13 +2578,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219649152"/>
+        <c:crossAx val="127425536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000088E-3"/>
+        <c:majorUnit val="5.0000000000000096E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="219649152"/>
+        <c:axId val="127425536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2592,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="219639168"/>
+        <c:crossAx val="127424000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2610,7 +2610,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3070,25 +3070,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="219703936"/>
-        <c:axId val="219705728"/>
+        <c:axId val="128897408"/>
+        <c:axId val="128898944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="219703936"/>
+        <c:axId val="128897408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219705728"/>
+        <c:crossAx val="128898944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="219705728"/>
+        <c:axId val="128898944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3098,7 +3098,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219703936"/>
+        <c:crossAx val="128897408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3115,7 +3115,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3386,8 +3386,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="219836800"/>
-        <c:axId val="219838336"/>
+        <c:axId val="128963328"/>
+        <c:axId val="128964864"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3849,25 +3849,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="219845760"/>
-        <c:axId val="219839872"/>
+        <c:axId val="128984576"/>
+        <c:axId val="128983040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="219836800"/>
+        <c:axId val="128963328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219838336"/>
+        <c:crossAx val="128964864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="219838336"/>
+        <c:axId val="128964864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -3877,13 +3877,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219836800"/>
+        <c:crossAx val="128963328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219839872"/>
+        <c:axId val="128983040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -3893,13 +3893,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219845760"/>
+        <c:crossAx val="128984576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000007E-3"/>
+        <c:majorUnit val="5.0000000000000079E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="219845760"/>
+        <c:axId val="128984576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3907,7 +3907,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="219839872"/>
+        <c:crossAx val="128983040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3925,7 +3925,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4440,8 +4440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -6676,8 +6676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -7263,7 +7263,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" ht="37.5">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>0.18705357142857146</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="16" t="s">
         <v>154</v>
       </c>
       <c r="J20" s="4" t="s">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="159">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1433,11 +1433,23 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>3.5km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.5km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャベツ、ウィンナー、うどん</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -1448,7 +1460,7 @@
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1645,12 +1657,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1688,7 +1712,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -1900,9 +1924,13 @@
                 <c:pt idx="13">
                   <c:v>93</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>92.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2092,13 +2120,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="127408384"/>
-        <c:axId val="127422464"/>
+        <c:smooth val="0"/>
+        <c:axId val="120627968"/>
+        <c:axId val="120629504"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2142,7 +2181,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2342,6 +2381,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2353,7 +2393,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2532,67 +2572,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="127425536"/>
-        <c:axId val="127424000"/>
+        <c:smooth val="0"/>
+        <c:axId val="121120256"/>
+        <c:axId val="121118720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="127408384"/>
+        <c:axId val="120627968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127422464"/>
+        <c:crossAx val="120629504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="127422464"/>
+        <c:axId val="120629504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127408384"/>
+        <c:crossAx val="120627968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127424000"/>
+        <c:axId val="121118720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
           <c:min val="0.2"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127425536"/>
+        <c:crossAx val="121120256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000096E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="127425536"/>
+        <c:axId val="121120256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="127424000"/>
+        <c:crossAx val="121118720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2605,8 +2666,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2618,12 +2682,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2879,6 +2955,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3068,37 +3145,53 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="128897408"/>
-        <c:axId val="128898944"/>
+        <c:smooth val="0"/>
+        <c:axId val="121313920"/>
+        <c:axId val="121315712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128897408"/>
+        <c:axId val="121313920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128898944"/>
+        <c:crossAx val="121315712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128898944"/>
+        <c:axId val="121315712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128897408"/>
+        <c:crossAx val="121313920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3109,9 +3202,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3123,12 +3218,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3384,13 +3491,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="128963328"/>
-        <c:axId val="128964864"/>
+        <c:smooth val="0"/>
+        <c:axId val="121363840"/>
+        <c:axId val="121362304"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -3652,6 +3770,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3847,67 +3966,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="128984576"/>
-        <c:axId val="128983040"/>
+        <c:smooth val="0"/>
+        <c:axId val="121188352"/>
+        <c:axId val="121178368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128963328"/>
+        <c:axId val="121363840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128964864"/>
+        <c:crossAx val="121362304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128964864"/>
+        <c:axId val="121362304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128963328"/>
+        <c:crossAx val="121363840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128983040"/>
+        <c:axId val="121178368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128984576"/>
+        <c:crossAx val="121188352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000079E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="128984576"/>
+        <c:axId val="121188352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="128983040"/>
+        <c:crossAx val="121178368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3920,8 +4060,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4154,7 +4297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4228,6 +4371,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4262,6 +4406,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4437,14 +4582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -4462,7 +4607,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="24" customHeight="1">
+    <row r="1" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
         <v>0</v>
@@ -4473,7 +4618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="95.25" customHeight="1">
+    <row r="2" spans="2:23" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
@@ -4489,8 +4634,8 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
     </row>
-    <row r="3" spans="2:23" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:23">
+    <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4522,7 +4667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -4552,7 +4697,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -4584,7 +4729,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -4614,7 +4759,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -4644,7 +4789,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -4674,7 +4819,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -4704,7 +4849,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -4734,7 +4879,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="37.5">
+    <row r="12" spans="2:23" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -4766,7 +4911,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="75">
+    <row r="13" spans="2:23" ht="75" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -4798,7 +4943,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -4826,7 +4971,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:23">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -4854,7 +4999,7 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -4882,7 +5027,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -4898,7 +5043,9 @@
         <f t="shared" si="1"/>
         <v>0.29589198506176384</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="H17" s="6" t="s">
         <v>41</v>
       </c>
@@ -4910,7 +5057,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -4938,11 +5085,13 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>92.4</v>
+      </c>
       <c r="D19" s="18"/>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
@@ -4950,19 +5099,23 @@
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="6"/>
+        <v>0.29493440582208175</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="H19" s="6" t="s">
         <v>149</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -4982,7 +5135,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -5002,7 +5155,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -5022,7 +5175,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -5042,7 +5195,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -5062,7 +5215,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -5082,7 +5235,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -5102,7 +5255,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -5122,7 +5275,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -5142,7 +5295,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -5162,7 +5315,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -5182,7 +5335,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -5202,7 +5355,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -5222,7 +5375,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -5242,7 +5395,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -5262,7 +5415,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -5282,7 +5435,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -5302,7 +5455,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -5322,7 +5475,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -5342,7 +5495,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -5362,7 +5515,7 @@
       <c r="J39" s="6"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -5382,7 +5535,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -5402,7 +5555,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -5422,7 +5575,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -5442,7 +5595,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -5462,7 +5615,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -5482,7 +5635,7 @@
       <c r="J45" s="6"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -5502,7 +5655,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -5522,7 +5675,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -5542,7 +5695,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -5562,7 +5715,7 @@
       <c r="J49" s="6"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -5582,7 +5735,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -5602,7 +5755,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -5622,7 +5775,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -5642,7 +5795,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -5662,7 +5815,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -5682,7 +5835,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -5702,7 +5855,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -5722,7 +5875,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -5756,14 +5909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -5776,7 +5929,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="24" customHeight="1">
+    <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K1" s="2"/>
       <c r="L1" s="20" t="s">
         <v>0</v>
@@ -5784,7 +5937,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="2:14" ht="95.25" customHeight="1">
+    <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
@@ -5795,8 +5948,8 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="2:14" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:14">
+    <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5819,7 +5972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="17">
         <v>42375</v>
       </c>
@@ -5841,7 +5994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="17">
         <v>42376</v>
       </c>
@@ -5863,7 +6016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="17">
         <v>42377</v>
       </c>
@@ -5883,7 +6036,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="17">
         <v>42378</v>
       </c>
@@ -5905,7 +6058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="17">
         <v>42379</v>
       </c>
@@ -5929,7 +6082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
@@ -5953,7 +6106,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="17">
         <v>42381</v>
       </c>
@@ -5977,7 +6130,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
@@ -6001,7 +6154,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="17">
         <v>42383</v>
       </c>
@@ -6025,7 +6178,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="17">
         <v>42384</v>
       </c>
@@ -6047,7 +6200,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="17">
         <v>42385</v>
       </c>
@@ -6071,7 +6224,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="17">
         <v>42386</v>
       </c>
@@ -6095,7 +6248,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="17">
         <v>42387</v>
       </c>
@@ -6119,7 +6272,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
@@ -6139,7 +6292,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
@@ -6152,7 +6305,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
@@ -6165,7 +6318,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="17">
         <v>42391</v>
       </c>
@@ -6178,7 +6331,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="17">
         <v>42392</v>
       </c>
@@ -6191,7 +6344,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
@@ -6204,7 +6357,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
@@ -6217,7 +6370,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
@@ -6230,7 +6383,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="17">
         <v>42396</v>
       </c>
@@ -6243,7 +6396,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="17">
         <v>42397</v>
       </c>
@@ -6256,7 +6409,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="17">
         <v>42398</v>
       </c>
@@ -6269,7 +6422,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="17">
         <v>42399</v>
       </c>
@@ -6282,7 +6435,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="17">
         <v>42400</v>
       </c>
@@ -6295,7 +6448,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="17">
         <v>42401</v>
       </c>
@@ -6308,7 +6461,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="17">
         <v>42402</v>
       </c>
@@ -6321,7 +6474,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="17">
         <v>42403</v>
       </c>
@@ -6334,7 +6487,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="17">
         <v>42404</v>
       </c>
@@ -6347,7 +6500,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="17">
         <v>42405</v>
       </c>
@@ -6360,7 +6513,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="17">
         <v>42406</v>
       </c>
@@ -6373,7 +6526,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="17">
         <v>42407</v>
       </c>
@@ -6386,7 +6539,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="17">
         <v>42408</v>
       </c>
@@ -6399,7 +6552,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="17">
         <v>42409</v>
       </c>
@@ -6412,7 +6565,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="17">
         <v>42410</v>
       </c>
@@ -6425,7 +6578,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="17">
         <v>42411</v>
       </c>
@@ -6438,7 +6591,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="17">
         <v>42412</v>
       </c>
@@ -6451,7 +6604,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="17">
         <v>42413</v>
       </c>
@@ -6464,7 +6617,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="17">
         <v>42414</v>
       </c>
@@ -6477,7 +6630,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="17">
         <v>42415</v>
       </c>
@@ -6490,7 +6643,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="17">
         <v>42416</v>
       </c>
@@ -6503,7 +6656,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="17">
         <v>42417</v>
       </c>
@@ -6516,7 +6669,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="17">
         <v>42418</v>
       </c>
@@ -6529,7 +6682,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="17">
         <v>42419</v>
       </c>
@@ -6542,7 +6695,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="17">
         <v>42420</v>
       </c>
@@ -6555,7 +6708,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="17">
         <v>42421</v>
       </c>
@@ -6568,7 +6721,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="17">
         <v>42422</v>
       </c>
@@ -6581,7 +6734,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" s="17">
         <v>42423</v>
       </c>
@@ -6594,7 +6747,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B54" s="17">
         <v>42424</v>
       </c>
@@ -6607,7 +6760,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" s="17">
         <v>42425</v>
       </c>
@@ -6620,7 +6773,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" s="17">
         <v>42426</v>
       </c>
@@ -6633,7 +6786,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="17">
         <v>42427</v>
       </c>
@@ -6646,7 +6799,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="17">
         <v>42428</v>
       </c>
@@ -6673,14 +6826,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -6696,7 +6849,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1">
+    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
         <v>1</v>
@@ -6704,7 +6857,7 @@
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
     </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1">
+    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
@@ -6715,8 +6868,8 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
     </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:17">
+    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -6751,7 +6904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5">
+    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -6785,7 +6938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25">
+    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -6822,7 +6975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="56.25">
+    <row r="7" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -6859,7 +7012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="56.25">
+    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -6896,7 +7049,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -6921,7 +7074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="37.5">
+    <row r="10" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -6956,7 +7109,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="80.25" customHeight="1">
+    <row r="11" spans="2:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -6993,7 +7146,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -7026,7 +7179,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17" ht="75">
+    <row r="13" spans="2:17" ht="75" x14ac:dyDescent="0.15">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -7055,7 +7208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="56.25">
+    <row r="14" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -7092,7 +7245,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="75">
+    <row r="15" spans="2:17" ht="75" x14ac:dyDescent="0.15">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -7121,7 +7274,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="56.25">
+    <row r="16" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -7156,7 +7309,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -7191,7 +7344,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="56.25">
+    <row r="18" spans="2:12" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -7226,7 +7379,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="56.25">
+    <row r="19" spans="2:12" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -7263,7 +7416,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="37.5">
+    <row r="20" spans="2:12" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -7288,7 +7441,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -7309,7 +7462,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -7330,7 +7483,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -7351,7 +7504,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -7372,7 +7525,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -7393,7 +7546,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -7414,7 +7567,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -7435,7 +7588,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -7456,7 +7609,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -7477,7 +7630,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -7498,7 +7651,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -7519,7 +7672,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -7540,7 +7693,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -7561,7 +7714,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -7582,7 +7735,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -7603,7 +7756,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -7624,7 +7777,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -7645,7 +7798,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -7666,7 +7819,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -7687,7 +7840,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -7708,7 +7861,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -7729,7 +7882,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -7750,7 +7903,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -7771,7 +7924,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -7792,7 +7945,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -7813,7 +7966,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -7834,7 +7987,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -7855,7 +8008,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -7876,7 +8029,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -7897,7 +8050,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -7918,7 +8071,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -7939,7 +8092,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -7960,7 +8113,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -7981,7 +8134,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -8002,7 +8155,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -8023,7 +8176,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -8044,7 +8197,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -8065,7 +8218,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -8086,7 +8239,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -8107,7 +8260,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -2132,8 +2132,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120627968"/>
-        <c:axId val="120629504"/>
+        <c:axId val="118792960"/>
+        <c:axId val="118794496"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2378,6 +2378,9 @@
                 <c:pt idx="8">
                   <c:v>0.27200000000000002</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2584,11 +2587,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121120256"/>
-        <c:axId val="121118720"/>
+        <c:axId val="119219712"/>
+        <c:axId val="119218176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="120627968"/>
+        <c:axId val="118792960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2598,14 +2601,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120629504"/>
+        <c:crossAx val="118794496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120629504"/>
+        <c:axId val="118794496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2618,13 +2621,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120627968"/>
+        <c:crossAx val="118792960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121118720"/>
+        <c:axId val="119218176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2637,13 +2640,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121120256"/>
+        <c:crossAx val="119219712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000096E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="121120256"/>
+        <c:axId val="119219712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,7 +2656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="121118720"/>
+        <c:crossAx val="119218176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3157,11 +3160,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121313920"/>
-        <c:axId val="121315712"/>
+        <c:axId val="119683712"/>
+        <c:axId val="119685504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="121313920"/>
+        <c:axId val="119683712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,14 +3174,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121315712"/>
+        <c:crossAx val="119685504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121315712"/>
+        <c:axId val="119685504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3191,7 +3194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121313920"/>
+        <c:crossAx val="119683712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3202,6 +3205,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -3503,8 +3507,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121363840"/>
-        <c:axId val="121362304"/>
+        <c:axId val="119729536"/>
+        <c:axId val="119728000"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3978,11 +3982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121188352"/>
-        <c:axId val="121178368"/>
+        <c:axId val="119291904"/>
+        <c:axId val="119281920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="121363840"/>
+        <c:axId val="119729536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,14 +3996,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121362304"/>
+        <c:crossAx val="119728000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121362304"/>
+        <c:axId val="119728000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -4012,13 +4016,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121363840"/>
+        <c:crossAx val="119729536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121178368"/>
+        <c:axId val="119281920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -4031,13 +4035,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121188352"/>
+        <c:crossAx val="119291904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000079E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="121188352"/>
+        <c:axId val="119291904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4047,7 +4051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="121178368"/>
+        <c:crossAx val="119281920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4585,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -5092,7 +5096,9 @@
       <c r="C19" s="4">
         <v>92.4</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="18">
+        <v>0.24</v>
+      </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>92.284905660377262</v>
@@ -6829,7 +6835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="162">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1443,6 +1448,48 @@
   </si>
   <si>
     <t>キャベツ、ウィンナー、うどん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：ハムレタスサンド　夜：呑み会</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：塩ラーメン</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：モツカレーラーメン　夜：おでん（大根と卵）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ダイコン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タマゴ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2132,8 +2179,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118792960"/>
-        <c:axId val="118794496"/>
+        <c:axId val="-807666976"/>
+        <c:axId val="-807664800"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2587,11 +2634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119219712"/>
-        <c:axId val="119218176"/>
+        <c:axId val="-807670784"/>
+        <c:axId val="-807674048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="118792960"/>
+        <c:axId val="-807666976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,14 +2648,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118794496"/>
+        <c:crossAx val="-807664800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118794496"/>
+        <c:axId val="-807664800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2621,13 +2668,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118792960"/>
+        <c:crossAx val="-807666976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119218176"/>
+        <c:axId val="-807674048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2640,13 +2687,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119219712"/>
+        <c:crossAx val="-807670784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000096E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="119219712"/>
+        <c:axId val="-807670784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,7 +2703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="119218176"/>
+        <c:crossAx val="-807674048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2955,6 +3002,12 @@
                 <c:pt idx="13">
                   <c:v>66.599999999999994</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3160,11 +3213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119683712"/>
-        <c:axId val="119685504"/>
+        <c:axId val="-807664256"/>
+        <c:axId val="-807678944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="119683712"/>
+        <c:axId val="-807664256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3174,14 +3227,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119685504"/>
+        <c:crossAx val="-807678944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="119685504"/>
+        <c:axId val="-807678944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3194,7 +3247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119683712"/>
+        <c:crossAx val="-807664256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3507,8 +3560,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119729536"/>
-        <c:axId val="119728000"/>
+        <c:axId val="-807676768"/>
+        <c:axId val="-807675680"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3982,11 +4035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119291904"/>
-        <c:axId val="119281920"/>
+        <c:axId val="-807673504"/>
+        <c:axId val="-807674592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="119729536"/>
+        <c:axId val="-807676768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3996,14 +4049,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119728000"/>
+        <c:crossAx val="-807675680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="119728000"/>
+        <c:axId val="-807675680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -4016,13 +4069,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119729536"/>
+        <c:crossAx val="-807676768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119281920"/>
+        <c:axId val="-807674592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -4035,13 +4088,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119291904"/>
+        <c:crossAx val="-807673504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000079E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="119291904"/>
+        <c:axId val="-807673504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4051,7 +4104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="119281920"/>
+        <c:crossAx val="-807674592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4063,7 +4116,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -4301,7 +4353,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4343,7 +4395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4378,7 +4430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4589,8 +4641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -5918,8 +5970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5989,7 +6041,7 @@
         <v>67.5</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E18" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E20" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
@@ -6295,33 +6347,57 @@
       <c r="F18" s="5">
         <v>0.16300000000000001</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>66.5</v>
+      </c>
       <c r="D19" s="4">
         <v>66.100000000000094</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="4"/>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999990621</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>66.400000000000006</v>
+      </c>
       <c r="D20" s="4">
         <v>66.000000000000099</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999990621</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="164">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1489,6 +1484,23 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>タマゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>茹でサラダ、ご飯</t>
+    <rPh sb="0" eb="1">
+      <t>ユ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>野菜スープ</t>
+    <rPh sb="0" eb="2">
+      <t>ヤサイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2179,8 +2191,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-807666976"/>
-        <c:axId val="-807664800"/>
+        <c:axId val="121952896"/>
+        <c:axId val="89018368"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2634,11 +2646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-807670784"/>
-        <c:axId val="-807674048"/>
+        <c:axId val="89021440"/>
+        <c:axId val="89019904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-807666976"/>
+        <c:axId val="121952896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,14 +2660,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-807664800"/>
+        <c:crossAx val="89018368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-807664800"/>
+        <c:axId val="89018368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2668,13 +2680,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-807666976"/>
+        <c:crossAx val="121952896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-807674048"/>
+        <c:axId val="89019904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2687,13 +2699,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-807670784"/>
+        <c:crossAx val="89021440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000096E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-807670784"/>
+        <c:axId val="89021440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-807674048"/>
+        <c:crossAx val="89019904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3213,11 +3225,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-807664256"/>
-        <c:axId val="-807678944"/>
+        <c:axId val="89051520"/>
+        <c:axId val="89053056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-807664256"/>
+        <c:axId val="89051520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3227,14 +3239,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-807678944"/>
+        <c:crossAx val="89053056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-807678944"/>
+        <c:axId val="89053056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3247,7 +3259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-807664256"/>
+        <c:crossAx val="89051520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3560,8 +3572,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-807676768"/>
-        <c:axId val="-807675680"/>
+        <c:axId val="98652928"/>
+        <c:axId val="98654464"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4035,11 +4047,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-807673504"/>
-        <c:axId val="-807674592"/>
+        <c:axId val="98670080"/>
+        <c:axId val="98668544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-807676768"/>
+        <c:axId val="98652928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4049,14 +4061,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-807675680"/>
+        <c:crossAx val="98654464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-807675680"/>
+        <c:axId val="98654464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -4069,13 +4081,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-807676768"/>
+        <c:crossAx val="98652928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-807674592"/>
+        <c:axId val="98668544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -4088,13 +4100,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-807673504"/>
+        <c:crossAx val="98670080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000079E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-807673504"/>
+        <c:axId val="98670080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4104,7 +4116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-807674592"/>
+        <c:crossAx val="98668544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4353,7 +4365,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4395,7 +4407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4430,7 +4442,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4641,8 +4653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -5188,8 +5200,12 @@
         <v>0</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="4"/>
     </row>
@@ -5970,7 +5986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="165">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1446,32 +1451,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>昼：ハムレタスサンド　夜：呑み会</t>
-    <rPh sb="0" eb="1">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヨル</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>昼：塩ラーメン</t>
-    <rPh sb="0" eb="1">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>昼：モツカレーラーメン　夜：おでん（大根と卵）</t>
     <rPh sb="0" eb="1">
       <t>ヒル</t>
@@ -1501,6 +1480,72 @@
     <t>野菜スープ</t>
     <rPh sb="0" eb="2">
       <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：塩ラーメン　夜：呑み会（おでん）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：ハムレタスサンド　夜：呑み会（焼き鳥）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：和風パスタ　夜：呑み会（焼き鳥）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ワフウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2191,8 +2236,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121952896"/>
-        <c:axId val="89018368"/>
+        <c:axId val="1829278096"/>
+        <c:axId val="1829272656"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2646,11 +2691,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89021440"/>
-        <c:axId val="89019904"/>
+        <c:axId val="1829268848"/>
+        <c:axId val="1829267760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="121952896"/>
+        <c:axId val="1829278096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,14 +2705,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89018368"/>
+        <c:crossAx val="1829272656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89018368"/>
+        <c:axId val="1829272656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2680,13 +2725,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121952896"/>
+        <c:crossAx val="1829278096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89019904"/>
+        <c:axId val="1829267760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2699,13 +2744,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89021440"/>
+        <c:crossAx val="1829268848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000096E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="89021440"/>
+        <c:axId val="1829268848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2715,7 +2760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="89019904"/>
+        <c:crossAx val="1829267760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3020,6 +3065,9 @@
                 <c:pt idx="15">
                   <c:v>66.400000000000006</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3225,11 +3273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89051520"/>
-        <c:axId val="89053056"/>
+        <c:axId val="1829270480"/>
+        <c:axId val="1829273200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89051520"/>
+        <c:axId val="1829270480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3239,14 +3287,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89053056"/>
+        <c:crossAx val="1829273200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89053056"/>
+        <c:axId val="1829273200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3259,7 +3307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89051520"/>
+        <c:crossAx val="1829270480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3572,8 +3620,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98652928"/>
-        <c:axId val="98654464"/>
+        <c:axId val="1829276464"/>
+        <c:axId val="1829264496"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4047,11 +4095,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98670080"/>
-        <c:axId val="98668544"/>
+        <c:axId val="1829265584"/>
+        <c:axId val="1829265040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98652928"/>
+        <c:axId val="1829276464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4061,14 +4109,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98654464"/>
+        <c:crossAx val="1829264496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98654464"/>
+        <c:axId val="1829264496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -4081,13 +4129,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98652928"/>
+        <c:crossAx val="1829276464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98668544"/>
+        <c:axId val="1829265040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -4100,13 +4148,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98670080"/>
+        <c:crossAx val="1829265584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000079E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="98670080"/>
+        <c:axId val="1829265584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,7 +4164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="98668544"/>
+        <c:crossAx val="1829265040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4365,7 +4413,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4407,7 +4455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4442,7 +4490,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4653,7 +4701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -5201,10 +5249,10 @@
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="4"/>
@@ -5986,8 +6034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -6057,7 +6105,7 @@
         <v>67.5</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E20" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E21" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
@@ -6364,7 +6412,7 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>59</v>
@@ -6388,7 +6436,7 @@
         <v>116</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>59</v>
@@ -6412,7 +6460,7 @@
         <v>116</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H20" s="4"/>
     </row>
@@ -6420,14 +6468,25 @@
       <c r="B21" s="17">
         <v>42391</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4">
+        <v>66.2</v>
+      </c>
       <c r="D21" s="4">
         <v>65.900000000000105</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="4"/>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999989768</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="17">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="168">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1546,6 +1541,21 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>トリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストレッチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>やきいも、うどん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>野菜スープ</t>
+    <rPh sb="0" eb="2">
+      <t>ヤサイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2031,6 +2041,9 @@
                 <c:pt idx="14">
                   <c:v>92.4</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2236,8 +2249,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1829278096"/>
-        <c:axId val="1829272656"/>
+        <c:axId val="121222272"/>
+        <c:axId val="121223808"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2691,11 +2704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1829268848"/>
-        <c:axId val="1829267760"/>
+        <c:axId val="121374592"/>
+        <c:axId val="121373056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1829278096"/>
+        <c:axId val="121222272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,14 +2718,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1829272656"/>
+        <c:crossAx val="121223808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1829272656"/>
+        <c:axId val="121223808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2725,13 +2738,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1829278096"/>
+        <c:crossAx val="121222272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1829267760"/>
+        <c:axId val="121373056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2744,13 +2757,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1829268848"/>
+        <c:crossAx val="121374592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000096E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1829268848"/>
+        <c:axId val="121374592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1829267760"/>
+        <c:crossAx val="121373056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3273,11 +3286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1829270480"/>
-        <c:axId val="1829273200"/>
+        <c:axId val="121437184"/>
+        <c:axId val="121455360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1829270480"/>
+        <c:axId val="121437184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3287,14 +3300,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1829273200"/>
+        <c:crossAx val="121455360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1829273200"/>
+        <c:axId val="121455360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3307,7 +3320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1829270480"/>
+        <c:crossAx val="121437184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3620,8 +3633,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1829276464"/>
-        <c:axId val="1829264496"/>
+        <c:axId val="121638272"/>
+        <c:axId val="121644160"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4095,11 +4108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1829265584"/>
-        <c:axId val="1829265040"/>
+        <c:axId val="121659776"/>
+        <c:axId val="121645696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1829276464"/>
+        <c:axId val="121638272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,14 +4122,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1829264496"/>
+        <c:crossAx val="121644160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1829264496"/>
+        <c:axId val="121644160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -4129,13 +4142,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1829276464"/>
+        <c:crossAx val="121638272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1829265040"/>
+        <c:axId val="121645696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -4148,13 +4161,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1829265584"/>
+        <c:crossAx val="121659776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000079E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1829265584"/>
+        <c:axId val="121659776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4164,7 +4177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1829265040"/>
+        <c:crossAx val="121645696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4413,7 +4426,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4455,7 +4468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4490,7 +4503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4701,8 +4714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -5237,7 +5250,9 @@
       <c r="B20" s="3">
         <v>42390</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>92.2</v>
+      </c>
       <c r="D20" s="18"/>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
@@ -5245,16 +5260,20 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>0.29429601966229368</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H20" s="6" t="s">
         <v>160</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
@@ -5272,8 +5291,12 @@
         <v>0</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
     </row>
@@ -6034,7 +6057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1559,11 +1559,78 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>チーズトースト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アフリの塩ラーメン</t>
+    <rPh sb="4" eb="5">
+      <t>シオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おでん、日本酒、ホタルイカの沖漬け</t>
+    <rPh sb="4" eb="7">
+      <t>ニホンシュ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オキヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弁当</t>
+    <rPh sb="0" eb="2">
+      <t>ベントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャベツサラダ、カレイの煮付け、ほうれん草の胡麻和え、少なめご飯、冷奴、味噌汁</t>
+    <rPh sb="12" eb="14">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ゴマア</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒヤヤッコ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ミソシル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハムチーズトースト、ワカメのスープ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>測定忘れた</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -1574,7 +1641,7 @@
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1771,24 +1838,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1826,7 +1881,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2047,7 +2102,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2237,24 +2291,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="121222272"/>
-        <c:axId val="121223808"/>
+        <c:axId val="197827584"/>
+        <c:axId val="200365568"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2298,7 +2342,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2501,7 +2545,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2513,7 +2556,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:formatCode>mm"月"dd"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2692,88 +2735,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="121374592"/>
-        <c:axId val="121373056"/>
+        <c:axId val="117310976"/>
+        <c:axId val="117309440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="121222272"/>
+        <c:axId val="197827584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121223808"/>
+        <c:crossAx val="200365568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121223808"/>
+        <c:axId val="200365568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121222272"/>
+        <c:crossAx val="197827584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121373056"/>
+        <c:axId val="117309440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
           <c:min val="0.2"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121374592"/>
+        <c:crossAx val="117310976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000096E-3"/>
+        <c:majorUnit val="5.0000000000000105E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="121374592"/>
+        <c:axId val="117310976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="121373056"/>
+        <c:crossAx val="117309440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2786,15 +2809,12 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2802,24 +2822,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3084,7 +3092,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3274,53 +3281,38 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="121437184"/>
-        <c:axId val="121455360"/>
+        <c:axId val="117361664"/>
+        <c:axId val="117363456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="121437184"/>
+        <c:axId val="117361664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121455360"/>
+        <c:crossAx val="117363456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121455360"/>
+        <c:axId val="117363456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121437184"/>
+        <c:crossAx val="117361664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3331,16 +3323,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3348,24 +3336,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3618,27 +3594,20 @@
                 <c:pt idx="14">
                   <c:v>69.400000000000006</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="121638272"/>
-        <c:axId val="121644160"/>
+        <c:axId val="122438400"/>
+        <c:axId val="122439936"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -3897,10 +3866,12 @@
                 <c:pt idx="14">
                   <c:v>0.188</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.184</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4096,88 +4067,68 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="121659776"/>
-        <c:axId val="121645696"/>
+        <c:axId val="122459648"/>
+        <c:axId val="122458112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="121638272"/>
+        <c:axId val="122438400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121644160"/>
+        <c:crossAx val="122439936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121644160"/>
+        <c:axId val="122439936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121638272"/>
+        <c:crossAx val="122438400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121645696"/>
+        <c:axId val="122458112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121659776"/>
+        <c:crossAx val="122459648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000079E-3"/>
+        <c:majorUnit val="5.0000000000000088E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="121659776"/>
+        <c:axId val="122459648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="121645696"/>
+        <c:crossAx val="122458112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4189,15 +4140,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4426,7 +4375,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4500,7 +4449,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4535,7 +4483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4711,14 +4658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -4736,7 +4683,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:23" ht="24" customHeight="1">
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
         <v>0</v>
@@ -4747,7 +4694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:23" ht="95.25" customHeight="1">
       <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
@@ -4763,8 +4710,8 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
     </row>
-    <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:23" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:23">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4796,7 +4743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:23">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -4826,7 +4773,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:23">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -4858,7 +4805,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:23">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -4888,7 +4835,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:23">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -4918,7 +4865,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:23">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -4948,7 +4895,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:23">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -4978,7 +4925,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:23">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -5008,7 +4955,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:23" ht="37.5">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -5040,7 +4987,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="75" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:23" ht="75">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -5072,7 +5019,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:23">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -5100,7 +5047,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:23">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -5128,7 +5075,7 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:23">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -5156,7 +5103,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -5186,7 +5133,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -5214,7 +5161,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -5246,7 +5193,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -5276,7 +5223,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -5300,7 +5247,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -5320,7 +5267,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -5340,7 +5287,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -5360,7 +5307,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -5380,7 +5327,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -5400,7 +5347,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -5420,7 +5367,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -5440,7 +5387,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -5460,7 +5407,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -5480,7 +5427,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -5500,7 +5447,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -5520,7 +5467,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -5540,7 +5487,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -5560,7 +5507,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -5580,7 +5527,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -5600,7 +5547,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -5620,7 +5567,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -5640,7 +5587,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -5660,7 +5607,7 @@
       <c r="J39" s="6"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -5680,7 +5627,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -5700,7 +5647,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:11">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -5720,7 +5667,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:11">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -5740,7 +5687,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -5760,7 +5707,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -5780,7 +5727,7 @@
       <c r="J45" s="6"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -5800,7 +5747,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:11">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -5820,7 +5767,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -5840,7 +5787,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -5860,7 +5807,7 @@
       <c r="J49" s="6"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -5880,7 +5827,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -5900,7 +5847,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -5920,7 +5867,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -5940,7 +5887,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -5960,7 +5907,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -5980,7 +5927,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -6000,7 +5947,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -6020,7 +5967,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -6054,14 +6001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N58"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -6074,7 +6021,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" ht="24" customHeight="1">
       <c r="K1" s="2"/>
       <c r="L1" s="20" t="s">
         <v>0</v>
@@ -6082,7 +6029,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" ht="95.25" customHeight="1">
       <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
@@ -6093,8 +6040,8 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:14">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -6117,7 +6064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="B5" s="17">
         <v>42375</v>
       </c>
@@ -6139,7 +6086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14">
       <c r="B6" s="17">
         <v>42376</v>
       </c>
@@ -6161,7 +6108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14">
       <c r="B7" s="17">
         <v>42377</v>
       </c>
@@ -6181,7 +6128,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14">
       <c r="B8" s="17">
         <v>42378</v>
       </c>
@@ -6203,7 +6150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14">
       <c r="B9" s="17">
         <v>42379</v>
       </c>
@@ -6227,7 +6174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
@@ -6251,7 +6198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="B11" s="17">
         <v>42381</v>
       </c>
@@ -6275,7 +6222,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
@@ -6299,7 +6246,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="B13" s="17">
         <v>42383</v>
       </c>
@@ -6323,7 +6270,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="B14" s="17">
         <v>42384</v>
       </c>
@@ -6345,7 +6292,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="B15" s="17">
         <v>42385</v>
       </c>
@@ -6369,7 +6316,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14">
       <c r="B16" s="17">
         <v>42386</v>
       </c>
@@ -6393,7 +6340,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17" s="17">
         <v>42387</v>
       </c>
@@ -6417,7 +6364,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
@@ -6441,7 +6388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
@@ -6465,7 +6412,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
@@ -6487,7 +6434,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="B21" s="17">
         <v>42391</v>
       </c>
@@ -6511,7 +6458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22" s="17">
         <v>42392</v>
       </c>
@@ -6524,7 +6471,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
@@ -6537,7 +6484,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
@@ -6550,7 +6497,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
@@ -6563,7 +6510,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8">
       <c r="B26" s="17">
         <v>42396</v>
       </c>
@@ -6576,7 +6523,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8">
       <c r="B27" s="17">
         <v>42397</v>
       </c>
@@ -6589,7 +6536,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8">
       <c r="B28" s="17">
         <v>42398</v>
       </c>
@@ -6602,7 +6549,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8">
       <c r="B29" s="17">
         <v>42399</v>
       </c>
@@ -6615,7 +6562,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="B30" s="17">
         <v>42400</v>
       </c>
@@ -6628,7 +6575,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="B31" s="17">
         <v>42401</v>
       </c>
@@ -6641,7 +6588,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8">
       <c r="B32" s="17">
         <v>42402</v>
       </c>
@@ -6654,7 +6601,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8">
       <c r="B33" s="17">
         <v>42403</v>
       </c>
@@ -6667,7 +6614,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8">
       <c r="B34" s="17">
         <v>42404</v>
       </c>
@@ -6680,7 +6627,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8">
       <c r="B35" s="17">
         <v>42405</v>
       </c>
@@ -6693,7 +6640,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8">
       <c r="B36" s="17">
         <v>42406</v>
       </c>
@@ -6706,7 +6653,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8">
       <c r="B37" s="17">
         <v>42407</v>
       </c>
@@ -6719,7 +6666,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8">
       <c r="B38" s="17">
         <v>42408</v>
       </c>
@@ -6732,7 +6679,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8">
       <c r="B39" s="17">
         <v>42409</v>
       </c>
@@ -6745,7 +6692,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8">
       <c r="B40" s="17">
         <v>42410</v>
       </c>
@@ -6758,7 +6705,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8">
       <c r="B41" s="17">
         <v>42411</v>
       </c>
@@ -6771,7 +6718,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8">
       <c r="B42" s="17">
         <v>42412</v>
       </c>
@@ -6784,7 +6731,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8">
       <c r="B43" s="17">
         <v>42413</v>
       </c>
@@ -6797,7 +6744,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8">
       <c r="B44" s="17">
         <v>42414</v>
       </c>
@@ -6810,7 +6757,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8">
       <c r="B45" s="17">
         <v>42415</v>
       </c>
@@ -6823,7 +6770,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8">
       <c r="B46" s="17">
         <v>42416</v>
       </c>
@@ -6836,7 +6783,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8">
       <c r="B47" s="17">
         <v>42417</v>
       </c>
@@ -6849,7 +6796,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8">
       <c r="B48" s="17">
         <v>42418</v>
       </c>
@@ -6862,7 +6809,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="B49" s="17">
         <v>42419</v>
       </c>
@@ -6875,7 +6822,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="B50" s="17">
         <v>42420</v>
       </c>
@@ -6888,7 +6835,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="B51" s="17">
         <v>42421</v>
       </c>
@@ -6901,7 +6848,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8">
       <c r="B52" s="17">
         <v>42422</v>
       </c>
@@ -6914,7 +6861,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8">
       <c r="B53" s="17">
         <v>42423</v>
       </c>
@@ -6927,7 +6874,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8">
       <c r="B54" s="17">
         <v>42424</v>
       </c>
@@ -6940,7 +6887,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8">
       <c r="B55" s="17">
         <v>42425</v>
       </c>
@@ -6953,7 +6900,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8">
       <c r="B56" s="17">
         <v>42426</v>
       </c>
@@ -6966,7 +6913,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8">
       <c r="B57" s="17">
         <v>42427</v>
       </c>
@@ -6979,7 +6926,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8">
       <c r="B58" s="17">
         <v>42428</v>
       </c>
@@ -7006,14 +6953,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -7029,7 +6976,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17" ht="24" customHeight="1">
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
         <v>1</v>
@@ -7037,7 +6984,7 @@
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
     </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" ht="95.25" customHeight="1">
       <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
@@ -7048,8 +6995,8 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
     </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
+    <row r="4" spans="2:17">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -7084,7 +7031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="37.5">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -7118,7 +7065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="56.25">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -7155,7 +7102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="56.25">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -7192,7 +7139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" ht="56.25">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -7229,7 +7176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -7254,7 +7201,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" ht="37.5">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -7289,7 +7236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" ht="80.25" customHeight="1">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -7326,7 +7273,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -7359,7 +7306,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17" ht="75" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" ht="75">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -7388,7 +7335,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" ht="56.25">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -7425,7 +7372,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="75" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" ht="75">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -7454,7 +7401,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" ht="56.25">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -7489,7 +7436,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -7524,7 +7471,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="56.25">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -7559,7 +7506,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="56.25">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -7596,7 +7543,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" ht="56.25">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -7604,9 +7551,15 @@
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="4">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.184</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>0.18705357142857146</v>
@@ -7618,10 +7571,12 @@
       <c r="J20" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -7637,12 +7592,20 @@
         <v>0.18685714285714289</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="I21" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="56.25">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -7658,12 +7621,16 @@
         <v>0.18666071428571432</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -7684,7 +7651,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -7705,7 +7672,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -7726,7 +7693,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -7747,7 +7714,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -7768,7 +7735,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -7789,7 +7756,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -7810,7 +7777,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -7831,7 +7798,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -7852,7 +7819,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -7873,7 +7840,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -7894,7 +7861,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -7915,7 +7882,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -7936,7 +7903,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -7957,7 +7924,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -7978,7 +7945,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -7999,7 +7966,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -8020,7 +7987,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -8041,7 +8008,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -8062,7 +8029,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -8083,7 +8050,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -8104,7 +8071,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -8125,7 +8092,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -8146,7 +8113,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -8167,7 +8134,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -8188,7 +8155,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -8209,7 +8176,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -8230,7 +8197,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -8251,7 +8218,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -8272,7 +8239,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -8293,7 +8260,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -8314,7 +8281,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -8335,7 +8302,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -8356,7 +8323,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -8377,7 +8344,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -8398,7 +8365,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -8419,7 +8386,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -8440,7 +8407,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="176">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1626,11 +1631,27 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>昼：野菜スープ　夜：鍋</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤサイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -1641,7 +1662,7 @@
     <numFmt numFmtId="182" formatCode="0.0&quot;cm&quot;"/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1838,12 +1859,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1881,7 +1914,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2102,6 +2135,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2291,14 +2325,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="197827584"/>
-        <c:axId val="200365568"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1276563808"/>
+        <c:axId val="-1276559456"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2342,7 +2386,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2545,6 +2589,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2556,7 +2601,7 @@
             <c:numRef>
               <c:f>HORIZAP!$B$5:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>mm"月"dd"日"</c:formatCode>
+                <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>42375</c:v>
@@ -2735,68 +2780,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="117310976"/>
-        <c:axId val="117309440"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1276550208"/>
+        <c:axId val="-1276548576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="197827584"/>
+        <c:axId val="-1276563808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200365568"/>
+        <c:crossAx val="-1276559456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="200365568"/>
+        <c:axId val="-1276559456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
           <c:min val="78"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197827584"/>
+        <c:crossAx val="-1276563808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117309440"/>
+        <c:axId val="-1276548576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
           <c:min val="0.2"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117310976"/>
+        <c:crossAx val="-1276550208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000105E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="117310976"/>
+        <c:axId val="-1276550208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mm&quot;月&quot;dd&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="117309440"/>
+        <c:crossAx val="-1276548576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2809,8 +2874,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2822,12 +2890,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3089,9 +3169,13 @@
                 <c:pt idx="16">
                   <c:v>66.2</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3281,38 +3365,53 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="117361664"/>
-        <c:axId val="117363456"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1276562176"/>
+        <c:axId val="-1489588688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="117361664"/>
+        <c:axId val="-1276562176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;\(aaa\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117363456"/>
+        <c:crossAx val="-1489588688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="117363456"/>
+        <c:axId val="-1489588688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117361664"/>
+        <c:crossAx val="-1276562176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3323,8 +3422,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3336,12 +3439,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3600,14 +3715,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="122438400"/>
-        <c:axId val="122439936"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1202541984"/>
+        <c:axId val="-1202530560"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -3872,6 +3997,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4067,68 +4193,88 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="122459648"/>
-        <c:axId val="122458112"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1202535456"/>
+        <c:axId val="-1202528384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="122438400"/>
+        <c:axId val="-1202541984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122439936"/>
+        <c:crossAx val="-1202530560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122439936"/>
+        <c:axId val="-1202530560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
           <c:min val="62"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122438400"/>
+        <c:crossAx val="-1202541984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122458112"/>
+        <c:axId val="-1202528384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
           <c:min val="0.12000000000000002"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122459648"/>
+        <c:crossAx val="-1202535456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000088E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="122459648"/>
+        <c:axId val="-1202535456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="122458112"/>
+        <c:crossAx val="-1202528384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4141,8 +4287,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4417,7 +4566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4449,9 +4598,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4483,6 +4633,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4658,14 +4809,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -4683,7 +4834,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="24" customHeight="1">
+    <row r="1" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
         <v>0</v>
@@ -4694,7 +4845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="95.25" customHeight="1">
+    <row r="2" spans="2:23" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
@@ -4710,8 +4861,8 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
     </row>
-    <row r="3" spans="2:23" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:23">
+    <row r="3" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4743,7 +4894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>42375</v>
       </c>
@@ -4773,7 +4924,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>42376</v>
       </c>
@@ -4805,7 +4956,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>42377</v>
       </c>
@@ -4835,7 +4986,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42378</v>
       </c>
@@ -4865,7 +5016,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42379</v>
       </c>
@@ -4895,7 +5046,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>42380</v>
       </c>
@@ -4925,7 +5076,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>42381</v>
       </c>
@@ -4955,7 +5106,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="37.5">
+    <row r="12" spans="2:23" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>42382</v>
       </c>
@@ -4987,7 +5138,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="75">
+    <row r="13" spans="2:23" ht="75" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>42383</v>
       </c>
@@ -5019,7 +5170,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>42384</v>
       </c>
@@ -5047,7 +5198,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:23">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>42385</v>
       </c>
@@ -5075,7 +5226,7 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>42386</v>
       </c>
@@ -5103,7 +5254,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>42387</v>
       </c>
@@ -5133,7 +5284,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>42388</v>
       </c>
@@ -5161,7 +5312,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>42389</v>
       </c>
@@ -5193,7 +5344,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>42390</v>
       </c>
@@ -5223,7 +5374,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>42391</v>
       </c>
@@ -5247,7 +5398,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
@@ -5267,7 +5418,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
@@ -5287,7 +5438,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>42394</v>
       </c>
@@ -5307,7 +5458,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>42395</v>
       </c>
@@ -5327,7 +5478,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>42396</v>
       </c>
@@ -5347,7 +5498,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>42397</v>
       </c>
@@ -5367,7 +5518,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>42398</v>
       </c>
@@ -5387,7 +5538,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>42399</v>
       </c>
@@ -5407,7 +5558,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>42400</v>
       </c>
@@ -5427,7 +5578,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>42401</v>
       </c>
@@ -5447,7 +5598,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>42402</v>
       </c>
@@ -5467,7 +5618,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>42403</v>
       </c>
@@ -5487,7 +5638,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>42404</v>
       </c>
@@ -5507,7 +5658,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>42405</v>
       </c>
@@ -5527,7 +5678,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>42406</v>
       </c>
@@ -5547,7 +5698,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>42407</v>
       </c>
@@ -5567,7 +5718,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>42408</v>
       </c>
@@ -5587,7 +5738,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>42409</v>
       </c>
@@ -5607,7 +5758,7 @@
       <c r="J39" s="6"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>42410</v>
       </c>
@@ -5627,7 +5778,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>42411</v>
       </c>
@@ -5647,7 +5798,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>42412</v>
       </c>
@@ -5667,7 +5818,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>42413</v>
       </c>
@@ -5687,7 +5838,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>42414</v>
       </c>
@@ -5707,7 +5858,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>42415</v>
       </c>
@@ -5727,7 +5878,7 @@
       <c r="J45" s="6"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>42416</v>
       </c>
@@ -5747,7 +5898,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" s="3">
         <v>42417</v>
       </c>
@@ -5767,7 +5918,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <v>42418</v>
       </c>
@@ -5787,7 +5938,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="3">
         <v>42419</v>
       </c>
@@ -5807,7 +5958,7 @@
       <c r="J49" s="6"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="3">
         <v>42420</v>
       </c>
@@ -5827,7 +5978,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="3">
         <v>42421</v>
       </c>
@@ -5847,7 +5998,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="3">
         <v>42422</v>
       </c>
@@ -5867,7 +6018,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="3">
         <v>42423</v>
       </c>
@@ -5887,7 +6038,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="3">
         <v>42424</v>
       </c>
@@ -5907,7 +6058,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>42425</v>
       </c>
@@ -5927,7 +6078,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="3">
         <v>42426</v>
       </c>
@@ -5947,7 +6098,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="3">
         <v>42427</v>
       </c>
@@ -5967,7 +6118,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" s="3">
         <v>42428</v>
       </c>
@@ -6001,14 +6152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -6021,7 +6172,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="24" customHeight="1">
+    <row r="1" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K1" s="2"/>
       <c r="L1" s="20" t="s">
         <v>0</v>
@@ -6029,7 +6180,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="2:14" ht="95.25" customHeight="1">
+    <row r="2" spans="2:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
@@ -6040,8 +6191,8 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="2:14" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:14">
+    <row r="3" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -6064,7 +6215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="17">
         <v>42375</v>
       </c>
@@ -6075,7 +6226,7 @@
         <v>67.5</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E21" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E22" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
@@ -6086,7 +6237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="17">
         <v>42376</v>
       </c>
@@ -6108,7 +6259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="17">
         <v>42377</v>
       </c>
@@ -6128,7 +6279,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="17">
         <v>42378</v>
       </c>
@@ -6150,7 +6301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="17">
         <v>42379</v>
       </c>
@@ -6174,7 +6325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="17">
         <v>42380</v>
       </c>
@@ -6198,7 +6349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="17">
         <v>42381</v>
       </c>
@@ -6222,7 +6373,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="17">
         <v>42382</v>
       </c>
@@ -6246,7 +6397,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="17">
         <v>42383</v>
       </c>
@@ -6270,7 +6421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="17">
         <v>42384</v>
       </c>
@@ -6292,7 +6443,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="17">
         <v>42385</v>
       </c>
@@ -6316,7 +6467,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="17">
         <v>42386</v>
       </c>
@@ -6340,7 +6491,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="17">
         <v>42387</v>
       </c>
@@ -6364,7 +6515,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="17">
         <v>42388</v>
       </c>
@@ -6388,7 +6539,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="17">
         <v>42389</v>
       </c>
@@ -6412,7 +6563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="17">
         <v>42390</v>
       </c>
@@ -6434,7 +6585,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="17">
         <v>42391</v>
       </c>
@@ -6458,20 +6609,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="17">
         <v>42392</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>66.599999999999994</v>
+      </c>
       <c r="D22" s="4">
         <v>65.800000000000097</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.79999999999989768</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
@@ -6484,7 +6644,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
@@ -6497,7 +6657,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
@@ -6510,7 +6670,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="17">
         <v>42396</v>
       </c>
@@ -6523,7 +6683,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="17">
         <v>42397</v>
       </c>
@@ -6536,7 +6696,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="17">
         <v>42398</v>
       </c>
@@ -6549,7 +6709,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="17">
         <v>42399</v>
       </c>
@@ -6562,7 +6722,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="17">
         <v>42400</v>
       </c>
@@ -6575,7 +6735,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="17">
         <v>42401</v>
       </c>
@@ -6588,7 +6748,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="17">
         <v>42402</v>
       </c>
@@ -6601,7 +6761,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="17">
         <v>42403</v>
       </c>
@@ -6614,7 +6774,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="17">
         <v>42404</v>
       </c>
@@ -6627,7 +6787,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="17">
         <v>42405</v>
       </c>
@@ -6640,7 +6800,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="17">
         <v>42406</v>
       </c>
@@ -6653,7 +6813,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="17">
         <v>42407</v>
       </c>
@@ -6666,7 +6826,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="17">
         <v>42408</v>
       </c>
@@ -6679,7 +6839,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="17">
         <v>42409</v>
       </c>
@@ -6692,7 +6852,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="17">
         <v>42410</v>
       </c>
@@ -6705,7 +6865,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="17">
         <v>42411</v>
       </c>
@@ -6718,7 +6878,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="17">
         <v>42412</v>
       </c>
@@ -6731,7 +6891,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="17">
         <v>42413</v>
       </c>
@@ -6744,7 +6904,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="17">
         <v>42414</v>
       </c>
@@ -6757,7 +6917,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="17">
         <v>42415</v>
       </c>
@@ -6770,7 +6930,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="17">
         <v>42416</v>
       </c>
@@ -6783,7 +6943,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="17">
         <v>42417</v>
       </c>
@@ -6796,7 +6956,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="17">
         <v>42418</v>
       </c>
@@ -6809,7 +6969,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="17">
         <v>42419</v>
       </c>
@@ -6822,7 +6982,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="17">
         <v>42420</v>
       </c>
@@ -6835,7 +6995,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="17">
         <v>42421</v>
       </c>
@@ -6848,7 +7008,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="17">
         <v>42422</v>
       </c>
@@ -6861,7 +7021,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" s="17">
         <v>42423</v>
       </c>
@@ -6874,7 +7034,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B54" s="17">
         <v>42424</v>
       </c>
@@ -6887,7 +7047,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" s="17">
         <v>42425</v>
       </c>
@@ -6900,7 +7060,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" s="17">
         <v>42426</v>
       </c>
@@ -6913,7 +7073,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="17">
         <v>42427</v>
       </c>
@@ -6926,7 +7086,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="17">
         <v>42428</v>
       </c>
@@ -6953,14 +7113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A18" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -6976,7 +7136,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24" customHeight="1">
+    <row r="1" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="2"/>
       <c r="O1" s="20" t="s">
         <v>1</v>
@@ -6984,7 +7144,7 @@
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
     </row>
-    <row r="2" spans="2:17" ht="95.25" customHeight="1">
+    <row r="2" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
@@ -6995,8 +7155,8 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
     </row>
-    <row r="3" spans="2:17" ht="8.25" customHeight="1"/>
-    <row r="4" spans="2:17">
+    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -7031,7 +7191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="37.5">
+    <row r="5" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
         <v>42374</v>
       </c>
@@ -7065,7 +7225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="56.25">
+    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B6" s="12">
         <v>42375</v>
       </c>
@@ -7102,7 +7262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="56.25">
+    <row r="7" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B7" s="12">
         <v>42376</v>
       </c>
@@ -7139,7 +7299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="56.25">
+    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B8" s="12">
         <v>42377</v>
       </c>
@@ -7176,7 +7336,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="12">
         <v>42378</v>
       </c>
@@ -7201,7 +7361,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="37.5">
+    <row r="10" spans="2:17" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12">
         <v>42379</v>
       </c>
@@ -7236,7 +7396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="80.25" customHeight="1">
+    <row r="11" spans="2:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="12">
         <v>42380</v>
       </c>
@@ -7273,7 +7433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="12">
         <v>42381</v>
       </c>
@@ -7306,7 +7466,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:17" ht="75">
+    <row r="13" spans="2:17" ht="75" x14ac:dyDescent="0.15">
       <c r="B13" s="12">
         <v>42382</v>
       </c>
@@ -7335,7 +7495,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="56.25">
+    <row r="14" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B14" s="12">
         <v>42383</v>
       </c>
@@ -7372,7 +7532,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="75">
+    <row r="15" spans="2:17" ht="75" x14ac:dyDescent="0.15">
       <c r="B15" s="12">
         <v>42384</v>
       </c>
@@ -7401,7 +7561,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="56.25">
+    <row r="16" spans="2:17" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
         <v>42385</v>
       </c>
@@ -7436,7 +7596,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>42386</v>
       </c>
@@ -7471,7 +7631,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="56.25">
+    <row r="18" spans="2:12" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>42387</v>
       </c>
@@ -7506,7 +7666,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="56.25">
+    <row r="19" spans="2:12" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>42388</v>
       </c>
@@ -7543,7 +7703,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="56.25">
+    <row r="20" spans="2:12" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B20" s="12">
         <v>42389</v>
       </c>
@@ -7576,7 +7736,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="12">
         <v>42390</v>
       </c>
@@ -7605,7 +7765,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="56.25">
+    <row r="22" spans="2:12" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B22" s="12">
         <v>42391</v>
       </c>
@@ -7630,7 +7790,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="12">
         <v>42392</v>
       </c>
@@ -7651,7 +7811,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="12">
         <v>42393</v>
       </c>
@@ -7672,7 +7832,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="12">
         <v>42394</v>
       </c>
@@ -7693,7 +7853,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="12">
         <v>42395</v>
       </c>
@@ -7714,7 +7874,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="12">
         <v>42396</v>
       </c>
@@ -7735,7 +7895,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="12">
         <v>42397</v>
       </c>
@@ -7756,7 +7916,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="12">
         <v>42398</v>
       </c>
@@ -7777,7 +7937,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="12">
         <v>42399</v>
       </c>
@@ -7798,7 +7958,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="12">
         <v>42400</v>
       </c>
@@ -7819,7 +7979,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="12">
         <v>42401</v>
       </c>
@@ -7840,7 +8000,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="12">
         <v>42402</v>
       </c>
@@ -7861,7 +8021,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="12">
         <v>42403</v>
       </c>
@@ -7882,7 +8042,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="12">
         <v>42404</v>
       </c>
@@ -7903,7 +8063,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="12">
         <v>42405</v>
       </c>
@@ -7924,7 +8084,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="12">
         <v>42406</v>
       </c>
@@ -7945,7 +8105,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="12">
         <v>42407</v>
       </c>
@@ -7966,7 +8126,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="12">
         <v>42408</v>
       </c>
@@ -7987,7 +8147,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="12">
         <v>42409</v>
       </c>
@@ -8008,7 +8168,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="12">
         <v>42410</v>
       </c>
@@ -8029,7 +8189,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="12">
         <v>42411</v>
       </c>
@@ -8050,7 +8210,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="12">
         <v>42412</v>
       </c>
@@ -8071,7 +8231,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="12">
         <v>42413</v>
       </c>
@@ -8092,7 +8252,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="12">
         <v>42414</v>
       </c>
@@ -8113,7 +8273,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="12">
         <v>42415</v>
       </c>
@@ -8134,7 +8294,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="12">
         <v>42416</v>
       </c>
@@ -8155,7 +8315,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="12">
         <v>42417</v>
       </c>
@@ -8176,7 +8336,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="12">
         <v>42418</v>
       </c>
@@ -8197,7 +8357,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="12">
         <v>42419</v>
       </c>
@@ -8218,7 +8378,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="12">
         <v>42420</v>
       </c>
@@ -8239,7 +8399,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="12">
         <v>42421</v>
       </c>
@@ -8260,7 +8420,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="12">
         <v>42422</v>
       </c>
@@ -8281,7 +8441,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="12">
         <v>42423</v>
       </c>
@@ -8302,7 +8462,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="12">
         <v>42424</v>
       </c>
@@ -8323,7 +8483,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="12">
         <v>42425</v>
       </c>
@@ -8344,7 +8504,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="12">
         <v>42426</v>
       </c>
@@ -8365,7 +8525,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="12">
         <v>42427</v>
       </c>
@@ -8386,7 +8546,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" s="12">
         <v>42428</v>
       </c>
@@ -8407,7 +8567,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" s="12">
         <v>42429</v>
       </c>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="183">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1644,6 +1639,61 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ナベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼肉</t>
+    <rPh sb="0" eb="2">
+      <t>ヤキニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>野菜スープ</t>
+    <rPh sb="0" eb="2">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スープ残り</t>
+    <rPh sb="3" eb="4">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ご飯、ウィンナー</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャベツ、ご飯</t>
+    <rPh sb="6" eb="7">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ご飯、お吸い物</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モノ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2132,6 +2182,15 @@
                 <c:pt idx="15">
                   <c:v>92.2</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2337,8 +2396,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1276563808"/>
-        <c:axId val="-1276559456"/>
+        <c:axId val="110736128"/>
+        <c:axId val="110737664"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2792,11 +2851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1276550208"/>
-        <c:axId val="-1276548576"/>
+        <c:axId val="114501120"/>
+        <c:axId val="114499584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1276563808"/>
+        <c:axId val="110736128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,14 +2865,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1276559456"/>
+        <c:crossAx val="110737664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1276559456"/>
+        <c:axId val="110737664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2826,13 +2885,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1276563808"/>
+        <c:crossAx val="110736128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1276548576"/>
+        <c:axId val="114499584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2845,13 +2904,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1276550208"/>
+        <c:crossAx val="114501120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000105E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1276550208"/>
+        <c:axId val="114501120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2861,7 +2920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1276548576"/>
+        <c:crossAx val="114499584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3377,11 +3436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1276562176"/>
-        <c:axId val="-1489588688"/>
+        <c:axId val="114567808"/>
+        <c:axId val="114573696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1276562176"/>
+        <c:axId val="114567808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,14 +3450,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1489588688"/>
+        <c:crossAx val="114573696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1489588688"/>
+        <c:axId val="114573696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3411,7 +3470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1276562176"/>
+        <c:crossAx val="114567808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3727,8 +3786,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1202541984"/>
-        <c:axId val="-1202530560"/>
+        <c:axId val="114621440"/>
+        <c:axId val="118428416"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4205,11 +4264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1202535456"/>
-        <c:axId val="-1202528384"/>
+        <c:axId val="118444032"/>
+        <c:axId val="118429952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1202541984"/>
+        <c:axId val="114621440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,14 +4278,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1202530560"/>
+        <c:crossAx val="118428416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1202530560"/>
+        <c:axId val="118428416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -4239,13 +4298,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1202541984"/>
+        <c:crossAx val="114621440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1202528384"/>
+        <c:axId val="118429952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -4258,13 +4317,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1202535456"/>
+        <c:crossAx val="118444032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000088E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1202535456"/>
+        <c:axId val="118444032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4274,7 +4333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1202528384"/>
+        <c:crossAx val="118429952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4286,7 +4345,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -4524,7 +4582,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4566,7 +4624,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4601,7 +4659,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4812,8 +4870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -5378,7 +5436,9 @@
       <c r="B21" s="3">
         <v>42391</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4">
+        <v>92</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
@@ -5386,7 +5446,7 @@
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29365763350250562</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
@@ -5395,14 +5455,18 @@
       <c r="I21" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>42392</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>91.9</v>
+      </c>
       <c r="D22" s="18"/>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
@@ -5410,19 +5474,27 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29333844042261165</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>42393</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4">
+        <v>92.2</v>
+      </c>
       <c r="D23" s="18"/>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
@@ -5430,12 +5502,18 @@
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29429601966229368</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
@@ -5453,7 +5531,9 @@
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
@@ -6155,7 +6235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZAP" sheetId="4" r:id="rId1"/>
     <sheet name="MATSUZAP" sheetId="5" r:id="rId2"/>
     <sheet name="SHIGEZAP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="187">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1627,22 +1632,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>昼：野菜スープ　夜：鍋</t>
-    <rPh sb="0" eb="1">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヤサイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨル</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナベ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>焼肉</t>
     <rPh sb="0" eb="2">
       <t>ヤキニク</t>
@@ -1694,6 +1683,59 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：野菜スープ　夜：豆乳キムチ鍋</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤサイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウニュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walk:6.0km 筋トレ</t>
+    <rPh sb="11" eb="12">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walk:5.0km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：焼肉　夜：野菜スープ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤキニク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>筋トレ</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2396,8 +2438,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110736128"/>
-        <c:axId val="110737664"/>
+        <c:axId val="138377840"/>
+        <c:axId val="138373488"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2851,11 +2893,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114501120"/>
-        <c:axId val="114499584"/>
+        <c:axId val="138378384"/>
+        <c:axId val="138382736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="110736128"/>
+        <c:axId val="138377840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2865,14 +2907,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110737664"/>
+        <c:crossAx val="138373488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="110737664"/>
+        <c:axId val="138373488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2885,13 +2927,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110736128"/>
+        <c:crossAx val="138377840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114499584"/>
+        <c:axId val="138382736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2904,13 +2946,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114501120"/>
+        <c:crossAx val="138378384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000105E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="114501120"/>
+        <c:axId val="138378384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2920,7 +2962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="114499584"/>
+        <c:crossAx val="138382736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3231,6 +3273,12 @@
                 <c:pt idx="17">
                   <c:v>66.599999999999994</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3436,11 +3484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114567808"/>
-        <c:axId val="114573696"/>
+        <c:axId val="2053409376"/>
+        <c:axId val="211226720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114567808"/>
+        <c:axId val="2053409376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3450,14 +3498,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114573696"/>
+        <c:crossAx val="211226720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="114573696"/>
+        <c:axId val="211226720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3470,7 +3518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114567808"/>
+        <c:crossAx val="2053409376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3786,8 +3834,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114621440"/>
-        <c:axId val="118428416"/>
+        <c:axId val="211225632"/>
+        <c:axId val="211223456"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4264,11 +4312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118444032"/>
-        <c:axId val="118429952"/>
+        <c:axId val="211215840"/>
+        <c:axId val="211224544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114621440"/>
+        <c:axId val="211225632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4278,14 +4326,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118428416"/>
+        <c:crossAx val="211223456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118428416"/>
+        <c:axId val="211223456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -4298,13 +4346,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114621440"/>
+        <c:crossAx val="211225632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118429952"/>
+        <c:axId val="211224544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -4317,13 +4365,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118444032"/>
+        <c:crossAx val="211215840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000088E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="118444032"/>
+        <c:axId val="211215840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4333,7 +4381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="118429952"/>
+        <c:crossAx val="211224544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4345,6 +4393,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -4582,7 +4631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4624,7 +4673,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4659,7 +4708,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4870,7 +4919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -5456,7 +5505,7 @@
         <v>167</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K21" s="4"/>
     </row>
@@ -5478,13 +5527,13 @@
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="J22" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K22" s="4"/>
     </row>
@@ -5506,13 +5555,13 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -5532,7 +5581,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -6235,8 +6284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -6306,7 +6355,7 @@
         <v>67.5</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E22" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E24" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
@@ -6663,7 +6712,9 @@
       <c r="G20" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="17">
@@ -6707,33 +6758,53 @@
         <v>116</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="17">
         <v>42393</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4">
+        <v>66.3</v>
+      </c>
       <c r="D23" s="4">
         <v>65.700000000000102</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="4"/>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999989484</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="17">
         <v>42394</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4">
+        <v>66.099999999999994</v>
+      </c>
       <c r="D24" s="4">
         <v>65.600000000000094</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.49999999999990052</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.155</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
     </row>

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="189">
   <si>
     <t>体重</t>
     <rPh sb="0" eb="2">
@@ -1736,6 +1736,29 @@
     <t>筋トレ</t>
     <rPh sb="0" eb="1">
       <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：味噌ラーメン　夜：ミネストローネ＆おにぎり</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミソ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼：　夜：</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨル</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2438,8 +2461,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138377840"/>
-        <c:axId val="138373488"/>
+        <c:axId val="923850064"/>
+        <c:axId val="923844080"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2893,11 +2916,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138378384"/>
-        <c:axId val="138382736"/>
+        <c:axId val="923844624"/>
+        <c:axId val="923840816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="138377840"/>
+        <c:axId val="923850064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,14 +2930,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138373488"/>
+        <c:crossAx val="923844080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="138373488"/>
+        <c:axId val="923844080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -2927,13 +2950,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138377840"/>
+        <c:crossAx val="923850064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138382736"/>
+        <c:axId val="923840816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000032"/>
@@ -2946,13 +2969,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138378384"/>
+        <c:crossAx val="923844624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000105E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="138378384"/>
+        <c:axId val="923844624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2962,7 +2985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="138382736"/>
+        <c:crossAx val="923840816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2974,7 +2997,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -3279,6 +3301,9 @@
                 <c:pt idx="19">
                   <c:v>66.099999999999994</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3484,11 +3509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2053409376"/>
-        <c:axId val="211226720"/>
+        <c:axId val="923851696"/>
+        <c:axId val="923850608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2053409376"/>
+        <c:axId val="923851696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3498,14 +3523,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211226720"/>
+        <c:crossAx val="923850608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="211226720"/>
+        <c:axId val="923850608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3518,7 +3543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053409376"/>
+        <c:crossAx val="923851696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3834,8 +3859,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="211225632"/>
-        <c:axId val="211223456"/>
+        <c:axId val="923843536"/>
+        <c:axId val="923845712"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4312,11 +4337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="211215840"/>
-        <c:axId val="211224544"/>
+        <c:axId val="923852784"/>
+        <c:axId val="923846800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="211225632"/>
+        <c:axId val="923843536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4326,14 +4351,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211223456"/>
+        <c:crossAx val="923845712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="211223456"/>
+        <c:axId val="923845712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -4346,13 +4371,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211225632"/>
+        <c:crossAx val="923843536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211224544"/>
+        <c:axId val="923846800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22"/>
@@ -4365,13 +4390,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211215840"/>
+        <c:crossAx val="923852784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000088E-3"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="211215840"/>
+        <c:axId val="923852784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4381,7 +4406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="211224544"/>
+        <c:crossAx val="923846800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4393,7 +4418,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -6284,8 +6308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -6355,7 +6379,7 @@
         <v>67.5</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E24" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E25" si="0">D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
@@ -6805,21 +6829,34 @@
       <c r="F24" s="5">
         <v>0.155</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="17">
         <v>42395</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4">
+        <v>65.8</v>
+      </c>
       <c r="D25" s="4">
         <v>65.500000000000099</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="4"/>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999989768</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.153</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="17">
@@ -6831,7 +6868,9 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
@@ -6844,7 +6883,9 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">

--- a/HORIZAP.xlsx
+++ b/HORIZAP.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Takaya\30_HORIZAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21555" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="360" yW